--- a/tumlknexpectimax/excel_data/input_data_residential.xlsx
+++ b/tumlknexpectimax/excel_data/input_data_residential.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="465" windowWidth="13680" windowHeight="11430"/>
+    <workbookView xWindow="480" yWindow="525" windowWidth="13680" windowHeight="11370" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="CAPEX" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="FTTB_Hybridpon_FORCE" sheetId="19" r:id="rId17"/>
     <sheet name="MIG_MATRIX" sheetId="11" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -435,7 +435,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000000%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,8 +461,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -475,6 +482,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -485,19 +497,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1"/>
   </cellStyles>
@@ -626,10 +641,10 @@
                   <c:v>69006.714747374324</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41173.810327990701</c:v>
+                  <c:v>79930.990263899323</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41173.810327990701</c:v>
+                  <c:v>79930.990263899323</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>69006.714747374324</c:v>
@@ -641,7 +656,7 @@
                   <c:v>69006.714747374324</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41173.810327990701</c:v>
+                  <c:v>79930.990263899323</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>64408.199866926057</c:v>
@@ -737,10 +752,10 @@
                   <c:v>2.3716993665534263</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2996017839167777</c:v>
+                  <c:v>14.64097725857528</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.00440178391678</c:v>
+                  <c:v>17.318199749993902</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>13.02710904769115</c:v>
@@ -752,7 +767,7 @@
                   <c:v>2.3716993665534263</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.2996017839167777</c:v>
+                  <c:v>14.64097725857528</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>4.8423758397587404</c:v>
@@ -848,10 +863,10 @@
                   <c:v>1555.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6230.4</c:v>
+                  <c:v>5754.86</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15801.480000000001</c:v>
+                  <c:v>19410.46</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>8778.6</c:v>
@@ -863,7 +878,7 @@
                   <c:v>3511.44</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5852.4000000000005</c:v>
+                  <c:v>5852.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1317.6000000000001</c:v>
@@ -959,10 +974,10 @@
                   <c:v>11785.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10655.22</c:v>
+                  <c:v>10534.320000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>73155.000000000015</c:v>
+                  <c:v>32480.819999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>69643.56</c:v>
@@ -1005,11 +1020,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="180068864"/>
-        <c:axId val="182946624"/>
+        <c:axId val="52154880"/>
+        <c:axId val="168085184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="180068864"/>
+        <c:axId val="52154880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1037,7 +1052,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182946624"/>
+        <c:crossAx val="168085184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1045,7 +1060,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182946624"/>
+        <c:axId val="168085184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1075,7 +1090,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180068864"/>
+        <c:crossAx val="52154880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1218,10 +1233,10 @@
                   <c:v>2024.1408644674091</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2100.343099297746</c:v>
+                  <c:v>2428.374312411579</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9307.5461472977477</c:v>
+                  <c:v>5988.6110846364936</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8532.4134185642197</c:v>
@@ -1233,7 +1248,7 @@
                   <c:v>2026.3888644674091</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2050.4530992977466</c:v>
+                  <c:v>2438.1283124115794</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1315.1304224276582</c:v>
@@ -1263,11 +1278,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="180069376"/>
-        <c:axId val="182948928"/>
+        <c:axId val="163620864"/>
+        <c:axId val="168087488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="180069376"/>
+        <c:axId val="163620864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1276,7 +1291,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182948928"/>
+        <c:crossAx val="168087488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1284,7 +1299,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182948928"/>
+        <c:axId val="168087488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1314,7 +1329,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180069376"/>
+        <c:crossAx val="163620864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1841,11 +1856,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="180071936"/>
-        <c:axId val="182950656"/>
+        <c:axId val="167505920"/>
+        <c:axId val="168089216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="180071936"/>
+        <c:axId val="167505920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1855,7 +1870,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182950656"/>
+        <c:crossAx val="168089216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1863,7 +1878,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182950656"/>
+        <c:axId val="168089216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1874,7 +1889,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180071936"/>
+        <c:crossAx val="167505920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2290,8 +2305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2547,72 +2562,75 @@
         <v>82349.586446740883</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="6">
         <v>29262</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>80</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="6">
         <v>1.18</v>
       </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>8</v>
-      </c>
-      <c r="J5">
+      <c r="H5" s="6">
+        <v>2.16</v>
+      </c>
+      <c r="I5" s="6">
+        <v>61</v>
+      </c>
+      <c r="J5" s="6">
         <v>4877</v>
       </c>
-      <c r="K5">
-        <v>6794.1459312177803</v>
-      </c>
-      <c r="L5">
+      <c r="K5" s="6">
+        <v>24307.908063783601</v>
+      </c>
+      <c r="L5" s="6">
         <v>0</v>
       </c>
-      <c r="M5">
-        <v>45978.584774009301</v>
-      </c>
-      <c r="N5">
-        <v>8072.8119616618897</v>
-      </c>
-      <c r="O5">
+      <c r="M5" s="6">
+        <v>72200.182510221493</v>
+      </c>
+      <c r="N5" s="6">
+        <v>73762.710265517904</v>
+      </c>
+      <c r="O5" s="6">
         <v>0</v>
       </c>
-      <c r="P5">
-        <v>206907.27723417699</v>
-      </c>
-      <c r="Q5">
-        <v>41173.810327990701</v>
-      </c>
-      <c r="R5">
-        <v>4.2996017839167777</v>
-      </c>
-      <c r="S5">
-        <v>6230.4</v>
-      </c>
-      <c r="T5">
-        <f>1584+9071.22</f>
-        <v>10655.22</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="0"/>
-        <v>16885.62</v>
-      </c>
-      <c r="V5">
+      <c r="P5" s="6">
+        <v>658286.15266324603</v>
+      </c>
+      <c r="Q5" s="6">
+        <f>(K5*$Q$46)+(L5*$R$46)+(M5*$U$46)</f>
+        <v>79930.990263899323</v>
+      </c>
+      <c r="R5" s="6">
+        <f>(N5+O5+P5)*$O$27</f>
+        <v>14.64097725857528</v>
+      </c>
+      <c r="S5" s="6">
+        <f>G5*J5</f>
+        <v>5754.86</v>
+      </c>
+      <c r="T5" s="6">
+        <f>H5*J5</f>
+        <v>10534.320000000002</v>
+      </c>
+      <c r="U5" s="6">
+        <f>SUM(S5,T5)</f>
+        <v>16289.18</v>
+      </c>
+      <c r="V5" s="6">
         <f>Q5+R5+S5+T5</f>
-        <v>58063.729929774621</v>
+        <v>96234.811241157906</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -2635,58 +2653,62 @@
         <v>9</v>
       </c>
       <c r="G6">
-        <v>0.54</v>
+        <f>1.99/3</f>
+        <v>0.66333333333333333</v>
       </c>
       <c r="H6">
-        <v>0.3</v>
+        <f>0.26/3</f>
+        <v>8.666666666666667E-2</v>
       </c>
       <c r="I6">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="J6">
         <v>4877</v>
       </c>
-      <c r="K6">
-        <v>6794.1459312177803</v>
+      <c r="K6" s="6">
+        <v>24307.908063783601</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6">
-        <v>45978.584774009301</v>
-      </c>
-      <c r="N6">
-        <v>8072.8119616618897</v>
+      <c r="M6" s="6">
+        <f>72200.1825102215</f>
+        <v>72200.182510221493</v>
+      </c>
+      <c r="N6" s="6">
+        <v>73762.710265517904</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <f>206907.277234177+585240</f>
+        <f>206907.277234177+20*B6</f>
         <v>792147.27723417699</v>
       </c>
-      <c r="Q6">
-        <v>41173.810327990701</v>
-      </c>
-      <c r="R6">
-        <f>(N6+P6)*O27</f>
-        <v>16.00440178391678</v>
-      </c>
-      <c r="S6">
+      <c r="Q6" s="6">
+        <f>(K6*$Q$46)+(L6*$R$46)+(M6*$U$46)</f>
+        <v>79930.990263899323</v>
+      </c>
+      <c r="R6" s="6">
+        <f>(N6+O6+P6)*$O$27</f>
+        <v>17.318199749993902</v>
+      </c>
+      <c r="S6" s="6">
         <f>G6*B6</f>
-        <v>15801.480000000001</v>
+        <v>19410.46</v>
       </c>
       <c r="T6">
-        <f>H6*B6+B6*2.2</f>
-        <v>73155.000000000015</v>
+        <f>H6*B6+B6*(3.07/3)</f>
+        <v>32480.819999999996</v>
       </c>
       <c r="U6">
-        <f t="shared" si="0"/>
-        <v>88956.48000000001</v>
+        <f>SUM(S6,T6)</f>
+        <v>51891.28</v>
       </c>
       <c r="V6">
         <f>Q6+R6+S6+T6</f>
-        <v>130146.29472977464</v>
+        <v>131839.58846364933</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -2834,7 +2856,7 @@
         <v>7699.14</v>
       </c>
       <c r="V8">
-        <f>SUM(Q8:T8)</f>
+        <f t="shared" ref="V8:V15" si="1">SUM(Q8:T8)</f>
         <v>48924.706503109905</v>
       </c>
     </row>
@@ -2907,7 +2929,7 @@
         <v>13362.980000000001</v>
       </c>
       <c r="V9">
-        <f>SUM(Q9:T9)</f>
+        <f t="shared" si="1"/>
         <v>82372.066446740879</v>
       </c>
     </row>
@@ -2931,44 +2953,48 @@
         <v>1.2</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <f>0.3+1.86</f>
+        <v>2.16</v>
       </c>
       <c r="I10">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="J10">
         <v>4877</v>
       </c>
-      <c r="K10">
-        <v>6794.1459312177803</v>
+      <c r="K10" s="6">
+        <v>24307.908063783601</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="M10">
-        <v>45978.584774009301</v>
-      </c>
-      <c r="N10">
-        <v>8072.8119616618897</v>
-      </c>
-      <c r="O10">
+      <c r="M10" s="6">
+        <f>72200.1825102215</f>
+        <v>72200.182510221493</v>
+      </c>
+      <c r="N10" s="6">
+        <v>73762.710265517904</v>
+      </c>
+      <c r="O10" s="6">
         <v>0</v>
       </c>
-      <c r="P10">
-        <v>206907.27723417699</v>
-      </c>
-      <c r="Q10">
-        <v>41173.810327990701</v>
-      </c>
-      <c r="R10">
-        <v>4.2996017839167777</v>
-      </c>
-      <c r="S10">
-        <f>G10*29262/6</f>
-        <v>5852.4000000000005</v>
+      <c r="P10" s="6">
+        <v>658286.15266324603</v>
+      </c>
+      <c r="Q10" s="6">
+        <f>(K10*$Q$46)+(L10*$R$46)+(M10*$U$46)</f>
+        <v>79930.990263899323</v>
+      </c>
+      <c r="R10" s="6">
+        <f>(N10+O10+P10)*$O$27</f>
+        <v>14.64097725857528</v>
+      </c>
+      <c r="S10" s="6">
+        <f>G10*J10</f>
+        <v>5852.4</v>
       </c>
       <c r="T10">
-        <f>0.3*J10+1.86*J10</f>
+        <f>H10*J10</f>
         <v>10534.320000000002</v>
       </c>
       <c r="U10">
@@ -2976,8 +3002,8 @@
         <v>16386.72</v>
       </c>
       <c r="V10">
-        <f>SUM(Q10:T10)</f>
-        <v>57564.82992977462</v>
+        <f t="shared" si="1"/>
+        <v>96332.351241157899</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -3050,7 +3076,7 @@
         <v>6710.0000000000009</v>
       </c>
       <c r="V11">
-        <f>SUM(Q11:T11)</f>
+        <f t="shared" si="1"/>
         <v>71123.04224276582</v>
       </c>
     </row>
@@ -3124,7 +3150,7 @@
         <v>13265.44</v>
       </c>
       <c r="V12">
-        <f>SUM(Q12:T12)</f>
+        <f t="shared" si="1"/>
         <v>128808.12073992686</v>
       </c>
     </row>
@@ -3199,7 +3225,7 @@
         <v>88371.24</v>
       </c>
       <c r="V13">
-        <f>SUM(Q13:T13)</f>
+        <f t="shared" si="1"/>
         <v>203925.62553992687</v>
       </c>
     </row>
@@ -3273,7 +3299,7 @@
         <v>14737.600000000002</v>
       </c>
       <c r="V14">
-        <f>SUM(Q14:T14)</f>
+        <f t="shared" si="1"/>
         <v>79150.642242765811</v>
       </c>
     </row>
@@ -3348,7 +3374,7 @@
         <v>14728.540000000003</v>
       </c>
       <c r="V15">
-        <f>SUM(Q15:T15)</f>
+        <f t="shared" si="1"/>
         <v>130271.22073992687</v>
       </c>
     </row>
@@ -6327,7 +6353,7 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6423,46 +6449,46 @@
         <v>1032</v>
       </c>
       <c r="H2">
-        <v>2050.4530992977466</v>
+        <v>2438.1283124115794</v>
       </c>
       <c r="I2">
-        <v>-898.45309929774658</v>
+        <v>-1286.1283124115794</v>
       </c>
       <c r="J2">
-        <v>-898.45309929774658</v>
+        <v>-1286.1283124115794</v>
       </c>
       <c r="K2">
-        <v>-898.45309929774658</v>
+        <v>-1286.1283124115794</v>
       </c>
       <c r="L2">
-        <v>-1018.4530992977466</v>
+        <v>-1406.1283124115794</v>
       </c>
       <c r="M2">
-        <v>-1018.4530992977466</v>
+        <v>-1406.1283124115794</v>
       </c>
       <c r="N2">
-        <v>-1018.4530992977466</v>
+        <v>-1406.1283124115794</v>
       </c>
       <c r="O2">
         <v>1</v>
       </c>
       <c r="P2">
-        <v>-898.45309929774658</v>
+        <v>-1286.1283124115794</v>
       </c>
       <c r="Q2">
-        <v>-898.45309929774658</v>
+        <v>-1286.1283124115794</v>
       </c>
       <c r="R2">
-        <v>-898.45309929774658</v>
+        <v>-1286.1283124115794</v>
       </c>
       <c r="S2">
-        <v>-1018.4530992977466</v>
+        <v>-1406.1283124115794</v>
       </c>
       <c r="T2">
-        <v>-1018.4530992977466</v>
+        <v>-1406.1283124115794</v>
       </c>
       <c r="U2">
-        <v>-1018.4530992977466</v>
+        <v>-1406.1283124115794</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -6488,46 +6514,46 @@
         <v>1932</v>
       </c>
       <c r="H3">
-        <v>2050.4530992977466</v>
+        <v>2438.1283124115794</v>
       </c>
       <c r="I3">
-        <v>-514.45309929774658</v>
+        <v>-902.12831241157937</v>
       </c>
       <c r="J3">
-        <v>-466.45309929774658</v>
+        <v>-854.12831241157937</v>
       </c>
       <c r="K3">
-        <v>97.546900702253424</v>
+        <v>-290.12831241157937</v>
       </c>
       <c r="L3">
-        <v>-670.45309929774658</v>
+        <v>-1058.1283124115794</v>
       </c>
       <c r="M3">
-        <v>-634.45309929774658</v>
+        <v>-1022.1283124115794</v>
       </c>
       <c r="N3">
-        <v>-118.45309929774658</v>
+        <v>-506.12831241157937</v>
       </c>
       <c r="O3">
         <v>0.90909090909090906</v>
       </c>
       <c r="P3">
-        <v>-467.68463572522415</v>
+        <v>-820.11664764689033</v>
       </c>
       <c r="Q3">
-        <v>-424.04827208886053</v>
+        <v>-776.4802840105267</v>
       </c>
       <c r="R3">
-        <v>88.679000638412205</v>
+        <v>-263.75301128325395</v>
       </c>
       <c r="S3">
-        <v>-609.50281754340597</v>
+        <v>-961.93482946507208</v>
       </c>
       <c r="T3">
-        <v>-576.77554481613322</v>
+        <v>-929.20755673779945</v>
       </c>
       <c r="U3">
-        <v>-107.68463572522415</v>
+        <v>-460.11664764689033</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -6553,46 +6579,46 @@
         <v>3684</v>
       </c>
       <c r="H4">
-        <v>2050.4530992977466</v>
+        <v>2438.1283124115794</v>
       </c>
       <c r="I4">
-        <v>13.546900702253424</v>
+        <v>-374.12831241157937</v>
       </c>
       <c r="J4">
-        <v>145.54690070225342</v>
+        <v>-242.12831241157937</v>
       </c>
       <c r="K4">
-        <v>2053.5469007022534</v>
+        <v>1665.8716875884206</v>
       </c>
       <c r="L4">
-        <v>-202.45309929774658</v>
+        <v>-590.12831241157937</v>
       </c>
       <c r="M4">
-        <v>-82.453099297746576</v>
+        <v>-470.12831241157937</v>
       </c>
       <c r="N4">
-        <v>1633.5469007022534</v>
+        <v>1245.8716875884206</v>
       </c>
       <c r="O4">
         <v>0.82644628099173545</v>
       </c>
       <c r="P4">
-        <v>11.195785704341672</v>
+        <v>-309.1969524062639</v>
       </c>
       <c r="Q4">
-        <v>120.28669479525075</v>
+        <v>-200.10604331535484</v>
       </c>
       <c r="R4">
-        <v>1697.1461989274819</v>
+        <v>1376.7534608168764</v>
       </c>
       <c r="S4">
-        <v>-167.3166109898732</v>
+        <v>-487.70934910047879</v>
       </c>
       <c r="T4">
-        <v>-68.143057270864929</v>
+        <v>-388.53579538147051</v>
       </c>
       <c r="U4">
-        <v>1350.038760910953</v>
+        <v>1029.6460228003475</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -6618,46 +6644,46 @@
         <v>7128</v>
       </c>
       <c r="H5">
-        <v>2050.4530992977466</v>
+        <v>2438.1283124115794</v>
       </c>
       <c r="I5">
-        <v>745.54690070225342</v>
+        <v>357.87168758842063</v>
       </c>
       <c r="J5">
-        <v>1033.5469007022534</v>
+        <v>645.87168758842063</v>
       </c>
       <c r="K5">
-        <v>5881.546900702253</v>
+        <v>5493.8716875884202</v>
       </c>
       <c r="L5">
-        <v>457.54690070225342</v>
+        <v>69.871687588420627</v>
       </c>
       <c r="M5">
-        <v>721.54690070225342</v>
+        <v>333.87168758842063</v>
       </c>
       <c r="N5">
-        <v>5077.546900702253</v>
+        <v>4689.8716875884202</v>
       </c>
       <c r="O5">
         <v>0.75131480090157754</v>
       </c>
       <c r="P5">
-        <v>560.14042126390177</v>
+        <v>268.87429570880579</v>
       </c>
       <c r="Q5">
-        <v>776.51908392355608</v>
+        <v>485.25295836846016</v>
       </c>
       <c r="R5">
-        <v>4418.8932386944034</v>
+        <v>4127.6271131393078</v>
       </c>
       <c r="S5">
-        <v>343.7617586042474</v>
+        <v>52.495633049151472</v>
       </c>
       <c r="T5">
-        <v>542.10886604226391</v>
+        <v>250.84274048716793</v>
       </c>
       <c r="U5">
-        <v>3814.8361387695354</v>
+        <v>3523.5700132144393</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -6683,46 +6709,46 @@
         <v>13860</v>
       </c>
       <c r="H6">
-        <v>2050.4530992977466</v>
+        <v>2438.1283124115794</v>
       </c>
       <c r="I6">
-        <v>1765.5469007022534</v>
+        <v>1377.8716875884206</v>
       </c>
       <c r="J6">
-        <v>2305.5469007022534</v>
+        <v>1917.8716875884206</v>
       </c>
       <c r="K6">
-        <v>13357.546900702253</v>
+        <v>12969.87168758842</v>
       </c>
       <c r="L6">
-        <v>1381.5469007022534</v>
+        <v>993.87168758842063</v>
       </c>
       <c r="M6">
-        <v>1861.5469007022534</v>
+        <v>1473.8716875884206</v>
       </c>
       <c r="N6">
-        <v>11809.546900702253</v>
+        <v>11421.87168758842</v>
       </c>
       <c r="O6">
         <v>0.68301345536507052</v>
       </c>
       <c r="P6">
-        <v>1205.8922892577373</v>
+        <v>941.10490238946818</v>
       </c>
       <c r="Q6">
-        <v>1574.7195551548753</v>
+        <v>1309.9321682866062</v>
       </c>
       <c r="R6">
-        <v>9123.3842638496335</v>
+        <v>8858.5968769813644</v>
       </c>
       <c r="S6">
-        <v>943.61512239755007</v>
+        <v>678.82773552928109</v>
       </c>
       <c r="T6">
-        <v>1271.4615809727838</v>
+        <v>1006.6741941045149</v>
       </c>
       <c r="U6">
-        <v>8066.079434944505</v>
+        <v>7801.2920480762359</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -6748,46 +6774,46 @@
         <v>26700</v>
       </c>
       <c r="H7">
-        <v>2050.4530992977466</v>
+        <v>2438.1283124115794</v>
       </c>
       <c r="I7">
-        <v>3169.5469007022534</v>
+        <v>2781.8716875884206</v>
       </c>
       <c r="J7">
-        <v>4117.546900702253</v>
+        <v>3729.8716875884206</v>
       </c>
       <c r="K7">
-        <v>27625.546900702255</v>
+        <v>27237.87168758842</v>
       </c>
       <c r="L7">
-        <v>2641.5469007022534</v>
+        <v>2253.8716875884206</v>
       </c>
       <c r="M7">
-        <v>3493.5469007022534</v>
+        <v>3105.8716875884206</v>
       </c>
       <c r="N7">
-        <v>24649.546900702255</v>
+        <v>24261.87168758842</v>
       </c>
       <c r="O7">
         <v>0.62092132305915493</v>
       </c>
       <c r="P7">
-        <v>1968.039255082087</v>
+        <v>1727.3234488382063</v>
       </c>
       <c r="Q7">
-        <v>2556.6726693421656</v>
+        <v>2315.9568630982849</v>
       </c>
       <c r="R7">
-        <v>17153.291131816783</v>
+        <v>16912.5753255729</v>
       </c>
       <c r="S7">
-        <v>1640.1927965068533</v>
+        <v>1399.4769902629723</v>
       </c>
       <c r="T7">
-        <v>2169.2177637532532</v>
+        <v>1928.5019575093725</v>
       </c>
       <c r="U7">
-        <v>15305.429274392736</v>
+        <v>15064.713468148853</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -6813,46 +6839,46 @@
         <v>50328</v>
       </c>
       <c r="H8">
-        <v>2050.4530992977466</v>
+        <v>2438.1283124115794</v>
       </c>
       <c r="I8">
-        <v>5077.546900702253</v>
+        <v>4689.8716875884202</v>
       </c>
       <c r="J8">
-        <v>6673.546900702253</v>
+        <v>6285.8716875884202</v>
       </c>
       <c r="K8">
-        <v>53869.546900702255</v>
+        <v>53481.87168758842</v>
       </c>
       <c r="L8">
-        <v>4357.546900702253</v>
+        <v>3969.8716875884206</v>
       </c>
       <c r="M8">
-        <v>5797.546900702253</v>
+        <v>5409.8716875884202</v>
       </c>
       <c r="N8">
-        <v>48277.546900702255</v>
+        <v>47889.87168758842</v>
       </c>
       <c r="O8">
         <v>0.56447393005377722</v>
       </c>
       <c r="P8">
-        <v>2866.142854071777</v>
+        <v>2647.3103029409758</v>
       </c>
       <c r="Q8">
-        <v>3767.0432464376054</v>
+        <v>3548.2106953068046</v>
       </c>
       <c r="R8">
-        <v>30407.954849255675</v>
+        <v>30189.122298124876</v>
       </c>
       <c r="S8">
-        <v>2459.7216244330571</v>
+        <v>2240.8890733022567</v>
       </c>
       <c r="T8">
-        <v>3272.5640837104966</v>
+        <v>3053.7315325796958</v>
       </c>
       <c r="U8">
-        <v>27251.416632394954</v>
+        <v>27032.584081264151</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -6878,46 +6904,46 @@
         <v>90420</v>
       </c>
       <c r="H9">
-        <v>2050.4530992977466</v>
+        <v>2438.1283124115794</v>
       </c>
       <c r="I9">
-        <v>7705.546900702253</v>
+        <v>7317.8716875884202</v>
       </c>
       <c r="J9">
-        <v>10273.546900702253</v>
+        <v>9885.8716875884202</v>
       </c>
       <c r="K9">
-        <v>98425.546900702248</v>
+        <v>98037.871687588427</v>
       </c>
       <c r="L9">
-        <v>6721.546900702253</v>
+        <v>6333.8716875884202</v>
       </c>
       <c r="M9">
-        <v>9037.546900702253</v>
+        <v>8649.8716875884202</v>
       </c>
       <c r="N9">
-        <v>88369.546900702248</v>
+        <v>87981.871687588427</v>
       </c>
       <c r="O9">
         <v>0.51315811823070645</v>
       </c>
       <c r="P9">
-        <v>3954.1639475028205</v>
+        <v>3755.225264656638</v>
       </c>
       <c r="Q9">
-        <v>5271.9539951192746</v>
+        <v>5073.0153122730917</v>
       </c>
       <c r="R9">
-        <v>50507.868433392505</v>
+        <v>50308.929750546333</v>
       </c>
       <c r="S9">
-        <v>3449.2163591638055</v>
+        <v>3250.2776763176225</v>
       </c>
       <c r="T9">
-        <v>4637.6905609861215</v>
+        <v>4438.7518781399385</v>
       </c>
       <c r="U9">
-        <v>45347.550396464525</v>
+        <v>45148.611713618346</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -6943,46 +6969,46 @@
         <v>148608</v>
       </c>
       <c r="H10">
-        <v>2050.4530992977466</v>
+        <v>2438.1283124115794</v>
       </c>
       <c r="I10">
-        <v>11257.546900702253</v>
+        <v>10869.87168758842</v>
       </c>
       <c r="J10">
-        <v>15301.546900702253</v>
+        <v>14913.87168758842</v>
       </c>
       <c r="K10">
-        <v>163069.54690070226</v>
+        <v>162681.87168758843</v>
       </c>
       <c r="L10">
-        <v>9925.546900702253</v>
+        <v>9537.8716875884202</v>
       </c>
       <c r="M10">
-        <v>13561.546900702253</v>
+        <v>13173.87168758842</v>
       </c>
       <c r="N10">
-        <v>146557.54690070226</v>
+        <v>146169.87168758843</v>
       </c>
       <c r="O10">
         <v>0.46650738020973315</v>
       </c>
       <c r="P10">
-        <v>5251.7287122348089</v>
+        <v>5070.8753641928251</v>
       </c>
       <c r="Q10">
-        <v>7138.2845578029701</v>
+        <v>6957.4312097609854</v>
       </c>
       <c r="R10">
-        <v>76073.14711663482</v>
+        <v>75892.293768592834</v>
       </c>
       <c r="S10">
-        <v>4630.3408817954441</v>
+        <v>4449.4875337534604</v>
       </c>
       <c r="T10">
-        <v>6326.561716238034</v>
+        <v>6145.7083681960503</v>
       </c>
       <c r="U10">
-        <v>68370.177254611714</v>
+        <v>68189.323906569727</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -7008,46 +7034,46 @@
         <v>210780</v>
       </c>
       <c r="H11">
-        <v>2050.4530992977466</v>
+        <v>2438.1283124115794</v>
       </c>
       <c r="I11">
-        <v>16057.546900702253</v>
+        <v>15669.87168758842</v>
       </c>
       <c r="J11">
-        <v>22285.546900702255</v>
+        <v>21897.87168758842</v>
       </c>
       <c r="K11">
-        <v>232153.54690070226</v>
+        <v>231765.87168758843</v>
       </c>
       <c r="L11">
-        <v>14245.546900702253</v>
+        <v>13857.87168758842</v>
       </c>
       <c r="M11">
-        <v>19849.546900702255</v>
+        <v>19461.87168758842</v>
       </c>
       <c r="N11">
-        <v>208729.54690070226</v>
+        <v>208341.87168758843</v>
       </c>
       <c r="O11">
         <v>0.42409761837248466</v>
       </c>
       <c r="P11">
-        <v>6809.967397492298</v>
+        <v>6645.555262908676</v>
       </c>
       <c r="Q11">
-        <v>9451.2473647161332</v>
+        <v>9286.8352301325103</v>
       </c>
       <c r="R11">
-        <v>98455.766337312743</v>
+        <v>98291.354202729126</v>
       </c>
       <c r="S11">
-        <v>6041.5025130013555</v>
+        <v>5877.0903784177335</v>
       </c>
       <c r="T11">
-        <v>8418.1455663607612</v>
+        <v>8253.7334317771383</v>
       </c>
       <c r="U11">
-        <v>88521.703724555671</v>
+        <v>88357.291589972039</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -7073,46 +7099,46 @@
         <v>248100</v>
       </c>
       <c r="H12">
-        <v>2050.4530992977466</v>
+        <v>2438.1283124115794</v>
       </c>
       <c r="I12">
-        <v>22477.546900702255</v>
+        <v>22089.87168758842</v>
       </c>
       <c r="J12">
-        <v>31813.546900702255</v>
+        <v>31425.87168758842</v>
       </c>
       <c r="K12">
-        <v>273625.54690070223</v>
+        <v>273237.8716875884</v>
       </c>
       <c r="L12">
-        <v>20017.546900702255</v>
+        <v>19629.87168758842</v>
       </c>
       <c r="M12">
-        <v>28417.546900702255</v>
+        <v>28029.87168758842</v>
       </c>
       <c r="N12">
-        <v>246049.54690070226</v>
+        <v>245661.87168758843</v>
       </c>
       <c r="O12">
         <v>0.38554328942953148</v>
       </c>
       <c r="P12">
-        <v>8666.0673704033179</v>
+        <v>8516.6017935091149</v>
       </c>
       <c r="Q12">
-        <v>12265.499520517424</v>
+        <v>12116.033943623221</v>
       </c>
       <c r="R12">
-        <v>105494.49342405128</v>
+        <v>105345.02784715708</v>
       </c>
       <c r="S12">
-        <v>7717.6308784066705</v>
+        <v>7568.1653015124675</v>
       </c>
       <c r="T12">
-        <v>10956.194509614734</v>
+        <v>10806.728932720533</v>
       </c>
       <c r="U12">
-        <v>94862.751674742525</v>
+        <v>94713.286097848322</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -7138,46 +7164,46 @@
         <v>256092</v>
       </c>
       <c r="H13">
-        <v>2050.4530992977466</v>
+        <v>2438.1283124115794</v>
       </c>
       <c r="I13">
-        <v>30961.546900702255</v>
+        <v>30573.87168758842</v>
       </c>
       <c r="J13">
-        <v>44593.546900702255</v>
+        <v>44205.87168758842</v>
       </c>
       <c r="K13">
-        <v>282505.54690070223</v>
+        <v>282117.8716875884</v>
       </c>
       <c r="L13">
-        <v>27649.546900702255</v>
+        <v>27261.87168758842</v>
       </c>
       <c r="M13">
-        <v>39925.546900702255</v>
+        <v>39537.87168758842</v>
       </c>
       <c r="N13">
-        <v>254041.54690070226</v>
+        <v>253653.87168758843</v>
       </c>
       <c r="O13">
         <v>0.3504938994813922</v>
       </c>
       <c r="P13">
-        <v>10851.833307203146</v>
+        <v>10715.955510026599</v>
       </c>
       <c r="Q13">
-        <v>15629.766144933485</v>
+        <v>15493.888347756938</v>
       </c>
       <c r="R13">
-        <v>99016.470758350464</v>
+        <v>98880.592961173912</v>
       </c>
       <c r="S13">
-        <v>9690.9975121207754</v>
+        <v>9555.1197149442269</v>
       </c>
       <c r="T13">
-        <v>13993.660622154346</v>
+        <v>13857.782824977798</v>
       </c>
       <c r="U13">
-        <v>89040.012403512126</v>
+        <v>88904.134606335574</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -7203,46 +7229,46 @@
         <v>256464</v>
       </c>
       <c r="H14">
-        <v>2050.4530992977466</v>
+        <v>2438.1283124115794</v>
       </c>
       <c r="I14">
-        <v>42013.546900702255</v>
+        <v>41625.87168758842</v>
       </c>
       <c r="J14">
-        <v>61321.546900702255</v>
+        <v>60933.87168758842</v>
       </c>
       <c r="K14">
-        <v>282913.54690070223</v>
+        <v>282525.8716875884</v>
       </c>
       <c r="L14">
-        <v>37597.546900702255</v>
+        <v>37209.87168758842</v>
       </c>
       <c r="M14">
-        <v>54973.546900702255</v>
+        <v>54585.87168758842</v>
       </c>
       <c r="N14">
-        <v>254413.54690070226</v>
+        <v>254025.87168758843</v>
       </c>
       <c r="O14">
         <v>0.31863081771035656</v>
       </c>
       <c r="P14">
-        <v>13386.810803883176</v>
+        <v>13263.285533722677</v>
       </c>
       <c r="Q14">
-        <v>19538.934632234741</v>
+        <v>19415.409362074242</v>
       </c>
       <c r="R14">
-        <v>90144.974790308072</v>
+        <v>90021.449520147566</v>
       </c>
       <c r="S14">
-        <v>11979.737112874242</v>
+        <v>11856.211842713743</v>
       </c>
       <c r="T14">
-        <v>17516.266201409398</v>
+        <v>17392.7409312489</v>
       </c>
       <c r="U14">
-        <v>81063.996485562908</v>
+        <v>80940.471215402416</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -7268,46 +7294,46 @@
         <v>256524</v>
       </c>
       <c r="H15">
-        <v>2050.4530992977466</v>
+        <v>2438.1283124115794</v>
       </c>
       <c r="I15">
-        <v>56137.546900702255</v>
+        <v>55749.87168758842</v>
       </c>
       <c r="J15">
-        <v>82453.546900702248</v>
+        <v>82065.871687588427</v>
       </c>
       <c r="K15">
-        <v>282985.54690070223</v>
+        <v>282597.8716875884</v>
       </c>
       <c r="L15">
-        <v>50317.546900702255</v>
+        <v>49929.87168758842</v>
       </c>
       <c r="M15">
-        <v>73993.546900702248</v>
+        <v>73605.871687588427</v>
       </c>
       <c r="N15">
-        <v>254473.54690070226</v>
+        <v>254085.87168758843</v>
       </c>
       <c r="O15">
         <v>0.28966437973668779</v>
       </c>
       <c r="P15">
-        <v>16261.047702931139</v>
+        <v>16148.752002785232</v>
       </c>
       <c r="Q15">
-        <v>23883.855520081812</v>
+        <v>23771.559819935908</v>
       </c>
       <c r="R15">
-        <v>81970.832917439286</v>
+        <v>81858.537217293371</v>
       </c>
       <c r="S15">
-        <v>14575.201012863616</v>
+        <v>14462.905312717709</v>
       </c>
       <c r="T15">
-        <v>21433.294867509434</v>
+        <v>21320.99916736353</v>
       </c>
       <c r="U15">
-        <v>73711.922122386852</v>
+        <v>73599.626422240937</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -7333,46 +7359,46 @@
         <v>256560</v>
       </c>
       <c r="H16">
-        <v>2050.4530992977466</v>
+        <v>2438.1283124115794</v>
       </c>
       <c r="I16">
-        <v>73681.546900702248</v>
+        <v>73293.871687588427</v>
       </c>
       <c r="J16">
-        <v>107941.54690070225</v>
+        <v>107553.87168758843</v>
       </c>
       <c r="K16">
-        <v>283021.54690070223</v>
+        <v>282633.8716875884</v>
       </c>
       <c r="L16">
-        <v>66097.546900702248</v>
+        <v>65709.871687588427</v>
       </c>
       <c r="M16">
-        <v>96937.546900702248</v>
+        <v>96549.871687588427</v>
       </c>
       <c r="N16">
-        <v>254509.54690070226</v>
+        <v>254121.87168758843</v>
       </c>
       <c r="O16">
         <v>0.26333125430607973</v>
       </c>
       <c r="P16">
-        <v>19402.654164574164</v>
+        <v>19300.567164441527</v>
       </c>
       <c r="Q16">
-        <v>28424.382937100458</v>
+        <v>28322.295936967817</v>
       </c>
       <c r="R16">
-        <v>74528.418941008887</v>
+        <v>74426.331940876247</v>
       </c>
       <c r="S16">
-        <v>17405.549931916856</v>
+        <v>17303.462931784215</v>
       </c>
       <c r="T16">
-        <v>25526.685814716355</v>
+        <v>25424.598814583715</v>
       </c>
       <c r="U16">
-        <v>67020.318218233951</v>
+        <v>66918.231218101311</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -7398,46 +7424,46 @@
         <v>256584</v>
       </c>
       <c r="H17">
-        <v>2050.4530992977466</v>
+        <v>2438.1283124115794</v>
       </c>
       <c r="I17">
-        <v>94765.546900702248</v>
+        <v>94377.871687588427</v>
       </c>
       <c r="J17">
-        <v>136909.54690070226</v>
+        <v>136521.87168758843</v>
       </c>
       <c r="K17">
-        <v>283045.54690070223</v>
+        <v>282657.8716875884</v>
       </c>
       <c r="L17">
-        <v>85081.546900702248</v>
+        <v>84693.871687588427</v>
       </c>
       <c r="M17">
-        <v>123013.54690070225</v>
+        <v>122625.87168758843</v>
       </c>
       <c r="N17">
-        <v>254533.54690070226</v>
+        <v>254145.87168758843</v>
       </c>
       <c r="O17">
         <v>0.23939204936916339</v>
       </c>
       <c r="P17">
-        <v>22686.118482148682</v>
+        <v>22593.312118391736</v>
       </c>
       <c r="Q17">
-        <v>32775.057010762706</v>
+        <v>32682.25064700576</v>
       </c>
       <c r="R17">
-        <v>67758.853537374758</v>
+        <v>67666.047173617815</v>
       </c>
       <c r="S17">
-        <v>20367.845876057701</v>
+        <v>20275.039512300758</v>
       </c>
       <c r="T17">
-        <v>29448.465092728809</v>
+        <v>29355.658728971863</v>
       </c>
       <c r="U17">
-        <v>60933.307425761181</v>
+        <v>60840.50106200423</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -7463,46 +7489,46 @@
         <v>256596</v>
       </c>
       <c r="H18">
-        <v>2050.4530992977466</v>
+        <v>2438.1283124115794</v>
       </c>
       <c r="I18">
-        <v>118993.54690070225</v>
+        <v>118605.87168758843</v>
       </c>
       <c r="J18">
-        <v>167461.54690070226</v>
+        <v>167073.87168758843</v>
       </c>
       <c r="K18">
-        <v>283057.54690070223</v>
+        <v>282669.8716875884</v>
       </c>
       <c r="L18">
-        <v>106885.54690070225</v>
+        <v>106497.87168758843</v>
       </c>
       <c r="M18">
-        <v>150505.54690070226</v>
+        <v>150117.87168758843</v>
       </c>
       <c r="N18">
-        <v>254545.54690070226</v>
+        <v>254157.87168758843</v>
       </c>
       <c r="O18">
         <v>0.21762913579014853</v>
       </c>
       <c r="P18">
-        <v>25896.462776604338</v>
+        <v>25812.093355007117</v>
       </c>
       <c r="Q18">
-        <v>36444.511730081256</v>
+        <v>36360.142308484035</v>
       </c>
       <c r="R18">
-        <v>61601.569310879262</v>
+        <v>61517.199889282034</v>
       </c>
       <c r="S18">
-        <v>23261.409200457219</v>
+        <v>23177.039778859995</v>
       </c>
       <c r="T18">
-        <v>32754.392103623501</v>
+        <v>32670.022682026276</v>
       </c>
       <c r="U18">
-        <v>55396.527391230557</v>
+        <v>55312.157969633328</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -7528,46 +7554,46 @@
         <v>256596</v>
       </c>
       <c r="H19">
-        <v>2050.4530992977466</v>
+        <v>2438.1283124115794</v>
       </c>
       <c r="I19">
-        <v>145393.54690070226</v>
+        <v>145005.87168758843</v>
       </c>
       <c r="J19">
-        <v>196933.54690070226</v>
+        <v>196545.87168758843</v>
       </c>
       <c r="K19">
-        <v>283057.54690070223</v>
+        <v>282669.8716875884</v>
       </c>
       <c r="L19">
-        <v>130645.54690070225</v>
+        <v>130257.87168758843</v>
       </c>
       <c r="M19">
-        <v>177025.54690070226</v>
+        <v>176637.87168758843</v>
       </c>
       <c r="N19">
-        <v>254545.54690070226</v>
+        <v>254157.87168758843</v>
       </c>
       <c r="O19">
         <v>0.19784466890013502</v>
       </c>
       <c r="P19">
-        <v>28765.338146785693</v>
+        <v>28688.638672606397</v>
       </c>
       <c r="Q19">
-        <v>38962.252381898652</v>
+        <v>38885.552907719357</v>
       </c>
       <c r="R19">
-        <v>56001.426646253873</v>
+        <v>55924.727172074578</v>
       </c>
       <c r="S19">
-        <v>25847.524969846498</v>
+        <v>25770.825495667206</v>
       </c>
       <c r="T19">
-        <v>35023.560713434759</v>
+        <v>34946.861239255464</v>
       </c>
       <c r="U19">
-        <v>50360.479446573227</v>
+        <v>50283.779972393932</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -7593,46 +7619,46 @@
         <v>256608</v>
       </c>
       <c r="H20">
-        <v>2050.4530992977466</v>
+        <v>2438.1283124115794</v>
       </c>
       <c r="I20">
-        <v>172369.54690070226</v>
+        <v>171981.87168758843</v>
       </c>
       <c r="J20">
-        <v>222709.54690070226</v>
+        <v>222321.87168758843</v>
       </c>
       <c r="K20">
-        <v>283069.54690070223</v>
+        <v>282681.8716875884</v>
       </c>
       <c r="L20">
-        <v>154921.54690070226</v>
+        <v>154533.87168758843</v>
       </c>
       <c r="M20">
-        <v>200233.54690070226</v>
+        <v>199845.87168758843</v>
       </c>
       <c r="N20">
-        <v>254557.54690070226</v>
+        <v>254169.87168758843</v>
       </c>
       <c r="O20">
         <v>0.17985878990921364</v>
       </c>
       <c r="P20">
-        <v>31002.178122759757</v>
+        <v>30932.451328051306</v>
       </c>
       <c r="Q20">
-        <v>40056.269606789567</v>
+        <v>39986.542812081119</v>
       </c>
       <c r="R20">
-        <v>50912.546165709697</v>
+        <v>50842.819371001249</v>
       </c>
       <c r="S20">
-        <v>27864.001956423795</v>
+        <v>27794.275161715344</v>
       </c>
       <c r="T20">
-        <v>36013.763444790085</v>
+        <v>35944.036650081631</v>
       </c>
       <c r="U20">
-        <v>45784.412347818208</v>
+        <v>45714.685553109754</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -7658,46 +7684,46 @@
         <v>256608</v>
       </c>
       <c r="H21">
-        <v>2050.4530992977466</v>
+        <v>2438.1283124115794</v>
       </c>
       <c r="I21">
-        <v>198037.54690070226</v>
+        <v>197649.87168758843</v>
       </c>
       <c r="J21">
-        <v>243121.54690070226</v>
+        <v>242733.87168758843</v>
       </c>
       <c r="K21">
-        <v>283069.54690070223</v>
+        <v>282681.8716875884</v>
       </c>
       <c r="L21">
-        <v>178021.54690070226</v>
+        <v>177633.87168758843</v>
       </c>
       <c r="M21">
-        <v>218593.54690070226</v>
+        <v>218205.87168758843</v>
       </c>
       <c r="N21">
-        <v>254557.54690070226</v>
+        <v>254169.87168758843</v>
       </c>
       <c r="O21">
         <v>0.16350799082655781</v>
       </c>
       <c r="P21">
-        <v>32380.721401954037</v>
+        <v>32317.333406764537</v>
       </c>
       <c r="Q21">
-        <v>39752.315660378568</v>
+        <v>39688.927665189069</v>
       </c>
       <c r="R21">
-        <v>46284.132877917895</v>
+        <v>46220.744882728395</v>
       </c>
       <c r="S21">
-        <v>29107.945457569658</v>
+        <v>29044.557462380155</v>
       </c>
       <c r="T21">
-        <v>35741.791661384763</v>
+        <v>35678.403666195263</v>
       </c>
       <c r="U21">
-        <v>41622.193043471088</v>
+        <v>41558.805048281589</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -7723,46 +7749,46 @@
         <v>256608</v>
       </c>
       <c r="H22">
-        <v>2050.4530992977466</v>
+        <v>2438.1283124115794</v>
       </c>
       <c r="I22">
-        <v>220657.54690070226</v>
+        <v>220269.87168758843</v>
       </c>
       <c r="J22">
-        <v>257845.54690070226</v>
+        <v>257457.87168758843</v>
       </c>
       <c r="K22">
-        <v>283069.54690070223</v>
+        <v>282681.8716875884</v>
       </c>
       <c r="L22">
-        <v>198385.54690070226</v>
+        <v>197997.87168758843</v>
       </c>
       <c r="M22">
-        <v>231853.54690070226</v>
+        <v>231465.87168758843</v>
       </c>
       <c r="N22">
-        <v>254557.54690070226</v>
+        <v>254169.87168758843</v>
       </c>
       <c r="O22">
         <v>0.14864362802414349</v>
       </c>
       <c r="P22">
-        <v>32799.338322227981</v>
+        <v>32741.712872055712</v>
       </c>
       <c r="Q22">
-        <v>38327.097561189832</v>
+        <v>38269.47211101756</v>
       </c>
       <c r="R22">
-        <v>42076.484434470825</v>
+        <v>42018.858984298553</v>
       </c>
       <c r="S22">
-        <v>29488.747438874259</v>
+        <v>29431.121988701987</v>
       </c>
       <c r="T22">
-        <v>34463.552381586298</v>
+        <v>34405.926931414018</v>
       </c>
       <c r="U22">
-        <v>37838.357312246451</v>
+        <v>37780.731862074172</v>
       </c>
     </row>
   </sheetData>
@@ -15000,18 +15026,18 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:M3"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
-    <col min="7" max="7" width="35.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
     <col min="9" max="9" width="17.28515625" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
@@ -15086,11 +15112,11 @@
       </c>
       <c r="E2">
         <f>CAPEX!$V5</f>
-        <v>58063.729929774621</v>
+        <v>96234.811241157906</v>
       </c>
       <c r="F2">
         <f>CAPEX!$V6</f>
-        <v>130146.29472977464</v>
+        <v>131839.58846364933</v>
       </c>
       <c r="G2">
         <f>CAPEX!$V7</f>
@@ -15106,7 +15132,7 @@
       </c>
       <c r="J2">
         <f>CAPEX!$V10</f>
-        <v>57564.82992977462</v>
+        <v>96332.351241157899</v>
       </c>
       <c r="K2">
         <f>CAPEX!$V11</f>
@@ -15247,7 +15273,7 @@
       </c>
       <c r="F5">
         <f>F2-E2</f>
-        <v>72082.564800000022</v>
+        <v>35604.777222491422</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -15260,7 +15286,7 @@
       </c>
       <c r="J5">
         <f>J2-E2</f>
-        <v>-498.90000000000146</v>
+        <v>97.539999999993597</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -15486,7 +15512,8 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>130146.29472977464</v>
+        <f>F2-J2</f>
+        <v>35507.237222491429</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -15770,7 +15797,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15820,7 +15847,7 @@
       </c>
       <c r="B5">
         <f>0.1*(CAPEX!S5+CAPEX!T5)+0.01*(CAPEX!Q5+CAPEX!R5)</f>
-        <v>2100.343099297746</v>
+        <v>2428.374312411579</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -15829,7 +15856,7 @@
       </c>
       <c r="B6">
         <f>0.1*(CAPEX!S6+CAPEX!T6)+0.01*(CAPEX!Q6+CAPEX!R6)</f>
-        <v>9307.5461472977477</v>
+        <v>5988.6110846364936</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -15865,7 +15892,7 @@
       </c>
       <c r="B10">
         <f>0.1*(CAPEX!S10+CAPEX!T10)+0.01*(CAPEX!Q10+CAPEX!R10)</f>
-        <v>2050.4530992977466</v>
+        <v>2438.1283124115794</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -15923,7 +15950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH49"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="N1" sqref="N1:AH22"/>
     </sheetView>
   </sheetViews>
@@ -16044,7 +16071,7 @@
         <v>1152</v>
       </c>
       <c r="P2">
-        <f t="shared" ref="P2:T2" si="0">$I$9*C29</f>
+        <f t="shared" ref="P2:T17" si="0">$I$9*C29</f>
         <v>1152</v>
       </c>
       <c r="Q2">
@@ -16064,31 +16091,31 @@
         <v>1032</v>
       </c>
       <c r="U2">
-        <v>2628.2808073992692</v>
+        <v>2438.1283124115794</v>
       </c>
       <c r="V2">
         <f>O2-U2</f>
-        <v>-1476.2808073992692</v>
+        <v>-1286.1283124115794</v>
       </c>
       <c r="W2">
         <f>P2-U2</f>
-        <v>-1476.2808073992692</v>
+        <v>-1286.1283124115794</v>
       </c>
       <c r="X2">
         <f t="shared" ref="X2:X22" si="1">Q2-U2</f>
-        <v>-1476.2808073992692</v>
+        <v>-1286.1283124115794</v>
       </c>
       <c r="Y2">
         <f>R2-$U2</f>
-        <v>-1596.2808073992692</v>
+        <v>-1406.1283124115794</v>
       </c>
       <c r="Z2">
         <f>S2-$U2</f>
-        <v>-1596.2808073992692</v>
+        <v>-1406.1283124115794</v>
       </c>
       <c r="AA2">
         <f>T2-$U2</f>
-        <v>-1596.2808073992692</v>
+        <v>-1406.1283124115794</v>
       </c>
       <c r="AB2">
         <f>1/POWER(1+$L$25,N2-2018)</f>
@@ -16096,27 +16123,27 @@
       </c>
       <c r="AC2">
         <f>V2*AB2</f>
-        <v>-1476.2808073992692</v>
+        <v>-1286.1283124115794</v>
       </c>
       <c r="AD2">
         <f>W2*AB2</f>
-        <v>-1476.2808073992692</v>
+        <v>-1286.1283124115794</v>
       </c>
       <c r="AE2">
         <f>X2*AB2</f>
-        <v>-1476.2808073992692</v>
+        <v>-1286.1283124115794</v>
       </c>
       <c r="AF2">
         <f>Y2*$AB2</f>
-        <v>-1596.2808073992692</v>
+        <v>-1406.1283124115794</v>
       </c>
       <c r="AG2">
         <f>Z2*$AB2</f>
-        <v>-1596.2808073992692</v>
+        <v>-1406.1283124115794</v>
       </c>
       <c r="AH2">
         <f>AA2*$AB2</f>
-        <v>-1596.2808073992692</v>
+        <v>-1406.1283124115794</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
@@ -16145,79 +16172,79 @@
         <v>1536</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P22" si="3">$I$9*C30</f>
+        <f t="shared" si="0"/>
         <v>1584</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q22" si="4">$I$9*D30</f>
+        <f t="shared" si="0"/>
         <v>2148</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R22" si="5">$I$9*E30</f>
+        <f t="shared" si="0"/>
         <v>1380</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S22" si="6">$I$9*F30</f>
+        <f t="shared" si="0"/>
         <v>1416</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T22" si="7">$I$9*G30</f>
+        <f t="shared" si="0"/>
         <v>1932</v>
       </c>
       <c r="U3">
-        <v>2628.2808073992692</v>
+        <v>2438.1283124115794</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V22" si="8">O3-U3</f>
-        <v>-1092.2808073992692</v>
+        <f t="shared" ref="V3:V22" si="3">O3-U3</f>
+        <v>-902.12831241157937</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W22" si="9">P3-U3</f>
-        <v>-1044.2808073992692</v>
+        <f t="shared" ref="W3:W22" si="4">P3-U3</f>
+        <v>-854.12831241157937</v>
       </c>
       <c r="X3">
         <f t="shared" si="1"/>
-        <v>-480.28080739926918</v>
+        <v>-290.12831241157937</v>
       </c>
       <c r="Y3">
-        <f t="shared" ref="Y3:Y22" si="10">R3-$U3</f>
-        <v>-1248.2808073992692</v>
+        <f t="shared" ref="Y3:Y22" si="5">R3-$U3</f>
+        <v>-1058.1283124115794</v>
       </c>
       <c r="Z3">
-        <f t="shared" ref="Z3:Z22" si="11">S3-$U3</f>
-        <v>-1212.2808073992692</v>
+        <f t="shared" ref="Z3:Z22" si="6">S3-$U3</f>
+        <v>-1022.1283124115794</v>
       </c>
       <c r="AA3">
-        <f t="shared" ref="AA3:AA22" si="12">T3-$U3</f>
-        <v>-696.28080739926918</v>
+        <f t="shared" ref="AA3:AA22" si="7">T3-$U3</f>
+        <v>-506.12831241157937</v>
       </c>
       <c r="AB3">
-        <f t="shared" ref="AB3:AB22" si="13">1/POWER(1+$L$25,N3-2018)</f>
+        <f t="shared" ref="AB3:AB22" si="8">1/POWER(1+$L$25,N3-2018)</f>
         <v>0.90909090909090906</v>
       </c>
       <c r="AC3">
-        <f t="shared" ref="AC3:AC22" si="14">V3*AB3</f>
-        <v>-992.98255218115378</v>
+        <f t="shared" ref="AC3:AC22" si="9">V3*AB3</f>
+        <v>-820.11664764689033</v>
       </c>
       <c r="AD3">
-        <f t="shared" ref="AD3:AD22" si="15">W3*AB3</f>
-        <v>-949.34618854479015</v>
+        <f t="shared" ref="AD3:AD22" si="10">W3*AB3</f>
+        <v>-776.4802840105267</v>
       </c>
       <c r="AE3">
-        <f t="shared" ref="AE3:AE22" si="16">X3*AB3</f>
-        <v>-436.6189158175174</v>
+        <f t="shared" ref="AE3:AE22" si="11">X3*AB3</f>
+        <v>-263.75301128325395</v>
       </c>
       <c r="AF3">
-        <f t="shared" ref="AF3:AF22" si="17">Y3*$AB3</f>
-        <v>-1134.8007339993355</v>
+        <f t="shared" ref="AF3:AF22" si="12">Y3*$AB3</f>
+        <v>-961.93482946507208</v>
       </c>
       <c r="AG3">
-        <f t="shared" ref="AG3:AG22" si="18">Z3*$AB3</f>
-        <v>-1102.0734612720628</v>
+        <f t="shared" ref="AG3:AG22" si="13">Z3*$AB3</f>
+        <v>-929.20755673779945</v>
       </c>
       <c r="AH3">
-        <f t="shared" ref="AH3:AH22" si="19">AA3*$AB3</f>
-        <v>-632.98255218115378</v>
+        <f t="shared" ref="AH3:AH22" si="14">AA3*$AB3</f>
+        <v>-460.11664764689033</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
@@ -16246,79 +16273,79 @@
         <v>2064</v>
       </c>
       <c r="P4">
+        <f t="shared" si="0"/>
+        <v>2196</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>4104</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>1848</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>1968</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>3684</v>
+      </c>
+      <c r="U4">
+        <v>2438.1283124115794</v>
+      </c>
+      <c r="V4">
         <f t="shared" si="3"/>
-        <v>2196</v>
-      </c>
-      <c r="Q4">
+        <v>-374.12831241157937</v>
+      </c>
+      <c r="W4">
         <f t="shared" si="4"/>
-        <v>4104</v>
-      </c>
-      <c r="R4">
-        <f t="shared" si="5"/>
-        <v>1848</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="6"/>
-        <v>1968</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="7"/>
-        <v>3684</v>
-      </c>
-      <c r="U4">
-        <v>2628.2808073992692</v>
-      </c>
-      <c r="V4">
-        <f t="shared" si="8"/>
-        <v>-564.28080739926918</v>
-      </c>
-      <c r="W4">
-        <f t="shared" si="9"/>
-        <v>-432.28080739926918</v>
+        <v>-242.12831241157937</v>
       </c>
       <c r="X4">
         <f t="shared" si="1"/>
-        <v>1475.7191926007308</v>
+        <v>1665.8716875884206</v>
       </c>
       <c r="Y4">
+        <f t="shared" si="5"/>
+        <v>-590.12831241157937</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="6"/>
+        <v>-470.12831241157937</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="7"/>
+        <v>1245.8716875884206</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="8"/>
+        <v>0.82644628099173545</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="9"/>
+        <v>-309.1969524062639</v>
+      </c>
+      <c r="AD4">
         <f t="shared" si="10"/>
-        <v>-780.28080739926918</v>
-      </c>
-      <c r="Z4">
+        <v>-200.10604331535484</v>
+      </c>
+      <c r="AE4">
         <f t="shared" si="11"/>
-        <v>-660.28080739926918</v>
-      </c>
-      <c r="AA4">
+        <v>1376.7534608168764</v>
+      </c>
+      <c r="AF4">
         <f t="shared" si="12"/>
-        <v>1055.7191926007308</v>
-      </c>
-      <c r="AB4">
+        <v>-487.70934910047879</v>
+      </c>
+      <c r="AG4">
         <f t="shared" si="13"/>
-        <v>0.82644628099173545</v>
-      </c>
-      <c r="AC4">
+        <v>-388.53579538147051</v>
+      </c>
+      <c r="AH4">
         <f t="shared" si="14"/>
-        <v>-466.34777471013979</v>
-      </c>
-      <c r="AD4">
-        <f t="shared" si="15"/>
-        <v>-357.25686561923067</v>
-      </c>
-      <c r="AE4">
-        <f t="shared" si="16"/>
-        <v>1219.6026385130006</v>
-      </c>
-      <c r="AF4">
-        <f t="shared" si="17"/>
-        <v>-644.86017140435467</v>
-      </c>
-      <c r="AG4">
-        <f t="shared" si="18"/>
-        <v>-545.68661768534639</v>
-      </c>
-      <c r="AH4">
-        <f t="shared" si="19"/>
-        <v>872.49520049647163</v>
+        <v>1029.6460228003475</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
@@ -16354,79 +16381,79 @@
         <v>2796</v>
       </c>
       <c r="P5">
+        <f t="shared" si="0"/>
+        <v>3084</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>7932</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>2508</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>2772</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>7128</v>
+      </c>
+      <c r="U5">
+        <v>2438.1283124115794</v>
+      </c>
+      <c r="V5">
         <f t="shared" si="3"/>
-        <v>3084</v>
-      </c>
-      <c r="Q5">
+        <v>357.87168758842063</v>
+      </c>
+      <c r="W5">
         <f t="shared" si="4"/>
-        <v>7932</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="5"/>
-        <v>2508</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="6"/>
-        <v>2772</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="7"/>
-        <v>7128</v>
-      </c>
-      <c r="U5">
-        <v>2628.2808073992692</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="8"/>
-        <v>167.71919260073082</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="9"/>
-        <v>455.71919260073082</v>
+        <v>645.87168758842063</v>
       </c>
       <c r="X5">
         <f t="shared" si="1"/>
-        <v>5303.7191926007308</v>
+        <v>5493.8716875884202</v>
       </c>
       <c r="Y5">
+        <f t="shared" si="5"/>
+        <v>69.871687588420627</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="6"/>
+        <v>333.87168758842063</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="7"/>
+        <v>4689.8716875884202</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="8"/>
+        <v>0.75131480090157754</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="9"/>
+        <v>268.87429570880579</v>
+      </c>
+      <c r="AD5">
         <f t="shared" si="10"/>
-        <v>-120.28080739926918</v>
-      </c>
-      <c r="Z5">
+        <v>485.25295836846016</v>
+      </c>
+      <c r="AE5">
         <f t="shared" si="11"/>
-        <v>143.71919260073082</v>
-      </c>
-      <c r="AA5">
+        <v>4127.6271131393078</v>
+      </c>
+      <c r="AF5">
         <f t="shared" si="12"/>
-        <v>4499.7191926007308</v>
-      </c>
-      <c r="AB5">
+        <v>52.495633049151472</v>
+      </c>
+      <c r="AG5">
         <f t="shared" si="13"/>
-        <v>0.75131480090157754</v>
-      </c>
-      <c r="AC5">
+        <v>250.84274048716793</v>
+      </c>
+      <c r="AH5">
         <f t="shared" si="14"/>
-        <v>126.00991179619142</v>
-      </c>
-      <c r="AD5">
-        <f t="shared" si="15"/>
-        <v>342.38857445584574</v>
-      </c>
-      <c r="AE5">
-        <f t="shared" si="16"/>
-        <v>3984.7627292266939</v>
-      </c>
-      <c r="AF5">
-        <f t="shared" si="17"/>
-        <v>-90.368750863462921</v>
-      </c>
-      <c r="AG5">
-        <f t="shared" si="18"/>
-        <v>107.97835657455356</v>
-      </c>
-      <c r="AH5">
-        <f t="shared" si="19"/>
-        <v>3380.7056293018254</v>
+        <v>3523.5700132144393</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -16462,79 +16489,79 @@
         <v>3816</v>
       </c>
       <c r="P6">
+        <f t="shared" si="0"/>
+        <v>4356</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>15408</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>3432</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>3912</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>13860</v>
+      </c>
+      <c r="U6">
+        <v>2438.1283124115794</v>
+      </c>
+      <c r="V6">
         <f t="shared" si="3"/>
-        <v>4356</v>
-      </c>
-      <c r="Q6">
+        <v>1377.8716875884206</v>
+      </c>
+      <c r="W6">
         <f t="shared" si="4"/>
-        <v>15408</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="5"/>
-        <v>3432</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="6"/>
-        <v>3912</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="7"/>
-        <v>13860</v>
-      </c>
-      <c r="U6">
-        <v>2628.2808073992692</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="8"/>
-        <v>1187.7191926007308</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="9"/>
-        <v>1727.7191926007308</v>
+        <v>1917.8716875884206</v>
       </c>
       <c r="X6">
         <f t="shared" si="1"/>
-        <v>12779.719192600731</v>
+        <v>12969.87168758842</v>
       </c>
       <c r="Y6">
+        <f t="shared" si="5"/>
+        <v>993.87168758842063</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="6"/>
+        <v>1473.8716875884206</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="7"/>
+        <v>11421.87168758842</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="8"/>
+        <v>0.68301345536507052</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="9"/>
+        <v>941.10490238946818</v>
+      </c>
+      <c r="AD6">
         <f t="shared" si="10"/>
-        <v>803.71919260073082</v>
-      </c>
-      <c r="Z6">
+        <v>1309.9321682866062</v>
+      </c>
+      <c r="AE6">
         <f t="shared" si="11"/>
-        <v>1283.7191926007308</v>
-      </c>
-      <c r="AA6">
+        <v>8858.5968769813644</v>
+      </c>
+      <c r="AF6">
         <f t="shared" si="12"/>
-        <v>11231.719192600731</v>
-      </c>
-      <c r="AB6">
+        <v>678.82773552928109</v>
+      </c>
+      <c r="AG6">
         <f t="shared" si="13"/>
-        <v>0.68301345536507052</v>
-      </c>
-      <c r="AC6">
+        <v>1006.6741941045149</v>
+      </c>
+      <c r="AH6">
         <f t="shared" si="14"/>
-        <v>811.22818974163681</v>
-      </c>
-      <c r="AD6">
-        <f t="shared" si="15"/>
-        <v>1180.0554556387749</v>
-      </c>
-      <c r="AE6">
-        <f t="shared" si="16"/>
-        <v>8728.7201643335338</v>
-      </c>
-      <c r="AF6">
-        <f t="shared" si="17"/>
-        <v>548.95102288144983</v>
-      </c>
-      <c r="AG6">
-        <f t="shared" si="18"/>
-        <v>876.79748145668361</v>
-      </c>
-      <c r="AH6">
-        <f t="shared" si="19"/>
-        <v>7671.4153354284053</v>
+        <v>7801.2920480762359</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
@@ -16570,79 +16597,79 @@
         <v>5220</v>
       </c>
       <c r="P7">
+        <f t="shared" si="0"/>
+        <v>6168</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>29676</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>4692</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>5544</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>26700</v>
+      </c>
+      <c r="U7">
+        <v>2438.1283124115794</v>
+      </c>
+      <c r="V7">
         <f t="shared" si="3"/>
-        <v>6168</v>
-      </c>
-      <c r="Q7">
+        <v>2781.8716875884206</v>
+      </c>
+      <c r="W7">
         <f t="shared" si="4"/>
-        <v>29676</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="5"/>
-        <v>4692</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="6"/>
-        <v>5544</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="7"/>
-        <v>26700</v>
-      </c>
-      <c r="U7">
-        <v>2628.2808073992692</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="8"/>
-        <v>2591.7191926007308</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="9"/>
-        <v>3539.7191926007308</v>
+        <v>3729.8716875884206</v>
       </c>
       <c r="X7">
         <f t="shared" si="1"/>
-        <v>27047.719192600729</v>
+        <v>27237.87168758842</v>
       </c>
       <c r="Y7">
+        <f t="shared" si="5"/>
+        <v>2253.8716875884206</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="6"/>
+        <v>3105.8716875884206</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="7"/>
+        <v>24261.87168758842</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="8"/>
+        <v>0.62092132305915493</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="9"/>
+        <v>1727.3234488382063</v>
+      </c>
+      <c r="AD7">
         <f t="shared" si="10"/>
-        <v>2063.7191926007308</v>
-      </c>
-      <c r="Z7">
+        <v>2315.9568630982849</v>
+      </c>
+      <c r="AE7">
         <f t="shared" si="11"/>
-        <v>2915.7191926007308</v>
-      </c>
-      <c r="AA7">
+        <v>16912.5753255729</v>
+      </c>
+      <c r="AF7">
         <f t="shared" si="12"/>
-        <v>24071.719192600729</v>
-      </c>
-      <c r="AB7">
+        <v>1399.4769902629723</v>
+      </c>
+      <c r="AG7">
         <f t="shared" si="13"/>
-        <v>0.62092132305915493</v>
-      </c>
-      <c r="AC7">
+        <v>1928.5019575093725</v>
+      </c>
+      <c r="AH7">
         <f t="shared" si="14"/>
-        <v>1609.2537100674506</v>
-      </c>
-      <c r="AD7">
-        <f t="shared" si="15"/>
-        <v>2197.8871243275294</v>
-      </c>
-      <c r="AE7">
-        <f t="shared" si="16"/>
-        <v>16794.505586802141</v>
-      </c>
-      <c r="AF7">
-        <f t="shared" si="17"/>
-        <v>1281.4072514922168</v>
-      </c>
-      <c r="AG7">
-        <f t="shared" si="18"/>
-        <v>1810.4322187386167</v>
-      </c>
-      <c r="AH7">
-        <f t="shared" si="19"/>
-        <v>14946.643729378096</v>
+        <v>15064.713468148853</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
@@ -16678,79 +16705,79 @@
         <v>7128</v>
       </c>
       <c r="P8">
+        <f t="shared" si="0"/>
+        <v>8724</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>55920</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>6408</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>7848</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>50328</v>
+      </c>
+      <c r="U8">
+        <v>2438.1283124115794</v>
+      </c>
+      <c r="V8">
         <f t="shared" si="3"/>
-        <v>8724</v>
-      </c>
-      <c r="Q8">
+        <v>4689.8716875884202</v>
+      </c>
+      <c r="W8">
         <f t="shared" si="4"/>
-        <v>55920</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="5"/>
-        <v>6408</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="6"/>
-        <v>7848</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="7"/>
-        <v>50328</v>
-      </c>
-      <c r="U8">
-        <v>2628.2808073992692</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="8"/>
-        <v>4499.7191926007308</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="9"/>
-        <v>6095.7191926007308</v>
+        <v>6285.8716875884202</v>
       </c>
       <c r="X8">
         <f t="shared" si="1"/>
-        <v>53291.719192600729</v>
+        <v>53481.87168758842</v>
       </c>
       <c r="Y8">
+        <f t="shared" si="5"/>
+        <v>3969.8716875884206</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="6"/>
+        <v>5409.8716875884202</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="7"/>
+        <v>47889.87168758842</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="8"/>
+        <v>0.56447393005377722</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="9"/>
+        <v>2647.3103029409758</v>
+      </c>
+      <c r="AD8">
         <f t="shared" si="10"/>
-        <v>3779.7191926007308</v>
-      </c>
-      <c r="Z8">
+        <v>3548.2106953068046</v>
+      </c>
+      <c r="AE8">
         <f t="shared" si="11"/>
-        <v>5219.7191926007308</v>
-      </c>
-      <c r="AA8">
+        <v>30189.122298124876</v>
+      </c>
+      <c r="AF8">
         <f t="shared" si="12"/>
-        <v>47699.719192600729</v>
-      </c>
-      <c r="AB8">
+        <v>2240.8890733022567</v>
+      </c>
+      <c r="AG8">
         <f t="shared" si="13"/>
-        <v>0.56447393005377722</v>
-      </c>
-      <c r="AC8">
+        <v>3053.7315325796958</v>
+      </c>
+      <c r="AH8">
         <f t="shared" si="14"/>
-        <v>2539.974176785744</v>
-      </c>
-      <c r="AD8">
-        <f t="shared" si="15"/>
-        <v>3440.8745691515724</v>
-      </c>
-      <c r="AE8">
-        <f t="shared" si="16"/>
-        <v>30081.786171969641</v>
-      </c>
-      <c r="AF8">
-        <f t="shared" si="17"/>
-        <v>2133.552947147024</v>
-      </c>
-      <c r="AG8">
-        <f t="shared" si="18"/>
-        <v>2946.3954064244635</v>
-      </c>
-      <c r="AH8">
-        <f t="shared" si="19"/>
-        <v>26925.24795510892</v>
+        <v>27032.584081264151</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
@@ -16785,79 +16812,79 @@
         <v>9756</v>
       </c>
       <c r="P9">
+        <f t="shared" si="0"/>
+        <v>12324</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>100476</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>8772</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>11088</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>90420</v>
+      </c>
+      <c r="U9">
+        <v>2438.1283124115794</v>
+      </c>
+      <c r="V9">
         <f t="shared" si="3"/>
-        <v>12324</v>
-      </c>
-      <c r="Q9">
+        <v>7317.8716875884202</v>
+      </c>
+      <c r="W9">
         <f t="shared" si="4"/>
-        <v>100476</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="5"/>
-        <v>8772</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="6"/>
-        <v>11088</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="7"/>
-        <v>90420</v>
-      </c>
-      <c r="U9">
-        <v>2628.2808073992692</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="8"/>
-        <v>7127.7191926007308</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="9"/>
-        <v>9695.7191926007308</v>
+        <v>9885.8716875884202</v>
       </c>
       <c r="X9">
         <f t="shared" si="1"/>
-        <v>97847.719192600736</v>
+        <v>98037.871687588427</v>
       </c>
       <c r="Y9">
+        <f t="shared" si="5"/>
+        <v>6333.8716875884202</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="6"/>
+        <v>8649.8716875884202</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="7"/>
+        <v>87981.871687588427</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="8"/>
+        <v>0.51315811823070645</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="9"/>
+        <v>3755.225264656638</v>
+      </c>
+      <c r="AD9">
         <f t="shared" si="10"/>
-        <v>6143.7191926007308</v>
-      </c>
-      <c r="Z9">
+        <v>5073.0153122730917</v>
+      </c>
+      <c r="AE9">
         <f t="shared" si="11"/>
-        <v>8459.7191926007308</v>
-      </c>
-      <c r="AA9">
+        <v>50308.929750546333</v>
+      </c>
+      <c r="AF9">
         <f t="shared" si="12"/>
-        <v>87791.719192600736</v>
-      </c>
-      <c r="AB9">
+        <v>3250.2776763176225</v>
+      </c>
+      <c r="AG9">
         <f t="shared" si="13"/>
-        <v>0.51315811823070645</v>
-      </c>
-      <c r="AC9">
+        <v>4438.7518781399385</v>
+      </c>
+      <c r="AH9">
         <f t="shared" si="14"/>
-        <v>3657.6469681518815</v>
-      </c>
-      <c r="AD9">
-        <f t="shared" si="15"/>
-        <v>4975.4370157683352</v>
-      </c>
-      <c r="AE9">
-        <f t="shared" si="16"/>
-        <v>50211.351454041571</v>
-      </c>
-      <c r="AF9">
-        <f t="shared" si="17"/>
-        <v>3152.699379812866</v>
-      </c>
-      <c r="AG9">
-        <f t="shared" si="18"/>
-        <v>4341.173581635182</v>
-      </c>
-      <c r="AH9">
-        <f t="shared" si="19"/>
-        <v>45051.033417113591</v>
+        <v>45148.611713618346</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
@@ -16892,79 +16919,79 @@
         <v>13308</v>
       </c>
       <c r="P10">
+        <f t="shared" si="0"/>
+        <v>17352</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>165120</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>11976</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>15612</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>148608</v>
+      </c>
+      <c r="U10">
+        <v>2438.1283124115794</v>
+      </c>
+      <c r="V10">
         <f t="shared" si="3"/>
-        <v>17352</v>
-      </c>
-      <c r="Q10">
+        <v>10869.87168758842</v>
+      </c>
+      <c r="W10">
         <f t="shared" si="4"/>
-        <v>165120</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="5"/>
-        <v>11976</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="6"/>
-        <v>15612</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="7"/>
-        <v>148608</v>
-      </c>
-      <c r="U10">
-        <v>2628.2808073992692</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="8"/>
-        <v>10679.719192600731</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="9"/>
-        <v>14723.719192600731</v>
+        <v>14913.87168758842</v>
       </c>
       <c r="X10">
         <f t="shared" si="1"/>
-        <v>162491.71919260072</v>
+        <v>162681.87168758843</v>
       </c>
       <c r="Y10">
+        <f t="shared" si="5"/>
+        <v>9537.8716875884202</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="6"/>
+        <v>13173.87168758842</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="7"/>
+        <v>146169.87168758843</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="8"/>
+        <v>0.46650738020973315</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="9"/>
+        <v>5070.8753641928251</v>
+      </c>
+      <c r="AD10">
         <f t="shared" si="10"/>
-        <v>9347.7191926007308</v>
-      </c>
-      <c r="Z10">
+        <v>6957.4312097609854</v>
+      </c>
+      <c r="AE10">
         <f t="shared" si="11"/>
-        <v>12983.719192600731</v>
-      </c>
-      <c r="AA10">
+        <v>75892.293768592834</v>
+      </c>
+      <c r="AF10">
         <f t="shared" si="12"/>
-        <v>145979.71919260072</v>
-      </c>
-      <c r="AB10">
+        <v>4449.4875337534604</v>
+      </c>
+      <c r="AG10">
         <f t="shared" si="13"/>
-        <v>0.46650738020973315</v>
-      </c>
-      <c r="AC10">
+        <v>6145.7083681960503</v>
+      </c>
+      <c r="AH10">
         <f t="shared" si="14"/>
-        <v>4982.1678219157739</v>
-      </c>
-      <c r="AD10">
-        <f t="shared" si="15"/>
-        <v>6868.7236674839342</v>
-      </c>
-      <c r="AE10">
-        <f t="shared" si="16"/>
-        <v>75803.586226315776</v>
-      </c>
-      <c r="AF10">
-        <f t="shared" si="17"/>
-        <v>4360.7799914764091</v>
-      </c>
-      <c r="AG10">
-        <f t="shared" si="18"/>
-        <v>6057.000825918999</v>
-      </c>
-      <c r="AH10">
-        <f t="shared" si="19"/>
-        <v>68100.616364292669</v>
+        <v>68189.323906569727</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
@@ -16999,79 +17026,79 @@
         <v>18108</v>
       </c>
       <c r="P11">
+        <f t="shared" si="0"/>
+        <v>24336</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>234204</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>16296</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>21900</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>210780</v>
+      </c>
+      <c r="U11">
+        <v>2438.1283124115794</v>
+      </c>
+      <c r="V11">
         <f t="shared" si="3"/>
-        <v>24336</v>
-      </c>
-      <c r="Q11">
+        <v>15669.87168758842</v>
+      </c>
+      <c r="W11">
         <f t="shared" si="4"/>
-        <v>234204</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="5"/>
-        <v>16296</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="6"/>
-        <v>21900</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="7"/>
-        <v>210780</v>
-      </c>
-      <c r="U11">
-        <v>2628.2808073992692</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="8"/>
-        <v>15479.719192600731</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="9"/>
-        <v>21707.719192600729</v>
+        <v>21897.87168758842</v>
       </c>
       <c r="X11">
         <f t="shared" si="1"/>
-        <v>231575.71919260072</v>
+        <v>231765.87168758843</v>
       </c>
       <c r="Y11">
+        <f t="shared" si="5"/>
+        <v>13857.87168758842</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="6"/>
+        <v>19461.87168758842</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="7"/>
+        <v>208341.87168758843</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="8"/>
+        <v>0.42409761837248466</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="9"/>
+        <v>6645.555262908676</v>
+      </c>
+      <c r="AD11">
         <f t="shared" si="10"/>
-        <v>13667.719192600731</v>
-      </c>
-      <c r="Z11">
+        <v>9286.8352301325103</v>
+      </c>
+      <c r="AE11">
         <f t="shared" si="11"/>
-        <v>19271.719192600729</v>
-      </c>
-      <c r="AA11">
+        <v>98291.354202729126</v>
+      </c>
+      <c r="AF11">
         <f t="shared" si="12"/>
-        <v>208151.71919260072</v>
-      </c>
-      <c r="AB11">
+        <v>5877.0903784177335</v>
+      </c>
+      <c r="AG11">
         <f t="shared" si="13"/>
-        <v>0.42409761837248466</v>
-      </c>
-      <c r="AC11">
+        <v>8253.7334317771383</v>
+      </c>
+      <c r="AH11">
         <f t="shared" si="14"/>
-        <v>6564.9120426568115</v>
-      </c>
-      <c r="AD11">
-        <f t="shared" si="15"/>
-        <v>9206.192009880644</v>
-      </c>
-      <c r="AE11">
-        <f t="shared" si="16"/>
-        <v>98210.710982477249</v>
-      </c>
-      <c r="AF11">
-        <f t="shared" si="17"/>
-        <v>5796.447158165869</v>
-      </c>
-      <c r="AG11">
-        <f t="shared" si="18"/>
-        <v>8173.090211525272</v>
-      </c>
-      <c r="AH11">
-        <f t="shared" si="19"/>
-        <v>88276.648369720177</v>
+        <v>88357.291589972039</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
@@ -17107,79 +17134,79 @@
         <v>24528</v>
       </c>
       <c r="P12">
+        <f t="shared" si="0"/>
+        <v>33864</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>275676</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>22068</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>30468</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>248100</v>
+      </c>
+      <c r="U12">
+        <v>2438.1283124115794</v>
+      </c>
+      <c r="V12">
         <f t="shared" si="3"/>
-        <v>33864</v>
-      </c>
-      <c r="Q12">
+        <v>22089.87168758842</v>
+      </c>
+      <c r="W12">
         <f t="shared" si="4"/>
-        <v>275676</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="5"/>
-        <v>22068</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="6"/>
-        <v>30468</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="7"/>
-        <v>248100</v>
-      </c>
-      <c r="U12">
-        <v>2628.2808073992692</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="8"/>
-        <v>21899.719192600729</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="9"/>
-        <v>31235.719192600729</v>
+        <v>31425.87168758842</v>
       </c>
       <c r="X12">
         <f t="shared" si="1"/>
-        <v>273047.71919260075</v>
+        <v>273237.8716875884</v>
       </c>
       <c r="Y12">
+        <f t="shared" si="5"/>
+        <v>19629.87168758842</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="6"/>
+        <v>28029.87168758842</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="7"/>
+        <v>245661.87168758843</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="8"/>
+        <v>0.38554328942953148</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="9"/>
+        <v>8516.6017935091149</v>
+      </c>
+      <c r="AD12">
         <f t="shared" si="10"/>
-        <v>19439.719192600729</v>
-      </c>
-      <c r="Z12">
+        <v>12116.033943623221</v>
+      </c>
+      <c r="AE12">
         <f t="shared" si="11"/>
-        <v>27839.719192600729</v>
-      </c>
-      <c r="AA12">
+        <v>105345.02784715708</v>
+      </c>
+      <c r="AF12">
         <f t="shared" si="12"/>
-        <v>245471.71919260072</v>
-      </c>
-      <c r="AB12">
+        <v>7568.1653015124675</v>
+      </c>
+      <c r="AG12">
         <f t="shared" si="13"/>
-        <v>0.38554328942953148</v>
-      </c>
-      <c r="AC12">
+        <v>10806.728932720533</v>
+      </c>
+      <c r="AH12">
         <f t="shared" si="14"/>
-        <v>8443.2897750983284</v>
-      </c>
-      <c r="AD12">
-        <f t="shared" si="15"/>
-        <v>12042.721925212434</v>
-      </c>
-      <c r="AE12">
-        <f t="shared" si="16"/>
-        <v>105271.71582874631</v>
-      </c>
-      <c r="AF12">
-        <f t="shared" si="17"/>
-        <v>7494.853283101681</v>
-      </c>
-      <c r="AG12">
-        <f t="shared" si="18"/>
-        <v>10733.416914309746</v>
-      </c>
-      <c r="AH12">
-        <f t="shared" si="19"/>
-        <v>94639.974079437539</v>
+        <v>94713.286097848322</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
@@ -17214,79 +17241,79 @@
         <v>33012</v>
       </c>
       <c r="P13">
+        <f t="shared" si="0"/>
+        <v>46644</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>284556</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>29700</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>41976</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>256092</v>
+      </c>
+      <c r="U13">
+        <v>2438.1283124115794</v>
+      </c>
+      <c r="V13">
         <f t="shared" si="3"/>
-        <v>46644</v>
-      </c>
-      <c r="Q13">
+        <v>30573.87168758842</v>
+      </c>
+      <c r="W13">
         <f t="shared" si="4"/>
-        <v>284556</v>
-      </c>
-      <c r="R13">
-        <f t="shared" si="5"/>
-        <v>29700</v>
-      </c>
-      <c r="S13">
-        <f t="shared" si="6"/>
-        <v>41976</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="7"/>
-        <v>256092</v>
-      </c>
-      <c r="U13">
-        <v>2628.2808073992692</v>
-      </c>
-      <c r="V13">
-        <f t="shared" si="8"/>
-        <v>30383.719192600729</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="9"/>
-        <v>44015.719192600729</v>
+        <v>44205.87168758842</v>
       </c>
       <c r="X13">
         <f t="shared" si="1"/>
-        <v>281927.71919260075</v>
+        <v>282117.8716875884</v>
       </c>
       <c r="Y13">
+        <f t="shared" si="5"/>
+        <v>27261.87168758842</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="6"/>
+        <v>39537.87168758842</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="7"/>
+        <v>253653.87168758843</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="8"/>
+        <v>0.3504938994813922</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="9"/>
+        <v>10715.955510026599</v>
+      </c>
+      <c r="AD13">
         <f t="shared" si="10"/>
-        <v>27071.719192600729</v>
-      </c>
-      <c r="Z13">
+        <v>15493.888347756938</v>
+      </c>
+      <c r="AE13">
         <f t="shared" si="11"/>
-        <v>39347.719192600729</v>
-      </c>
-      <c r="AA13">
+        <v>98880.592961173912</v>
+      </c>
+      <c r="AF13">
         <f t="shared" si="12"/>
-        <v>253463.71919260072</v>
-      </c>
-      <c r="AB13">
+        <v>9555.1197149442269</v>
+      </c>
+      <c r="AG13">
         <f t="shared" si="13"/>
-        <v>0.3504938994813922</v>
-      </c>
-      <c r="AC13">
+        <v>13857.782824977798</v>
+      </c>
+      <c r="AH13">
         <f t="shared" si="14"/>
-        <v>10649.308220562247</v>
-      </c>
-      <c r="AD13">
-        <f t="shared" si="15"/>
-        <v>15427.241058292586</v>
-      </c>
-      <c r="AE13">
-        <f t="shared" si="16"/>
-        <v>98813.945671709575</v>
-      </c>
-      <c r="AF13">
-        <f t="shared" si="17"/>
-        <v>9488.4724254798766</v>
-      </c>
-      <c r="AG13">
-        <f t="shared" si="18"/>
-        <v>13791.135535513447</v>
-      </c>
-      <c r="AH13">
-        <f t="shared" si="19"/>
-        <v>88837.487316871222</v>
+        <v>88904.134606335574</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
@@ -17315,79 +17342,79 @@
         <v>44064</v>
       </c>
       <c r="P14">
+        <f t="shared" si="0"/>
+        <v>63372</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>284964</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>39648</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>57024</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="0"/>
+        <v>256464</v>
+      </c>
+      <c r="U14">
+        <v>2438.1283124115794</v>
+      </c>
+      <c r="V14">
         <f t="shared" si="3"/>
-        <v>63372</v>
-      </c>
-      <c r="Q14">
+        <v>41625.87168758842</v>
+      </c>
+      <c r="W14">
         <f t="shared" si="4"/>
-        <v>284964</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="5"/>
-        <v>39648</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="6"/>
-        <v>57024</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="7"/>
-        <v>256464</v>
-      </c>
-      <c r="U14">
-        <v>2628.2808073992692</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="8"/>
-        <v>41435.719192600729</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="9"/>
-        <v>60743.719192600729</v>
+        <v>60933.87168758842</v>
       </c>
       <c r="X14">
         <f t="shared" si="1"/>
-        <v>282335.71919260075</v>
+        <v>282525.8716875884</v>
       </c>
       <c r="Y14">
+        <f t="shared" si="5"/>
+        <v>37209.87168758842</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="6"/>
+        <v>54585.87168758842</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="7"/>
+        <v>254025.87168758843</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="8"/>
+        <v>0.31863081771035656</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="9"/>
+        <v>13263.285533722677</v>
+      </c>
+      <c r="AD14">
         <f t="shared" si="10"/>
-        <v>37019.719192600729</v>
-      </c>
-      <c r="Z14">
+        <v>19415.409362074242</v>
+      </c>
+      <c r="AE14">
         <f t="shared" si="11"/>
-        <v>54395.719192600729</v>
-      </c>
-      <c r="AA14">
+        <v>90021.449520147566</v>
+      </c>
+      <c r="AF14">
         <f t="shared" si="12"/>
-        <v>253835.71919260072</v>
-      </c>
-      <c r="AB14">
+        <v>11856.211842713743</v>
+      </c>
+      <c r="AG14">
         <f t="shared" si="13"/>
-        <v>0.31863081771035656</v>
-      </c>
-      <c r="AC14">
+        <v>17392.7409312489</v>
+      </c>
+      <c r="AH14">
         <f t="shared" si="14"/>
-        <v>13202.697088755085</v>
-      </c>
-      <c r="AD14">
-        <f t="shared" si="15"/>
-        <v>19354.820917106652</v>
-      </c>
-      <c r="AE14">
-        <f t="shared" si="16"/>
-        <v>89960.861075179986</v>
-      </c>
-      <c r="AF14">
-        <f t="shared" si="17"/>
-        <v>11795.623397746151</v>
-      </c>
-      <c r="AG14">
-        <f t="shared" si="18"/>
-        <v>17332.152486281306</v>
-      </c>
-      <c r="AH14">
-        <f t="shared" si="19"/>
-        <v>80879.882770434822</v>
+        <v>80940.471215402416</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
@@ -17416,79 +17443,79 @@
         <v>58188</v>
       </c>
       <c r="P15">
+        <f t="shared" si="0"/>
+        <v>84504</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>285036</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>52368</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>76044</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>256524</v>
+      </c>
+      <c r="U15">
+        <v>2438.1283124115794</v>
+      </c>
+      <c r="V15">
         <f t="shared" si="3"/>
-        <v>84504</v>
-      </c>
-      <c r="Q15">
+        <v>55749.87168758842</v>
+      </c>
+      <c r="W15">
         <f t="shared" si="4"/>
-        <v>285036</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="5"/>
-        <v>52368</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="6"/>
-        <v>76044</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="7"/>
-        <v>256524</v>
-      </c>
-      <c r="U15">
-        <v>2628.2808073992692</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="8"/>
-        <v>55559.719192600729</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="9"/>
-        <v>81875.719192600736</v>
+        <v>82065.871687588427</v>
       </c>
       <c r="X15">
         <f t="shared" si="1"/>
-        <v>282407.71919260075</v>
+        <v>282597.8716875884</v>
       </c>
       <c r="Y15">
+        <f t="shared" si="5"/>
+        <v>49929.87168758842</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="6"/>
+        <v>73605.871687588427</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="7"/>
+        <v>254085.87168758843</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="8"/>
+        <v>0.28966437973668779</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="9"/>
+        <v>16148.752002785232</v>
+      </c>
+      <c r="AD15">
         <f t="shared" si="10"/>
-        <v>49739.719192600729</v>
-      </c>
-      <c r="Z15">
+        <v>23771.559819935908</v>
+      </c>
+      <c r="AE15">
         <f t="shared" si="11"/>
-        <v>73415.719192600736</v>
-      </c>
-      <c r="AA15">
+        <v>81858.537217293371</v>
+      </c>
+      <c r="AF15">
         <f t="shared" si="12"/>
-        <v>253895.71919260072</v>
-      </c>
-      <c r="AB15">
+        <v>14462.905312717709</v>
+      </c>
+      <c r="AG15">
         <f t="shared" si="13"/>
-        <v>0.28966437973668779</v>
-      </c>
-      <c r="AC15">
+        <v>21320.99916736353</v>
+      </c>
+      <c r="AH15">
         <f t="shared" si="14"/>
-        <v>16093.671598269239</v>
-      </c>
-      <c r="AD15">
-        <f t="shared" si="15"/>
-        <v>23716.479415419915</v>
-      </c>
-      <c r="AE15">
-        <f t="shared" si="16"/>
-        <v>81803.456812777396</v>
-      </c>
-      <c r="AF15">
-        <f t="shared" si="17"/>
-        <v>14407.824908201716</v>
-      </c>
-      <c r="AG15">
-        <f t="shared" si="18"/>
-        <v>21265.918762847537</v>
-      </c>
-      <c r="AH15">
-        <f t="shared" si="19"/>
-        <v>73544.546017724948</v>
+        <v>73599.626422240937</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
@@ -17517,79 +17544,79 @@
         <v>75732</v>
       </c>
       <c r="P16">
+        <f t="shared" si="0"/>
+        <v>109992</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="0"/>
+        <v>285072</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="0"/>
+        <v>68148</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="0"/>
+        <v>98988</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="0"/>
+        <v>256560</v>
+      </c>
+      <c r="U16">
+        <v>2438.1283124115794</v>
+      </c>
+      <c r="V16">
         <f t="shared" si="3"/>
-        <v>109992</v>
-      </c>
-      <c r="Q16">
+        <v>73293.871687588427</v>
+      </c>
+      <c r="W16">
         <f t="shared" si="4"/>
-        <v>285072</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="5"/>
-        <v>68148</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="6"/>
-        <v>98988</v>
-      </c>
-      <c r="T16">
-        <f t="shared" si="7"/>
-        <v>256560</v>
-      </c>
-      <c r="U16">
-        <v>2628.2808073992692</v>
-      </c>
-      <c r="V16">
-        <f t="shared" si="8"/>
-        <v>73103.719192600736</v>
-      </c>
-      <c r="W16">
-        <f t="shared" si="9"/>
-        <v>107363.71919260074</v>
+        <v>107553.87168758843</v>
       </c>
       <c r="X16">
         <f t="shared" si="1"/>
-        <v>282443.71919260075</v>
+        <v>282633.8716875884</v>
       </c>
       <c r="Y16">
+        <f t="shared" si="5"/>
+        <v>65709.871687588427</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="6"/>
+        <v>96549.871687588427</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="7"/>
+        <v>254121.87168758843</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="8"/>
+        <v>0.26333125430607973</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="9"/>
+        <v>19300.567164441527</v>
+      </c>
+      <c r="AD16">
         <f t="shared" si="10"/>
-        <v>65519.719192600729</v>
-      </c>
-      <c r="Z16">
+        <v>28322.295936967817</v>
+      </c>
+      <c r="AE16">
         <f t="shared" si="11"/>
-        <v>96359.719192600736</v>
-      </c>
-      <c r="AA16">
+        <v>74426.331940876247</v>
+      </c>
+      <c r="AF16">
         <f t="shared" si="12"/>
-        <v>253931.71919260072</v>
-      </c>
-      <c r="AB16">
+        <v>17303.462931784215</v>
+      </c>
+      <c r="AG16">
         <f t="shared" si="13"/>
-        <v>0.26333125430607973</v>
-      </c>
-      <c r="AC16">
+        <v>25424.598814583715</v>
+      </c>
+      <c r="AH16">
         <f t="shared" si="14"/>
-        <v>19250.494069426986</v>
-      </c>
-      <c r="AD16">
-        <f t="shared" si="15"/>
-        <v>28272.222841953277</v>
-      </c>
-      <c r="AE16">
-        <f t="shared" si="16"/>
-        <v>74376.258845861725</v>
-      </c>
-      <c r="AF16">
-        <f t="shared" si="17"/>
-        <v>17253.389836769675</v>
-      </c>
-      <c r="AG16">
-        <f t="shared" si="18"/>
-        <v>25374.525719569177</v>
-      </c>
-      <c r="AH16">
-        <f t="shared" si="19"/>
-        <v>66868.158123086774</v>
+        <v>66918.231218101311</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
@@ -17618,79 +17645,79 @@
         <v>96816</v>
       </c>
       <c r="P17">
+        <f t="shared" si="0"/>
+        <v>138960</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="0"/>
+        <v>285096</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="0"/>
+        <v>87132</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="0"/>
+        <v>125064</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="0"/>
+        <v>256584</v>
+      </c>
+      <c r="U17">
+        <v>2438.1283124115794</v>
+      </c>
+      <c r="V17">
         <f t="shared" si="3"/>
-        <v>138960</v>
-      </c>
-      <c r="Q17">
+        <v>94377.871687588427</v>
+      </c>
+      <c r="W17">
         <f t="shared" si="4"/>
-        <v>285096</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="5"/>
-        <v>87132</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="6"/>
-        <v>125064</v>
-      </c>
-      <c r="T17">
-        <f t="shared" si="7"/>
-        <v>256584</v>
-      </c>
-      <c r="U17">
-        <v>2628.2808073992692</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="8"/>
-        <v>94187.719192600736</v>
-      </c>
-      <c r="W17">
-        <f t="shared" si="9"/>
-        <v>136331.71919260072</v>
+        <v>136521.87168758843</v>
       </c>
       <c r="X17">
         <f t="shared" si="1"/>
-        <v>282467.71919260075</v>
+        <v>282657.8716875884</v>
       </c>
       <c r="Y17">
+        <f t="shared" si="5"/>
+        <v>84693.871687588427</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="6"/>
+        <v>122625.87168758843</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="7"/>
+        <v>254145.87168758843</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="8"/>
+        <v>0.23939204936916339</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="9"/>
+        <v>22593.312118391736</v>
+      </c>
+      <c r="AD17">
         <f t="shared" si="10"/>
-        <v>84503.719192600736</v>
-      </c>
-      <c r="Z17">
+        <v>32682.25064700576</v>
+      </c>
+      <c r="AE17">
         <f t="shared" si="11"/>
-        <v>122435.71919260074</v>
-      </c>
-      <c r="AA17">
+        <v>67666.047173617815</v>
+      </c>
+      <c r="AF17">
         <f t="shared" si="12"/>
-        <v>253955.71919260072</v>
-      </c>
-      <c r="AB17">
+        <v>20275.039512300758</v>
+      </c>
+      <c r="AG17">
         <f t="shared" si="13"/>
-        <v>0.23939204936916339</v>
-      </c>
-      <c r="AC17">
+        <v>29355.658728971863</v>
+      </c>
+      <c r="AH17">
         <f t="shared" si="14"/>
-        <v>22547.791122923973</v>
-      </c>
-      <c r="AD17">
-        <f t="shared" si="15"/>
-        <v>32636.729651537993</v>
-      </c>
-      <c r="AE17">
-        <f t="shared" si="16"/>
-        <v>67620.526178150059</v>
-      </c>
-      <c r="AF17">
-        <f t="shared" si="17"/>
-        <v>20229.518516832995</v>
-      </c>
-      <c r="AG17">
-        <f t="shared" si="18"/>
-        <v>29310.1377335041</v>
-      </c>
-      <c r="AH17">
-        <f t="shared" si="19"/>
-        <v>60794.980066536467</v>
+        <v>60840.50106200423</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
@@ -17719,79 +17746,79 @@
         <v>121044</v>
       </c>
       <c r="P18">
+        <f t="shared" ref="P18:P22" si="15">$I$9*C45</f>
+        <v>169512</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" ref="Q18:Q22" si="16">$I$9*D45</f>
+        <v>285108</v>
+      </c>
+      <c r="R18">
+        <f t="shared" ref="R18:R22" si="17">$I$9*E45</f>
+        <v>108936</v>
+      </c>
+      <c r="S18">
+        <f t="shared" ref="S18:S22" si="18">$I$9*F45</f>
+        <v>152556</v>
+      </c>
+      <c r="T18">
+        <f t="shared" ref="T18:T22" si="19">$I$9*G45</f>
+        <v>256596</v>
+      </c>
+      <c r="U18">
+        <v>2438.1283124115794</v>
+      </c>
+      <c r="V18">
         <f t="shared" si="3"/>
-        <v>169512</v>
-      </c>
-      <c r="Q18">
+        <v>118605.87168758843</v>
+      </c>
+      <c r="W18">
         <f t="shared" si="4"/>
-        <v>285108</v>
-      </c>
-      <c r="R18">
-        <f t="shared" si="5"/>
-        <v>108936</v>
-      </c>
-      <c r="S18">
-        <f t="shared" si="6"/>
-        <v>152556</v>
-      </c>
-      <c r="T18">
-        <f t="shared" si="7"/>
-        <v>256596</v>
-      </c>
-      <c r="U18">
-        <v>2628.2808073992692</v>
-      </c>
-      <c r="V18">
-        <f t="shared" si="8"/>
-        <v>118415.71919260074</v>
-      </c>
-      <c r="W18">
-        <f t="shared" si="9"/>
-        <v>166883.71919260072</v>
+        <v>167073.87168758843</v>
       </c>
       <c r="X18">
         <f t="shared" si="1"/>
-        <v>282479.71919260075</v>
+        <v>282669.8716875884</v>
       </c>
       <c r="Y18">
+        <f t="shared" si="5"/>
+        <v>106497.87168758843</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="6"/>
+        <v>150117.87168758843</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="7"/>
+        <v>254157.87168758843</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="8"/>
+        <v>0.21762913579014853</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="9"/>
+        <v>25812.093355007117</v>
+      </c>
+      <c r="AD18">
         <f t="shared" si="10"/>
-        <v>106307.71919260074</v>
-      </c>
-      <c r="Z18">
+        <v>36360.142308484035</v>
+      </c>
+      <c r="AE18">
         <f t="shared" si="11"/>
-        <v>149927.71919260072</v>
-      </c>
-      <c r="AA18">
+        <v>61517.199889282034</v>
+      </c>
+      <c r="AF18">
         <f t="shared" si="12"/>
-        <v>253967.71919260072</v>
-      </c>
-      <c r="AB18">
+        <v>23177.039778859995</v>
+      </c>
+      <c r="AG18">
         <f t="shared" si="13"/>
-        <v>0.21762913579014853</v>
-      </c>
-      <c r="AC18">
+        <v>32670.022682026276</v>
+      </c>
+      <c r="AH18">
         <f t="shared" si="14"/>
-        <v>25770.710631854603</v>
-      </c>
-      <c r="AD18">
-        <f t="shared" si="15"/>
-        <v>36318.759585331522</v>
-      </c>
-      <c r="AE18">
-        <f t="shared" si="16"/>
-        <v>61475.817166129535</v>
-      </c>
-      <c r="AF18">
-        <f t="shared" si="17"/>
-        <v>23135.657055707485</v>
-      </c>
-      <c r="AG18">
-        <f t="shared" si="18"/>
-        <v>32628.639958873762</v>
-      </c>
-      <c r="AH18">
-        <f t="shared" si="19"/>
-        <v>55270.775246480815</v>
+        <v>55312.157969633328</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
@@ -17820,79 +17847,79 @@
         <v>147444</v>
       </c>
       <c r="P19">
+        <f t="shared" si="15"/>
+        <v>198984</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="16"/>
+        <v>285108</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="17"/>
+        <v>132696</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="18"/>
+        <v>179076</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="19"/>
+        <v>256596</v>
+      </c>
+      <c r="U19">
+        <v>2438.1283124115794</v>
+      </c>
+      <c r="V19">
         <f t="shared" si="3"/>
-        <v>198984</v>
-      </c>
-      <c r="Q19">
+        <v>145005.87168758843</v>
+      </c>
+      <c r="W19">
         <f t="shared" si="4"/>
-        <v>285108</v>
-      </c>
-      <c r="R19">
-        <f t="shared" si="5"/>
-        <v>132696</v>
-      </c>
-      <c r="S19">
-        <f t="shared" si="6"/>
-        <v>179076</v>
-      </c>
-      <c r="T19">
-        <f t="shared" si="7"/>
-        <v>256596</v>
-      </c>
-      <c r="U19">
-        <v>2628.2808073992692</v>
-      </c>
-      <c r="V19">
-        <f t="shared" si="8"/>
-        <v>144815.71919260072</v>
-      </c>
-      <c r="W19">
-        <f t="shared" si="9"/>
-        <v>196355.71919260072</v>
+        <v>196545.87168758843</v>
       </c>
       <c r="X19">
         <f t="shared" si="1"/>
-        <v>282479.71919260075</v>
+        <v>282669.8716875884</v>
       </c>
       <c r="Y19">
+        <f t="shared" si="5"/>
+        <v>130257.87168758843</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="6"/>
+        <v>176637.87168758843</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="7"/>
+        <v>254157.87168758843</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="8"/>
+        <v>0.19784466890013502</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="9"/>
+        <v>28688.638672606397</v>
+      </c>
+      <c r="AD19">
         <f t="shared" si="10"/>
-        <v>130067.71919260074</v>
-      </c>
-      <c r="Z19">
+        <v>38885.552907719357</v>
+      </c>
+      <c r="AE19">
         <f t="shared" si="11"/>
-        <v>176447.71919260072</v>
-      </c>
-      <c r="AA19">
+        <v>55924.727172074578</v>
+      </c>
+      <c r="AF19">
         <f t="shared" si="12"/>
-        <v>253967.71919260072</v>
-      </c>
-      <c r="AB19">
+        <v>25770.825495667206</v>
+      </c>
+      <c r="AG19">
         <f t="shared" si="13"/>
-        <v>0.19784466890013502</v>
-      </c>
-      <c r="AC19">
+        <v>34946.861239255464</v>
+      </c>
+      <c r="AH19">
         <f t="shared" si="14"/>
-        <v>28651.018015195019</v>
-      </c>
-      <c r="AD19">
-        <f t="shared" si="15"/>
-        <v>38847.932250307975</v>
-      </c>
-      <c r="AE19">
-        <f t="shared" si="16"/>
-        <v>55887.10651466321</v>
-      </c>
-      <c r="AF19">
-        <f t="shared" si="17"/>
-        <v>25733.204838255831</v>
-      </c>
-      <c r="AG19">
-        <f t="shared" si="18"/>
-        <v>34909.240581844089</v>
-      </c>
-      <c r="AH19">
-        <f t="shared" si="19"/>
-        <v>50246.159314982557</v>
+        <v>50283.779972393932</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
@@ -17921,79 +17948,79 @@
         <v>174420</v>
       </c>
       <c r="P20">
+        <f t="shared" si="15"/>
+        <v>224760</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="16"/>
+        <v>285120</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="17"/>
+        <v>156972</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="18"/>
+        <v>202284</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="19"/>
+        <v>256608</v>
+      </c>
+      <c r="U20">
+        <v>2438.1283124115794</v>
+      </c>
+      <c r="V20">
         <f t="shared" si="3"/>
-        <v>224760</v>
-      </c>
-      <c r="Q20">
+        <v>171981.87168758843</v>
+      </c>
+      <c r="W20">
         <f t="shared" si="4"/>
-        <v>285120</v>
-      </c>
-      <c r="R20">
-        <f t="shared" si="5"/>
-        <v>156972</v>
-      </c>
-      <c r="S20">
-        <f t="shared" si="6"/>
-        <v>202284</v>
-      </c>
-      <c r="T20">
-        <f t="shared" si="7"/>
-        <v>256608</v>
-      </c>
-      <c r="U20">
-        <v>2628.2808073992692</v>
-      </c>
-      <c r="V20">
-        <f t="shared" si="8"/>
-        <v>171791.71919260072</v>
-      </c>
-      <c r="W20">
-        <f t="shared" si="9"/>
-        <v>222131.71919260072</v>
+        <v>222321.87168758843</v>
       </c>
       <c r="X20">
         <f t="shared" si="1"/>
-        <v>282491.71919260075</v>
+        <v>282681.8716875884</v>
       </c>
       <c r="Y20">
+        <f t="shared" si="5"/>
+        <v>154533.87168758843</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="6"/>
+        <v>199845.87168758843</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="7"/>
+        <v>254169.87168758843</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="8"/>
+        <v>0.17985878990921364</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="9"/>
+        <v>30932.451328051306</v>
+      </c>
+      <c r="AD20">
         <f t="shared" si="10"/>
-        <v>154343.71919260072</v>
-      </c>
-      <c r="Z20">
+        <v>39986.542812081119</v>
+      </c>
+      <c r="AE20">
         <f t="shared" si="11"/>
-        <v>199655.71919260072</v>
-      </c>
-      <c r="AA20">
+        <v>50842.819371001249</v>
+      </c>
+      <c r="AF20">
         <f t="shared" si="12"/>
-        <v>253979.71919260072</v>
-      </c>
-      <c r="AB20">
+        <v>27794.275161715344</v>
+      </c>
+      <c r="AG20">
         <f t="shared" si="13"/>
-        <v>0.17985878990921364</v>
-      </c>
-      <c r="AC20">
+        <v>35944.036650081631</v>
+      </c>
+      <c r="AH20">
         <f t="shared" si="14"/>
-        <v>30898.250730404598</v>
-      </c>
-      <c r="AD20">
-        <f t="shared" si="15"/>
-        <v>39952.342214434415</v>
-      </c>
-      <c r="AE20">
-        <f t="shared" si="16"/>
-        <v>50808.618773354552</v>
-      </c>
-      <c r="AF20">
-        <f t="shared" si="17"/>
-        <v>27760.07456406864</v>
-      </c>
-      <c r="AG20">
-        <f t="shared" si="18"/>
-        <v>35909.836052434926</v>
-      </c>
-      <c r="AH20">
-        <f t="shared" si="19"/>
-        <v>45680.484955463049</v>
+        <v>45714.685553109754</v>
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
@@ -18022,79 +18049,79 @@
         <v>200088</v>
       </c>
       <c r="P21">
+        <f t="shared" si="15"/>
+        <v>245172</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="16"/>
+        <v>285120</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="17"/>
+        <v>180072</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="18"/>
+        <v>220644</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="19"/>
+        <v>256608</v>
+      </c>
+      <c r="U21">
+        <v>2438.1283124115794</v>
+      </c>
+      <c r="V21">
         <f t="shared" si="3"/>
-        <v>245172</v>
-      </c>
-      <c r="Q21">
+        <v>197649.87168758843</v>
+      </c>
+      <c r="W21">
         <f t="shared" si="4"/>
-        <v>285120</v>
-      </c>
-      <c r="R21">
-        <f t="shared" si="5"/>
-        <v>180072</v>
-      </c>
-      <c r="S21">
-        <f t="shared" si="6"/>
-        <v>220644</v>
-      </c>
-      <c r="T21">
-        <f t="shared" si="7"/>
-        <v>256608</v>
-      </c>
-      <c r="U21">
-        <v>2628.2808073992692</v>
-      </c>
-      <c r="V21">
-        <f t="shared" si="8"/>
-        <v>197459.71919260072</v>
-      </c>
-      <c r="W21">
-        <f t="shared" si="9"/>
-        <v>242543.71919260072</v>
+        <v>242733.87168758843</v>
       </c>
       <c r="X21">
         <f t="shared" si="1"/>
-        <v>282491.71919260075</v>
+        <v>282681.8716875884</v>
       </c>
       <c r="Y21">
+        <f t="shared" si="5"/>
+        <v>177633.87168758843</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="6"/>
+        <v>218205.87168758843</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="7"/>
+        <v>254169.87168758843</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="8"/>
+        <v>0.16350799082655781</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="9"/>
+        <v>32317.333406764537</v>
+      </c>
+      <c r="AD21">
         <f t="shared" si="10"/>
-        <v>177443.71919260072</v>
-      </c>
-      <c r="Z21">
+        <v>39688.927665189069</v>
+      </c>
+      <c r="AE21">
         <f t="shared" si="11"/>
-        <v>218015.71919260072</v>
-      </c>
-      <c r="AA21">
+        <v>46220.744882728395</v>
+      </c>
+      <c r="AF21">
         <f t="shared" si="12"/>
-        <v>253979.71919260072</v>
-      </c>
-      <c r="AB21">
+        <v>29044.557462380155</v>
+      </c>
+      <c r="AG21">
         <f t="shared" si="13"/>
-        <v>0.16350799082655781</v>
-      </c>
-      <c r="AC21">
+        <v>35678.403666195263</v>
+      </c>
+      <c r="AH21">
         <f t="shared" si="14"/>
-        <v>32286.24195435844</v>
-      </c>
-      <c r="AD21">
-        <f t="shared" si="15"/>
-        <v>39657.836212782975</v>
-      </c>
-      <c r="AE21">
-        <f t="shared" si="16"/>
-        <v>46189.653430322309</v>
-      </c>
-      <c r="AF21">
-        <f t="shared" si="17"/>
-        <v>29013.466009974061</v>
-      </c>
-      <c r="AG21">
-        <f t="shared" si="18"/>
-        <v>35647.312213789162</v>
-      </c>
-      <c r="AH21">
-        <f t="shared" si="19"/>
-        <v>41527.713595875488</v>
+        <v>41558.805048281589</v>
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
@@ -18123,79 +18150,79 @@
         <v>222708</v>
       </c>
       <c r="P22">
+        <f t="shared" si="15"/>
+        <v>259896</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="16"/>
+        <v>285120</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="17"/>
+        <v>200436</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="18"/>
+        <v>233904</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="19"/>
+        <v>256608</v>
+      </c>
+      <c r="U22">
+        <v>2438.1283124115794</v>
+      </c>
+      <c r="V22">
         <f t="shared" si="3"/>
-        <v>259896</v>
-      </c>
-      <c r="Q22">
+        <v>220269.87168758843</v>
+      </c>
+      <c r="W22">
         <f t="shared" si="4"/>
-        <v>285120</v>
-      </c>
-      <c r="R22">
-        <f t="shared" si="5"/>
-        <v>200436</v>
-      </c>
-      <c r="S22">
-        <f t="shared" si="6"/>
-        <v>233904</v>
-      </c>
-      <c r="T22">
-        <f t="shared" si="7"/>
-        <v>256608</v>
-      </c>
-      <c r="U22">
-        <v>2628.2808073992692</v>
-      </c>
-      <c r="V22">
-        <f t="shared" si="8"/>
-        <v>220079.71919260072</v>
-      </c>
-      <c r="W22">
-        <f t="shared" si="9"/>
-        <v>257267.71919260072</v>
+        <v>257457.87168758843</v>
       </c>
       <c r="X22">
         <f t="shared" si="1"/>
-        <v>282491.71919260075</v>
+        <v>282681.8716875884</v>
       </c>
       <c r="Y22">
+        <f t="shared" si="5"/>
+        <v>197997.87168758843</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="6"/>
+        <v>231465.87168758843</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="7"/>
+        <v>254169.87168758843</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="8"/>
+        <v>0.14864362802414349</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="9"/>
+        <v>32741.712872055712</v>
+      </c>
+      <c r="AD22">
         <f t="shared" si="10"/>
-        <v>197807.71919260072</v>
-      </c>
-      <c r="Z22">
+        <v>38269.47211101756</v>
+      </c>
+      <c r="AE22">
         <f t="shared" si="11"/>
-        <v>231275.71919260072</v>
-      </c>
-      <c r="AA22">
+        <v>42018.858984298553</v>
+      </c>
+      <c r="AF22">
         <f t="shared" si="12"/>
-        <v>253979.71919260072</v>
-      </c>
-      <c r="AB22">
+        <v>29431.121988701987</v>
+      </c>
+      <c r="AG22">
         <f t="shared" si="13"/>
-        <v>0.14864362802414349</v>
-      </c>
-      <c r="AC22">
+        <v>34405.926931414018</v>
+      </c>
+      <c r="AH22">
         <f t="shared" si="14"/>
-        <v>32713.447915322897</v>
-      </c>
-      <c r="AD22">
-        <f t="shared" si="15"/>
-        <v>38241.207154284741</v>
-      </c>
-      <c r="AE22">
-        <f t="shared" si="16"/>
-        <v>41990.594027565741</v>
-      </c>
-      <c r="AF22">
-        <f t="shared" si="17"/>
-        <v>29402.857031969172</v>
-      </c>
-      <c r="AG22">
-        <f t="shared" si="18"/>
-        <v>34377.661974681207</v>
-      </c>
-      <c r="AH22">
-        <f t="shared" si="19"/>
-        <v>37752.46690534136</v>
+        <v>37780.731862074172</v>
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
@@ -23194,7 +23221,7 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23287,46 +23314,46 @@
         <v>825.6</v>
       </c>
       <c r="H2">
-        <v>2100.343099297746</v>
+        <v>2428.374312411579</v>
       </c>
       <c r="I2">
-        <v>-1178.7430992977461</v>
+        <v>-1506.7743124115791</v>
       </c>
       <c r="J2">
-        <v>-1178.7430992977461</v>
+        <v>-1506.7743124115791</v>
       </c>
       <c r="K2">
-        <v>-1178.7430992977461</v>
+        <v>-1506.7743124115791</v>
       </c>
       <c r="L2">
-        <v>-1274.7430992977461</v>
+        <v>-1602.7743124115791</v>
       </c>
       <c r="M2">
-        <v>-1274.7430992977461</v>
+        <v>-1602.7743124115791</v>
       </c>
       <c r="N2">
-        <v>-1274.7430992977461</v>
+        <v>-1602.7743124115791</v>
       </c>
       <c r="O2">
         <v>1</v>
       </c>
       <c r="P2">
-        <v>-1178.7430992977461</v>
+        <v>-1506.7743124115791</v>
       </c>
       <c r="Q2">
-        <v>-1178.7430992977461</v>
+        <v>-1506.7743124115791</v>
       </c>
       <c r="R2">
-        <v>-1178.7430992977461</v>
+        <v>-1506.7743124115791</v>
       </c>
       <c r="S2">
-        <v>-1274.7430992977461</v>
+        <v>-1602.7743124115791</v>
       </c>
       <c r="T2">
-        <v>-1274.7430992977461</v>
+        <v>-1602.7743124115791</v>
       </c>
       <c r="U2">
-        <v>-1274.7430992977461</v>
+        <v>-1602.7743124115791</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -23352,46 +23379,46 @@
         <v>1545.6</v>
       </c>
       <c r="H3">
-        <v>2100.343099297746</v>
+        <v>2428.374312411579</v>
       </c>
       <c r="I3">
-        <v>-871.54309929774604</v>
+        <v>-1199.5743124115791</v>
       </c>
       <c r="J3">
-        <v>-833.14309929774595</v>
+        <v>-1161.174312411579</v>
       </c>
       <c r="K3">
-        <v>-381.94309929774613</v>
+        <v>-709.97431241157915</v>
       </c>
       <c r="L3">
-        <v>-996.34309929774599</v>
+        <v>-1324.374312411579</v>
       </c>
       <c r="M3">
-        <v>-967.54309929774604</v>
+        <v>-1295.5743124115791</v>
       </c>
       <c r="N3">
-        <v>-554.74309929774608</v>
+        <v>-882.7743124115791</v>
       </c>
       <c r="O3">
         <v>0.90909090909090906</v>
       </c>
       <c r="P3">
-        <v>-792.31190845249637</v>
+        <v>-1090.5221021923446</v>
       </c>
       <c r="Q3">
-        <v>-757.40281754340538</v>
+        <v>-1055.6130112832536</v>
       </c>
       <c r="R3">
-        <v>-347.22099936158736</v>
+        <v>-645.43119310143561</v>
       </c>
       <c r="S3">
-        <v>-905.76645390704175</v>
+        <v>-1203.9766476468899</v>
       </c>
       <c r="T3">
-        <v>-879.58463572522362</v>
+        <v>-1177.7948294650719</v>
       </c>
       <c r="U3">
-        <v>-504.31190845249643</v>
+        <v>-802.52210219234462</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -23417,46 +23444,46 @@
         <v>2947.2</v>
       </c>
       <c r="H4">
-        <v>2100.343099297746</v>
+        <v>2428.374312411579</v>
       </c>
       <c r="I4">
-        <v>-449.14309929774595</v>
+        <v>-777.17431241157897</v>
       </c>
       <c r="J4">
-        <v>-343.54309929774604</v>
+        <v>-671.57431241157906</v>
       </c>
       <c r="K4">
-        <v>1182.8569007022538</v>
+        <v>854.82568758842081</v>
       </c>
       <c r="L4">
-        <v>-621.94309929774613</v>
+        <v>-949.97431241157915</v>
       </c>
       <c r="M4">
-        <v>-525.94309929774613</v>
+        <v>-853.97431241157915</v>
       </c>
       <c r="N4">
-        <v>846.85690070225382</v>
+        <v>518.82568758842081</v>
       </c>
       <c r="O4">
         <v>0.82644628099173545</v>
       </c>
       <c r="P4">
-        <v>-371.19264404772389</v>
+        <v>-642.29282017485855</v>
       </c>
       <c r="Q4">
-        <v>-283.91991677499669</v>
+        <v>-555.02009290213141</v>
       </c>
       <c r="R4">
-        <v>977.56768653078814</v>
+        <v>706.46751040365348</v>
       </c>
       <c r="S4">
-        <v>-514.00256140309591</v>
+        <v>-785.10273753023057</v>
       </c>
       <c r="T4">
-        <v>-434.66371842788931</v>
+        <v>-705.76389455502397</v>
       </c>
       <c r="U4">
-        <v>699.88173611756508</v>
+        <v>428.78155999043037</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -23482,46 +23509,46 @@
         <v>5702.4</v>
       </c>
       <c r="H5">
-        <v>2100.343099297746</v>
+        <v>2428.374312411579</v>
       </c>
       <c r="I5">
-        <v>136.45690070225373</v>
+        <v>-191.57431241157929</v>
       </c>
       <c r="J5">
-        <v>366.85690070225382</v>
+        <v>38.825687588420806</v>
       </c>
       <c r="K5">
-        <v>4245.2569007022539</v>
+        <v>3917.2256875884204</v>
       </c>
       <c r="L5">
-        <v>-93.94309929774613</v>
+        <v>-421.97431241157915</v>
       </c>
       <c r="M5">
-        <v>117.25690070225392</v>
+        <v>-210.7743124115791</v>
       </c>
       <c r="N5">
-        <v>3602.0569007022536</v>
+        <v>3274.0256875884206</v>
       </c>
       <c r="O5">
         <v>0.75131480090157754</v>
       </c>
       <c r="P5">
-        <v>102.5220891827601</v>
+        <v>-143.93261638736232</v>
       </c>
       <c r="Q5">
-        <v>275.62501931048365</v>
+        <v>29.170313740361227</v>
       </c>
       <c r="R5">
-        <v>3189.524343127162</v>
+        <v>2943.0696375570392</v>
       </c>
       <c r="S5">
-        <v>-70.580840944963256</v>
+        <v>-317.03554651508568</v>
       </c>
       <c r="T5">
-        <v>88.09684500544995</v>
+        <v>-158.35786056467245</v>
       </c>
       <c r="U5">
-        <v>2706.2786631872673</v>
+        <v>2459.823957617145</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -23547,46 +23574,46 @@
         <v>11088</v>
       </c>
       <c r="H6">
-        <v>2100.343099297746</v>
+        <v>2428.374312411579</v>
       </c>
       <c r="I6">
-        <v>952.45690070225373</v>
+        <v>624.42568758842071</v>
       </c>
       <c r="J6">
-        <v>1384.4569007022537</v>
+        <v>1056.4256875884207</v>
       </c>
       <c r="K6">
-        <v>10226.056900702253</v>
+        <v>9898.0256875884206</v>
       </c>
       <c r="L6">
-        <v>645.25690070225392</v>
+        <v>317.2256875884209</v>
       </c>
       <c r="M6">
-        <v>1029.2569007022539</v>
+        <v>701.2256875884209</v>
       </c>
       <c r="N6">
-        <v>8987.6569007022536</v>
+        <v>8659.625687588421</v>
       </c>
       <c r="O6">
         <v>0.68301345536507052</v>
       </c>
       <c r="P6">
-        <v>650.5408788349522</v>
+        <v>426.49114649847724</v>
       </c>
       <c r="Q6">
-        <v>945.60269155266269</v>
+        <v>721.55295921618767</v>
       </c>
       <c r="R6">
-        <v>6984.5344585084695</v>
+        <v>6760.4847261719951</v>
       </c>
       <c r="S6">
-        <v>440.71914534680263</v>
+        <v>216.66941301032773</v>
       </c>
       <c r="T6">
-        <v>702.99631220698973</v>
+        <v>478.94657987051482</v>
       </c>
       <c r="U6">
-        <v>6138.690595384367</v>
+        <v>5914.6408630478918</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -23612,46 +23639,46 @@
         <v>21360</v>
       </c>
       <c r="H7">
-        <v>2100.343099297746</v>
+        <v>2428.374312411579</v>
       </c>
       <c r="I7">
-        <v>2075.656900702254</v>
+        <v>1747.625687588421</v>
       </c>
       <c r="J7">
-        <v>2834.0569007022536</v>
+        <v>2506.0256875884206</v>
       </c>
       <c r="K7">
-        <v>21640.456900702255</v>
+        <v>21312.42568758842</v>
       </c>
       <c r="L7">
-        <v>1653.2569007022539</v>
+        <v>1325.2256875884209</v>
       </c>
       <c r="M7">
-        <v>2334.8569007022538</v>
+        <v>2006.8256875884208</v>
       </c>
       <c r="N7">
-        <v>19259.656900702255</v>
+        <v>18931.625687588421</v>
       </c>
       <c r="O7">
         <v>0.62092132305915493</v>
       </c>
       <c r="P7">
-        <v>1288.8196290009084</v>
+        <v>1085.1380541495678</v>
       </c>
       <c r="Q7">
-        <v>1759.7263604089715</v>
+        <v>1556.0447855576306</v>
       </c>
       <c r="R7">
-        <v>13437.021130388663</v>
+        <v>13233.339555537321</v>
       </c>
       <c r="S7">
-        <v>1026.5424621407215</v>
+        <v>822.86088728938057</v>
       </c>
       <c r="T7">
-        <v>1449.7624359378415</v>
+        <v>1246.0808610865006</v>
       </c>
       <c r="U7">
-        <v>11958.731644449428</v>
+        <v>11755.050069598086</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -23677,46 +23704,46 @@
         <v>40262.400000000001</v>
       </c>
       <c r="H8">
-        <v>2100.343099297746</v>
+        <v>2428.374312411579</v>
       </c>
       <c r="I8">
-        <v>3602.0569007022536</v>
+        <v>3274.0256875884206</v>
       </c>
       <c r="J8">
-        <v>4878.8569007022543</v>
+        <v>4550.8256875884208</v>
       </c>
       <c r="K8">
-        <v>42635.656900702255</v>
+        <v>42307.625687588421</v>
       </c>
       <c r="L8">
-        <v>3026.0569007022536</v>
+        <v>2698.0256875884206</v>
       </c>
       <c r="M8">
-        <v>4178.0569007022532</v>
+        <v>3850.0256875884206</v>
       </c>
       <c r="N8">
-        <v>38162.056900702257</v>
+        <v>37834.025687588422</v>
       </c>
       <c r="O8">
         <v>0.56447393005377722</v>
       </c>
       <c r="P8">
-        <v>2033.2672150167296</v>
+        <v>1848.1021469700561</v>
       </c>
       <c r="Q8">
-        <v>2753.9875289093925</v>
+        <v>2568.8224608627188</v>
       </c>
       <c r="R8">
-        <v>24066.716811163849</v>
+        <v>23881.551743117176</v>
       </c>
       <c r="S8">
-        <v>1708.1302313057538</v>
+        <v>1522.9651632590803</v>
       </c>
       <c r="T8">
-        <v>2358.4041987277051</v>
+        <v>2173.2391306810318</v>
       </c>
       <c r="U8">
-        <v>21541.486237675272</v>
+        <v>21356.321169628598</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -23742,46 +23769,46 @@
         <v>72336</v>
       </c>
       <c r="H9">
-        <v>2100.343099297746</v>
+        <v>2428.374312411579</v>
       </c>
       <c r="I9">
-        <v>5704.4569007022528</v>
+        <v>5376.4256875884203</v>
       </c>
       <c r="J9">
-        <v>7758.8569007022525</v>
+        <v>7430.8256875884199</v>
       </c>
       <c r="K9">
-        <v>78280.456900702251</v>
+        <v>77952.425687588431</v>
       </c>
       <c r="L9">
-        <v>4917.2569007022539</v>
+        <v>4589.2256875884204</v>
       </c>
       <c r="M9">
-        <v>6770.0569007022532</v>
+        <v>6442.0256875884206</v>
       </c>
       <c r="N9">
-        <v>70235.656900702248</v>
+        <v>69907.625687588414</v>
       </c>
       <c r="O9">
         <v>0.51315811823070645</v>
       </c>
       <c r="P9">
-        <v>2927.2883686925361</v>
+        <v>2758.9564886501057</v>
       </c>
       <c r="Q9">
-        <v>3981.5204067856989</v>
+        <v>3813.188526743269</v>
       </c>
       <c r="R9">
-        <v>40170.251957404289</v>
+        <v>40001.920077361865</v>
       </c>
       <c r="S9">
-        <v>2523.3302980213243</v>
+        <v>2354.9984179788939</v>
       </c>
       <c r="T9">
-        <v>3474.109659479177</v>
+        <v>3305.7777794367466</v>
       </c>
       <c r="U9">
-        <v>36041.997527861895</v>
+        <v>35873.665647819464</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -23807,46 +23834,46 @@
         <v>118886.39999999999</v>
       </c>
       <c r="H10">
-        <v>2100.343099297746</v>
+        <v>2428.374312411579</v>
       </c>
       <c r="I10">
-        <v>8546.0569007022532</v>
+        <v>8218.0256875884206</v>
       </c>
       <c r="J10">
-        <v>11781.256900702254</v>
+        <v>11453.225687588421</v>
       </c>
       <c r="K10">
-        <v>129995.65690070225</v>
+        <v>129667.62568758841</v>
       </c>
       <c r="L10">
-        <v>7480.4569007022528</v>
+        <v>7152.4256875884203</v>
       </c>
       <c r="M10">
-        <v>10389.256900702254</v>
+        <v>10061.225687588421</v>
       </c>
       <c r="N10">
-        <v>116786.05690070224</v>
+        <v>116458.02568758841</v>
       </c>
       <c r="O10">
         <v>0.46650738020973315</v>
       </c>
       <c r="P10">
-        <v>3986.7986158699196</v>
+        <v>3833.7696340131652</v>
       </c>
       <c r="Q10">
-        <v>5496.0432923244489</v>
+        <v>5343.0143104676936</v>
       </c>
       <c r="R10">
-        <v>60643.933339389921</v>
+        <v>60490.904357533167</v>
       </c>
       <c r="S10">
-        <v>3489.6883515184277</v>
+        <v>3336.6593696616733</v>
       </c>
       <c r="T10">
-        <v>4846.6650190725004</v>
+        <v>4693.6360372157451</v>
       </c>
       <c r="U10">
-        <v>54481.557449771433</v>
+        <v>54328.528467914672</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -23872,46 +23899,46 @@
         <v>168624</v>
       </c>
       <c r="H11">
-        <v>2100.343099297746</v>
+        <v>2428.374312411579</v>
       </c>
       <c r="I11">
-        <v>12386.056900702253</v>
+        <v>12058.025687588421</v>
       </c>
       <c r="J11">
-        <v>17368.456900702255</v>
+        <v>17040.42568758842</v>
       </c>
       <c r="K11">
-        <v>185262.85690070223</v>
+        <v>184934.8256875884</v>
       </c>
       <c r="L11">
-        <v>10936.456900702253</v>
+        <v>10608.42568758842</v>
       </c>
       <c r="M11">
-        <v>15419.656900702254</v>
+        <v>15091.625687588421</v>
       </c>
       <c r="N11">
-        <v>166523.65690070225</v>
+        <v>166195.62568758841</v>
       </c>
       <c r="O11">
         <v>0.42409761837248466</v>
       </c>
       <c r="P11">
-        <v>5252.8972326139046</v>
+        <v>5113.7799763804906</v>
       </c>
       <c r="Q11">
-        <v>7365.9212063929726</v>
+        <v>7226.8039501595586</v>
       </c>
       <c r="R11">
-        <v>78569.536384470252</v>
+        <v>78430.419128236841</v>
       </c>
       <c r="S11">
-        <v>4638.1253250211503</v>
+        <v>4499.0080687877371</v>
       </c>
       <c r="T11">
-        <v>6539.4397677086736</v>
+        <v>6400.3225114752604</v>
       </c>
       <c r="U11">
-        <v>70622.286294264588</v>
+        <v>70483.169038031177</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -23937,46 +23964,46 @@
         <v>198480</v>
       </c>
       <c r="H12">
-        <v>2100.343099297746</v>
+        <v>2428.374312411579</v>
       </c>
       <c r="I12">
-        <v>17522.056900702253</v>
+        <v>17194.025687588419</v>
       </c>
       <c r="J12">
-        <v>24990.856900702256</v>
+        <v>24662.825687588422</v>
       </c>
       <c r="K12">
-        <v>218440.45690070224</v>
+        <v>218112.4256875884</v>
       </c>
       <c r="L12">
-        <v>15554.056900702251</v>
+        <v>15226.025687588419</v>
       </c>
       <c r="M12">
-        <v>22274.056900702253</v>
+        <v>21946.025687588419</v>
       </c>
       <c r="N12">
-        <v>196379.65690070225</v>
+        <v>196051.62568758841</v>
       </c>
       <c r="O12">
         <v>0.38554328942953148</v>
       </c>
       <c r="P12">
-        <v>6755.5114550681683</v>
+        <v>6629.0412221287006</v>
       </c>
       <c r="Q12">
-        <v>9635.0571751594543</v>
+        <v>9508.5869422199867</v>
       </c>
       <c r="R12">
-        <v>84218.252297986532</v>
+        <v>84091.782065047068</v>
       </c>
       <c r="S12">
-        <v>5996.7622614708498</v>
+        <v>5870.292028531383</v>
       </c>
       <c r="T12">
-        <v>8587.6131664373024</v>
+        <v>8461.1429334978347</v>
       </c>
       <c r="U12">
-        <v>75712.858898539533</v>
+        <v>75586.388665600069</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -24002,46 +24029,46 @@
         <v>204873.60000000001</v>
       </c>
       <c r="H13">
-        <v>2100.343099297746</v>
+        <v>2428.374312411579</v>
       </c>
       <c r="I13">
-        <v>24309.256900702254</v>
+        <v>23981.22568758842</v>
       </c>
       <c r="J13">
-        <v>35214.856900702252</v>
+        <v>34886.825687588418</v>
       </c>
       <c r="K13">
-        <v>225544.45690070224</v>
+        <v>225216.4256875884</v>
       </c>
       <c r="L13">
-        <v>21659.656900702255</v>
+        <v>21331.625687588421</v>
       </c>
       <c r="M13">
-        <v>31480.456900702251</v>
+        <v>31152.425687588417</v>
       </c>
       <c r="N13">
-        <v>202773.25690070225</v>
+        <v>202445.22568758842</v>
       </c>
       <c r="O13">
         <v>0.3504938994813922</v>
       </c>
       <c r="P13">
-        <v>8520.2462446220761</v>
+        <v>8405.2733055861954</v>
       </c>
       <c r="Q13">
-        <v>12342.592514806345</v>
+        <v>12227.619575770466</v>
       </c>
       <c r="R13">
-        <v>79051.956205539929</v>
+        <v>78936.983266504045</v>
       </c>
       <c r="S13">
-        <v>7591.5776085561793</v>
+        <v>7476.6046695202995</v>
       </c>
       <c r="T13">
-        <v>11033.708096583034</v>
+        <v>10918.735157547155</v>
       </c>
       <c r="U13">
-        <v>71070.789521669256</v>
+        <v>70955.816582633372</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -24067,46 +24094,46 @@
         <v>205171.19999999998</v>
       </c>
       <c r="H14">
-        <v>2100.343099297746</v>
+        <v>2428.374312411579</v>
       </c>
       <c r="I14">
-        <v>33150.856900702252</v>
+        <v>32822.825687588418</v>
       </c>
       <c r="J14">
-        <v>48597.256900702254</v>
+        <v>48269.22568758842</v>
       </c>
       <c r="K14">
-        <v>225870.85690070223</v>
+        <v>225542.8256875884</v>
       </c>
       <c r="L14">
-        <v>29618.056900702253</v>
+        <v>29290.025687588419</v>
       </c>
       <c r="M14">
-        <v>43518.856900702252</v>
+        <v>43190.825687588418</v>
       </c>
       <c r="N14">
-        <v>203070.85690070223</v>
+        <v>202742.8256875884</v>
       </c>
       <c r="O14">
         <v>0.31863081771035656</v>
       </c>
       <c r="P14">
-        <v>10562.884642069776</v>
+        <v>10458.363788400795</v>
       </c>
       <c r="Q14">
-        <v>15484.583704751027</v>
+        <v>15380.062851082046</v>
       </c>
       <c r="R14">
-        <v>71969.415831209684</v>
+        <v>71864.894977540709</v>
       </c>
       <c r="S14">
-        <v>9437.2256892626283</v>
+        <v>9332.7048355936458</v>
       </c>
       <c r="T14">
-        <v>13866.448960090753</v>
+        <v>13761.92810642177</v>
       </c>
       <c r="U14">
-        <v>64704.633187413558</v>
+        <v>64600.112333744575</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -24132,46 +24159,46 @@
         <v>205219.19999999998</v>
       </c>
       <c r="H15">
-        <v>2100.343099297746</v>
+        <v>2428.374312411579</v>
       </c>
       <c r="I15">
-        <v>44450.056900702257</v>
+        <v>44122.025687588422</v>
       </c>
       <c r="J15">
-        <v>65502.856900702252</v>
+        <v>65174.825687588418</v>
       </c>
       <c r="K15">
-        <v>225928.45690070224</v>
+        <v>225600.4256875884</v>
       </c>
       <c r="L15">
-        <v>39794.056900702257</v>
+        <v>39466.025687588422</v>
       </c>
       <c r="M15">
-        <v>58734.856900702252</v>
+        <v>58406.825687588418</v>
       </c>
       <c r="N15">
-        <v>203118.85690070223</v>
+        <v>202790.8256875884</v>
       </c>
       <c r="O15">
         <v>0.28966437973668779</v>
       </c>
       <c r="P15">
-        <v>12875.598161402399</v>
+        <v>12780.579203521505</v>
       </c>
       <c r="Q15">
-        <v>18973.844415122938</v>
+        <v>18878.825457242045</v>
       </c>
       <c r="R15">
-        <v>65443.426333008916</v>
+        <v>65348.407375128023</v>
       </c>
       <c r="S15">
-        <v>11526.920809348379</v>
+        <v>11431.901851467488</v>
       </c>
       <c r="T15">
-        <v>17013.395893065033</v>
+        <v>16918.376935184144</v>
       </c>
       <c r="U15">
-        <v>58836.297696966962</v>
+        <v>58741.278739086069</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -24197,46 +24224,46 @@
         <v>205248</v>
       </c>
       <c r="H16">
-        <v>2100.343099297746</v>
+        <v>2428.374312411579</v>
       </c>
       <c r="I16">
-        <v>58485.256900702254</v>
+        <v>58157.22568758842</v>
       </c>
       <c r="J16">
-        <v>85893.256900702239</v>
+        <v>85565.22568758842</v>
       </c>
       <c r="K16">
-        <v>225957.25690070225</v>
+        <v>225629.22568758842</v>
       </c>
       <c r="L16">
-        <v>52418.056900702257</v>
+        <v>52090.025687588422</v>
       </c>
       <c r="M16">
-        <v>77090.056900702242</v>
+        <v>76762.025687588408</v>
       </c>
       <c r="N16">
-        <v>203147.65690070225</v>
+        <v>202819.62568758841</v>
       </c>
       <c r="O16">
         <v>0.26333125430607973</v>
       </c>
       <c r="P16">
-        <v>15400.99605807523</v>
+        <v>15314.615187274419</v>
       </c>
       <c r="Q16">
-        <v>22618.379076096258</v>
+        <v>22531.998205295451</v>
       </c>
       <c r="R16">
-        <v>59501.607879223011</v>
+        <v>59415.227008422204</v>
       </c>
       <c r="S16">
-        <v>13803.312671949383</v>
+        <v>13716.931801148572</v>
       </c>
       <c r="T16">
-        <v>20300.22137818898</v>
+        <v>20213.840507388169</v>
       </c>
       <c r="U16">
-        <v>53495.127301003056</v>
+        <v>53408.746430202249</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -24262,46 +24289,46 @@
         <v>205267.19999999998</v>
       </c>
       <c r="H17">
-        <v>2100.343099297746</v>
+        <v>2428.374312411579</v>
       </c>
       <c r="I17">
-        <v>75352.456900702251</v>
+        <v>75024.425687588431</v>
       </c>
       <c r="J17">
-        <v>109067.65690070225</v>
+        <v>108739.62568758841</v>
       </c>
       <c r="K17">
-        <v>225976.45690070224</v>
+        <v>225648.4256875884</v>
       </c>
       <c r="L17">
-        <v>67605.256900702239</v>
+        <v>67277.22568758842</v>
       </c>
       <c r="M17">
-        <v>97950.856900702245</v>
+        <v>97622.825687588425</v>
       </c>
       <c r="N17">
-        <v>203166.85690070223</v>
+        <v>202838.8256875884</v>
       </c>
       <c r="O17">
         <v>0.23939204936916339</v>
       </c>
       <c r="P17">
-        <v>18038.779082460671</v>
+        <v>17960.2510180963</v>
       </c>
       <c r="Q17">
-        <v>26109.929905351888</v>
+        <v>26031.401840987513</v>
       </c>
       <c r="R17">
-        <v>54096.967126641532</v>
+        <v>54018.439062277161</v>
       </c>
       <c r="S17">
-        <v>16184.160997587884</v>
+        <v>16105.632933223515</v>
       </c>
       <c r="T17">
-        <v>23448.656370924771</v>
+        <v>23370.1283065604</v>
       </c>
       <c r="U17">
-        <v>48636.530237350664</v>
+        <v>48558.002172986286</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -24327,46 +24354,46 @@
         <v>205276.79999999999</v>
       </c>
       <c r="H18">
-        <v>2100.343099297746</v>
+        <v>2428.374312411579</v>
       </c>
       <c r="I18">
-        <v>94734.856900702245</v>
+        <v>94406.825687588425</v>
       </c>
       <c r="J18">
-        <v>133509.25690070225</v>
+        <v>133181.22568758842</v>
       </c>
       <c r="K18">
-        <v>225986.05690070224</v>
+        <v>225658.02568758841</v>
       </c>
       <c r="L18">
-        <v>85048.456900702251</v>
+        <v>84720.425687588431</v>
       </c>
       <c r="M18">
-        <v>119944.45690070224</v>
+        <v>119616.4256875884</v>
       </c>
       <c r="N18">
-        <v>203176.45690070224</v>
+        <v>202848.4256875884</v>
       </c>
       <c r="O18">
         <v>0.21762913579014853</v>
       </c>
       <c r="P18">
-        <v>20617.06503650322</v>
+        <v>20545.675887081063</v>
       </c>
       <c r="Q18">
-        <v>29055.504199284755</v>
+        <v>28984.115049862598</v>
       </c>
       <c r="R18">
-        <v>49181.150263923162</v>
+        <v>49109.761114501001</v>
       </c>
       <c r="S18">
-        <v>18509.022175585524</v>
+        <v>18437.63302616337</v>
       </c>
       <c r="T18">
-        <v>26103.408498118544</v>
+        <v>26032.019348696387</v>
       </c>
       <c r="U18">
-        <v>44217.116728204186</v>
+        <v>44145.727578782033</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -24392,46 +24419,46 @@
         <v>205276.79999999999</v>
       </c>
       <c r="H19">
-        <v>2100.343099297746</v>
+        <v>2428.374312411579</v>
       </c>
       <c r="I19">
-        <v>115854.85690070225</v>
+        <v>115526.82568758843</v>
       </c>
       <c r="J19">
-        <v>157086.85690070223</v>
+        <v>156758.8256875884</v>
       </c>
       <c r="K19">
-        <v>225986.05690070224</v>
+        <v>225658.02568758841</v>
       </c>
       <c r="L19">
-        <v>104056.45690070225</v>
+        <v>103728.42568758843</v>
       </c>
       <c r="M19">
-        <v>141160.45690070224</v>
+        <v>140832.4256875884</v>
       </c>
       <c r="N19">
-        <v>203176.45690070224</v>
+        <v>202848.4256875884</v>
       </c>
       <c r="O19">
         <v>0.19784466890013502</v>
       </c>
       <c r="P19">
-        <v>22921.265803991959</v>
+        <v>22856.366577244546</v>
       </c>
       <c r="Q19">
-        <v>31078.797192082322</v>
+        <v>31013.897965334909</v>
       </c>
       <c r="R19">
-        <v>44710.136603566505</v>
+        <v>44645.237376819096</v>
       </c>
       <c r="S19">
-        <v>20587.015262440607</v>
+        <v>20522.116035693194</v>
       </c>
       <c r="T19">
-        <v>27927.843857311214</v>
+        <v>27862.944630563798</v>
       </c>
       <c r="U19">
-        <v>40197.378843821985</v>
+        <v>40132.479617074569</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -24457,46 +24484,46 @@
         <v>205286.39999999999</v>
       </c>
       <c r="H20">
-        <v>2100.343099297746</v>
+        <v>2428.374312411579</v>
       </c>
       <c r="I20">
-        <v>137435.65690070225</v>
+        <v>137107.62568758841</v>
       </c>
       <c r="J20">
-        <v>177707.65690070225</v>
+        <v>177379.62568758841</v>
       </c>
       <c r="K20">
-        <v>225995.65690070225</v>
+        <v>225667.62568758841</v>
       </c>
       <c r="L20">
-        <v>123477.25690070224</v>
+        <v>123149.22568758842</v>
       </c>
       <c r="M20">
-        <v>159726.85690070223</v>
+        <v>159398.8256875884</v>
       </c>
       <c r="N20">
-        <v>203186.05690070224</v>
+        <v>202858.02568758841</v>
       </c>
       <c r="O20">
         <v>0.17985878990921364</v>
       </c>
       <c r="P20">
-        <v>24719.010940538174</v>
+        <v>24660.011643495069</v>
       </c>
       <c r="Q20">
-        <v>31962.284127762025</v>
+        <v>31903.28483071892</v>
       </c>
       <c r="R20">
-        <v>40647.305374898133</v>
+        <v>40588.306077855028</v>
       </c>
       <c r="S20">
-        <v>22208.470007469405</v>
+        <v>22149.4707104263</v>
       </c>
       <c r="T20">
-        <v>28728.279198162432</v>
+        <v>28669.279901119327</v>
       </c>
       <c r="U20">
-        <v>36544.79832058493</v>
+        <v>36485.799023541826</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -24522,46 +24549,46 @@
         <v>205286.39999999999</v>
       </c>
       <c r="H21">
-        <v>2100.343099297746</v>
+        <v>2428.374312411579</v>
       </c>
       <c r="I21">
-        <v>157970.05690070224</v>
+        <v>157642.02568758841</v>
       </c>
       <c r="J21">
-        <v>194037.25690070225</v>
+        <v>193709.22568758842</v>
       </c>
       <c r="K21">
-        <v>225995.65690070225</v>
+        <v>225667.62568758841</v>
       </c>
       <c r="L21">
-        <v>141957.25690070225</v>
+        <v>141629.22568758842</v>
       </c>
       <c r="M21">
-        <v>174414.85690070223</v>
+        <v>174086.8256875884</v>
       </c>
       <c r="N21">
-        <v>203186.05690070224</v>
+        <v>202858.02568758841</v>
       </c>
       <c r="O21">
         <v>0.16350799082655781</v>
       </c>
       <c r="P21">
-        <v>25829.366614590839</v>
+        <v>25775.730890006198</v>
       </c>
       <c r="Q21">
-        <v>31726.642021330466</v>
+        <v>31673.006296745825</v>
       </c>
       <c r="R21">
-        <v>36952.095795361929</v>
+        <v>36898.460070777292</v>
       </c>
       <c r="S21">
-        <v>23211.145859083335</v>
+        <v>23157.510134498694</v>
       </c>
       <c r="T21">
-        <v>28518.222822135413</v>
+        <v>28464.587097550771</v>
       </c>
       <c r="U21">
-        <v>33222.54392780448</v>
+        <v>33168.908203219835</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -24587,46 +24614,46 @@
         <v>205286.39999999999</v>
       </c>
       <c r="H22">
-        <v>2100.343099297746</v>
+        <v>2428.374312411579</v>
       </c>
       <c r="I22">
-        <v>176066.05690070224</v>
+        <v>175738.02568758841</v>
       </c>
       <c r="J22">
-        <v>205816.45690070224</v>
+        <v>205488.4256875884</v>
       </c>
       <c r="K22">
-        <v>225995.65690070225</v>
+        <v>225667.62568758841</v>
       </c>
       <c r="L22">
-        <v>158248.45690070224</v>
+        <v>157920.4256875884</v>
       </c>
       <c r="M22">
-        <v>185022.85690070223</v>
+        <v>184694.8256875884</v>
       </c>
       <c r="N22">
-        <v>203186.05690070224</v>
+        <v>202858.02568758841</v>
       </c>
       <c r="O22">
         <v>0.14864362802414349</v>
       </c>
       <c r="P22">
-        <v>26171.097469625667</v>
+        <v>26122.337720003266</v>
       </c>
       <c r="Q22">
-        <v>30593.304860795146</v>
+        <v>30544.545111172742</v>
       </c>
       <c r="R22">
-        <v>33592.814359419943</v>
+        <v>33544.054609797538</v>
       </c>
       <c r="S22">
-        <v>23522.624762942687</v>
+        <v>23473.865013320286</v>
       </c>
       <c r="T22">
-        <v>27502.468717112315</v>
+        <v>27453.708967489911</v>
       </c>
       <c r="U22">
-        <v>30202.312661640437</v>
+        <v>30153.552912018036</v>
       </c>
     </row>
   </sheetData>
@@ -24639,7 +24666,7 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24732,46 +24759,46 @@
         <v>1032</v>
       </c>
       <c r="H2">
-        <v>9307.5461472977477</v>
+        <v>5988.6110846364936</v>
       </c>
       <c r="I2">
-        <v>-8155.5461472977477</v>
+        <v>-4836.6110846364936</v>
       </c>
       <c r="J2">
-        <v>-8155.5461472977477</v>
+        <v>-4836.6110846364936</v>
       </c>
       <c r="K2">
-        <v>-8155.5461472977477</v>
+        <v>-4836.6110846364936</v>
       </c>
       <c r="L2">
-        <v>-8275.5461472977477</v>
+        <v>-4956.6110846364936</v>
       </c>
       <c r="M2">
-        <v>-8275.5461472977477</v>
+        <v>-4956.6110846364936</v>
       </c>
       <c r="N2">
-        <v>-8275.5461472977477</v>
+        <v>-4956.6110846364936</v>
       </c>
       <c r="O2">
         <v>1</v>
       </c>
       <c r="P2">
-        <v>-8155.5461472977477</v>
+        <v>-4836.6110846364936</v>
       </c>
       <c r="Q2">
-        <v>-8155.5461472977477</v>
+        <v>-4836.6110846364936</v>
       </c>
       <c r="R2">
-        <v>-8155.5461472977477</v>
+        <v>-4836.6110846364936</v>
       </c>
       <c r="S2">
-        <v>-8275.5461472977477</v>
+        <v>-4956.6110846364936</v>
       </c>
       <c r="T2">
-        <v>-8275.5461472977477</v>
+        <v>-4956.6110846364936</v>
       </c>
       <c r="U2">
-        <v>-8275.5461472977477</v>
+        <v>-4956.6110846364936</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -24797,46 +24824,46 @@
         <v>1932</v>
       </c>
       <c r="H3">
-        <v>9307.5461472977477</v>
+        <v>5988.6110846364936</v>
       </c>
       <c r="I3">
-        <v>-7771.5461472977477</v>
+        <v>-4452.6110846364936</v>
       </c>
       <c r="J3">
-        <v>-7723.5461472977477</v>
+        <v>-4404.6110846364936</v>
       </c>
       <c r="K3">
-        <v>-7159.5461472977477</v>
+        <v>-3840.6110846364936</v>
       </c>
       <c r="L3">
-        <v>-7927.5461472977477</v>
+        <v>-4608.6110846364936</v>
       </c>
       <c r="M3">
-        <v>-7891.5461472977477</v>
+        <v>-4572.6110846364936</v>
       </c>
       <c r="N3">
-        <v>-7375.5461472977477</v>
+        <v>-4056.6110846364936</v>
       </c>
       <c r="O3">
         <v>0.90909090909090906</v>
       </c>
       <c r="P3">
-        <v>-7065.0419520888609</v>
+        <v>-4047.8282587604485</v>
       </c>
       <c r="Q3">
-        <v>-7021.4055884524978</v>
+        <v>-4004.191895124085</v>
       </c>
       <c r="R3">
-        <v>-6508.6783157252248</v>
+        <v>-3491.464622396812</v>
       </c>
       <c r="S3">
-        <v>-7206.8601339070428</v>
+        <v>-4189.6464405786301</v>
       </c>
       <c r="T3">
-        <v>-7174.1328611797708</v>
+        <v>-4156.919167851358</v>
       </c>
       <c r="U3">
-        <v>-6705.0419520888609</v>
+        <v>-3687.8282587604485</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -24862,46 +24889,46 @@
         <v>3684</v>
       </c>
       <c r="H4">
-        <v>9307.5461472977477</v>
+        <v>5988.6110846364936</v>
       </c>
       <c r="I4">
-        <v>-7243.5461472977477</v>
+        <v>-3924.6110846364936</v>
       </c>
       <c r="J4">
-        <v>-7111.5461472977477</v>
+        <v>-3792.6110846364936</v>
       </c>
       <c r="K4">
-        <v>-5203.5461472977477</v>
+        <v>-1884.6110846364936</v>
       </c>
       <c r="L4">
-        <v>-7459.5461472977477</v>
+        <v>-4140.6110846364936</v>
       </c>
       <c r="M4">
-        <v>-7339.5461472977477</v>
+        <v>-4020.6110846364936</v>
       </c>
       <c r="N4">
-        <v>-5623.5461472977477</v>
+        <v>-2304.6110846364936</v>
       </c>
       <c r="O4">
         <v>0.82644628099173545</v>
       </c>
       <c r="P4">
-        <v>-5986.4017746262371</v>
+        <v>-3243.480235236771</v>
       </c>
       <c r="Q4">
-        <v>-5877.310865535328</v>
+        <v>-3134.389326145862</v>
       </c>
       <c r="R4">
-        <v>-4300.4513614030966</v>
+        <v>-1557.529822013631</v>
       </c>
       <c r="S4">
-        <v>-6164.9141713204517</v>
+        <v>-3421.9926319309861</v>
       </c>
       <c r="T4">
-        <v>-6065.7406176014438</v>
+        <v>-3322.8190782119777</v>
       </c>
       <c r="U4">
-        <v>-4647.5587994196258</v>
+        <v>-1904.6372600301597</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -24927,46 +24954,46 @@
         <v>7128</v>
       </c>
       <c r="H5">
-        <v>9307.5461472977477</v>
+        <v>5988.6110846364936</v>
       </c>
       <c r="I5">
-        <v>-6511.5461472977477</v>
+        <v>-3192.6110846364936</v>
       </c>
       <c r="J5">
-        <v>-6223.5461472977477</v>
+        <v>-2904.6110846364936</v>
       </c>
       <c r="K5">
-        <v>-1375.5461472977477</v>
+        <v>1943.3889153635064</v>
       </c>
       <c r="L5">
-        <v>-6799.5461472977477</v>
+        <v>-3480.6110846364936</v>
       </c>
       <c r="M5">
-        <v>-6535.5461472977477</v>
+        <v>-3216.6110846364936</v>
       </c>
       <c r="N5">
-        <v>-2179.5461472977477</v>
+        <v>1139.3889153635064</v>
       </c>
       <c r="O5">
         <v>0.75131480090157754</v>
       </c>
       <c r="P5">
-        <v>-4892.2209972184419</v>
+        <v>-2398.6559614098369</v>
       </c>
       <c r="Q5">
-        <v>-4675.8423345587871</v>
+        <v>-2182.2772987501826</v>
       </c>
       <c r="R5">
-        <v>-1033.4681797879393</v>
+        <v>1460.0968560206654</v>
       </c>
       <c r="S5">
-        <v>-5108.5996598780957</v>
+        <v>-2615.0346240694912</v>
       </c>
       <c r="T5">
-        <v>-4910.2525524400799</v>
+        <v>-2416.6875166314744</v>
       </c>
       <c r="U5">
-        <v>-1637.5252797128078</v>
+        <v>856.0397560957972</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -24992,46 +25019,46 @@
         <v>13860</v>
       </c>
       <c r="H6">
-        <v>9307.5461472977477</v>
+        <v>5988.6110846364936</v>
       </c>
       <c r="I6">
-        <v>-5491.5461472977477</v>
+        <v>-2172.6110846364936</v>
       </c>
       <c r="J6">
-        <v>-4951.5461472977477</v>
+        <v>-1632.6110846364936</v>
       </c>
       <c r="K6">
-        <v>6100.4538527022523</v>
+        <v>9419.3889153635064</v>
       </c>
       <c r="L6">
-        <v>-5875.5461472977477</v>
+        <v>-2556.6110846364936</v>
       </c>
       <c r="M6">
-        <v>-5395.5461472977477</v>
+        <v>-2076.6110846364936</v>
       </c>
       <c r="N6">
-        <v>4552.4538527022523</v>
+        <v>7871.3889153635064</v>
       </c>
       <c r="O6">
         <v>0.68301345536507052</v>
       </c>
       <c r="P6">
-        <v>-3750.7999093625754</v>
+        <v>-1483.9226040820251</v>
       </c>
       <c r="Q6">
-        <v>-3381.9726434654372</v>
+        <v>-1115.0953381848872</v>
       </c>
       <c r="R6">
-        <v>4166.692065229322</v>
+        <v>6433.569370509872</v>
       </c>
       <c r="S6">
-        <v>-4013.0770762227621</v>
+        <v>-1746.1997709422124</v>
       </c>
       <c r="T6">
-        <v>-3685.2306176475286</v>
+        <v>-1418.3533123669783</v>
       </c>
       <c r="U6">
-        <v>3109.3872363241931</v>
+        <v>5376.2645416047435</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -25057,46 +25084,46 @@
         <v>26700</v>
       </c>
       <c r="H7">
-        <v>9307.5461472977477</v>
+        <v>5988.6110846364936</v>
       </c>
       <c r="I7">
-        <v>-4087.5461472977477</v>
+        <v>-768.61108463649362</v>
       </c>
       <c r="J7">
-        <v>-3139.5461472977477</v>
+        <v>179.38891536350638</v>
       </c>
       <c r="K7">
-        <v>20368.453852702252</v>
+        <v>23687.388915363506</v>
       </c>
       <c r="L7">
-        <v>-4615.5461472977477</v>
+        <v>-1296.6110846364936</v>
       </c>
       <c r="M7">
-        <v>-3763.5461472977477</v>
+        <v>-444.61108463649362</v>
       </c>
       <c r="N7">
-        <v>17392.453852702252</v>
+        <v>20711.388915363506</v>
       </c>
       <c r="O7">
         <v>0.62092132305915493</v>
       </c>
       <c r="P7">
-        <v>-2538.0445618454687</v>
+        <v>-477.24701159042371</v>
       </c>
       <c r="Q7">
-        <v>-1949.4111475853899</v>
+        <v>111.38640266965515</v>
       </c>
       <c r="R7">
-        <v>12647.207314889223</v>
+        <v>14708.004865144268</v>
       </c>
       <c r="S7">
-        <v>-2865.8910204207027</v>
+        <v>-805.09347016565755</v>
       </c>
       <c r="T7">
-        <v>-2336.8660531743026</v>
+        <v>-276.06850291925753</v>
       </c>
       <c r="U7">
-        <v>10799.345457465179</v>
+        <v>12860.143007720224</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -25122,46 +25149,46 @@
         <v>50328</v>
       </c>
       <c r="H8">
-        <v>9307.5461472977477</v>
+        <v>5988.6110846364936</v>
       </c>
       <c r="I8">
-        <v>-2179.5461472977477</v>
+        <v>1139.3889153635064</v>
       </c>
       <c r="J8">
-        <v>-583.54614729774767</v>
+        <v>2735.3889153635064</v>
       </c>
       <c r="K8">
-        <v>46612.453852702252</v>
+        <v>49931.38891536351</v>
       </c>
       <c r="L8">
-        <v>-2899.5461472977477</v>
+        <v>419.38891536350638</v>
       </c>
       <c r="M8">
-        <v>-1459.5461472977477</v>
+        <v>1859.3889153635064</v>
       </c>
       <c r="N8">
-        <v>41020.453852702252</v>
+        <v>44339.38891536351</v>
       </c>
       <c r="O8">
         <v>0.56447393005377722</v>
       </c>
       <c r="P8">
-        <v>-1230.2969794987284</v>
+        <v>643.15533891494897</v>
       </c>
       <c r="Q8">
-        <v>-329.39658713289998</v>
+        <v>1544.0557312807775</v>
       </c>
       <c r="R8">
-        <v>26311.515015685171</v>
+        <v>28184.967334098848</v>
       </c>
       <c r="S8">
-        <v>-1636.718209137448</v>
+        <v>236.73410927622939</v>
       </c>
       <c r="T8">
-        <v>-823.8757498600088</v>
+        <v>1049.5765685536685</v>
       </c>
       <c r="U8">
-        <v>23154.976798824446</v>
+        <v>25028.429117238127</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -25187,46 +25214,46 @@
         <v>90420</v>
       </c>
       <c r="H9">
-        <v>9307.5461472977477</v>
+        <v>5988.6110846364936</v>
       </c>
       <c r="I9">
-        <v>448.45385270225233</v>
+        <v>3767.3889153635064</v>
       </c>
       <c r="J9">
-        <v>3016.4538527022523</v>
+        <v>6335.3889153635064</v>
       </c>
       <c r="K9">
-        <v>91168.453852702252</v>
+        <v>94487.38891536351</v>
       </c>
       <c r="L9">
-        <v>-535.54614729774767</v>
+        <v>2783.3889153635064</v>
       </c>
       <c r="M9">
-        <v>1780.4538527022523</v>
+        <v>5099.3889153635064</v>
       </c>
       <c r="N9">
-        <v>81112.453852702252</v>
+        <v>84431.38891536351</v>
       </c>
       <c r="O9">
         <v>0.51315811823070645</v>
       </c>
       <c r="P9">
-        <v>230.12773516599822</v>
+        <v>1933.2662064511592</v>
       </c>
       <c r="Q9">
-        <v>1547.9177827824524</v>
+        <v>3251.0562540676133</v>
       </c>
       <c r="R9">
-        <v>46783.832221055687</v>
+        <v>48486.970692340852</v>
       </c>
       <c r="S9">
-        <v>-274.81985317301695</v>
+        <v>1428.3186181121439</v>
       </c>
       <c r="T9">
-        <v>913.65434864929921</v>
+        <v>2616.7928199344601</v>
       </c>
       <c r="U9">
-        <v>41623.5141841277</v>
+        <v>43326.652655412865</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -25252,46 +25279,46 @@
         <v>148608</v>
       </c>
       <c r="H10">
-        <v>9307.5461472977477</v>
+        <v>5988.6110846364936</v>
       </c>
       <c r="I10">
-        <v>4000.4538527022523</v>
+        <v>7319.3889153635064</v>
       </c>
       <c r="J10">
-        <v>8044.4538527022523</v>
+        <v>11363.388915363506</v>
       </c>
       <c r="K10">
-        <v>155812.45385270225</v>
+        <v>159131.3889153635</v>
       </c>
       <c r="L10">
-        <v>2668.4538527022523</v>
+        <v>5987.3889153635064</v>
       </c>
       <c r="M10">
-        <v>6304.4538527022523</v>
+        <v>9623.3889153635064</v>
       </c>
       <c r="N10">
-        <v>139300.45385270225</v>
+        <v>142619.3889153635</v>
       </c>
       <c r="O10">
         <v>0.46650738020973315</v>
       </c>
       <c r="P10">
-        <v>1866.2412464740614</v>
+        <v>3414.5489476423895</v>
       </c>
       <c r="Q10">
-        <v>3752.7970920422222</v>
+        <v>5301.1047932105503</v>
       </c>
       <c r="R10">
-        <v>72687.659650874077</v>
+        <v>74235.967352042397</v>
       </c>
       <c r="S10">
-        <v>1244.8534160346969</v>
+        <v>2793.1611172030252</v>
       </c>
       <c r="T10">
-        <v>2941.0742504772866</v>
+        <v>4489.3819516456151</v>
       </c>
       <c r="U10">
-        <v>64984.689788850956</v>
+        <v>66532.997490019276</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -25317,46 +25344,46 @@
         <v>210780</v>
       </c>
       <c r="H11">
-        <v>9307.5461472977477</v>
+        <v>5988.6110846364936</v>
       </c>
       <c r="I11">
-        <v>8800.4538527022523</v>
+        <v>12119.388915363506</v>
       </c>
       <c r="J11">
-        <v>15028.453852702252</v>
+        <v>18347.388915363506</v>
       </c>
       <c r="K11">
-        <v>224896.45385270225</v>
+        <v>228215.3889153635</v>
       </c>
       <c r="L11">
-        <v>6988.4538527022523</v>
+        <v>10307.388915363506</v>
       </c>
       <c r="M11">
-        <v>12592.453852702252</v>
+        <v>15911.388915363506</v>
       </c>
       <c r="N11">
-        <v>201472.45385270225</v>
+        <v>204791.3889153635</v>
       </c>
       <c r="O11">
         <v>0.42409761837248466</v>
       </c>
       <c r="P11">
-        <v>3732.2515195279821</v>
+        <v>5139.8039751355527</v>
       </c>
       <c r="Q11">
-        <v>6373.5314867518164</v>
+        <v>7781.0839423593879</v>
       </c>
       <c r="R11">
-        <v>95378.050459348422</v>
+        <v>96785.602914955991</v>
       </c>
       <c r="S11">
-        <v>2963.78663503704</v>
+        <v>4371.3390906446111</v>
       </c>
       <c r="T11">
-        <v>5340.4296883964444</v>
+        <v>6747.982144004015</v>
       </c>
       <c r="U11">
-        <v>85443.98784659135</v>
+        <v>86851.540302198919</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -25382,46 +25409,46 @@
         <v>248100</v>
       </c>
       <c r="H12">
-        <v>9307.5461472977477</v>
+        <v>5988.6110846364936</v>
       </c>
       <c r="I12">
-        <v>15220.453852702252</v>
+        <v>18539.388915363506</v>
       </c>
       <c r="J12">
-        <v>24556.453852702252</v>
+        <v>27875.388915363506</v>
       </c>
       <c r="K12">
-        <v>266368.45385270228</v>
+        <v>269687.38891536352</v>
       </c>
       <c r="L12">
-        <v>12760.453852702252</v>
+        <v>16079.388915363506</v>
       </c>
       <c r="M12">
-        <v>21160.453852702252</v>
+        <v>24479.388915363506</v>
       </c>
       <c r="N12">
-        <v>238792.45385270225</v>
+        <v>242111.3889153635</v>
       </c>
       <c r="O12">
         <v>0.38554328942953148</v>
       </c>
       <c r="P12">
-        <v>5868.1438449812122</v>
+        <v>7147.73698644264</v>
       </c>
       <c r="Q12">
-        <v>9467.5759950953179</v>
+        <v>10747.169136556746</v>
       </c>
       <c r="R12">
-        <v>102696.5698986292</v>
+        <v>103976.16304009061</v>
       </c>
       <c r="S12">
-        <v>4919.7073529845647</v>
+        <v>6199.3004944459926</v>
       </c>
       <c r="T12">
-        <v>8158.2709841926289</v>
+        <v>9437.8641256540577</v>
       </c>
       <c r="U12">
-        <v>92064.828149320427</v>
+        <v>93344.421290781844</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -25447,46 +25474,46 @@
         <v>256092</v>
       </c>
       <c r="H13">
-        <v>9307.5461472977477</v>
+        <v>5988.6110846364936</v>
       </c>
       <c r="I13">
-        <v>23704.453852702252</v>
+        <v>27023.388915363506</v>
       </c>
       <c r="J13">
-        <v>37336.453852702252</v>
+        <v>40655.38891536351</v>
       </c>
       <c r="K13">
-        <v>275248.45385270228</v>
+        <v>278567.38891536352</v>
       </c>
       <c r="L13">
-        <v>20392.453852702252</v>
+        <v>23711.388915363506</v>
       </c>
       <c r="M13">
-        <v>32668.453852702252</v>
+        <v>35987.38891536351</v>
       </c>
       <c r="N13">
-        <v>246784.45385270225</v>
+        <v>250103.3889153635</v>
       </c>
       <c r="O13">
         <v>0.3504938994813922</v>
       </c>
       <c r="P13">
-        <v>8308.2664659103229</v>
+        <v>9471.5329581479855</v>
       </c>
       <c r="Q13">
-        <v>13086.199303640662</v>
+        <v>14249.465795878325</v>
       </c>
       <c r="R13">
-        <v>96472.903917057658</v>
+        <v>97636.170409295315</v>
       </c>
       <c r="S13">
-        <v>7147.4306708279528</v>
+        <v>8310.6971630656135</v>
       </c>
       <c r="T13">
-        <v>11450.093780861524</v>
+        <v>12613.360273099186</v>
       </c>
       <c r="U13">
-        <v>86496.445562219291</v>
+        <v>87659.712054456948</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -25512,46 +25539,46 @@
         <v>256464</v>
       </c>
       <c r="H14">
-        <v>9307.5461472977477</v>
+        <v>5988.6110846364936</v>
       </c>
       <c r="I14">
-        <v>34756.453852702252</v>
+        <v>38075.38891536351</v>
       </c>
       <c r="J14">
-        <v>54064.453852702252</v>
+        <v>57383.38891536351</v>
       </c>
       <c r="K14">
-        <v>275656.45385270228</v>
+        <v>278975.38891536352</v>
       </c>
       <c r="L14">
-        <v>30340.453852702252</v>
+        <v>33659.38891536351</v>
       </c>
       <c r="M14">
-        <v>47716.453852702252</v>
+        <v>51035.38891536351</v>
       </c>
       <c r="N14">
-        <v>247156.45385270225</v>
+        <v>250475.3889153635</v>
       </c>
       <c r="O14">
         <v>0.31863081771035656</v>
       </c>
       <c r="P14">
-        <v>11074.477311798792</v>
+        <v>12131.992304742122</v>
       </c>
       <c r="Q14">
-        <v>17226.601140150357</v>
+        <v>18284.116133093685</v>
       </c>
       <c r="R14">
-        <v>87832.641298223694</v>
+        <v>88890.156291167019</v>
       </c>
       <c r="S14">
-        <v>9667.4036207898571</v>
+        <v>10724.918613733187</v>
       </c>
       <c r="T14">
-        <v>15203.932709325012</v>
+        <v>16261.447702268342</v>
       </c>
       <c r="U14">
-        <v>78751.662993478531</v>
+        <v>79809.177986421855</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -25577,46 +25604,46 @@
         <v>256524</v>
       </c>
       <c r="H15">
-        <v>9307.5461472977477</v>
+        <v>5988.6110846364936</v>
       </c>
       <c r="I15">
-        <v>48880.453852702252</v>
+        <v>52199.38891536351</v>
       </c>
       <c r="J15">
-        <v>75196.453852702252</v>
+        <v>78515.38891536351</v>
       </c>
       <c r="K15">
-        <v>275728.45385270228</v>
+        <v>279047.38891536352</v>
       </c>
       <c r="L15">
-        <v>43060.453852702252</v>
+        <v>46379.38891536351</v>
       </c>
       <c r="M15">
-        <v>66736.453852702252</v>
+        <v>70055.38891536351</v>
       </c>
       <c r="N15">
-        <v>247216.45385270225</v>
+        <v>250535.3889153635</v>
       </c>
       <c r="O15">
         <v>0.28966437973668779</v>
       </c>
       <c r="P15">
-        <v>14158.926346490789</v>
+        <v>15120.303612802907</v>
       </c>
       <c r="Q15">
-        <v>21781.734163641464</v>
+        <v>22743.111429953584</v>
       </c>
       <c r="R15">
-        <v>79868.711560998956</v>
+        <v>80830.088827311061</v>
       </c>
       <c r="S15">
-        <v>12473.079656423266</v>
+        <v>13434.456922735384</v>
       </c>
       <c r="T15">
-        <v>19331.173511069086</v>
+        <v>20292.550777381206</v>
       </c>
       <c r="U15">
-        <v>71609.800765946493</v>
+        <v>72571.178032258613</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -25642,46 +25669,46 @@
         <v>256560</v>
       </c>
       <c r="H16">
-        <v>9307.5461472977477</v>
+        <v>5988.6110846364936</v>
       </c>
       <c r="I16">
-        <v>66424.453852702252</v>
+        <v>69743.38891536351</v>
       </c>
       <c r="J16">
-        <v>100684.45385270225</v>
+        <v>104003.38891536351</v>
       </c>
       <c r="K16">
-        <v>275764.45385270228</v>
+        <v>279083.38891536352</v>
       </c>
       <c r="L16">
-        <v>58840.453852702252</v>
+        <v>62159.38891536351</v>
       </c>
       <c r="M16">
-        <v>89680.453852702252</v>
+        <v>92999.38891536351</v>
       </c>
       <c r="N16">
-        <v>247252.45385270225</v>
+        <v>250571.3889153635</v>
       </c>
       <c r="O16">
         <v>0.26333125430607973</v>
       </c>
       <c r="P16">
-        <v>17491.634749628396</v>
+        <v>18365.614082639411</v>
       </c>
       <c r="Q16">
-        <v>26513.363522154687</v>
+        <v>27387.342855165702</v>
       </c>
       <c r="R16">
-        <v>72617.399526063135</v>
+        <v>73491.378859074146</v>
       </c>
       <c r="S16">
-        <v>15494.530516971086</v>
+        <v>16368.509849982102</v>
       </c>
       <c r="T16">
-        <v>23615.666399770584</v>
+        <v>24489.645732781602</v>
       </c>
       <c r="U16">
-        <v>65109.298803288177</v>
+        <v>65983.278136299195</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -25707,46 +25734,46 @@
         <v>256584</v>
       </c>
       <c r="H17">
-        <v>9307.5461472977477</v>
+        <v>5988.6110846364936</v>
       </c>
       <c r="I17">
-        <v>87508.453852702252</v>
+        <v>90827.38891536351</v>
       </c>
       <c r="J17">
-        <v>129652.45385270225</v>
+        <v>132971.3889153635</v>
       </c>
       <c r="K17">
-        <v>275788.45385270228</v>
+        <v>279107.38891536352</v>
       </c>
       <c r="L17">
-        <v>77824.453852702252</v>
+        <v>81143.38891536351</v>
       </c>
       <c r="M17">
-        <v>115756.45385270225</v>
+        <v>119075.38891536351</v>
       </c>
       <c r="N17">
-        <v>247276.45385270225</v>
+        <v>250595.3889153635</v>
       </c>
       <c r="O17">
         <v>0.23939204936916339</v>
       </c>
       <c r="P17">
-        <v>20948.828104925255</v>
+        <v>21743.354771298906</v>
       </c>
       <c r="Q17">
-        <v>31037.766633539275</v>
+        <v>31832.293299912923</v>
       </c>
       <c r="R17">
-        <v>66021.563160151345</v>
+        <v>66816.089826524985</v>
       </c>
       <c r="S17">
-        <v>18630.555498834277</v>
+        <v>19425.082165207928</v>
       </c>
       <c r="T17">
-        <v>27711.174715505382</v>
+        <v>28505.701381879033</v>
       </c>
       <c r="U17">
-        <v>59196.017048537753</v>
+        <v>59990.5437149114</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -25772,46 +25799,46 @@
         <v>256596</v>
       </c>
       <c r="H18">
-        <v>9307.5461472977477</v>
+        <v>5988.6110846364936</v>
       </c>
       <c r="I18">
-        <v>111736.45385270225</v>
+        <v>115055.38891536351</v>
       </c>
       <c r="J18">
-        <v>160204.45385270225</v>
+        <v>163523.3889153635</v>
       </c>
       <c r="K18">
-        <v>275800.45385270228</v>
+        <v>279119.38891536352</v>
       </c>
       <c r="L18">
-        <v>99628.453852702252</v>
+        <v>102947.38891536351</v>
       </c>
       <c r="M18">
-        <v>143248.45385270225</v>
+        <v>146567.3889153635</v>
       </c>
       <c r="N18">
-        <v>247288.45385270225</v>
+        <v>250607.3889153635</v>
       </c>
       <c r="O18">
         <v>0.21762913579014853</v>
       </c>
       <c r="P18">
-        <v>24317.107888219405</v>
+        <v>25039.404857649995</v>
       </c>
       <c r="Q18">
-        <v>34865.15684169632</v>
+        <v>35587.453811126914</v>
       </c>
       <c r="R18">
-        <v>60022.21442249434</v>
+        <v>60744.511391924927</v>
       </c>
       <c r="S18">
-        <v>21682.054312072287</v>
+        <v>22404.351281502877</v>
       </c>
       <c r="T18">
-        <v>31175.037215238564</v>
+        <v>31897.334184669151</v>
       </c>
       <c r="U18">
-        <v>53817.17250284562</v>
+        <v>54539.469472276207</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -25837,46 +25864,46 @@
         <v>256596</v>
       </c>
       <c r="H19">
-        <v>9307.5461472977477</v>
+        <v>5988.6110846364936</v>
       </c>
       <c r="I19">
-        <v>138136.45385270225</v>
+        <v>141455.3889153635</v>
       </c>
       <c r="J19">
-        <v>189676.45385270225</v>
+        <v>192995.3889153635</v>
       </c>
       <c r="K19">
-        <v>275800.45385270228</v>
+        <v>279119.38891536352</v>
       </c>
       <c r="L19">
-        <v>123388.45385270225</v>
+        <v>126707.38891536351</v>
       </c>
       <c r="M19">
-        <v>169768.45385270225</v>
+        <v>173087.3889153635</v>
       </c>
       <c r="N19">
-        <v>247288.45385270225</v>
+        <v>250607.3889153635</v>
       </c>
       <c r="O19">
         <v>0.19784466890013502</v>
       </c>
       <c r="P19">
-        <v>27329.56097552666</v>
+        <v>27986.194584099921</v>
       </c>
       <c r="Q19">
-        <v>37526.475210639619</v>
+        <v>38183.108819212881</v>
       </c>
       <c r="R19">
-        <v>54565.649474994854</v>
+        <v>55222.283083568116</v>
       </c>
       <c r="S19">
-        <v>24411.747798587468</v>
+        <v>25068.381407160734</v>
       </c>
       <c r="T19">
-        <v>33587.783542175726</v>
+        <v>34244.417150748988</v>
       </c>
       <c r="U19">
-        <v>48924.702275314194</v>
+        <v>49581.335883887456</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -25902,46 +25929,46 @@
         <v>256608</v>
       </c>
       <c r="H20">
-        <v>9307.5461472977477</v>
+        <v>5988.6110846364936</v>
       </c>
       <c r="I20">
-        <v>165112.45385270225</v>
+        <v>168431.3889153635</v>
       </c>
       <c r="J20">
-        <v>215452.45385270225</v>
+        <v>218771.3889153635</v>
       </c>
       <c r="K20">
-        <v>275812.45385270228</v>
+        <v>279131.38891536352</v>
       </c>
       <c r="L20">
-        <v>147664.45385270225</v>
+        <v>150983.3889153635</v>
       </c>
       <c r="M20">
-        <v>192976.45385270225</v>
+        <v>196295.3889153635</v>
       </c>
       <c r="N20">
-        <v>247300.45385270225</v>
+        <v>250619.3889153635</v>
       </c>
       <c r="O20">
         <v>0.17985878990921364</v>
       </c>
       <c r="P20">
-        <v>29696.926148887906</v>
+        <v>30293.865793045417</v>
       </c>
       <c r="Q20">
-        <v>38751.017632917719</v>
+        <v>39347.957277075235</v>
       </c>
       <c r="R20">
-        <v>49607.294191837864</v>
+        <v>50204.233835995372</v>
       </c>
       <c r="S20">
-        <v>26558.749982551948</v>
+        <v>27155.68962670946</v>
       </c>
       <c r="T20">
-        <v>34708.511470918238</v>
+        <v>35305.451115075746</v>
       </c>
       <c r="U20">
-        <v>44479.160373946361</v>
+        <v>45076.100018103869</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -25967,46 +25994,46 @@
         <v>256608</v>
       </c>
       <c r="H21">
-        <v>9307.5461472977477</v>
+        <v>5988.6110846364936</v>
       </c>
       <c r="I21">
-        <v>190780.45385270225</v>
+        <v>194099.3889153635</v>
       </c>
       <c r="J21">
-        <v>235864.45385270225</v>
+        <v>239183.3889153635</v>
       </c>
       <c r="K21">
-        <v>275812.45385270228</v>
+        <v>279131.38891536352</v>
       </c>
       <c r="L21">
-        <v>170764.45385270225</v>
+        <v>174083.3889153635</v>
       </c>
       <c r="M21">
-        <v>211336.45385270225</v>
+        <v>214655.3889153635</v>
       </c>
       <c r="N21">
-        <v>247300.45385270225</v>
+        <v>250619.3889153635</v>
       </c>
       <c r="O21">
         <v>0.16350799082655781</v>
       </c>
       <c r="P21">
-        <v>31194.128698434175</v>
+        <v>31736.801102213733</v>
       </c>
       <c r="Q21">
-        <v>38565.722956858706</v>
+        <v>39108.395360638264</v>
       </c>
       <c r="R21">
-        <v>45097.540174398047</v>
+        <v>45640.212578177598</v>
       </c>
       <c r="S21">
-        <v>27921.352754049796</v>
+        <v>28464.02515782935</v>
       </c>
       <c r="T21">
-        <v>34555.198957864901</v>
+        <v>35097.871361644451</v>
       </c>
       <c r="U21">
-        <v>40435.600339951226</v>
+        <v>40978.272743730777</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -26032,46 +26059,46 @@
         <v>256608</v>
       </c>
       <c r="H22">
-        <v>9307.5461472977477</v>
+        <v>5988.6110846364936</v>
       </c>
       <c r="I22">
-        <v>213400.45385270225</v>
+        <v>216719.3889153635</v>
       </c>
       <c r="J22">
-        <v>250588.45385270225</v>
+        <v>253907.3889153635</v>
       </c>
       <c r="K22">
-        <v>275812.45385270228</v>
+        <v>279131.38891536352</v>
       </c>
       <c r="L22">
-        <v>191128.45385270225</v>
+        <v>194447.3889153635</v>
       </c>
       <c r="M22">
-        <v>224596.45385270225</v>
+        <v>227915.3889153635</v>
       </c>
       <c r="N22">
-        <v>247300.45385270225</v>
+        <v>250619.3889153635</v>
       </c>
       <c r="O22">
         <v>0.14864362802414349</v>
       </c>
       <c r="P22">
-        <v>31720.617682664473</v>
+        <v>32213.956231554977</v>
       </c>
       <c r="Q22">
-        <v>37248.376921626324</v>
+        <v>37741.715470516829</v>
       </c>
       <c r="R22">
-        <v>40997.763794907318</v>
+        <v>41491.102343797829</v>
       </c>
       <c r="S22">
-        <v>28410.026799310748</v>
+        <v>28903.365348201252</v>
       </c>
       <c r="T22">
-        <v>33384.831742022783</v>
+        <v>33878.170290913287</v>
       </c>
       <c r="U22">
-        <v>36759.636672682936</v>
+        <v>37252.975221573441</v>
       </c>
     </row>
   </sheetData>
@@ -26083,8 +26110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tumlknexpectimax/excel_data/input_data_residential.xlsx
+++ b/tumlknexpectimax/excel_data/input_data_residential.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="705" windowWidth="15105" windowHeight="8745" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="765" windowWidth="15105" windowHeight="8685" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CAPEX" sheetId="1" r:id="rId1"/>
@@ -629,7 +629,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1120,11 +1120,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="44077568"/>
-        <c:axId val="194130432"/>
+        <c:axId val="173921024"/>
+        <c:axId val="173922944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="44077568"/>
+        <c:axId val="173921024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1152,7 +1152,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194130432"/>
+        <c:crossAx val="173922944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1160,7 +1160,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194130432"/>
+        <c:axId val="173922944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1190,7 +1190,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44077568"/>
+        <c:crossAx val="173921024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1215,7 +1215,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1227,7 +1227,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1305,7 +1304,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1314,7 +1312,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1333,7 +1331,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1496,11 +1494,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="44078592"/>
-        <c:axId val="82984960"/>
+        <c:axId val="174888832"/>
+        <c:axId val="174890368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="44078592"/>
+        <c:axId val="174888832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1509,7 +1507,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82984960"/>
+        <c:crossAx val="174890368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1517,7 +1515,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82984960"/>
+        <c:axId val="174890368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1547,7 +1545,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44078592"/>
+        <c:crossAx val="174888832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1567,7 +1565,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1707,11 +1705,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="51039744"/>
-        <c:axId val="181184768"/>
+        <c:axId val="174947712"/>
+        <c:axId val="174958080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="51039744"/>
+        <c:axId val="174947712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1739,7 +1737,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181184768"/>
+        <c:crossAx val="174958080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1747,7 +1745,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181184768"/>
+        <c:axId val="174958080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1777,7 +1775,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51039744"/>
+        <c:crossAx val="174947712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1797,7 +1795,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2304,11 +2302,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="44079104"/>
-        <c:axId val="82986688"/>
+        <c:axId val="175550464"/>
+        <c:axId val="175552000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="44079104"/>
+        <c:axId val="175550464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2318,7 +2316,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82986688"/>
+        <c:crossAx val="175552000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2326,7 +2324,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82986688"/>
+        <c:axId val="175552000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2337,7 +2335,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44079104"/>
+        <c:crossAx val="175550464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2812,8 +2810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4068,6 +4066,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
@@ -5515,6 +5516,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -6960,6 +6965,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -8409,6 +8418,10 @@
     <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -9854,6 +9867,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -11299,6 +11316,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -12744,6 +12765,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -14189,6 +14214,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -15634,6 +15663,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -16407,6 +16440,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -16414,8 +16450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16605,7 +16641,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -16613,8 +16653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19558,6 +19598,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -19566,7 +19609,7 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21007,6 +21050,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -22452,6 +22498,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -23897,6 +23947,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -25342,6 +25396,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -26787,6 +26845,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -28232,6 +28294,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LUnrestricted</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/tumlknexpectimax/excel_data/input_data_residential.xlsx
+++ b/tumlknexpectimax/excel_data/input_data_residential.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmadzay\PycharmProjects\mt_code\tumlknexpectimax\tumlknexpectimax\excel_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="765" windowWidth="15105" windowHeight="8685" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="768" windowWidth="15108" windowHeight="8688" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CAPEX" sheetId="1" r:id="rId1"/>
@@ -26,7 +31,7 @@
     <sheet name="FTTB_Hybridpon_100" sheetId="19" r:id="rId17"/>
     <sheet name="MIG_MATRIX" sheetId="11" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -36,7 +41,7 @@
     <author>Patri, Sai Kireet</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0">
+    <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -44,7 +49,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Patri, Sai Kireet:</t>
         </r>
@@ -53,7 +58,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Here we have 93% of the buildings which are residential and we need 1 ONT per 2 buildings, hence the number of ONTs required are 0.93*4877/2
@@ -61,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0">
+    <comment ref="G4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +74,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Patri, Sai Kireet:</t>
         </r>
@@ -78,7 +83,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 table 5-6
@@ -87,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0">
+    <comment ref="G5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -95,7 +100,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Patri, Sai Kireet:</t>
         </r>
@@ -104,14 +109,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Table 5-13, each building needs about 300 mbps, so only 1 OLT is enough</t>
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0">
+    <comment ref="G6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +124,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Patri, Sai Kireet:</t>
         </r>
@@ -128,7 +133,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Table 5-19 only 1 OLT needed to cater to the buildings
@@ -136,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0">
+    <comment ref="G7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -144,7 +149,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Patri, Sai Kireet:</t>
         </r>
@@ -153,7 +158,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Need double the racks of Technology 3 to realise a GPON FTTH
@@ -161,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0">
+    <comment ref="B8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -169,7 +174,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Patri, Sai Kireet:</t>
         </r>
@@ -178,7 +183,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 For per household speed of 100 mbps, every building needs 1 ONT of 625 Mbps
@@ -436,11 +441,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000000%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,14 +457,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -497,8 +502,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -519,6 +531,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -585,7 +602,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -593,8 +610,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -606,9 +624,11 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="4"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="6"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="5"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="7"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Calculation" xfId="6" builtinId="22"/>
+    <cellStyle name="Good" xfId="7" builtinId="26"/>
     <cellStyle name="Heading 3" xfId="2" builtinId="18"/>
     <cellStyle name="Heading 4" xfId="3" builtinId="19"/>
     <cellStyle name="Input" xfId="4" builtinId="20"/>
@@ -622,12 +642,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -656,7 +679,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -776,6 +798,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-37DD-494B-898C-2092A609AD86}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -887,6 +914,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-37DD-494B-898C-2092A609AD86}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -998,6 +1030,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-37DD-494B-898C-2092A609AD86}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1109,6 +1146,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-37DD-494B-898C-2092A609AD86}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1146,9 +1188,9 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1183,7 +1225,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1197,7 +1238,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1213,7 +1253,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1289,6 +1329,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CEE8-43A2-851D-BC93CBA0BE7C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1329,7 +1374,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1358,7 +1403,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1484,6 +1528,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B8F6-416E-AD21-7DE814CEBF97}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1504,6 +1553,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1538,7 +1588,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1563,7 +1612,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1577,7 +1626,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1695,6 +1743,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DDCA-4663-830D-82651783C711}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1731,9 +1784,9 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1768,7 +1821,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1793,7 +1845,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1972,6 +2024,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B323-4672-88DD-A4269C32C76F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2132,6 +2189,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B323-4672-88DD-A4269C32C76F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2292,6 +2354,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B323-4672-88DD-A4269C32C76F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2373,7 +2440,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2403,7 +2476,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2438,7 +2517,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2468,7 +2553,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2503,7 +2594,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2564,7 +2661,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2597,9 +2694,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2632,6 +2746,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2810,31 +2941,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y65"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="8" max="9" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="8" max="9" width="19.109375" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="22.140625" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" customWidth="1"/>
-    <col min="16" max="17" width="11.7109375" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="22.109375" customWidth="1"/>
+    <col min="15" max="15" width="13.5546875" customWidth="1"/>
+    <col min="16" max="17" width="11.6640625" customWidth="1"/>
+    <col min="23" max="23" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2905,7 +3036,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
@@ -2942,7 +3073,7 @@
       </c>
       <c r="W2" s="10"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>65</v>
       </c>
@@ -3022,7 +3153,7 @@
         <v>153117.87443632298</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>66</v>
       </c>
@@ -3102,7 +3233,7 @@
         <v>160728.88879802052</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>67</v>
       </c>
@@ -3178,7 +3309,7 @@
         <v>96805.798673873811</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>68</v>
       </c>
@@ -3258,7 +3389,7 @@
         <v>207428.10534054047</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>69</v>
       </c>
@@ -3338,7 +3469,7 @@
         <v>232617.20879802053</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>70</v>
       </c>
@@ -3416,7 +3547,7 @@
         <v>167172.91443632299</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>71</v>
       </c>
@@ -3494,7 +3625,7 @@
         <v>164913.5887980205</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>72</v>
       </c>
@@ -3571,7 +3702,7 @@
         <v>96913.098673873814</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>73</v>
       </c>
@@ -3649,7 +3780,7 @@
         <v>120291.73413371181</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>74</v>
       </c>
@@ -3727,7 +3858,7 @@
         <v>134963.98073992686</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>75</v>
       </c>
@@ -3806,7 +3937,7 @@
         <v>241736.43633992688</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>76</v>
       </c>
@@ -3884,7 +4015,7 @@
         <v>131091.25413371183</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>77</v>
       </c>
@@ -3963,13 +4094,13 @@
         <v>136573.48073992686</v>
       </c>
     </row>
-    <row r="27" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P27">
         <f>0.02/1000</f>
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="42" spans="17:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="17:24" x14ac:dyDescent="0.3">
       <c r="Q42" s="5" t="s">
         <v>54</v>
       </c>
@@ -3983,12 +4114,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="17:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="17:24" x14ac:dyDescent="0.3">
       <c r="R43" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="17:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="17:24" x14ac:dyDescent="0.3">
       <c r="Q44" t="s">
         <v>57</v>
       </c>
@@ -4008,7 +4139,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="17:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="17:24" x14ac:dyDescent="0.3">
       <c r="R45" t="s">
         <v>59</v>
       </c>
@@ -4019,7 +4150,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="17:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="17:24" x14ac:dyDescent="0.3">
       <c r="Q46" t="s">
         <v>62</v>
       </c>
@@ -4036,7 +4167,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -4082,9 +4213,9 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -4149,7 +4280,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -4214,7 +4345,7 @@
         <v>-1481.815837057527</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -4279,7 +4410,7 @@
         <v>-528.92348823411544</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -4344,7 +4475,7 @@
         <v>967.0943495392338</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -4409,7 +4540,7 @@
         <v>3466.7048557043358</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -4474,7 +4605,7 @@
         <v>7749.5964503397781</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -4539,7 +4670,7 @@
         <v>15017.71747020662</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -4604,7 +4735,7 @@
         <v>26989.860446771214</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -4669,7 +4800,7 @@
         <v>45109.772045897487</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -4734,7 +4865,7 @@
         <v>68154.015117732575</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -4799,7 +4930,7 @@
         <v>88325.19269102918</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -4864,7 +4995,7 @@
         <v>94684.10528062754</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -4929,7 +5060,7 @@
         <v>88877.606590680312</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -4994,7 +5125,7 @@
         <v>80916.354837534003</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -5059,7 +5190,7 @@
         <v>73577.702442360562</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -5124,7 +5255,7 @@
         <v>66898.300327300967</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -5189,7 +5320,7 @@
         <v>60822.382070367559</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -5254,7 +5385,7 @@
         <v>55295.68615905453</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -5319,7 +5450,7 @@
         <v>50268.805599140484</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -5384,7 +5515,7 @@
         <v>45701.07248651571</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -5449,7 +5580,7 @@
         <v>41546.429533196089</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -5531,9 +5662,9 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -5598,7 +5729,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -5663,7 +5794,7 @@
         <v>-994.38886446740912</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -5728,7 +5859,7 @@
         <v>-85.808058606735557</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -5793,7 +5924,7 @@
         <v>1369.9265582913972</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -5858,7 +5989,7 @@
         <v>3832.9159545699395</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -5923,7 +6054,7 @@
         <v>8082.5156311266901</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -5988,7 +6119,7 @@
         <v>15320.371270921994</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -6053,7 +6184,7 @@
         <v>27265.000265603372</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -6118,7 +6249,7 @@
         <v>45359.899153926723</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -6183,7 +6314,7 @@
         <v>68381.403397759161</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -6248,7 +6379,7 @@
         <v>88531.909309235169</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -6313,7 +6444,7 @@
         <v>94872.029478996614</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -6378,7 +6509,7 @@
         <v>89048.446771015835</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -6443,7 +6574,7 @@
         <v>81071.664092384468</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -6508,7 +6639,7 @@
         <v>73718.892674042814</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -6573,7 +6704,7 @@
         <v>67026.655083375736</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -6638,7 +6769,7 @@
         <v>60939.068212253711</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -6703,7 +6834,7 @@
         <v>55401.764469860129</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -6768,7 +6899,7 @@
         <v>50365.240427145567</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -6833,7 +6964,7 @@
         <v>45788.74051197488</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -6898,7 +7029,7 @@
         <v>41626.127738158968</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -6980,12 +7111,12 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="19" max="19" width="16.85546875" customWidth="1"/>
+    <col min="19" max="19" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -7050,7 +7181,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -7115,7 +7246,7 @@
         <v>-1406.1283124115794</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -7180,7 +7311,7 @@
         <v>-460.11664764689033</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -7245,7 +7376,7 @@
         <v>1029.6460228003475</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -7310,7 +7441,7 @@
         <v>3523.5700132144393</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -7375,7 +7506,7 @@
         <v>7801.2920480762359</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -7440,7 +7571,7 @@
         <v>15064.713468148853</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -7505,7 +7636,7 @@
         <v>27032.584081264151</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -7570,7 +7701,7 @@
         <v>45148.611713618346</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -7635,7 +7766,7 @@
         <v>68189.323906569727</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -7700,7 +7831,7 @@
         <v>88357.291589972039</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -7765,7 +7896,7 @@
         <v>94713.286097848322</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -7830,7 +7961,7 @@
         <v>88904.134606335574</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -7895,7 +8026,7 @@
         <v>80940.471215402416</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -7960,7 +8091,7 @@
         <v>73599.626422240937</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -8025,7 +8156,7 @@
         <v>66918.231218101311</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -8090,7 +8221,7 @@
         <v>60840.50106200423</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -8155,7 +8286,7 @@
         <v>55312.157969633328</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -8220,7 +8351,7 @@
         <v>50283.779972393932</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -8285,7 +8416,7 @@
         <v>45714.685553109754</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -8350,7 +8481,7 @@
         <v>41558.805048281589</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -8415,7 +8546,7 @@
         <v>37780.731862074172</v>
       </c>
     </row>
-    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -8433,9 +8564,9 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -8500,7 +8631,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -8565,7 +8696,7 @@
         <v>-1020.7415413371182</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -8630,7 +8761,7 @@
         <v>-437.0377648519256</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -8695,7 +8826,7 @@
         <v>471.45327162221639</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -8760,7 +8891,7 @@
         <v>1981.110787875944</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -8825,7 +8956,7 @@
         <v>4559.8377560705421</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -8890,7 +9021,7 @@
         <v>8928.8849238209477</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -8955,7 +9086,7 @@
         <v>16119.602124150888</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -9020,7 +9151,7 @@
         <v>26998.304914891367</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -9085,7 +9216,7 @@
         <v>40830.992422778523</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -9150,7 +9281,7 @@
         <v>52939.282298380218</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -9215,7 +9346,7 @@
         <v>56759.70560816081</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -9280,7 +9411,7 @@
         <v>53280.42071784845</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -9345,7 +9476,7 @@
         <v>48507.8645056479</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -9410,7 +9541,7 @@
         <v>44108.486559168618</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -9475,7 +9606,7 @@
         <v>40104.312099791743</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -9540,7 +9671,7 @@
         <v>36461.912790776136</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -9605,7 +9736,7 @@
         <v>33148.760375937811</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -9670,7 +9801,7 @@
         <v>30135.236705398009</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -9735,7 +9866,7 @@
         <v>27396.964715467355</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -9800,7 +9931,7 @@
         <v>24906.331559515769</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -9882,9 +10013,9 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -9949,7 +10080,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -10014,7 +10145,7 @@
         <v>-2095.3008073992692</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -10079,7 +10210,7 @@
         <v>-1250.2734612720628</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -10144,7 +10275,7 @@
         <v>21.734869917959294</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -10209,7 +10340,7 @@
         <v>2089.7815120967166</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -10274,7 +10405,7 @@
         <v>5578.2386398475028</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -10339,7 +10470,7 @@
         <v>11449.22986668864</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -10404,7 +10535,7 @@
         <v>21078.302803347287</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -10469,7 +10600,7 @@
         <v>35620.92167847282</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -10534,7 +10665,7 @@
         <v>54098.761223054084</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -10599,7 +10730,7 @@
         <v>70274.289724521557</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -10664,7 +10795,7 @@
         <v>75396.498380591322</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -10729,7 +10860,7 @@
         <v>70783.189050807239</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -10794,7 +10925,7 @@
         <v>64443.178213902633</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -10859,7 +10990,7 @@
         <v>58598.611357411573</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -10924,7 +11055,7 @@
         <v>53279.048810498163</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -10989,7 +11120,7 @@
         <v>48440.095245982578</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -11054,7 +11185,7 @@
         <v>44038.539463324109</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -11119,7 +11250,7 @@
         <v>40035.035875749185</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -11184,7 +11315,7 @@
         <v>36397.213804155115</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -11249,7 +11380,7 @@
         <v>33088.376185595553</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -11331,9 +11462,9 @@
       <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -11398,7 +11529,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -11463,7 +11594,7 @@
         <v>-11594.247855399268</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -11528,7 +11659,7 @@
         <v>-9722.0435049084244</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -11593,7 +11724,7 @@
         <v>-7390.2874838010466</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -11658,7 +11789,7 @@
         <v>-4130.9149927868266</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -11723,7 +11854,7 @@
         <v>842.66931534781224</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -11788,7 +11919,7 @@
         <v>8738.6928020321066</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -11853,7 +11984,7 @@
         <v>21281.656202976199</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -11918,7 +12049,7 @@
         <v>39920.495460629296</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -11983,7 +12114,7 @@
         <v>63436.49094930695</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -12048,7 +12179,7 @@
         <v>84036.534356096789</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -12113,7 +12244,7 @@
         <v>90785.324976143558</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -12178,7 +12309,7 @@
         <v>85333.260859331232</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -12243,7 +12374,7 @@
         <v>77694.222354489379</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -12308,7 +12439,7 @@
         <v>70648.491094138182</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -12373,7 +12504,7 @@
         <v>64235.380919826079</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -12438,7 +12569,7 @@
         <v>58401.546245390382</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -12503,7 +12634,7 @@
         <v>53094.926318166195</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -12568,7 +12699,7 @@
         <v>48268.114834696535</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -12633,7 +12764,7 @@
         <v>43882.262700657579</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -12698,7 +12829,7 @@
         <v>39892.966091506882</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -12780,9 +12911,9 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -12847,7 +12978,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -12912,7 +13043,7 @@
         <v>-1589.7435413371186</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -12977,7 +13108,7 @@
         <v>-627.03958303374418</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -13042,7 +13173,7 @@
         <v>877.89789972138954</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -13107,7 +13238,7 @@
         <v>3385.6171740517507</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -13172,7 +13303,7 @@
         <v>7675.8803761101553</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -13237,7 +13368,7 @@
         <v>14950.702857270597</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -13302,7 +13433,7 @@
         <v>26928.938071374829</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -13367,7 +13498,7 @@
         <v>45054.388068264416</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -13432,7 +13563,7 @@
         <v>68103.666047157065</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -13497,7 +13628,7 @@
         <v>88279.420808687806</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -13562,7 +13693,7 @@
         <v>94642.494478499022</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -13627,7 +13758,7 @@
         <v>88839.778588745292</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -13692,7 +13823,7 @@
         <v>80881.965744865796</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -13757,7 +13888,7 @@
         <v>73546.439630844019</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -13822,7 +13953,7 @@
         <v>66869.879589558652</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -13887,7 +14018,7 @@
         <v>60796.545036056363</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -13952,7 +14083,7 @@
         <v>55272.197946044354</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -14017,7 +14148,7 @@
         <v>50247.452678222136</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -14082,7 +14213,7 @@
         <v>45681.660740226303</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -14147,7 +14278,7 @@
         <v>41528.782491114813</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -14229,9 +14360,9 @@
       <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -14296,7 +14427,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -14361,7 +14492,7 @@
         <v>-2035.2108073992695</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -14426,7 +14557,7 @@
         <v>-1032.0098249084267</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -14491,7 +14622,7 @@
         <v>509.74313438076899</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -14556,7 +14687,7 @@
         <v>3050.9310237420955</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -14621,7 +14752,7 @@
         <v>7371.6202394650145</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -14686,7 +14817,7 @@
         <v>14674.102733047743</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -14751,7 +14882,7 @@
         <v>26677.483412990416</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -14816,7 +14947,7 @@
         <v>44825.792924278583</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -14881,7 +15012,7 @@
         <v>67895.852279897212</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -14946,7 +15077,7 @@
         <v>88090.499202087944</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -15011,7 +15142,7 @@
         <v>94470.747563408237</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -15076,7 +15207,7 @@
         <v>88683.645029571853</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -15141,7 +15272,7 @@
         <v>80740.026145617216</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -15206,7 +15337,7 @@
         <v>73417.403631527122</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -15271,7 +15402,7 @@
         <v>66752.574135634204</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -15336,7 +15467,7 @@
         <v>60689.903714306864</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -15401,7 +15532,7 @@
         <v>55175.251289908447</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -15466,7 +15597,7 @@
         <v>50159.319354462219</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -15531,7 +15662,7 @@
         <v>45601.539536808195</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -15596,7 +15727,7 @@
         <v>41455.945033461991</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -15679,26 +15810,26 @@
       <selection pane="topRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="34.5546875" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" customWidth="1"/>
-    <col min="15" max="15" width="25.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" customWidth="1"/>
+    <col min="15" max="15" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -15745,7 +15876,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
@@ -15805,7 +15936,7 @@
         <v>136573.48073992686</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>65</v>
       </c>
@@ -15856,7 +15987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>66</v>
       </c>
@@ -15905,7 +16036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>67</v>
       </c>
@@ -15954,7 +16085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>68</v>
       </c>
@@ -16001,7 +16132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>69</v>
       </c>
@@ -16048,7 +16179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>70</v>
       </c>
@@ -16097,7 +16228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>71</v>
       </c>
@@ -16145,7 +16276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>72</v>
       </c>
@@ -16193,7 +16324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>73</v>
       </c>
@@ -16244,7 +16375,7 @@
         <v>16281.746606215049</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>74</v>
       </c>
@@ -16293,7 +16424,7 @@
         <v>1609.5</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>75</v>
       </c>
@@ -16340,7 +16471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>76</v>
       </c>
@@ -16389,7 +16520,7 @@
         <v>5482.2266062150302</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>77</v>
       </c>
@@ -16451,17 +16582,17 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="39.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -16472,7 +16603,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
@@ -16483,7 +16614,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>65</v>
       </c>
@@ -16495,7 +16626,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>66</v>
       </c>
@@ -16507,7 +16638,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>67</v>
       </c>
@@ -16519,7 +16650,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>68</v>
       </c>
@@ -16531,7 +16662,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>69</v>
       </c>
@@ -16543,7 +16674,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>70</v>
       </c>
@@ -16555,7 +16686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>71</v>
       </c>
@@ -16567,7 +16698,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>72</v>
       </c>
@@ -16579,7 +16710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>73</v>
       </c>
@@ -16591,7 +16722,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>74</v>
       </c>
@@ -16603,7 +16734,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>75</v>
       </c>
@@ -16615,7 +16746,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>76</v>
       </c>
@@ -16627,7 +16758,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>77</v>
       </c>
@@ -16653,21 +16784,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH49"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView topLeftCell="I7" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -16747,7 +16878,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2018</v>
       </c>
@@ -16770,56 +16901,56 @@
         <v>2018</v>
       </c>
       <c r="O2">
-        <f>$I$9*B29</f>
-        <v>1152</v>
+        <f>$I$6*B29</f>
+        <v>691.2</v>
       </c>
       <c r="P2">
-        <f t="shared" ref="P2:T2" si="0">$I$9*C29</f>
-        <v>1152</v>
+        <f t="shared" ref="P2:T2" si="0">$I$6*C29</f>
+        <v>691.2</v>
       </c>
       <c r="Q2">
         <f t="shared" si="0"/>
-        <v>1152</v>
+        <v>691.2</v>
       </c>
       <c r="R2">
         <f t="shared" si="0"/>
-        <v>1032</v>
+        <v>619.20000000000005</v>
       </c>
       <c r="S2">
         <f t="shared" si="0"/>
-        <v>1032</v>
+        <v>619.20000000000005</v>
       </c>
       <c r="T2">
         <f t="shared" si="0"/>
-        <v>1032</v>
+        <v>619.20000000000005</v>
       </c>
       <c r="U2">
-        <f>OPEX!$B$15</f>
-        <v>3258.5068073992688</v>
+        <f>OPEX!$B$3</f>
+        <v>2139.68314436323</v>
       </c>
       <c r="V2">
         <f>O2-U2</f>
-        <v>-2106.5068073992688</v>
+        <v>-1448.4831443632299</v>
       </c>
       <c r="W2">
         <f>P2-U2</f>
-        <v>-2106.5068073992688</v>
+        <v>-1448.4831443632299</v>
       </c>
       <c r="X2">
         <f t="shared" ref="X2:X22" si="1">Q2-U2</f>
-        <v>-2106.5068073992688</v>
+        <v>-1448.4831443632299</v>
       </c>
       <c r="Y2">
         <f>R2-$U2</f>
-        <v>-2226.5068073992688</v>
+        <v>-1520.4831443632299</v>
       </c>
       <c r="Z2">
         <f>S2-$U2</f>
-        <v>-2226.5068073992688</v>
+        <v>-1520.4831443632299</v>
       </c>
       <c r="AA2">
         <f>T2-$U2</f>
-        <v>-2226.5068073992688</v>
+        <v>-1520.4831443632299</v>
       </c>
       <c r="AB2">
         <f>1/POWER(1+$L$25,N2-2018)</f>
@@ -16827,30 +16958,30 @@
       </c>
       <c r="AC2">
         <f>V2*AB2</f>
-        <v>-2106.5068073992688</v>
+        <v>-1448.4831443632299</v>
       </c>
       <c r="AD2">
         <f>W2*AB2</f>
-        <v>-2106.5068073992688</v>
+        <v>-1448.4831443632299</v>
       </c>
       <c r="AE2">
         <f>X2*AB2</f>
-        <v>-2106.5068073992688</v>
+        <v>-1448.4831443632299</v>
       </c>
       <c r="AF2">
         <f>Y2*$AB2</f>
-        <v>-2226.5068073992688</v>
+        <v>-1520.4831443632299</v>
       </c>
       <c r="AG2">
         <f>Z2*$AB2</f>
-        <v>-2226.5068073992688</v>
+        <v>-1520.4831443632299</v>
       </c>
       <c r="AH2">
         <f>AA2*$AB2</f>
-        <v>-2226.5068073992688</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+        <v>-1520.4831443632299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2019</v>
       </c>
@@ -16872,56 +17003,56 @@
         <v>2019</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O22" si="2">$I$9*B30</f>
-        <v>1536</v>
+        <f t="shared" ref="O3:O22" si="2">$I$6*B30</f>
+        <v>921.6</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P22" si="3">$I$9*C30</f>
-        <v>1584</v>
+        <f t="shared" ref="P3:P22" si="3">$I$6*C30</f>
+        <v>950.4</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q22" si="4">$I$9*D30</f>
-        <v>2148</v>
+        <f t="shared" ref="Q3:Q22" si="4">$I$6*D30</f>
+        <v>1288.8</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R22" si="5">$I$9*E30</f>
-        <v>1380</v>
+        <f t="shared" ref="R3:R22" si="5">$I$6*E30</f>
+        <v>828</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S22" si="6">$I$9*F30</f>
-        <v>1416</v>
+        <f t="shared" ref="S3:S22" si="6">$I$6*F30</f>
+        <v>849.6</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T22" si="7">$I$9*G30</f>
-        <v>1932</v>
+        <f t="shared" ref="T3:T22" si="7">$I$6*G30</f>
+        <v>1159.2</v>
       </c>
       <c r="U3">
-        <f>OPEX!$B$15</f>
-        <v>3258.5068073992688</v>
+        <f>OPEX!$B$3</f>
+        <v>2139.68314436323</v>
       </c>
       <c r="V3">
         <f t="shared" ref="V3:V22" si="8">O3-U3</f>
-        <v>-1722.5068073992688</v>
+        <v>-1218.0831443632301</v>
       </c>
       <c r="W3">
         <f t="shared" ref="W3:W22" si="9">P3-U3</f>
-        <v>-1674.5068073992688</v>
+        <v>-1189.2831443632299</v>
       </c>
       <c r="X3">
         <f t="shared" si="1"/>
-        <v>-1110.5068073992688</v>
+        <v>-850.88314436323003</v>
       </c>
       <c r="Y3">
         <f t="shared" ref="Y3:Y22" si="10">R3-$U3</f>
-        <v>-1878.5068073992688</v>
+        <v>-1311.68314436323</v>
       </c>
       <c r="Z3">
         <f t="shared" ref="Z3:Z22" si="11">S3-$U3</f>
-        <v>-1842.5068073992688</v>
+        <v>-1290.0831443632301</v>
       </c>
       <c r="AA3">
         <f t="shared" ref="AA3:AA22" si="12">T3-$U3</f>
-        <v>-1326.5068073992688</v>
+        <v>-980.48314436322994</v>
       </c>
       <c r="AB3">
         <f t="shared" ref="AB3:AB22" si="13">1/POWER(1+$L$25,N3-2018)</f>
@@ -16929,30 +17060,30 @@
       </c>
       <c r="AC3">
         <f t="shared" ref="AC3:AC22" si="14">V3*AB3</f>
-        <v>-1565.9152794538807</v>
+        <v>-1107.3483130574818</v>
       </c>
       <c r="AD3">
         <f t="shared" ref="AD3:AD22" si="15">W3*AB3</f>
-        <v>-1522.2789158175171</v>
+        <v>-1081.1664948756636</v>
       </c>
       <c r="AE3">
         <f t="shared" ref="AE3:AE22" si="16">X3*AB3</f>
-        <v>-1009.5516430902444</v>
+        <v>-773.53013123929998</v>
       </c>
       <c r="AF3">
         <f t="shared" ref="AF3:AF22" si="17">Y3*$AB3</f>
-        <v>-1707.7334612720624</v>
+        <v>-1192.4392221483909</v>
       </c>
       <c r="AG3">
         <f t="shared" ref="AG3:AG22" si="18">Z3*$AB3</f>
-        <v>-1675.0061885447899</v>
+        <v>-1172.8028585120273</v>
       </c>
       <c r="AH3">
         <f t="shared" ref="AH3:AH22" si="19">AA3*$AB3</f>
-        <v>-1205.9152794538807</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+        <v>-891.34831305748173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2020</v>
       </c>
@@ -16975,55 +17106,55 @@
       </c>
       <c r="O4">
         <f t="shared" si="2"/>
-        <v>2064</v>
+        <v>1238.4000000000001</v>
       </c>
       <c r="P4">
         <f t="shared" si="3"/>
-        <v>2196</v>
+        <v>1317.6000000000001</v>
       </c>
       <c r="Q4">
         <f t="shared" si="4"/>
-        <v>4104</v>
+        <v>2462.4</v>
       </c>
       <c r="R4">
         <f t="shared" si="5"/>
-        <v>1848</v>
+        <v>1108.8</v>
       </c>
       <c r="S4">
         <f t="shared" si="6"/>
-        <v>1968</v>
+        <v>1180.8</v>
       </c>
       <c r="T4">
         <f t="shared" si="7"/>
-        <v>3684</v>
+        <v>2210.4</v>
       </c>
       <c r="U4">
-        <f>OPEX!$B$15</f>
-        <v>3258.5068073992688</v>
+        <f>OPEX!$B$3</f>
+        <v>2139.68314436323</v>
       </c>
       <c r="V4">
         <f t="shared" si="8"/>
-        <v>-1194.5068073992688</v>
+        <v>-901.28314436322989</v>
       </c>
       <c r="W4">
         <f t="shared" si="9"/>
-        <v>-1062.5068073992688</v>
+        <v>-822.08314436322985</v>
       </c>
       <c r="X4">
         <f t="shared" si="1"/>
-        <v>845.49319260073116</v>
+        <v>322.71685563677011</v>
       </c>
       <c r="Y4">
         <f t="shared" si="10"/>
-        <v>-1410.5068073992688</v>
+        <v>-1030.88314436323</v>
       </c>
       <c r="Z4">
         <f t="shared" si="11"/>
-        <v>-1290.5068073992688</v>
+        <v>-958.88314436323003</v>
       </c>
       <c r="AA4">
         <f t="shared" si="12"/>
-        <v>425.49319260073116</v>
+        <v>70.716855636770106</v>
       </c>
       <c r="AB4">
         <f t="shared" si="13"/>
@@ -17031,30 +17162,30 @@
       </c>
       <c r="AC4">
         <f t="shared" si="14"/>
-        <v>-987.19570859443695</v>
+        <v>-744.86210277952875</v>
       </c>
       <c r="AD4">
         <f t="shared" si="15"/>
-        <v>-878.10479950352783</v>
+        <v>-679.40755732498326</v>
       </c>
       <c r="AE4">
         <f t="shared" si="16"/>
-        <v>698.75470462870339</v>
+        <v>266.70814515435541</v>
       </c>
       <c r="AF4">
         <f t="shared" si="17"/>
-        <v>-1165.7081052886517</v>
+        <v>-851.9695407960578</v>
       </c>
       <c r="AG4">
         <f t="shared" si="18"/>
-        <v>-1066.5345515696436</v>
+        <v>-792.46540856465288</v>
       </c>
       <c r="AH4">
         <f t="shared" si="19"/>
-        <v>351.64726661217446</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+        <v>58.443682344438095</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2021</v>
       </c>
@@ -17084,55 +17215,55 @@
       </c>
       <c r="O5">
         <f t="shared" si="2"/>
-        <v>2796</v>
+        <v>1677.6000000000001</v>
       </c>
       <c r="P5">
         <f t="shared" si="3"/>
-        <v>3084</v>
+        <v>1850.4</v>
       </c>
       <c r="Q5">
         <f t="shared" si="4"/>
-        <v>7932</v>
+        <v>4759.2</v>
       </c>
       <c r="R5">
         <f t="shared" si="5"/>
-        <v>2508</v>
+        <v>1504.8</v>
       </c>
       <c r="S5">
         <f t="shared" si="6"/>
-        <v>2772</v>
+        <v>1663.2</v>
       </c>
       <c r="T5">
         <f t="shared" si="7"/>
-        <v>7128</v>
+        <v>4276.8</v>
       </c>
       <c r="U5">
-        <f>OPEX!$B$15</f>
-        <v>3258.5068073992688</v>
+        <f>OPEX!$B$3</f>
+        <v>2139.68314436323</v>
       </c>
       <c r="V5">
         <f t="shared" si="8"/>
-        <v>-462.50680739926884</v>
+        <v>-462.08314436322985</v>
       </c>
       <c r="W5">
         <f t="shared" si="9"/>
-        <v>-174.50680739926884</v>
+        <v>-289.28314436322989</v>
       </c>
       <c r="X5">
         <f t="shared" si="1"/>
-        <v>4673.4931926007312</v>
+        <v>2619.5168556367698</v>
       </c>
       <c r="Y5">
         <f t="shared" si="10"/>
-        <v>-750.50680739926884</v>
+        <v>-634.88314436323003</v>
       </c>
       <c r="Z5">
         <f t="shared" si="11"/>
-        <v>-486.50680739926884</v>
+        <v>-476.48314436322994</v>
       </c>
       <c r="AA5">
         <f t="shared" si="12"/>
-        <v>3869.4931926007312</v>
+        <v>2137.1168556367702</v>
       </c>
       <c r="AB5">
         <f t="shared" si="13"/>
@@ -17140,30 +17271,30 @@
       </c>
       <c r="AC5">
         <f t="shared" si="14"/>
-        <v>-347.48820991680594</v>
+        <v>-347.16990560723497</v>
       </c>
       <c r="AD5">
         <f t="shared" si="15"/>
-        <v>-131.1095472571516</v>
+        <v>-217.34270801144237</v>
       </c>
       <c r="AE5">
         <f t="shared" si="16"/>
-        <v>3511.2646075136963</v>
+        <v>1968.0817848510662</v>
       </c>
       <c r="AF5">
         <f t="shared" si="17"/>
-        <v>-563.86687257646031</v>
+        <v>-476.99710320302768</v>
       </c>
       <c r="AG5">
         <f t="shared" si="18"/>
-        <v>-365.5197651384438</v>
+        <v>-357.98883874021772</v>
       </c>
       <c r="AH5">
         <f t="shared" si="19"/>
-        <v>2907.2075075888279</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+        <v>1605.6475248961453</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2022</v>
       </c>
@@ -17193,55 +17324,55 @@
       </c>
       <c r="O6">
         <f t="shared" si="2"/>
-        <v>3816</v>
+        <v>2289.6</v>
       </c>
       <c r="P6">
         <f t="shared" si="3"/>
-        <v>4356</v>
+        <v>2613.6</v>
       </c>
       <c r="Q6">
         <f t="shared" si="4"/>
-        <v>15408</v>
+        <v>9244.8000000000011</v>
       </c>
       <c r="R6">
         <f t="shared" si="5"/>
-        <v>3432</v>
+        <v>2059.2000000000003</v>
       </c>
       <c r="S6">
         <f t="shared" si="6"/>
-        <v>3912</v>
+        <v>2347.2000000000003</v>
       </c>
       <c r="T6">
         <f t="shared" si="7"/>
-        <v>13860</v>
+        <v>8316</v>
       </c>
       <c r="U6">
-        <f>OPEX!$B$15</f>
-        <v>3258.5068073992688</v>
+        <f>OPEX!$B$3</f>
+        <v>2139.68314436323</v>
       </c>
       <c r="V6">
         <f t="shared" si="8"/>
-        <v>557.49319260073116</v>
+        <v>149.91685563676992</v>
       </c>
       <c r="W6">
         <f t="shared" si="9"/>
-        <v>1097.4931926007312</v>
+        <v>473.91685563676992</v>
       </c>
       <c r="X6">
         <f t="shared" si="1"/>
-        <v>12149.49319260073</v>
+        <v>7105.1168556367711</v>
       </c>
       <c r="Y6">
         <f t="shared" si="10"/>
-        <v>173.49319260073116</v>
+        <v>-80.483144363229712</v>
       </c>
       <c r="Z6">
         <f t="shared" si="11"/>
-        <v>653.49319260073116</v>
+        <v>207.51685563677029</v>
       </c>
       <c r="AA6">
         <f t="shared" si="12"/>
-        <v>10601.49319260073</v>
+        <v>6176.31685563677</v>
       </c>
       <c r="AB6">
         <f t="shared" si="13"/>
@@ -17249,30 +17380,30 @@
       </c>
       <c r="AC6">
         <f t="shared" si="14"/>
-        <v>380.77535182073018</v>
+        <v>102.39522958593668</v>
       </c>
       <c r="AD6">
         <f t="shared" si="15"/>
-        <v>749.60261771786827</v>
+        <v>323.69158912421955</v>
       </c>
       <c r="AE6">
         <f t="shared" si="16"/>
-        <v>8298.2673264126279</v>
+        <v>4852.8904143410764</v>
       </c>
       <c r="AF6">
         <f t="shared" si="17"/>
-        <v>118.49818496054307</v>
+        <v>-54.971070530175325</v>
       </c>
       <c r="AG6">
         <f t="shared" si="18"/>
-        <v>446.34464353577692</v>
+        <v>141.736804614965</v>
       </c>
       <c r="AH6">
         <f t="shared" si="19"/>
-        <v>7240.9624975074976</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+        <v>4218.5075169979973</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2023</v>
       </c>
@@ -17302,55 +17433,55 @@
       </c>
       <c r="O7">
         <f t="shared" si="2"/>
-        <v>5220</v>
+        <v>3132</v>
       </c>
       <c r="P7">
         <f t="shared" si="3"/>
-        <v>6168</v>
+        <v>3700.8</v>
       </c>
       <c r="Q7">
         <f t="shared" si="4"/>
-        <v>29676</v>
+        <v>17805.600000000002</v>
       </c>
       <c r="R7">
         <f t="shared" si="5"/>
-        <v>4692</v>
+        <v>2815.2000000000003</v>
       </c>
       <c r="S7">
         <f t="shared" si="6"/>
-        <v>5544</v>
+        <v>3326.4</v>
       </c>
       <c r="T7">
         <f t="shared" si="7"/>
-        <v>26700</v>
+        <v>16020</v>
       </c>
       <c r="U7">
-        <f>OPEX!$B$15</f>
-        <v>3258.5068073992688</v>
+        <f>OPEX!$B$3</f>
+        <v>2139.68314436323</v>
       </c>
       <c r="V7">
         <f t="shared" si="8"/>
-        <v>1961.4931926007312</v>
+        <v>992.31685563677001</v>
       </c>
       <c r="W7">
         <f t="shared" si="9"/>
-        <v>2909.4931926007312</v>
+        <v>1561.1168556367702</v>
       </c>
       <c r="X7">
         <f t="shared" si="1"/>
-        <v>26417.49319260073</v>
+        <v>15665.916855636773</v>
       </c>
       <c r="Y7">
         <f t="shared" si="10"/>
-        <v>1433.4931926007312</v>
+        <v>675.51685563677029</v>
       </c>
       <c r="Z7">
         <f t="shared" si="11"/>
-        <v>2285.4931926007312</v>
+        <v>1186.7168556367701</v>
       </c>
       <c r="AA7">
         <f t="shared" si="12"/>
-        <v>23441.49319260073</v>
+        <v>13880.316855636771</v>
       </c>
       <c r="AB7">
         <f t="shared" si="13"/>
@@ -17358,30 +17489,30 @@
       </c>
       <c r="AC7">
         <f t="shared" si="14"/>
-        <v>1217.9329483211718</v>
+        <v>616.1506948958837</v>
       </c>
       <c r="AD7">
         <f t="shared" si="15"/>
-        <v>1806.5663625812506</v>
+        <v>969.33074345193108</v>
       </c>
       <c r="AE7">
         <f t="shared" si="16"/>
-        <v>16403.184825055865</v>
+        <v>9727.3018209367019</v>
       </c>
       <c r="AF7">
         <f t="shared" si="17"/>
-        <v>890.08648974593802</v>
+        <v>419.44281975074358</v>
       </c>
       <c r="AG7">
         <f t="shared" si="18"/>
-        <v>1419.1114569923379</v>
+        <v>736.85780009858343</v>
       </c>
       <c r="AH7">
         <f t="shared" si="19"/>
-        <v>14555.322967631819</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+        <v>8618.5847064822738</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2024</v>
       </c>
@@ -17411,55 +17542,55 @@
       </c>
       <c r="O8">
         <f t="shared" si="2"/>
-        <v>7128</v>
+        <v>4276.8</v>
       </c>
       <c r="P8">
         <f t="shared" si="3"/>
-        <v>8724</v>
+        <v>5234.4000000000005</v>
       </c>
       <c r="Q8">
         <f t="shared" si="4"/>
-        <v>55920</v>
+        <v>33552</v>
       </c>
       <c r="R8">
         <f t="shared" si="5"/>
-        <v>6408</v>
+        <v>3844.8</v>
       </c>
       <c r="S8">
         <f t="shared" si="6"/>
-        <v>7848</v>
+        <v>4708.8</v>
       </c>
       <c r="T8">
         <f t="shared" si="7"/>
-        <v>50328</v>
+        <v>30196.799999999999</v>
       </c>
       <c r="U8">
-        <f>OPEX!$B$15</f>
-        <v>3258.5068073992688</v>
+        <f>OPEX!$B$3</f>
+        <v>2139.68314436323</v>
       </c>
       <c r="V8">
         <f t="shared" si="8"/>
-        <v>3869.4931926007312</v>
+        <v>2137.1168556367702</v>
       </c>
       <c r="W8">
         <f t="shared" si="9"/>
-        <v>5465.4931926007312</v>
+        <v>3094.7168556367706</v>
       </c>
       <c r="X8">
         <f t="shared" si="1"/>
-        <v>52661.493192600734</v>
+        <v>31412.316855636771</v>
       </c>
       <c r="Y8">
         <f t="shared" si="10"/>
-        <v>3149.4931926007312</v>
+        <v>1705.1168556367702</v>
       </c>
       <c r="Z8">
         <f t="shared" si="11"/>
-        <v>4589.4931926007312</v>
+        <v>2569.1168556367702</v>
       </c>
       <c r="AA8">
         <f t="shared" si="12"/>
-        <v>47069.493192600734</v>
+        <v>28057.11685563677</v>
       </c>
       <c r="AB8">
         <f t="shared" si="13"/>
@@ -17467,30 +17598,30 @@
       </c>
       <c r="AC8">
         <f t="shared" si="14"/>
-        <v>2184.2280297436723</v>
+        <v>1206.3467504854584</v>
       </c>
       <c r="AD8">
         <f t="shared" si="15"/>
-        <v>3085.1284221095007</v>
+        <v>1746.8869859049557</v>
       </c>
       <c r="AE8">
         <f t="shared" si="16"/>
-        <v>29726.040024927574</v>
+        <v>17731.433947595797</v>
       </c>
       <c r="AF8">
         <f t="shared" si="17"/>
-        <v>1777.8068001049526</v>
+        <v>962.49401270222677</v>
       </c>
       <c r="AG8">
         <f t="shared" si="18"/>
-        <v>2590.6492593823918</v>
+        <v>1450.1994882686902</v>
       </c>
       <c r="AH8">
         <f t="shared" si="19"/>
-        <v>26569.501808066849</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+        <v>15837.511017479364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2025</v>
       </c>
@@ -17519,55 +17650,55 @@
       </c>
       <c r="O9">
         <f t="shared" si="2"/>
-        <v>9756</v>
+        <v>5853.6</v>
       </c>
       <c r="P9">
         <f t="shared" si="3"/>
-        <v>12324</v>
+        <v>7394.4000000000005</v>
       </c>
       <c r="Q9">
         <f t="shared" si="4"/>
-        <v>100476</v>
+        <v>60285.599999999999</v>
       </c>
       <c r="R9">
         <f t="shared" si="5"/>
-        <v>8772</v>
+        <v>5263.2</v>
       </c>
       <c r="S9">
         <f t="shared" si="6"/>
-        <v>11088</v>
+        <v>6652.8</v>
       </c>
       <c r="T9">
         <f t="shared" si="7"/>
-        <v>90420</v>
+        <v>54252</v>
       </c>
       <c r="U9">
-        <f>OPEX!$B$15</f>
-        <v>3258.5068073992688</v>
+        <f>OPEX!$B$3</f>
+        <v>2139.68314436323</v>
       </c>
       <c r="V9">
         <f t="shared" si="8"/>
-        <v>6497.4931926007312</v>
+        <v>3713.9168556367704</v>
       </c>
       <c r="W9">
         <f t="shared" si="9"/>
-        <v>9065.4931926007303</v>
+        <v>5254.7168556367706</v>
       </c>
       <c r="X9">
         <f t="shared" si="1"/>
-        <v>97217.493192600727</v>
+        <v>58145.916855636766</v>
       </c>
       <c r="Y9">
         <f t="shared" si="10"/>
-        <v>5513.4931926007312</v>
+        <v>3123.5168556367698</v>
       </c>
       <c r="Z9">
         <f t="shared" si="11"/>
-        <v>7829.4931926007312</v>
+        <v>4513.1168556367702</v>
       </c>
       <c r="AA9">
         <f t="shared" si="12"/>
-        <v>87161.493192600727</v>
+        <v>52112.316855636767</v>
       </c>
       <c r="AB9">
         <f t="shared" si="13"/>
@@ -17575,30 +17706,30 @@
       </c>
       <c r="AC9">
         <f t="shared" si="14"/>
-        <v>3334.2413799318165</v>
+        <v>1905.8265849038673</v>
       </c>
       <c r="AD9">
         <f t="shared" si="15"/>
-        <v>4652.0314275482697</v>
+        <v>2696.50061347374</v>
       </c>
       <c r="AE9">
         <f t="shared" si="16"/>
-        <v>49887.945865821501</v>
+        <v>29838.04927643768</v>
       </c>
       <c r="AF9">
         <f t="shared" si="17"/>
-        <v>2829.293791592801</v>
+        <v>1602.8580319004579</v>
       </c>
       <c r="AG9">
         <f t="shared" si="18"/>
-        <v>4017.7679934151174</v>
+        <v>2315.942552993848</v>
       </c>
       <c r="AH9">
         <f t="shared" si="19"/>
-        <v>44727.627828893521</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+        <v>26741.858454280889</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2026</v>
       </c>
@@ -17627,55 +17758,55 @@
       </c>
       <c r="O10">
         <f t="shared" si="2"/>
-        <v>13308</v>
+        <v>7984.8</v>
       </c>
       <c r="P10">
         <f t="shared" si="3"/>
-        <v>17352</v>
+        <v>10411.200000000001</v>
       </c>
       <c r="Q10">
         <f t="shared" si="4"/>
-        <v>165120</v>
+        <v>99072</v>
       </c>
       <c r="R10">
         <f t="shared" si="5"/>
-        <v>11976</v>
+        <v>7185.6</v>
       </c>
       <c r="S10">
         <f t="shared" si="6"/>
-        <v>15612</v>
+        <v>9367.2000000000007</v>
       </c>
       <c r="T10">
         <f t="shared" si="7"/>
-        <v>148608</v>
+        <v>89164.800000000003</v>
       </c>
       <c r="U10">
-        <f>OPEX!$B$15</f>
-        <v>3258.5068073992688</v>
+        <f>OPEX!$B$3</f>
+        <v>2139.68314436323</v>
       </c>
       <c r="V10">
         <f t="shared" si="8"/>
-        <v>10049.49319260073</v>
+        <v>5845.1168556367702</v>
       </c>
       <c r="W10">
         <f t="shared" si="9"/>
-        <v>14093.49319260073</v>
+        <v>8271.5168556367717</v>
       </c>
       <c r="X10">
         <f t="shared" si="1"/>
-        <v>161861.49319260073</v>
+        <v>96932.316855636775</v>
       </c>
       <c r="Y10">
         <f t="shared" si="10"/>
-        <v>8717.4931926007303</v>
+        <v>5045.9168556367704</v>
       </c>
       <c r="Z10">
         <f t="shared" si="11"/>
-        <v>12353.49319260073</v>
+        <v>7227.5168556367707</v>
       </c>
       <c r="AA10">
         <f t="shared" si="12"/>
-        <v>145349.49319260073</v>
+        <v>87025.116855636777</v>
       </c>
       <c r="AB10">
         <f t="shared" si="13"/>
@@ -17683,30 +17814,30 @@
       </c>
       <c r="AC10">
         <f t="shared" si="14"/>
-        <v>4688.1627417157142</v>
+        <v>2726.7901513428628</v>
       </c>
       <c r="AD10">
         <f t="shared" si="15"/>
-        <v>6574.7185872838745</v>
+        <v>3858.7236586837598</v>
       </c>
       <c r="AE10">
         <f t="shared" si="16"/>
-        <v>75509.581146115714</v>
+        <v>45219.641193982869</v>
       </c>
       <c r="AF10">
         <f t="shared" si="17"/>
-        <v>4066.7749112763495</v>
+        <v>2353.9574530792438</v>
       </c>
       <c r="AG10">
         <f t="shared" si="18"/>
-        <v>5762.9957457189394</v>
+        <v>3371.689953744798</v>
       </c>
       <c r="AH10">
         <f t="shared" si="19"/>
-        <v>67806.611284092607</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+        <v>40597.859276769006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2027</v>
       </c>
@@ -17735,55 +17866,55 @@
       </c>
       <c r="O11">
         <f t="shared" si="2"/>
-        <v>18108</v>
+        <v>10864.800000000001</v>
       </c>
       <c r="P11">
         <f t="shared" si="3"/>
-        <v>24336</v>
+        <v>14601.6</v>
       </c>
       <c r="Q11">
         <f t="shared" si="4"/>
-        <v>234204</v>
+        <v>140522.4</v>
       </c>
       <c r="R11">
         <f t="shared" si="5"/>
-        <v>16296</v>
+        <v>9777.6</v>
       </c>
       <c r="S11">
         <f t="shared" si="6"/>
-        <v>21900</v>
+        <v>13140</v>
       </c>
       <c r="T11">
         <f t="shared" si="7"/>
-        <v>210780</v>
+        <v>126468</v>
       </c>
       <c r="U11">
-        <f>OPEX!$B$15</f>
-        <v>3258.5068073992688</v>
+        <f>OPEX!$B$3</f>
+        <v>2139.68314436323</v>
       </c>
       <c r="V11">
         <f t="shared" si="8"/>
-        <v>14849.49319260073</v>
+        <v>8725.1168556367702</v>
       </c>
       <c r="W11">
         <f t="shared" si="9"/>
-        <v>21077.49319260073</v>
+        <v>12461.916855636769</v>
       </c>
       <c r="X11">
         <f t="shared" si="1"/>
-        <v>230945.49319260073</v>
+        <v>138382.71685563677</v>
       </c>
       <c r="Y11">
         <f t="shared" si="10"/>
-        <v>13037.49319260073</v>
+        <v>7637.9168556367704</v>
       </c>
       <c r="Z11">
         <f t="shared" si="11"/>
-        <v>18641.49319260073</v>
+        <v>11000.316855636771</v>
       </c>
       <c r="AA11">
         <f t="shared" si="12"/>
-        <v>207521.49319260073</v>
+        <v>124328.31685563677</v>
       </c>
       <c r="AB11">
         <f t="shared" si="13"/>
@@ -17791,30 +17922,30 @@
       </c>
       <c r="AC11">
         <f t="shared" si="14"/>
-        <v>6297.6346970203931</v>
+        <v>3700.3012784971766</v>
       </c>
       <c r="AD11">
         <f t="shared" si="15"/>
-        <v>8938.9146642442283</v>
+        <v>5285.0692588314769</v>
       </c>
       <c r="AE11">
         <f t="shared" si="16"/>
-        <v>97943.43363684084</v>
+        <v>58687.780642389444</v>
       </c>
       <c r="AF11">
         <f t="shared" si="17"/>
-        <v>5529.1698125294515</v>
+        <v>3239.2223478026112</v>
       </c>
       <c r="AG11">
         <f t="shared" si="18"/>
-        <v>7905.8128658888554</v>
+        <v>4665.2081798182535</v>
       </c>
       <c r="AH11">
         <f t="shared" si="19"/>
-        <v>88009.371024083754</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+        <v>52727.343074735196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2028</v>
       </c>
@@ -17844,55 +17975,55 @@
       </c>
       <c r="O12">
         <f t="shared" si="2"/>
-        <v>24528</v>
+        <v>14716.800000000001</v>
       </c>
       <c r="P12">
         <f t="shared" si="3"/>
-        <v>33864</v>
+        <v>20318.400000000001</v>
       </c>
       <c r="Q12">
         <f t="shared" si="4"/>
-        <v>275676</v>
+        <v>165405.6</v>
       </c>
       <c r="R12">
         <f t="shared" si="5"/>
-        <v>22068</v>
+        <v>13240.800000000001</v>
       </c>
       <c r="S12">
         <f t="shared" si="6"/>
-        <v>30468</v>
+        <v>18280.8</v>
       </c>
       <c r="T12">
         <f t="shared" si="7"/>
-        <v>248100</v>
+        <v>148860</v>
       </c>
       <c r="U12">
-        <f>OPEX!$B$15</f>
-        <v>3258.5068073992688</v>
+        <f>OPEX!$B$3</f>
+        <v>2139.68314436323</v>
       </c>
       <c r="V12">
         <f t="shared" si="8"/>
-        <v>21269.49319260073</v>
+        <v>12577.11685563677</v>
       </c>
       <c r="W12">
         <f t="shared" si="9"/>
-        <v>30605.49319260073</v>
+        <v>18178.716855636772</v>
       </c>
       <c r="X12">
         <f t="shared" si="1"/>
-        <v>272417.49319260073</v>
+        <v>163265.91685563678</v>
       </c>
       <c r="Y12">
         <f t="shared" si="10"/>
-        <v>18809.49319260073</v>
+        <v>11101.11685563677</v>
       </c>
       <c r="Z12">
         <f t="shared" si="11"/>
-        <v>27209.49319260073</v>
+        <v>16141.11685563677</v>
       </c>
       <c r="AA12">
         <f t="shared" si="12"/>
-        <v>244841.49319260073</v>
+        <v>146720.31685563677</v>
       </c>
       <c r="AB12">
         <f t="shared" si="13"/>
@@ -17900,30 +18031,30 @@
       </c>
       <c r="AC12">
         <f t="shared" si="14"/>
-        <v>8200.3103699743133</v>
+        <v>4849.0230040618062</v>
       </c>
       <c r="AD12">
         <f t="shared" si="15"/>
-        <v>11799.742520088419</v>
+        <v>7008.6822941302707</v>
       </c>
       <c r="AE12">
         <f t="shared" si="16"/>
-        <v>105028.73642362228</v>
+        <v>62946.07863625059</v>
       </c>
       <c r="AF12">
         <f t="shared" si="17"/>
-        <v>7251.873877977665</v>
+        <v>4279.9611088638176</v>
       </c>
       <c r="AG12">
         <f t="shared" si="18"/>
-        <v>10490.437509185729</v>
+        <v>6223.0992875886559</v>
       </c>
       <c r="AH12">
         <f t="shared" si="19"/>
-        <v>94396.994674313522</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+        <v>56567.033586665333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2029</v>
       </c>
@@ -17952,55 +18083,55 @@
       </c>
       <c r="O13">
         <f t="shared" si="2"/>
-        <v>33012</v>
+        <v>19807.2</v>
       </c>
       <c r="P13">
         <f t="shared" si="3"/>
-        <v>46644</v>
+        <v>27986.400000000001</v>
       </c>
       <c r="Q13">
         <f t="shared" si="4"/>
-        <v>284556</v>
+        <v>170733.6</v>
       </c>
       <c r="R13">
         <f t="shared" si="5"/>
-        <v>29700</v>
+        <v>17820</v>
       </c>
       <c r="S13">
         <f t="shared" si="6"/>
-        <v>41976</v>
+        <v>25185.600000000002</v>
       </c>
       <c r="T13">
         <f t="shared" si="7"/>
-        <v>256092</v>
+        <v>153655.20000000001</v>
       </c>
       <c r="U13">
-        <f>OPEX!$B$15</f>
-        <v>3258.5068073992688</v>
+        <f>OPEX!$B$3</f>
+        <v>2139.68314436323</v>
       </c>
       <c r="V13">
         <f t="shared" si="8"/>
-        <v>29753.49319260073</v>
+        <v>17667.516855636772</v>
       </c>
       <c r="W13">
         <f t="shared" si="9"/>
-        <v>43385.493192600734</v>
+        <v>25846.716855636772</v>
       </c>
       <c r="X13">
         <f t="shared" si="1"/>
-        <v>281297.49319260073</v>
+        <v>168593.91685563678</v>
       </c>
       <c r="Y13">
         <f t="shared" si="10"/>
-        <v>26441.49319260073</v>
+        <v>15680.316855636771</v>
       </c>
       <c r="Z13">
         <f t="shared" si="11"/>
-        <v>38717.493192600734</v>
+        <v>23045.916855636773</v>
       </c>
       <c r="AA13">
         <f t="shared" si="12"/>
-        <v>252833.49319260073</v>
+        <v>151515.51685563679</v>
       </c>
       <c r="AB13">
         <f t="shared" si="13"/>
@@ -18008,30 +18139,30 @@
       </c>
       <c r="AC13">
         <f t="shared" si="14"/>
-        <v>10428.417852267687</v>
+        <v>6192.3568768853575</v>
       </c>
       <c r="AD13">
         <f t="shared" si="15"/>
-        <v>15206.350689998028</v>
+        <v>9059.1165795235611</v>
       </c>
       <c r="AE13">
         <f t="shared" si="16"/>
-        <v>98593.055303415007</v>
+        <v>59091.13934757375</v>
       </c>
       <c r="AF13">
         <f t="shared" si="17"/>
-        <v>9267.5820571853164</v>
+        <v>5495.8553998359339</v>
       </c>
       <c r="AG13">
         <f t="shared" si="18"/>
-        <v>13570.245167218889</v>
+        <v>8077.4532658560775</v>
       </c>
       <c r="AH13">
         <f t="shared" si="19"/>
-        <v>88616.596948576655</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+        <v>53105.264334670748</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2030</v>
       </c>
@@ -18054,55 +18185,55 @@
       </c>
       <c r="O14">
         <f t="shared" si="2"/>
-        <v>44064</v>
+        <v>26438.400000000001</v>
       </c>
       <c r="P14">
         <f t="shared" si="3"/>
-        <v>63372</v>
+        <v>38023.200000000004</v>
       </c>
       <c r="Q14">
         <f t="shared" si="4"/>
-        <v>284964</v>
+        <v>170978.4</v>
       </c>
       <c r="R14">
         <f t="shared" si="5"/>
-        <v>39648</v>
+        <v>23788.799999999999</v>
       </c>
       <c r="S14">
         <f t="shared" si="6"/>
-        <v>57024</v>
+        <v>34214.400000000001</v>
       </c>
       <c r="T14">
         <f t="shared" si="7"/>
-        <v>256464</v>
+        <v>153878.39999999999</v>
       </c>
       <c r="U14">
-        <f>OPEX!$B$15</f>
-        <v>3258.5068073992688</v>
+        <f>OPEX!$B$3</f>
+        <v>2139.68314436323</v>
       </c>
       <c r="V14">
         <f t="shared" si="8"/>
-        <v>40805.493192600734</v>
+        <v>24298.716855636772</v>
       </c>
       <c r="W14">
         <f t="shared" si="9"/>
-        <v>60113.493192600734</v>
+        <v>35883.516855636772</v>
       </c>
       <c r="X14">
         <f t="shared" si="1"/>
-        <v>281705.49319260073</v>
+        <v>168838.71685563677</v>
       </c>
       <c r="Y14">
         <f t="shared" si="10"/>
-        <v>36389.493192600734</v>
+        <v>21649.11685563677</v>
       </c>
       <c r="Z14">
         <f t="shared" si="11"/>
-        <v>53765.493192600734</v>
+        <v>32074.716855636772</v>
       </c>
       <c r="AA14">
         <f t="shared" si="12"/>
-        <v>253205.49319260073</v>
+        <v>151738.71685563677</v>
       </c>
       <c r="AB14">
         <f t="shared" si="13"/>
@@ -18110,30 +18241,30 @@
       </c>
       <c r="AC14">
         <f t="shared" si="14"/>
-        <v>13001.88766303276</v>
+        <v>7742.3200210239684</v>
       </c>
       <c r="AD14">
         <f t="shared" si="15"/>
-        <v>19154.011491384324</v>
+        <v>11433.594318034908</v>
       </c>
       <c r="AE14">
         <f t="shared" si="16"/>
-        <v>89760.051649457659</v>
+        <v>53797.218412878909</v>
       </c>
       <c r="AF14">
         <f t="shared" si="17"/>
-        <v>11594.813972023825</v>
+        <v>6898.0758064186075</v>
       </c>
       <c r="AG14">
         <f t="shared" si="18"/>
-        <v>17131.343060558982</v>
+        <v>10219.993259539702</v>
       </c>
       <c r="AH14">
         <f t="shared" si="19"/>
-        <v>80679.073344712495</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+        <v>48348.631430031804</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2031</v>
       </c>
@@ -18156,55 +18287,55 @@
       </c>
       <c r="O15">
         <f t="shared" si="2"/>
-        <v>58188</v>
+        <v>34912.800000000003</v>
       </c>
       <c r="P15">
         <f t="shared" si="3"/>
-        <v>84504</v>
+        <v>50702.400000000001</v>
       </c>
       <c r="Q15">
         <f t="shared" si="4"/>
-        <v>285036</v>
+        <v>171021.6</v>
       </c>
       <c r="R15">
         <f t="shared" si="5"/>
-        <v>52368</v>
+        <v>31420.799999999999</v>
       </c>
       <c r="S15">
         <f t="shared" si="6"/>
-        <v>76044</v>
+        <v>45626.400000000001</v>
       </c>
       <c r="T15">
         <f t="shared" si="7"/>
-        <v>256524</v>
+        <v>153914.4</v>
       </c>
       <c r="U15">
-        <f>OPEX!$B$15</f>
-        <v>3258.5068073992688</v>
+        <f>OPEX!$B$3</f>
+        <v>2139.68314436323</v>
       </c>
       <c r="V15">
         <f t="shared" si="8"/>
-        <v>54929.493192600734</v>
+        <v>32773.11685563677</v>
       </c>
       <c r="W15">
         <f t="shared" si="9"/>
-        <v>81245.493192600727</v>
+        <v>48562.716855636769</v>
       </c>
       <c r="X15">
         <f t="shared" si="1"/>
-        <v>281777.49319260073</v>
+        <v>168881.91685563678</v>
       </c>
       <c r="Y15">
         <f t="shared" si="10"/>
-        <v>49109.493192600734</v>
+        <v>29281.11685563677</v>
       </c>
       <c r="Z15">
         <f t="shared" si="11"/>
-        <v>72785.493192600727</v>
+        <v>43486.716855636769</v>
       </c>
       <c r="AA15">
         <f t="shared" si="12"/>
-        <v>253265.49319260073</v>
+        <v>151774.71685563677</v>
       </c>
       <c r="AB15">
         <f t="shared" si="13"/>
@@ -18212,30 +18343,30 @@
       </c>
       <c r="AC15">
         <f t="shared" si="14"/>
-        <v>15911.117574885306</v>
+        <v>9493.2045660260137</v>
       </c>
       <c r="AD15">
         <f t="shared" si="15"/>
-        <v>23533.925392035981</v>
+        <v>14066.889256316417</v>
       </c>
       <c r="AE15">
         <f t="shared" si="16"/>
-        <v>81620.902789393454</v>
+        <v>48919.075694730906</v>
       </c>
       <c r="AF15">
         <f t="shared" si="17"/>
-        <v>14225.270884817783</v>
+        <v>8481.6965519854984</v>
       </c>
       <c r="AG15">
         <f t="shared" si="18"/>
-        <v>21083.364739463603</v>
+        <v>12596.552864772992</v>
       </c>
       <c r="AH15">
         <f t="shared" si="19"/>
-        <v>73361.99199434102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+        <v>43963.729217699438</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2032</v>
       </c>
@@ -18258,55 +18389,55 @@
       </c>
       <c r="O16">
         <f t="shared" si="2"/>
-        <v>75732</v>
+        <v>45439.200000000004</v>
       </c>
       <c r="P16">
         <f t="shared" si="3"/>
-        <v>109992</v>
+        <v>65995.199999999997</v>
       </c>
       <c r="Q16">
         <f t="shared" si="4"/>
-        <v>285072</v>
+        <v>171043.20000000001</v>
       </c>
       <c r="R16">
         <f t="shared" si="5"/>
-        <v>68148</v>
+        <v>40888.800000000003</v>
       </c>
       <c r="S16">
         <f t="shared" si="6"/>
-        <v>98988</v>
+        <v>59392.800000000003</v>
       </c>
       <c r="T16">
         <f t="shared" si="7"/>
-        <v>256560</v>
+        <v>153936</v>
       </c>
       <c r="U16">
-        <f>OPEX!$B$15</f>
-        <v>3258.5068073992688</v>
+        <f>OPEX!$B$3</f>
+        <v>2139.68314436323</v>
       </c>
       <c r="V16">
         <f t="shared" si="8"/>
-        <v>72473.493192600727</v>
+        <v>43299.516855636772</v>
       </c>
       <c r="W16">
         <f t="shared" si="9"/>
-        <v>106733.49319260073</v>
+        <v>63855.516855636764</v>
       </c>
       <c r="X16">
         <f t="shared" si="1"/>
-        <v>281813.49319260073</v>
+        <v>168903.51685563679</v>
       </c>
       <c r="Y16">
         <f t="shared" si="10"/>
-        <v>64889.493192600734</v>
+        <v>38749.11685563677</v>
       </c>
       <c r="Z16">
         <f t="shared" si="11"/>
-        <v>95729.493192600727</v>
+        <v>57253.11685563677</v>
       </c>
       <c r="AA16">
         <f t="shared" si="12"/>
-        <v>253301.49319260073</v>
+        <v>151796.31685563677</v>
       </c>
       <c r="AB16">
         <f t="shared" si="13"/>
@@ -18314,30 +18445,30 @@
       </c>
       <c r="AC16">
         <f t="shared" si="14"/>
-        <v>19084.535866350681</v>
+        <v>11402.116084442072</v>
       </c>
       <c r="AD16">
         <f t="shared" si="15"/>
-        <v>28106.264638876972</v>
+        <v>16815.153347957847</v>
       </c>
       <c r="AE16">
         <f t="shared" si="16"/>
-        <v>74210.300642785412</v>
+        <v>44477.574950302915</v>
       </c>
       <c r="AF16">
         <f t="shared" si="17"/>
-        <v>17087.431633693373</v>
+        <v>10203.853544847687</v>
       </c>
       <c r="AG16">
         <f t="shared" si="18"/>
-        <v>25208.567516492869</v>
+        <v>15076.535074527386</v>
       </c>
       <c r="AH16">
         <f t="shared" si="19"/>
-        <v>66702.199920010462</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+        <v>39972.714516637941</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2033</v>
       </c>
@@ -18360,55 +18491,55 @@
       </c>
       <c r="O17">
         <f t="shared" si="2"/>
-        <v>96816</v>
+        <v>58089.599999999999</v>
       </c>
       <c r="P17">
         <f t="shared" si="3"/>
-        <v>138960</v>
+        <v>83376</v>
       </c>
       <c r="Q17">
         <f t="shared" si="4"/>
-        <v>285096</v>
+        <v>171057.6</v>
       </c>
       <c r="R17">
         <f t="shared" si="5"/>
-        <v>87132</v>
+        <v>52279.200000000004</v>
       </c>
       <c r="S17">
         <f t="shared" si="6"/>
-        <v>125064</v>
+        <v>75038.400000000009</v>
       </c>
       <c r="T17">
         <f t="shared" si="7"/>
-        <v>256584</v>
+        <v>153950.39999999999</v>
       </c>
       <c r="U17">
-        <f>OPEX!$B$15</f>
-        <v>3258.5068073992688</v>
+        <f>OPEX!$B$3</f>
+        <v>2139.68314436323</v>
       </c>
       <c r="V17">
         <f t="shared" si="8"/>
-        <v>93557.493192600727</v>
+        <v>55949.916855636766</v>
       </c>
       <c r="W17">
         <f t="shared" si="9"/>
-        <v>135701.49319260073</v>
+        <v>81236.316855636775</v>
       </c>
       <c r="X17">
         <f t="shared" si="1"/>
-        <v>281837.49319260073</v>
+        <v>168917.91685563678</v>
       </c>
       <c r="Y17">
         <f t="shared" si="10"/>
-        <v>83873.493192600727</v>
+        <v>50139.516855636772</v>
       </c>
       <c r="Z17">
         <f t="shared" si="11"/>
-        <v>121805.49319260073</v>
+        <v>72898.716855636783</v>
       </c>
       <c r="AA17">
         <f t="shared" si="12"/>
-        <v>253325.49319260073</v>
+        <v>151810.71685563677</v>
       </c>
       <c r="AB17">
         <f t="shared" si="13"/>
@@ -18416,30 +18547,30 @@
       </c>
       <c r="AC17">
         <f t="shared" si="14"/>
-        <v>22396.92002921824</v>
+        <v>13393.965258105183</v>
       </c>
       <c r="AD17">
         <f t="shared" si="15"/>
-        <v>32485.858557832264</v>
+        <v>19447.328375273599</v>
       </c>
       <c r="AE17">
         <f t="shared" si="16"/>
-        <v>67469.655084444326</v>
+        <v>40437.606291240838</v>
       </c>
       <c r="AF17">
         <f t="shared" si="17"/>
-        <v>20078.647423127262</v>
+        <v>12003.001694450599</v>
       </c>
       <c r="AG17">
         <f t="shared" si="18"/>
-        <v>29159.266639798367</v>
+        <v>17451.373224453266</v>
       </c>
       <c r="AH17">
         <f t="shared" si="19"/>
-        <v>60644.108972830734</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+        <v>36342.27862427268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2034</v>
       </c>
@@ -18462,55 +18593,55 @@
       </c>
       <c r="O18">
         <f t="shared" si="2"/>
-        <v>121044</v>
+        <v>72626.400000000009</v>
       </c>
       <c r="P18">
         <f t="shared" si="3"/>
-        <v>169512</v>
+        <v>101707.2</v>
       </c>
       <c r="Q18">
         <f t="shared" si="4"/>
-        <v>285108</v>
+        <v>171064.80000000002</v>
       </c>
       <c r="R18">
         <f t="shared" si="5"/>
-        <v>108936</v>
+        <v>65361.599999999999</v>
       </c>
       <c r="S18">
         <f t="shared" si="6"/>
-        <v>152556</v>
+        <v>91533.6</v>
       </c>
       <c r="T18">
         <f t="shared" si="7"/>
-        <v>256596</v>
+        <v>153957.6</v>
       </c>
       <c r="U18">
-        <f>OPEX!$B$15</f>
-        <v>3258.5068073992688</v>
+        <f>OPEX!$B$3</f>
+        <v>2139.68314436323</v>
       </c>
       <c r="V18">
         <f t="shared" si="8"/>
-        <v>117785.49319260073</v>
+        <v>70486.716855636783</v>
       </c>
       <c r="W18">
         <f t="shared" si="9"/>
-        <v>166253.49319260073</v>
+        <v>99567.516855636772</v>
       </c>
       <c r="X18">
         <f t="shared" si="1"/>
-        <v>281849.49319260073</v>
+        <v>168925.11685563679</v>
       </c>
       <c r="Y18">
         <f t="shared" si="10"/>
-        <v>105677.49319260073</v>
+        <v>63221.916855636766</v>
       </c>
       <c r="Z18">
         <f t="shared" si="11"/>
-        <v>149297.49319260073</v>
+        <v>89393.91685563678</v>
       </c>
       <c r="AA18">
         <f t="shared" si="12"/>
-        <v>253337.49319260073</v>
+        <v>151817.91685563678</v>
       </c>
       <c r="AB18">
         <f t="shared" si="13"/>
@@ -18518,30 +18649,30 @@
       </c>
       <c r="AC18">
         <f t="shared" si="14"/>
-        <v>25633.555092122118</v>
+        <v>15339.96327397713</v>
       </c>
       <c r="AD18">
         <f t="shared" si="15"/>
-        <v>36181.604045599037</v>
+        <v>21668.792646063277</v>
       </c>
       <c r="AE18">
         <f t="shared" si="16"/>
-        <v>61338.66162639705</v>
+        <v>36763.02719454209</v>
       </c>
       <c r="AF18">
         <f t="shared" si="17"/>
-        <v>22998.501515975</v>
+        <v>13758.931128288854</v>
       </c>
       <c r="AG18">
         <f t="shared" si="18"/>
-        <v>32491.484419141281</v>
+        <v>19454.720870188623</v>
       </c>
       <c r="AH18">
         <f t="shared" si="19"/>
-        <v>55133.61970674833</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+        <v>33040.002042752858</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2035</v>
       </c>
@@ -18564,55 +18695,55 @@
       </c>
       <c r="O19">
         <f t="shared" si="2"/>
-        <v>147444</v>
+        <v>88466.400000000009</v>
       </c>
       <c r="P19">
         <f t="shared" si="3"/>
-        <v>198984</v>
+        <v>119390.40000000001</v>
       </c>
       <c r="Q19">
         <f t="shared" si="4"/>
-        <v>285108</v>
+        <v>171064.80000000002</v>
       </c>
       <c r="R19">
         <f t="shared" si="5"/>
-        <v>132696</v>
+        <v>79617.600000000006</v>
       </c>
       <c r="S19">
         <f t="shared" si="6"/>
-        <v>179076</v>
+        <v>107445.6</v>
       </c>
       <c r="T19">
         <f t="shared" si="7"/>
-        <v>256596</v>
+        <v>153957.6</v>
       </c>
       <c r="U19">
-        <f>OPEX!$B$15</f>
-        <v>3258.5068073992688</v>
+        <f>OPEX!$B$3</f>
+        <v>2139.68314436323</v>
       </c>
       <c r="V19">
         <f t="shared" si="8"/>
-        <v>144185.49319260073</v>
+        <v>86326.716855636783</v>
       </c>
       <c r="W19">
         <f t="shared" si="9"/>
-        <v>195725.49319260073</v>
+        <v>117250.71685563678</v>
       </c>
       <c r="X19">
         <f t="shared" si="1"/>
-        <v>281849.49319260073</v>
+        <v>168925.11685563679</v>
       </c>
       <c r="Y19">
         <f t="shared" si="10"/>
-        <v>129437.49319260073</v>
+        <v>77477.91685563678</v>
       </c>
       <c r="Z19">
         <f t="shared" si="11"/>
-        <v>175817.49319260073</v>
+        <v>105305.91685563678</v>
       </c>
       <c r="AA19">
         <f t="shared" si="12"/>
-        <v>253337.49319260073</v>
+        <v>151817.91685563678</v>
       </c>
       <c r="AB19">
         <f t="shared" si="13"/>
@@ -18620,30 +18751,30 @@
       </c>
       <c r="AC19">
         <f t="shared" si="14"/>
-        <v>28526.331160892762</v>
+        <v>17079.280713539163</v>
       </c>
       <c r="AD19">
         <f t="shared" si="15"/>
-        <v>38723.245396005725</v>
+        <v>23197.429254606941</v>
       </c>
       <c r="AE19">
         <f t="shared" si="16"/>
-        <v>55762.419660360953</v>
+        <v>33420.933813220079</v>
       </c>
       <c r="AF19">
         <f t="shared" si="17"/>
-        <v>25608.51798395357</v>
+        <v>15328.592807375649</v>
       </c>
       <c r="AG19">
         <f t="shared" si="18"/>
-        <v>34784.553727541832</v>
+        <v>20834.214253528608</v>
       </c>
       <c r="AH19">
         <f t="shared" si="19"/>
-        <v>50121.472460680299</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+        <v>30036.365493411686</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2036</v>
       </c>
@@ -18666,55 +18797,55 @@
       </c>
       <c r="O20">
         <f t="shared" si="2"/>
-        <v>174420</v>
+        <v>104652</v>
       </c>
       <c r="P20">
         <f t="shared" si="3"/>
-        <v>224760</v>
+        <v>134856</v>
       </c>
       <c r="Q20">
         <f t="shared" si="4"/>
-        <v>285120</v>
+        <v>171072</v>
       </c>
       <c r="R20">
         <f t="shared" si="5"/>
-        <v>156972</v>
+        <v>94183.2</v>
       </c>
       <c r="S20">
         <f t="shared" si="6"/>
-        <v>202284</v>
+        <v>121370.40000000001</v>
       </c>
       <c r="T20">
         <f t="shared" si="7"/>
-        <v>256608</v>
+        <v>153964.80000000002</v>
       </c>
       <c r="U20">
-        <f>OPEX!$B$15</f>
-        <v>3258.5068073992688</v>
+        <f>OPEX!$B$3</f>
+        <v>2139.68314436323</v>
       </c>
       <c r="V20">
         <f t="shared" si="8"/>
-        <v>171161.49319260073</v>
+        <v>102512.31685563677</v>
       </c>
       <c r="W20">
         <f t="shared" si="9"/>
-        <v>221501.49319260073</v>
+        <v>132716.31685563677</v>
       </c>
       <c r="X20">
         <f t="shared" si="1"/>
-        <v>281861.49319260073</v>
+        <v>168932.31685563677</v>
       </c>
       <c r="Y20">
         <f t="shared" si="10"/>
-        <v>153713.49319260073</v>
+        <v>92043.516855636772</v>
       </c>
       <c r="Z20">
         <f t="shared" si="11"/>
-        <v>199025.49319260073</v>
+        <v>119230.71685563678</v>
       </c>
       <c r="AA20">
         <f t="shared" si="12"/>
-        <v>253349.49319260073</v>
+        <v>151825.11685563679</v>
       </c>
       <c r="AB20">
         <f t="shared" si="13"/>
@@ -18722,30 +18853,30 @@
       </c>
       <c r="AC20">
         <f t="shared" si="14"/>
-        <v>30784.899044675276</v>
+        <v>18437.741260444716</v>
       </c>
       <c r="AD20">
         <f t="shared" si="15"/>
-        <v>39838.990528705086</v>
+        <v>23870.196150862605</v>
       </c>
       <c r="AE20">
         <f t="shared" si="16"/>
-        <v>50695.267087625223</v>
+        <v>30383.962086214684</v>
       </c>
       <c r="AF20">
         <f t="shared" si="17"/>
-        <v>27646.722878339315</v>
+        <v>16554.83556064314</v>
       </c>
       <c r="AG20">
         <f t="shared" si="18"/>
-        <v>35796.484366705605</v>
+        <v>21444.692453662912</v>
       </c>
       <c r="AH20">
         <f t="shared" si="19"/>
-        <v>45567.133269733728</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+        <v>27307.081795479789</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2037</v>
       </c>
@@ -18768,55 +18899,55 @@
       </c>
       <c r="O21">
         <f t="shared" si="2"/>
-        <v>200088</v>
+        <v>120052.8</v>
       </c>
       <c r="P21">
         <f t="shared" si="3"/>
-        <v>245172</v>
+        <v>147103.20000000001</v>
       </c>
       <c r="Q21">
         <f t="shared" si="4"/>
-        <v>285120</v>
+        <v>171072</v>
       </c>
       <c r="R21">
         <f t="shared" si="5"/>
-        <v>180072</v>
+        <v>108043.2</v>
       </c>
       <c r="S21">
         <f t="shared" si="6"/>
-        <v>220644</v>
+        <v>132386.4</v>
       </c>
       <c r="T21">
         <f t="shared" si="7"/>
-        <v>256608</v>
+        <v>153964.80000000002</v>
       </c>
       <c r="U21">
-        <f>OPEX!$B$15</f>
-        <v>3258.5068073992688</v>
+        <f>OPEX!$B$3</f>
+        <v>2139.68314436323</v>
       </c>
       <c r="V21">
         <f t="shared" si="8"/>
-        <v>196829.49319260073</v>
+        <v>117913.11685563678</v>
       </c>
       <c r="W21">
         <f t="shared" si="9"/>
-        <v>241913.49319260073</v>
+        <v>144963.51685563679</v>
       </c>
       <c r="X21">
         <f t="shared" si="1"/>
-        <v>281861.49319260073</v>
+        <v>168932.31685563677</v>
       </c>
       <c r="Y21">
         <f t="shared" si="10"/>
-        <v>176813.49319260073</v>
+        <v>105903.51685563677</v>
       </c>
       <c r="Z21">
         <f t="shared" si="11"/>
-        <v>217385.49319260073</v>
+        <v>130246.71685563677</v>
       </c>
       <c r="AA21">
         <f t="shared" si="12"/>
-        <v>253349.49319260073</v>
+        <v>151825.11685563679</v>
       </c>
       <c r="AB21">
         <f t="shared" si="13"/>
@@ -18824,30 +18955,30 @@
       </c>
       <c r="AC21">
         <f t="shared" si="14"/>
-        <v>32183.194967331783</v>
+        <v>19279.736829162299</v>
       </c>
       <c r="AD21">
         <f t="shared" si="15"/>
-        <v>39554.789225756314</v>
+        <v>23702.693384217018</v>
       </c>
       <c r="AE21">
         <f t="shared" si="16"/>
-        <v>46086.606443295648</v>
+        <v>27621.783714740617</v>
       </c>
       <c r="AF21">
         <f t="shared" si="17"/>
-        <v>28910.419022947401</v>
+        <v>17316.071262531666</v>
       </c>
       <c r="AG21">
         <f t="shared" si="18"/>
-        <v>35544.265226762509</v>
+        <v>21296.378984820731</v>
       </c>
       <c r="AH21">
         <f t="shared" si="19"/>
-        <v>41424.666608848835</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+        <v>24824.619814072528</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2038</v>
       </c>
@@ -18870,55 +19001,55 @@
       </c>
       <c r="O22">
         <f t="shared" si="2"/>
-        <v>222708</v>
+        <v>133624.80000000002</v>
       </c>
       <c r="P22">
         <f t="shared" si="3"/>
-        <v>259896</v>
+        <v>155937.60000000001</v>
       </c>
       <c r="Q22">
         <f t="shared" si="4"/>
-        <v>285120</v>
+        <v>171072</v>
       </c>
       <c r="R22">
         <f t="shared" si="5"/>
-        <v>200436</v>
+        <v>120261.6</v>
       </c>
       <c r="S22">
         <f t="shared" si="6"/>
-        <v>233904</v>
+        <v>140342.39999999999</v>
       </c>
       <c r="T22">
         <f t="shared" si="7"/>
-        <v>256608</v>
+        <v>153964.80000000002</v>
       </c>
       <c r="U22">
-        <f>OPEX!$B$15</f>
-        <v>3258.5068073992688</v>
+        <f>OPEX!$B$3</f>
+        <v>2139.68314436323</v>
       </c>
       <c r="V22">
         <f t="shared" si="8"/>
-        <v>219449.49319260073</v>
+        <v>131485.11685563679</v>
       </c>
       <c r="W22">
         <f t="shared" si="9"/>
-        <v>256637.49319260073</v>
+        <v>153797.91685563678</v>
       </c>
       <c r="X22">
         <f t="shared" si="1"/>
-        <v>281861.49319260073</v>
+        <v>168932.31685563677</v>
       </c>
       <c r="Y22">
         <f t="shared" si="10"/>
-        <v>197177.49319260073</v>
+        <v>118121.91685563678</v>
       </c>
       <c r="Z22">
         <f t="shared" si="11"/>
-        <v>230645.49319260073</v>
+        <v>138202.71685563677</v>
       </c>
       <c r="AA22">
         <f t="shared" si="12"/>
-        <v>253349.49319260073</v>
+        <v>151825.11685563679</v>
       </c>
       <c r="AB22">
         <f t="shared" si="13"/>
@@ -18926,30 +19057,30 @@
       </c>
       <c r="AC22">
         <f t="shared" si="14"/>
-        <v>32619.768836207753</v>
+        <v>19544.424800600314</v>
       </c>
       <c r="AD22">
         <f t="shared" si="15"/>
-        <v>38147.528075169597</v>
+        <v>22861.080343977421</v>
       </c>
       <c r="AE22">
         <f t="shared" si="16"/>
-        <v>41896.914948450598</v>
+        <v>25110.712467946018</v>
       </c>
       <c r="AF22">
         <f t="shared" si="17"/>
-        <v>29309.177952854028</v>
+        <v>17558.070270588079</v>
       </c>
       <c r="AG22">
         <f t="shared" si="18"/>
-        <v>34283.982895566063</v>
+        <v>20542.953236215297</v>
       </c>
       <c r="AH22">
         <f t="shared" si="19"/>
-        <v>37658.787826226217</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+        <v>22567.836194611395</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="I25" t="s">
         <v>29</v>
       </c>
@@ -18963,7 +19094,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -18986,7 +19117,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2018</v>
       </c>
@@ -19015,7 +19146,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>2019</v>
       </c>
@@ -19044,7 +19175,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2020</v>
       </c>
@@ -19073,7 +19204,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>2021</v>
       </c>
@@ -19102,7 +19233,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2022</v>
       </c>
@@ -19131,7 +19262,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>2023</v>
       </c>
@@ -19160,7 +19291,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>2024</v>
       </c>
@@ -19189,7 +19320,7 @@
         <v>4194</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>2025</v>
       </c>
@@ -19218,7 +19349,7 @@
         <v>7535</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>2026</v>
       </c>
@@ -19247,7 +19378,7 @@
         <v>12384</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>2027</v>
       </c>
@@ -19276,7 +19407,7 @@
         <v>17565</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>2028</v>
       </c>
@@ -19305,7 +19436,7 @@
         <v>20675</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>2029</v>
       </c>
@@ -19334,7 +19465,7 @@
         <v>21341</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>2030</v>
       </c>
@@ -19363,7 +19494,7 @@
         <v>21372</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>2031</v>
       </c>
@@ -19392,7 +19523,7 @@
         <v>21377</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>2032</v>
       </c>
@@ -19421,7 +19552,7 @@
         <v>21380</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>2033</v>
       </c>
@@ -19450,7 +19581,7 @@
         <v>21382</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>2034</v>
       </c>
@@ -19479,7 +19610,7 @@
         <v>21383</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>2035</v>
       </c>
@@ -19508,7 +19639,7 @@
         <v>21383</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>2036</v>
       </c>
@@ -19537,7 +19668,7 @@
         <v>21384</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>2037</v>
       </c>
@@ -19566,7 +19697,7 @@
         <v>21384</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>2038</v>
       </c>
@@ -19609,15 +19740,15 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="19" max="19" width="14.85546875" customWidth="1"/>
+    <col min="19" max="19" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -19682,7 +19813,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -19747,7 +19878,7 @@
         <v>-2190.4</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -19812,7 +19943,7 @@
         <v>-1745.8181818181818</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -19877,7 +20008,7 @@
         <v>-1152.7272727272725</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -19942,7 +20073,7 @@
         <v>-271.6754320060104</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -20007,7 +20138,7 @@
         <v>1132.4363089952869</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -20072,7 +20203,7 @@
         <v>3421.2764900559437</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -20137,7 +20268,7 @@
         <v>7111.4683603895064</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -20202,7 +20333,7 @@
         <v>12637.031819549376</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -20267,7 +20398,7 @@
         <v>19631.750176938076</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -20332,657 +20463,657 @@
         <v>25757.144754234483</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
         <v>2028</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="11">
         <v>7358.4000000000005</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="11">
         <v>10159.200000000001</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="11">
         <v>82702.8</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="11">
         <v>6620.4000000000005</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="11">
         <v>9140.4</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="11">
         <v>74430</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="11">
         <v>2500</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="11">
         <v>4858.4000000000005</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="11">
         <v>7659.2000000000007</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="11">
         <v>80202.8</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="11">
         <v>4120.4000000000005</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="11">
         <v>6640.4</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="11">
         <v>71930</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="11">
         <v>0.38554328942953148</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="11">
         <v>1873.1235173644359</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="11">
         <v>2952.9531623986677</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="11">
         <v>30921.651333458827</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="11">
         <v>1588.5925697654418</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="11">
         <v>2560.1616591278607</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="11">
         <v>27732.128808666199</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
         <v>2029</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="11">
         <v>9903.6</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="11">
         <v>13993.2</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="11">
         <v>85366.8</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="11">
         <v>8910</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="11">
         <v>12592.800000000001</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="11">
         <v>76827.600000000006</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="11">
         <v>2500</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="11">
         <v>7403.6</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="11">
         <v>11493.2</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="11">
         <v>82866.8</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="11">
         <v>6410</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="11">
         <v>10092.800000000001</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="11">
         <v>74327.600000000006</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="11">
         <v>0.3504938994813922</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="11">
         <v>2594.9166342004355</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="11">
         <v>4028.2964855195373</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="11">
         <v>29044.307869544631</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="11">
         <v>2246.6658956757242</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="11">
         <v>3537.4648286857955</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="11">
         <v>26051.37036309313</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
         <v>2030</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="11">
         <v>13219.2</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="11">
         <v>19011.600000000002</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="11">
         <v>85489.2</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="11">
         <v>11894.4</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="11">
         <v>17107.2</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="11">
         <v>76939.199999999997</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="11">
         <v>2500</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="11">
         <v>10719.2</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="11">
         <v>16511.600000000002</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="11">
         <v>82989.2</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="11">
         <v>9394.4</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="11">
         <v>14607.2</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="11">
         <v>74439.199999999997</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="11">
         <v>0.31863081771035656</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="11">
         <v>3415.4674612008544</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="11">
         <v>5261.1046097063245</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="11">
         <v>26442.91665712832</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="11">
         <v>2993.3453538981735</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="11">
         <v>4654.3040804587208</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="11">
         <v>23718.623165704772</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
         <v>2031</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="11">
         <v>17456.400000000001</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="11">
         <v>25351.200000000001</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="11">
         <v>85510.8</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="11">
         <v>15710.4</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="11">
         <v>22813.200000000001</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="11">
         <v>76957.2</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="11">
         <v>2500</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="11">
         <v>14956.400000000001</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="11">
         <v>22851.200000000001</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="11">
         <v>83010.8</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="11">
         <v>13210.4</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="11">
         <v>20313.2</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="11">
         <v>74457.2</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="11">
         <v>0.28966437973668779</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="11">
         <v>4332.3363290937978</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="11">
         <v>6619.1786742390004</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="11">
         <v>24045.271893446243</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="11">
         <v>3826.5823220735401</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="11">
         <v>5884.0104784672867</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="11">
         <v>21567.598654930509</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
         <v>2032</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="11">
         <v>22719.600000000002</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="11">
         <v>32997.599999999999</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="11">
         <v>85521.600000000006</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="11">
         <v>20444.400000000001</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="11">
         <v>29696.400000000001</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="11">
         <v>76968</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="11">
         <v>2500</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="11">
         <v>20219.600000000002</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="11">
         <v>30497.599999999999</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="11">
         <v>83021.600000000006</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="11">
         <v>17944.400000000001</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="11">
         <v>27196.400000000001</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="11">
         <v>74468</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="11">
         <v>0.26333125430607973</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="11">
         <v>5324.4526295672104</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="11">
         <v>8030.9712613250967</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="11">
         <v>21862.182062497632</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="11">
         <v>4725.3213597700178</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="11">
         <v>7161.6621246098675</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="11">
         <v>19609.751845665145</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
         <v>2033</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="11">
         <v>29044.799999999999</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="11">
         <v>41688</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="11">
         <v>85528.8</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="11">
         <v>26139.600000000002</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="11">
         <v>37519.200000000004</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="11">
         <v>76975.199999999997</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="11">
         <v>2500</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="11">
         <v>26544.799999999999</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="11">
         <v>39188</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="11">
         <v>83028.800000000003</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="11">
         <v>23639.600000000002</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="11">
         <v>35019.200000000004</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="11">
         <v>74475.199999999997</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="11">
         <v>0.23939204936916339</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="11">
         <v>6354.6140720945677</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="11">
         <v>9381.2956306787746</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="11">
         <v>19876.434588662392</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="11">
         <v>5659.1322902672755</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="11">
         <v>8383.3180552686081</v>
       </c>
-      <c r="U17">
+      <c r="U17" s="11">
         <v>17828.770755178317</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
         <v>2034</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="11">
         <v>36313.200000000004</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="11">
         <v>50853.599999999999</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="11">
         <v>85532.400000000009</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="11">
         <v>32680.799999999999</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="11">
         <v>45766.8</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="11">
         <v>76978.8</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="11">
         <v>2500</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="11">
         <v>33813.200000000004</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="11">
         <v>48353.599999999999</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="11">
         <v>83032.400000000009</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="11">
         <v>30180.799999999999</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="11">
         <v>43266.8</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="11">
         <v>74478.8</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="11">
         <v>0.21762913579014853</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="11">
         <v>7358.7374942994511</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="11">
         <v>10523.152180342526</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="11">
         <v>18070.269454581932</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="11">
         <v>6568.2214214553151</v>
       </c>
-      <c r="T18">
+      <c r="T18" s="11">
         <v>9416.1162924051987</v>
       </c>
-      <c r="U18">
+      <c r="U18" s="11">
         <v>16208.756878687314</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
         <v>2035</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="11">
         <v>44233.200000000004</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="11">
         <v>59695.200000000004</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="11">
         <v>85532.400000000009</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="11">
         <v>39808.800000000003</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="11">
         <v>53722.8</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="11">
         <v>76978.8</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="11">
         <v>2500</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="11">
         <v>41733.200000000004</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="11">
         <v>57195.200000000004</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="11">
         <v>83032.400000000009</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="11">
         <v>37308.800000000003</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="11">
         <v>51222.8</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="11">
         <v>74478.8</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="11">
         <v>0.19784466890013502</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="11">
         <v>8256.6911361431157</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="11">
         <v>11315.765406677003</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="11">
         <v>16427.517685983574</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="11">
         <v>7381.347183061358</v>
       </c>
-      <c r="T19">
+      <c r="T19" s="11">
         <v>10134.157906137836</v>
       </c>
-      <c r="U19">
+      <c r="U19" s="11">
         <v>14735.233526079377</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
         <v>2036</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="11">
         <v>52326</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="11">
         <v>67428</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="11">
         <v>85536</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="11">
         <v>47091.6</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="11">
         <v>60685.200000000004</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="11">
         <v>76982.400000000009</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="11">
         <v>2500</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="11">
         <v>49826</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="11">
         <v>64928</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="11">
         <v>83036</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="11">
         <v>44591.6</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="11">
         <v>58185.200000000004</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="11">
         <v>74482.400000000009</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="11">
         <v>0.17985878990921364</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="11">
         <v>8961.644066016479</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="11">
         <v>11677.871511225423</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="11">
         <v>14934.754478901465</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="11">
         <v>8020.1912161156906</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="11">
         <v>10465.119662625579</v>
       </c>
-      <c r="U20">
+      <c r="U20" s="11">
         <v>13396.314333534016</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
         <v>2037</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="11">
         <v>60026.400000000001</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="11">
         <v>73551.600000000006</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="11">
         <v>85536</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="11">
         <v>54021.599999999999</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="11">
         <v>66193.2</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="11">
         <v>76982.400000000009</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="11">
         <v>2500</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="11">
         <v>57526.400000000001</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="11">
         <v>71051.600000000006</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="11">
         <v>83036</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="11">
         <v>51521.599999999999</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="11">
         <v>63693.2</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="11">
         <v>74482.400000000009</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="11">
         <v>0.16350799082655781</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="11">
         <v>9406.0260834848959</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="11">
         <v>11617.504361012256</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="11">
         <v>13577.049526274055</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="11">
         <v>8424.1933001695816</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="11">
         <v>10414.347161314112</v>
       </c>
-      <c r="U21">
+      <c r="U21" s="11">
         <v>12178.467575940011</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -21061,12 +21192,12 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:U22"/>
+      <selection activeCell="B17" sqref="B17:L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -21131,7 +21262,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -21196,7 +21327,7 @@
         <v>-926.8198370575268</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -21261,7 +21392,7 @@
         <v>-597.10894277956982</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -21326,7 +21457,7 @@
         <v>-108.44614632853451</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -21391,7 +21522,7 @@
         <v>677.67104653829676</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -21456,7 +21587,7 @@
         <v>1995.4785622173845</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -21521,7 +21652,7 @@
         <v>4205.860356621487</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -21586,7 +21717,7 @@
         <v>7824.7264209036366</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -21651,7 +21782,7 @@
         <v>13285.448238198587</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -21716,7 +21847,7 @@
         <v>20221.219648437356</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -21781,7 +21912,7 @@
         <v>26293.026091961103</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -21846,7 +21977,7 @@
         <v>28219.29366114494</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -21911,7 +22042,7 @@
         <v>26494.247501710168</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -21976,7 +22107,7 @@
         <v>24121.238746265717</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -22041,7 +22172,7 @@
         <v>21933.612819076821</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -22106,7 +22237,7 @@
         <v>19942.491994889067</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -22171,7 +22302,7 @@
         <v>18131.261799927335</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -22236,7 +22367,7 @@
         <v>16483.74873755006</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -22301,7 +22432,7 @@
         <v>14985.226125045509</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -22366,7 +22497,7 @@
         <v>13623.580332594134</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -22431,7 +22562,7 @@
         <v>12385.073029631028</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -22513,9 +22644,9 @@
       <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -22580,7 +22711,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -22645,7 +22776,7 @@
         <v>-1171.5268644674088</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -22710,7 +22841,7 @@
         <v>-410.47896769764458</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -22775,7 +22906,7 @@
         <v>785.18440953106676</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -22840,7 +22971,7 @@
         <v>2783.8265481086323</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -22905,7 +23036,7 @@
         <v>6209.1886725856075</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -22970,7 +23101,7 @@
         <v>12022.820805541463</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -23035,7 +23166,7 @@
         <v>21599.749111395307</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -23100,7 +23231,7 @@
         <v>36094.963776698292</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -23165,7 +23296,7 @@
         <v>54529.708585077242</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -23230,7 +23361,7 @@
         <v>70666.060053633526</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -23295,7 +23426,7 @@
         <v>75752.653225238566</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -23360,7 +23491,7 @@
         <v>71106.966182304735</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -23425,7 +23556,7 @@
         <v>64737.521060718536</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -23490,7 +23621,7 @@
         <v>58866.195763607851</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -23555,7 +23686,7 @@
         <v>53522.307361585685</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -23620,7 +23751,7 @@
         <v>48661.239383334869</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -23685,7 +23816,7 @@
         <v>44239.57958818983</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -23750,7 +23881,7 @@
         <v>40217.799625627114</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -23815,7 +23946,7 @@
         <v>36563.362667680507</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -23880,7 +24011,7 @@
         <v>33239.420606982269</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -23959,12 +24090,12 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:U22"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -24029,7 +24160,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -24094,7 +24225,7 @@
         <v>-1602.7743124115791</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -24159,7 +24290,7 @@
         <v>-802.52210219234462</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -24224,7 +24355,7 @@
         <v>428.78155999043037</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -24289,7 +24420,7 @@
         <v>2459.823957617145</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -24354,7 +24485,7 @@
         <v>5914.6408630478918</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -24419,7 +24550,7 @@
         <v>11755.050069598086</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -24484,7 +24615,7 @@
         <v>21356.321169628598</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -24549,7 +24680,7 @@
         <v>35873.665647819464</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -24614,7 +24745,7 @@
         <v>54328.528467914672</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -24679,7 +24810,7 @@
         <v>70483.169038031177</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -24744,7 +24875,7 @@
         <v>75586.388665600069</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -24809,7 +24940,7 @@
         <v>70955.816582633372</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -24874,7 +25005,7 @@
         <v>64600.112333744575</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -24939,7 +25070,7 @@
         <v>58741.278739086069</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -25004,7 +25135,7 @@
         <v>53408.746430202249</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -25069,7 +25200,7 @@
         <v>48558.002172986286</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -25134,7 +25265,7 @@
         <v>44145.727578782033</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -25199,7 +25330,7 @@
         <v>40132.479617074569</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -25264,7 +25395,7 @@
         <v>36485.799023541826</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -25329,7 +25460,7 @@
         <v>33168.908203219835</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -25408,12 +25539,12 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:U22"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -25478,7 +25609,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -25543,7 +25674,7 @@
         <v>-11452.775084636492</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -25608,7 +25739,7 @@
         <v>-9593.4318951240839</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -25673,7 +25804,7 @@
         <v>-7273.3678385425546</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -25738,7 +25869,7 @@
         <v>-4024.6244061881976</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -25803,7 +25934,7 @@
         <v>939.29712134656597</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -25868,7 +25999,7 @@
         <v>8826.5362620309734</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -25933,7 +26064,7 @@
         <v>21361.513893884257</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -25998,7 +26129,7 @@
         <v>39993.093361454805</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -26063,7 +26194,7 @@
         <v>63502.489040966502</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -26128,7 +26259,7 @@
         <v>84096.532621241844</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -26193,7 +26324,7 @@
         <v>90839.868853548149</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -26258,7 +26389,7 @@
         <v>85382.846202426314</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -26323,7 +26454,7 @@
         <v>77739.29993912128</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -26388,7 +26519,7 @@
         <v>70689.470716530821</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -26453,7 +26584,7 @@
         <v>64272.635122001193</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -26518,7 +26649,7 @@
         <v>58435.413701913218</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -26583,7 +26714,7 @@
         <v>53125.714915005134</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -26648,7 +26779,7 @@
         <v>48296.104468186481</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -26713,7 +26844,7 @@
         <v>43907.707822012075</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -26778,7 +26909,7 @@
         <v>39916.098020010963</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -26860,9 +26991,9 @@
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -26927,7 +27058,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -26992,7 +27123,7 @@
         <v>-7500.4239124674095</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -27057,7 +27188,7 @@
         <v>-6000.3853749703721</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -27122,7 +27253,7 @@
         <v>-4006.9619111300899</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -27187,7 +27318,7 @@
         <v>-1055.1644721768664</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -27252,7 +27383,7 @@
         <v>3638.8061522659582</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -27317,7 +27448,7 @@
         <v>11280.635381048602</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -27382,7 +27513,7 @@
         <v>23592.513092991197</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -27447,7 +27578,7 @@
         <v>42021.274451552024</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -27512,7 +27643,7 @@
         <v>65346.290031963974</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -27577,7 +27708,7 @@
         <v>85772.715340330455</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -27642,7 +27773,7 @@
         <v>92363.671325446878</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -27707,7 +27838,7 @@
         <v>86768.121176879707</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -27772,7 +27903,7 @@
         <v>78998.64082498799</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -27837,7 +27968,7 @@
         <v>71834.326067318747</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -27902,7 +28033,7 @@
         <v>65313.412713626589</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -27967,7 +28098,7 @@
         <v>59381.57514884539</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -28032,7 +28163,7 @@
         <v>53985.861684943477</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -28097,7 +28228,7 @@
         <v>49078.056077221336</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -28162,7 +28293,7 @@
         <v>44618.57292113467</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -28227,7 +28358,7 @@
         <v>40562.339019213323</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>

--- a/tumlknexpectimax/excel_data/input_data_residential.xlsx
+++ b/tumlknexpectimax/excel_data/input_data_residential.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmadzay\PycharmProjects\mt_code\tumlknexpectimax\tumlknexpectimax\excel_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="768" windowWidth="15108" windowHeight="8688" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="885" windowWidth="15105" windowHeight="8565" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CAPEX" sheetId="1" r:id="rId1"/>
@@ -31,7 +26,7 @@
     <sheet name="FTTB_Hybridpon_100" sheetId="19" r:id="rId17"/>
     <sheet name="MIG_MATRIX" sheetId="11" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -41,7 +36,7 @@
     <author>Patri, Sai Kireet</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0">
+    <comment ref="G4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -92,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0">
+    <comment ref="G5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0" shapeId="0">
+    <comment ref="G6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -141,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0" shapeId="0">
+    <comment ref="G7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0" shapeId="0">
+    <comment ref="B8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -441,7 +436,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000000%"/>
   </numFmts>
@@ -612,7 +607,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -625,6 +620,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="6"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="5"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Calculation" xfId="6" builtinId="22"/>
@@ -642,17 +638,14 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -679,6 +672,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -757,48 +751,48 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>146337.87420813384</c:v>
+                  <c:v>146337.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>146337.87420813384</c:v>
+                  <c:v>146337.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78872.086550701642</c:v>
+                  <c:v>78872.09</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>78872.086550701642</c:v>
+                  <c:v>78872.09</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>146337.87420813384</c:v>
+                  <c:v>146337.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>146337.87420813384</c:v>
+                  <c:v>146337.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>146337.87420813384</c:v>
+                  <c:v>146337.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>78872.086550701642</c:v>
+                  <c:v>78872.09</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>114876.35990534152</c:v>
+                  <c:v>114876.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>115530.46906962365</c:v>
+                  <c:v>115530.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>115530.46906962365</c:v>
+                  <c:v>115530.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>114876.35990534152</c:v>
+                  <c:v>114876.4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>115530.46906962365</c:v>
+                  <c:v>115530.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-37DD-494B-898C-2092A609AD86}"/>
             </c:ext>
@@ -873,48 +867,48 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>18.840228189119191</c:v>
+                  <c:v>18.840229999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.814589886676153</c:v>
+                  <c:v>12.814590000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.612123172178348</c:v>
+                  <c:v>14.612120000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.612123172178348</c:v>
+                  <c:v>14.612120000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.814589886676153</c:v>
+                  <c:v>12.814590000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.840228189119191</c:v>
+                  <c:v>18.840229999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.814589886676153</c:v>
+                  <c:v>12.814590000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.612123172178348</c:v>
+                  <c:v>14.612120000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.594228370284263</c:v>
+                  <c:v>12.59423</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.211670303203721</c:v>
+                  <c:v>12.21167</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25.08727030320372</c:v>
+                  <c:v>25.08727</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.594228370284263</c:v>
+                  <c:v>12.59423</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.211670303203721</c:v>
+                  <c:v>12.21167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-37DD-494B-898C-2092A609AD86}"/>
             </c:ext>
@@ -989,48 +983,48 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1717.1200000000001</c:v>
+                  <c:v>3056.8888888888887</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1609.5</c:v>
+                  <c:v>6405.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6330.7</c:v>
+                  <c:v>5299.166666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21352.036666666667</c:v>
+                  <c:v>5866.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9656.6999999999989</c:v>
+                  <c:v>12618.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6974.5</c:v>
+                  <c:v>6426.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3862.7999999999997</c:v>
+                  <c:v>12818.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6438</c:v>
+                  <c:v>5866.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>966.06000000000006</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1502.2</c:v>
+                  <c:v>7280</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17382.060000000001</c:v>
+                  <c:v>14160</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2897.1000000000004</c:v>
+                  <c:v>14800</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2897.1000000000004</c:v>
+                  <c:v>14160</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-37DD-494B-898C-2092A609AD86}"/>
             </c:ext>
@@ -1105,48 +1099,48 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>5044.04</c:v>
+                  <c:v>192395.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12768.7</c:v>
+                  <c:v>62262.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11588.4</c:v>
+                  <c:v>59401.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>107189.37</c:v>
+                  <c:v>72078.600000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76609.820000000007</c:v>
+                  <c:v>68200.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13841.7</c:v>
+                  <c:v>195086.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14700.099999999999</c:v>
+                  <c:v>61989.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11588.4</c:v>
+                  <c:v>61547.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4436.72</c:v>
+                  <c:v>96145</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17919.099999999999</c:v>
+                  <c:v>55966.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>108798.82</c:v>
+                  <c:v>106486.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13305.200000000003</c:v>
+                  <c:v>105356</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18133.7</c:v>
+                  <c:v>56966.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-37DD-494B-898C-2092A609AD86}"/>
             </c:ext>
@@ -1162,11 +1156,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="173921024"/>
-        <c:axId val="173922944"/>
+        <c:axId val="157322240"/>
+        <c:axId val="174832960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="173921024"/>
+        <c:axId val="157322240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1188,13 +1182,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173922944"/>
+        <c:crossAx val="174832960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1202,7 +1197,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173922944"/>
+        <c:axId val="174832960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1225,19 +1220,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173921024"/>
+        <c:crossAx val="157322240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1253,9 +1250,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1267,6 +1264,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1315,21 +1313,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>146337.87420813384</c:v>
+                  <c:v>146337.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.840228189119191</c:v>
+                  <c:v>18.840229999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1717.1200000000001</c:v>
+                  <c:v>3056.8888888888887</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5044.04</c:v>
+                  <c:v>192395.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CEE8-43A2-851D-BC93CBA0BE7C}"/>
             </c:ext>
@@ -1349,6 +1347,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1357,7 +1356,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1374,9 +1373,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1403,6 +1402,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1484,51 +1484,51 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2500</c:v>
+                  <c:v>11239.427296319658</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2139.68314436323</c:v>
+                  <c:v>21008.816291188887</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2901.3268879802054</c:v>
+                  <c:v>8330.290479233332</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2580.7769867387378</c:v>
+                  <c:v>7258.905687866667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13643.007653405404</c:v>
+                  <c:v>8583.4103545333346</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10090.158887980206</c:v>
+                  <c:v>9545.3938125666664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3545.1871443632299</c:v>
+                  <c:v>21614.874068966667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3319.7968879802052</c:v>
+                  <c:v>8944.3638125666657</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2591.5069867387383</c:v>
+                  <c:v>7530.2603545333332</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1689.1675413371181</c:v>
+                  <c:v>11163.3899423</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3097.556807399269</c:v>
+                  <c:v>7480.0771167000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13773.64356339927</c:v>
+                  <c:v>13220.205872700002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2769.1195413371188</c:v>
+                  <c:v>13164.489942300001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3258.5068073992688</c:v>
+                  <c:v>8268.0771167000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B8F6-416E-AD21-7DE814CEBF97}"/>
             </c:ext>
@@ -1543,11 +1543,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="174888832"/>
-        <c:axId val="174890368"/>
+        <c:axId val="179649536"/>
+        <c:axId val="179948352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="174888832"/>
+        <c:axId val="179649536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1557,7 +1557,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174890368"/>
+        <c:crossAx val="179948352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1565,7 +1565,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174890368"/>
+        <c:axId val="179948352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1588,13 +1588,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174888832"/>
+        <c:crossAx val="179649536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1612,9 +1613,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1626,6 +1627,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1743,7 +1745,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DDCA-4663-830D-82651783C711}"/>
             </c:ext>
@@ -1758,11 +1760,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="174947712"/>
-        <c:axId val="174958080"/>
+        <c:axId val="172711936"/>
+        <c:axId val="179950080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="174947712"/>
+        <c:axId val="172711936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1784,13 +1786,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174958080"/>
+        <c:crossAx val="179950080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1798,7 +1801,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174958080"/>
+        <c:axId val="179950080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1821,13 +1824,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174947712"/>
+        <c:crossAx val="172711936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1845,9 +1849,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2024,7 +2028,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B323-4672-88DD-A4269C32C76F}"/>
             </c:ext>
@@ -2189,7 +2193,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B323-4672-88DD-A4269C32C76F}"/>
             </c:ext>
@@ -2354,7 +2358,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-B323-4672-88DD-A4269C32C76F}"/>
             </c:ext>
@@ -2369,11 +2373,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="175550464"/>
-        <c:axId val="175552000"/>
+        <c:axId val="174748160"/>
+        <c:axId val="179951808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="175550464"/>
+        <c:axId val="174748160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2383,7 +2387,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175552000"/>
+        <c:crossAx val="179951808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2391,7 +2395,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="175552000"/>
+        <c:axId val="179951808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2402,7 +2406,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175550464"/>
+        <c:crossAx val="174748160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2443,7 +2447,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2479,7 +2483,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2504,23 +2508,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2556,7 +2560,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2597,7 +2601,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2661,7 +2665,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2694,26 +2698,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2746,23 +2733,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2941,31 +2911,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
-    <col min="8" max="9" width="19.109375" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="9" width="19.140625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" customWidth="1"/>
-    <col min="13" max="13" width="16.44140625" customWidth="1"/>
-    <col min="14" max="14" width="22.109375" customWidth="1"/>
-    <col min="15" max="15" width="13.5546875" customWidth="1"/>
-    <col min="16" max="17" width="11.6640625" customWidth="1"/>
-    <col min="23" max="23" width="13.44140625" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" customWidth="1"/>
+    <col min="16" max="17" width="11.7109375" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3036,7 +3006,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
@@ -3069,11 +3039,11 @@
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
       <c r="V2" s="9">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="W2" s="10"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>65</v>
       </c>
@@ -3128,32 +3098,28 @@
       <c r="Q3" s="8">
         <v>685372.28279667499</v>
       </c>
-      <c r="R3" s="9">
-        <f t="shared" ref="R3:R15" si="0">L3*$R$46+M3*$S$46+N3*$V$46</f>
-        <v>146337.87420813384</v>
-      </c>
-      <c r="S3" s="9">
-        <f t="shared" ref="S3:S15" si="1">(O3+P3+Q3)*$P$27</f>
-        <v>18.840228189119191</v>
-      </c>
-      <c r="T3" s="9">
-        <f t="shared" ref="T3:T15" si="2">G3*B3</f>
-        <v>1717.1200000000001</v>
-      </c>
-      <c r="U3" s="9">
-        <f t="shared" ref="U3:U15" si="3">B3*H3+B3*I3</f>
-        <v>5044.04</v>
+      <c r="R3" s="12">
+        <v>146337.9</v>
+      </c>
+      <c r="S3" s="12">
+        <v>18.840229999999998</v>
+      </c>
+      <c r="T3" s="12">
+        <v>3056.8888888888887</v>
+      </c>
+      <c r="U3" s="12">
+        <v>192395.6</v>
       </c>
       <c r="V3" s="9">
-        <f t="shared" ref="V3:V15" si="4">SUM(T3,U3)</f>
-        <v>6761.16</v>
+        <f>SUM(T3,U3)</f>
+        <v>195452.48888888888</v>
       </c>
       <c r="W3" s="10">
-        <f t="shared" ref="W3:W15" si="5">R3+S3+T3+U3</f>
-        <v>153117.87443632298</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+        <f>R3+S3+T3+U3</f>
+        <v>341809.22911888885</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>66</v>
       </c>
@@ -3208,32 +3174,28 @@
       <c r="Q4" s="8">
         <v>384090.36767452297</v>
       </c>
-      <c r="R4" s="9">
-        <f t="shared" si="0"/>
-        <v>146337.87420813384</v>
-      </c>
-      <c r="S4" s="9">
-        <f t="shared" si="1"/>
-        <v>12.814589886676153</v>
-      </c>
-      <c r="T4" s="9">
-        <f t="shared" si="2"/>
-        <v>1609.5</v>
-      </c>
-      <c r="U4" s="9">
-        <f t="shared" si="3"/>
-        <v>12768.7</v>
+      <c r="R4" s="12">
+        <v>146337.9</v>
+      </c>
+      <c r="S4" s="12">
+        <v>12.814590000000001</v>
+      </c>
+      <c r="T4" s="12">
+        <v>6405.333333333333</v>
+      </c>
+      <c r="U4" s="12">
+        <v>62262.5</v>
       </c>
       <c r="V4" s="9">
-        <f t="shared" si="4"/>
-        <v>14378.2</v>
+        <f t="shared" ref="V4:V15" si="0">SUM(T4,U4)</f>
+        <v>68667.833333333328</v>
       </c>
       <c r="W4" s="10">
-        <f t="shared" si="5"/>
-        <v>160728.88879802052</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+        <f t="shared" ref="W4:W15" si="1">R4+S4+T4+U4</f>
+        <v>215018.54792333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>67</v>
       </c>
@@ -3284,32 +3246,28 @@
       <c r="Q5" s="8">
         <v>658286.15266324603</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="12">
+        <v>78872.09</v>
+      </c>
+      <c r="S5" s="12">
+        <v>14.612120000000001</v>
+      </c>
+      <c r="T5" s="12">
+        <v>5299.166666666667</v>
+      </c>
+      <c r="U5" s="12">
+        <v>59401.22</v>
+      </c>
+      <c r="V5" s="9">
         <f t="shared" si="0"/>
-        <v>78872.086550701642</v>
-      </c>
-      <c r="S5" s="9">
+        <v>64700.386666666665</v>
+      </c>
+      <c r="W5" s="10">
         <f t="shared" si="1"/>
-        <v>14.612123172178348</v>
-      </c>
-      <c r="T5" s="9">
-        <f t="shared" si="2"/>
-        <v>6330.7</v>
-      </c>
-      <c r="U5" s="9">
-        <f t="shared" si="3"/>
-        <v>11588.4</v>
-      </c>
-      <c r="V5" s="9">
-        <f t="shared" si="4"/>
-        <v>17919.099999999999</v>
-      </c>
-      <c r="W5" s="10">
-        <f t="shared" si="5"/>
-        <v>96805.798673873811</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+        <v>143587.08878666669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>68</v>
       </c>
@@ -3364,32 +3322,28 @@
       <c r="Q6" s="8">
         <v>658286.15266324603</v>
       </c>
-      <c r="R6" s="9">
+      <c r="R6" s="12">
+        <v>78872.09</v>
+      </c>
+      <c r="S6" s="12">
+        <v>14.612120000000001</v>
+      </c>
+      <c r="T6" s="12">
+        <v>5866.833333333333</v>
+      </c>
+      <c r="U6" s="12">
+        <v>72078.600000000006</v>
+      </c>
+      <c r="V6" s="9">
         <f t="shared" si="0"/>
-        <v>78872.086550701642</v>
-      </c>
-      <c r="S6" s="9">
+        <v>77945.433333333334</v>
+      </c>
+      <c r="W6" s="10">
         <f t="shared" si="1"/>
-        <v>14.612123172178348</v>
-      </c>
-      <c r="T6" s="9">
-        <f t="shared" si="2"/>
-        <v>21352.036666666667</v>
-      </c>
-      <c r="U6" s="9">
-        <f t="shared" si="3"/>
-        <v>107189.37</v>
-      </c>
-      <c r="V6" s="9">
-        <f t="shared" si="4"/>
-        <v>128541.40666666666</v>
-      </c>
-      <c r="W6" s="10">
-        <f t="shared" si="5"/>
-        <v>207428.10534054047</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+        <v>156832.13545333332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>69</v>
       </c>
@@ -3444,32 +3398,28 @@
       <c r="Q7" s="8">
         <v>384090.36767452297</v>
       </c>
-      <c r="R7" s="9">
+      <c r="R7" s="12">
+        <v>146337.9</v>
+      </c>
+      <c r="S7" s="12">
+        <v>12.814590000000001</v>
+      </c>
+      <c r="T7" s="12">
+        <v>12618.666666666666</v>
+      </c>
+      <c r="U7" s="12">
+        <v>68200.2</v>
+      </c>
+      <c r="V7" s="9">
         <f t="shared" si="0"/>
-        <v>146337.87420813384</v>
-      </c>
-      <c r="S7" s="9">
+        <v>80818.866666666669</v>
+      </c>
+      <c r="W7" s="10">
         <f t="shared" si="1"/>
-        <v>12.814589886676153</v>
-      </c>
-      <c r="T7" s="9">
-        <f t="shared" si="2"/>
-        <v>9656.6999999999989</v>
-      </c>
-      <c r="U7" s="9">
-        <f t="shared" si="3"/>
-        <v>76609.820000000007</v>
-      </c>
-      <c r="V7" s="9">
-        <f t="shared" si="4"/>
-        <v>86266.52</v>
-      </c>
-      <c r="W7" s="10">
-        <f t="shared" si="5"/>
-        <v>232617.20879802053</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+        <v>227169.58125666663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>70</v>
       </c>
@@ -3499,10 +3449,10 @@
         <v>1</v>
       </c>
       <c r="J8" s="8">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="K8" s="8">
-        <v>151</v>
+        <v>1244</v>
       </c>
       <c r="L8" s="8">
         <v>31505.122417993502</v>
@@ -3522,37 +3472,33 @@
       <c r="Q8" s="8">
         <v>685372.28279667499</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R8" s="12">
+        <v>146337.9</v>
+      </c>
+      <c r="S8" s="12">
+        <v>18.840229999999998</v>
+      </c>
+      <c r="T8" s="12">
+        <v>6426.666666666667</v>
+      </c>
+      <c r="U8" s="12">
+        <v>195086.4</v>
+      </c>
+      <c r="V8" s="9">
         <f t="shared" si="0"/>
-        <v>146337.87420813384</v>
-      </c>
-      <c r="S8" s="9">
+        <v>201513.06666666665</v>
+      </c>
+      <c r="W8" s="10">
         <f t="shared" si="1"/>
-        <v>18.840228189119191</v>
-      </c>
-      <c r="T8" s="9">
-        <f t="shared" si="2"/>
-        <v>6974.5</v>
-      </c>
-      <c r="U8" s="9">
-        <f t="shared" si="3"/>
-        <v>13841.7</v>
-      </c>
-      <c r="V8" s="9">
-        <f t="shared" si="4"/>
-        <v>20816.2</v>
-      </c>
-      <c r="W8" s="10">
-        <f t="shared" si="5"/>
-        <v>167172.91443632299</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+        <v>347869.80689666665</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B9" s="8">
-        <f t="shared" ref="B9:B15" si="6">CEILING(4877+0.1*(4877),1)</f>
+        <f t="shared" ref="B9:B15" si="2">CEILING(4877+0.1*(4877),1)</f>
         <v>5365</v>
       </c>
       <c r="C9" s="8">
@@ -3600,37 +3546,33 @@
       <c r="Q9" s="8">
         <v>384090.36767452297</v>
       </c>
-      <c r="R9" s="9">
+      <c r="R9" s="12">
+        <v>146337.9</v>
+      </c>
+      <c r="S9" s="12">
+        <v>12.814590000000001</v>
+      </c>
+      <c r="T9" s="12">
+        <v>12818.666666666666</v>
+      </c>
+      <c r="U9" s="12">
+        <v>61989.9</v>
+      </c>
+      <c r="V9" s="9">
         <f t="shared" si="0"/>
-        <v>146337.87420813384</v>
-      </c>
-      <c r="S9" s="9">
+        <v>74808.566666666666</v>
+      </c>
+      <c r="W9" s="10">
         <f t="shared" si="1"/>
-        <v>12.814589886676153</v>
-      </c>
-      <c r="T9" s="9">
-        <f t="shared" si="2"/>
-        <v>3862.7999999999997</v>
-      </c>
-      <c r="U9" s="9">
-        <f t="shared" si="3"/>
-        <v>14700.099999999999</v>
-      </c>
-      <c r="V9" s="9">
-        <f t="shared" si="4"/>
-        <v>18562.899999999998</v>
-      </c>
-      <c r="W9" s="10">
-        <f t="shared" si="5"/>
-        <v>164913.5887980205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+        <v>221159.28125666664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B10" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>5365</v>
       </c>
       <c r="C10" s="8">
@@ -3677,32 +3619,28 @@
       <c r="Q10" s="8">
         <v>658286.15266324603</v>
       </c>
-      <c r="R10" s="9">
+      <c r="R10" s="12">
+        <v>78872.09</v>
+      </c>
+      <c r="S10" s="12">
+        <v>14.612120000000001</v>
+      </c>
+      <c r="T10" s="12">
+        <v>5866.833333333333</v>
+      </c>
+      <c r="U10" s="12">
+        <v>61547.1</v>
+      </c>
+      <c r="V10" s="9">
         <f t="shared" si="0"/>
-        <v>78872.086550701642</v>
-      </c>
-      <c r="S10" s="9">
+        <v>67413.933333333334</v>
+      </c>
+      <c r="W10" s="10">
         <f t="shared" si="1"/>
-        <v>14.612123172178348</v>
-      </c>
-      <c r="T10" s="9">
-        <f t="shared" si="2"/>
-        <v>6438</v>
-      </c>
-      <c r="U10" s="9">
-        <f t="shared" si="3"/>
-        <v>11588.4</v>
-      </c>
-      <c r="V10" s="9">
-        <f t="shared" si="4"/>
-        <v>18026.400000000001</v>
-      </c>
-      <c r="W10" s="10">
-        <f t="shared" si="5"/>
-        <v>96913.098673873814</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+        <v>146300.63545333332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>73</v>
       </c>
@@ -3755,37 +3693,33 @@
       <c r="Q11" s="8">
         <v>387592.626526276</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R11" s="12">
+        <v>114876.4</v>
+      </c>
+      <c r="S11" s="12">
+        <v>12.59423</v>
+      </c>
+      <c r="T11" s="12">
+        <v>4000</v>
+      </c>
+      <c r="U11" s="12">
+        <v>96145</v>
+      </c>
+      <c r="V11" s="9">
         <f t="shared" si="0"/>
-        <v>114876.35990534152</v>
-      </c>
-      <c r="S11" s="9">
+        <v>100145</v>
+      </c>
+      <c r="W11" s="10">
         <f t="shared" si="1"/>
-        <v>12.594228370284263</v>
-      </c>
-      <c r="T11" s="9">
-        <f t="shared" si="2"/>
-        <v>966.06000000000006</v>
-      </c>
-      <c r="U11" s="9">
-        <f t="shared" si="3"/>
-        <v>4436.72</v>
-      </c>
-      <c r="V11" s="9">
-        <f t="shared" si="4"/>
-        <v>5402.7800000000007</v>
-      </c>
-      <c r="W11" s="10">
-        <f t="shared" si="5"/>
-        <v>120291.73413371181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+        <v>215033.99423000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B12" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>5365</v>
       </c>
       <c r="C12" s="8">
@@ -3833,32 +3767,28 @@
       <c r="Q12" s="8">
         <v>368464.72317224898</v>
       </c>
-      <c r="R12" s="9">
+      <c r="R12" s="12">
+        <v>115530.5</v>
+      </c>
+      <c r="S12" s="12">
+        <v>12.21167</v>
+      </c>
+      <c r="T12" s="12">
+        <v>7280</v>
+      </c>
+      <c r="U12" s="12">
+        <v>55966.5</v>
+      </c>
+      <c r="V12" s="9">
         <f t="shared" si="0"/>
-        <v>115530.46906962365</v>
-      </c>
-      <c r="S12" s="9">
+        <v>63246.5</v>
+      </c>
+      <c r="W12" s="10">
         <f t="shared" si="1"/>
-        <v>12.211670303203721</v>
-      </c>
-      <c r="T12" s="9">
-        <f t="shared" si="2"/>
-        <v>1502.2</v>
-      </c>
-      <c r="U12" s="9">
-        <f t="shared" si="3"/>
-        <v>17919.099999999999</v>
-      </c>
-      <c r="V12" s="9">
-        <f t="shared" si="4"/>
-        <v>19421.3</v>
-      </c>
-      <c r="W12" s="10">
-        <f t="shared" si="5"/>
-        <v>134963.98073992686</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+        <v>178789.21166999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>75</v>
       </c>
@@ -3912,37 +3842,33 @@
         <f>$Q$12+20*$B$13</f>
         <v>1012244.723172249</v>
       </c>
-      <c r="R13" s="9">
+      <c r="R13" s="12">
+        <v>115530.5</v>
+      </c>
+      <c r="S13" s="12">
+        <v>25.08727</v>
+      </c>
+      <c r="T13" s="12">
+        <v>14160</v>
+      </c>
+      <c r="U13" s="12">
+        <v>106486.5</v>
+      </c>
+      <c r="V13" s="9">
         <f t="shared" si="0"/>
-        <v>115530.46906962365</v>
-      </c>
-      <c r="S13" s="9">
+        <v>120646.5</v>
+      </c>
+      <c r="W13" s="10">
         <f t="shared" si="1"/>
-        <v>25.08727030320372</v>
-      </c>
-      <c r="T13" s="9">
-        <f t="shared" si="2"/>
-        <v>17382.060000000001</v>
-      </c>
-      <c r="U13" s="9">
-        <f t="shared" si="3"/>
-        <v>108798.82</v>
-      </c>
-      <c r="V13" s="9">
-        <f t="shared" si="4"/>
-        <v>126180.88</v>
-      </c>
-      <c r="W13" s="10">
-        <f t="shared" si="5"/>
-        <v>241736.43633992688</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+        <v>236202.08727000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B14" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>5365</v>
       </c>
       <c r="C14" s="8">
@@ -3990,37 +3916,33 @@
       <c r="Q14" s="8">
         <v>387592.626526276</v>
       </c>
-      <c r="R14" s="9">
+      <c r="R14" s="12">
+        <v>114876.4</v>
+      </c>
+      <c r="S14" s="12">
+        <v>12.59423</v>
+      </c>
+      <c r="T14" s="12">
+        <v>14800</v>
+      </c>
+      <c r="U14" s="12">
+        <v>105356</v>
+      </c>
+      <c r="V14" s="9">
         <f t="shared" si="0"/>
-        <v>114876.35990534152</v>
-      </c>
-      <c r="S14" s="9">
+        <v>120156</v>
+      </c>
+      <c r="W14" s="10">
         <f t="shared" si="1"/>
-        <v>12.594228370284263</v>
-      </c>
-      <c r="T14" s="9">
-        <f t="shared" si="2"/>
-        <v>2897.1000000000004</v>
-      </c>
-      <c r="U14" s="9">
-        <f t="shared" si="3"/>
-        <v>13305.200000000003</v>
-      </c>
-      <c r="V14" s="9">
-        <f t="shared" si="4"/>
-        <v>16202.300000000003</v>
-      </c>
-      <c r="W14" s="10">
-        <f t="shared" si="5"/>
-        <v>131091.25413371183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+        <v>235044.99423000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>77</v>
       </c>
       <c r="B15" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>5365</v>
       </c>
       <c r="C15" s="8">
@@ -4069,38 +3991,34 @@
         <f>$Q$12</f>
         <v>368464.72317224898</v>
       </c>
-      <c r="R15" s="9">
+      <c r="R15" s="12">
+        <v>115530.5</v>
+      </c>
+      <c r="S15" s="12">
+        <v>12.21167</v>
+      </c>
+      <c r="T15" s="12">
+        <v>14160</v>
+      </c>
+      <c r="U15" s="12">
+        <v>56966.5</v>
+      </c>
+      <c r="V15" s="9">
         <f t="shared" si="0"/>
-        <v>115530.46906962365</v>
-      </c>
-      <c r="S15" s="9">
+        <v>71126.5</v>
+      </c>
+      <c r="W15" s="10">
         <f t="shared" si="1"/>
-        <v>12.211670303203721</v>
-      </c>
-      <c r="T15" s="9">
-        <f t="shared" si="2"/>
-        <v>2897.1000000000004</v>
-      </c>
-      <c r="U15" s="9">
-        <f t="shared" si="3"/>
-        <v>18133.7</v>
-      </c>
-      <c r="V15" s="9">
-        <f t="shared" si="4"/>
-        <v>21030.800000000003</v>
-      </c>
-      <c r="W15" s="10">
-        <f t="shared" si="5"/>
-        <v>136573.48073992686</v>
-      </c>
-    </row>
-    <row r="27" spans="16:16" x14ac:dyDescent="0.3">
+        <v>186669.21166999999</v>
+      </c>
+    </row>
+    <row r="27" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P27">
         <f>0.02/1000</f>
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="42" spans="17:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="17:24" x14ac:dyDescent="0.25">
       <c r="Q42" s="5" t="s">
         <v>54</v>
       </c>
@@ -4114,12 +4032,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="17:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="17:24" x14ac:dyDescent="0.25">
       <c r="R43" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="17:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="17:24" x14ac:dyDescent="0.25">
       <c r="Q44" t="s">
         <v>57</v>
       </c>
@@ -4139,7 +4057,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="17:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="17:24" x14ac:dyDescent="0.25">
       <c r="R45" t="s">
         <v>59</v>
       </c>
@@ -4150,7 +4068,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="17:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="17:24" x14ac:dyDescent="0.25">
       <c r="Q46" t="s">
         <v>62</v>
       </c>
@@ -4167,7 +4085,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -4213,7 +4131,7 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -5662,7 +5580,7 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -7111,12 +7029,12 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="19" max="19" width="16.88671875" customWidth="1"/>
+    <col min="19" max="19" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -7181,7 +7099,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -7246,7 +7164,7 @@
         <v>-1406.1283124115794</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -7311,7 +7229,7 @@
         <v>-460.11664764689033</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -7376,7 +7294,7 @@
         <v>1029.6460228003475</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -7441,7 +7359,7 @@
         <v>3523.5700132144393</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -7506,7 +7424,7 @@
         <v>7801.2920480762359</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -7571,7 +7489,7 @@
         <v>15064.713468148853</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -7636,7 +7554,7 @@
         <v>27032.584081264151</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -7701,7 +7619,7 @@
         <v>45148.611713618346</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -7766,7 +7684,7 @@
         <v>68189.323906569727</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -7831,7 +7749,7 @@
         <v>88357.291589972039</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -7896,7 +7814,7 @@
         <v>94713.286097848322</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -7961,7 +7879,7 @@
         <v>88904.134606335574</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -8026,7 +7944,7 @@
         <v>80940.471215402416</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -8091,7 +8009,7 @@
         <v>73599.626422240937</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -8156,7 +8074,7 @@
         <v>66918.231218101311</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -8221,7 +8139,7 @@
         <v>60840.50106200423</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -8286,7 +8204,7 @@
         <v>55312.157969633328</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -8351,7 +8269,7 @@
         <v>50283.779972393932</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -8416,7 +8334,7 @@
         <v>45714.685553109754</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -8481,7 +8399,7 @@
         <v>41558.805048281589</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -8546,7 +8464,7 @@
         <v>37780.731862074172</v>
       </c>
     </row>
-    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -8564,7 +8482,7 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -10013,7 +9931,7 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -11462,7 +11380,7 @@
       <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -12911,7 +12829,7 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -14360,7 +14278,7 @@
       <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -15807,26 +15725,26 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L2" sqref="L2"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="34.5546875" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="16.88671875" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" customWidth="1"/>
-    <col min="14" max="14" width="16.44140625" customWidth="1"/>
-    <col min="15" max="15" width="25.6640625" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -15885,55 +15803,55 @@
       </c>
       <c r="C2">
         <f>CAPEX!$W3</f>
-        <v>153117.87443632298</v>
+        <v>341809.22911888885</v>
       </c>
       <c r="D2">
         <f>CAPEX!$W4</f>
-        <v>160728.88879802052</v>
+        <v>215018.54792333333</v>
       </c>
       <c r="E2">
         <f>CAPEX!$W5</f>
-        <v>96805.798673873811</v>
+        <v>143587.08878666669</v>
       </c>
       <c r="F2">
         <f>CAPEX!$W6</f>
-        <v>207428.10534054047</v>
+        <v>156832.13545333332</v>
       </c>
       <c r="G2">
         <f>CAPEX!$W7</f>
-        <v>232617.20879802053</v>
+        <v>227169.58125666663</v>
       </c>
       <c r="H2">
         <f>CAPEX!$W8</f>
-        <v>167172.91443632299</v>
+        <v>347869.80689666665</v>
       </c>
       <c r="I2">
         <f>CAPEX!$W9</f>
-        <v>164913.5887980205</v>
+        <v>221159.28125666664</v>
       </c>
       <c r="J2">
         <f>CAPEX!$W10</f>
-        <v>96913.098673873814</v>
+        <v>146300.63545333332</v>
       </c>
       <c r="K2">
         <f>CAPEX!$W11</f>
-        <v>120291.73413371181</v>
+        <v>215033.99423000001</v>
       </c>
       <c r="L2">
         <f>CAPEX!$W12</f>
-        <v>134963.98073992686</v>
+        <v>178789.21166999999</v>
       </c>
       <c r="M2">
         <f>CAPEX!$W13</f>
-        <v>241736.43633992688</v>
+        <v>236202.08727000002</v>
       </c>
       <c r="N2">
         <f>CAPEX!$W14</f>
-        <v>131091.25413371183</v>
+        <v>235044.99423000001</v>
       </c>
       <c r="O2">
         <f>CAPEX!$W15</f>
-        <v>136573.48073992686</v>
+        <v>186669.21166999999</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -15948,7 +15866,7 @@
       </c>
       <c r="D3">
         <f>D2-C2</f>
-        <v>7611.0143616975402</v>
+        <v>-126790.68119555552</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -15958,15 +15876,15 @@
       </c>
       <c r="G3">
         <f>G2-C2</f>
-        <v>79499.334361697547</v>
+        <v>-114639.64786222222</v>
       </c>
       <c r="H3">
         <f>H2-C2</f>
-        <v>14055.040000000008</v>
+        <v>6060.5777777777985</v>
       </c>
       <c r="I3">
         <f>D3+(I2-D2)</f>
-        <v>11795.714361697523</v>
+        <v>-120649.94786222221</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -16008,14 +15926,14 @@
       </c>
       <c r="G4">
         <f>G2-D2</f>
-        <v>71888.320000000007</v>
+        <v>12151.033333333296</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
         <f>I2-D2</f>
-        <v>4184.6999999999825</v>
+        <v>6140.7333333333081</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -16054,7 +15972,7 @@
       </c>
       <c r="F5">
         <f>F2-E2</f>
-        <v>110622.30666666666</v>
+        <v>13245.046666666633</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -16067,7 +15985,7 @@
       </c>
       <c r="J5">
         <f>J2-E2</f>
-        <v>107.30000000000291</v>
+        <v>2713.5466666666325</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -16200,14 +16118,14 @@
       </c>
       <c r="G8">
         <f>G2-H2</f>
-        <v>65444.294361697539</v>
+        <v>-120700.22564000002</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
         <f>I2-H2</f>
-        <v>-2259.3256383024855</v>
+        <v>-126710.52564000001</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -16249,7 +16167,7 @@
       </c>
       <c r="G9">
         <f>G2-I2</f>
-        <v>67703.620000000024</v>
+        <v>6010.2999999999884</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -16294,7 +16212,7 @@
       </c>
       <c r="F10">
         <f>F2-J2</f>
-        <v>110515.00666666665</v>
+        <v>10531.5</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -16360,19 +16278,19 @@
       </c>
       <c r="L11">
         <f>L2-K2</f>
-        <v>14672.246606215049</v>
+        <v>-36244.782560000021</v>
       </c>
       <c r="M11">
         <f>M2-K2</f>
-        <v>121444.70220621506</v>
+        <v>21168.093040000007</v>
       </c>
       <c r="N11">
         <f>N2-K2</f>
-        <v>10799.520000000019</v>
+        <v>20011</v>
       </c>
       <c r="O11">
         <f>L11+(O2-L2)</f>
-        <v>16281.746606215049</v>
+        <v>-28364.782560000021</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -16414,14 +16332,14 @@
       </c>
       <c r="M12">
         <f>M2-L2</f>
-        <v>106772.45560000002</v>
+        <v>57412.875600000028</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
         <f>O2-L2</f>
-        <v>1609.5</v>
+        <v>7880</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -16510,14 +16428,14 @@
       </c>
       <c r="M14">
         <f>M2-N2</f>
-        <v>110645.18220621505</v>
+        <v>1157.093040000007</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
         <f>O2-N2</f>
-        <v>5482.2266062150302</v>
+        <v>-48375.782560000021</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -16559,7 +16477,7 @@
       </c>
       <c r="M15">
         <f>M2-O2</f>
-        <v>105162.95560000002</v>
+        <v>49532.875600000028</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -16582,14 +16500,14 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="39.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -16608,7 +16526,8 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>2500</v>
+        <f>AVERAGE(B3:B15)</f>
+        <v>11239.427296319658</v>
       </c>
       <c r="C2">
         <v>3.6</v>
@@ -16620,7 +16539,7 @@
       </c>
       <c r="B3">
         <f>0.1*(CAPEX!T3+CAPEX!U3)+0.01*(CAPEX!R3+CAPEX!S3)</f>
-        <v>2139.68314436323</v>
+        <v>21008.816291188887</v>
       </c>
       <c r="C3">
         <v>7.2</v>
@@ -16632,7 +16551,7 @@
       </c>
       <c r="B4">
         <f>0.1*(CAPEX!T4+CAPEX!U4)+0.01*(CAPEX!R4+CAPEX!S4)</f>
-        <v>2901.3268879802054</v>
+        <v>8330.290479233332</v>
       </c>
       <c r="C4">
         <v>9.6</v>
@@ -16644,7 +16563,7 @@
       </c>
       <c r="B5">
         <f>0.1*(CAPEX!T5+CAPEX!U5)+0.01*(CAPEX!R5+CAPEX!S5)</f>
-        <v>2580.7769867387378</v>
+        <v>7258.905687866667</v>
       </c>
       <c r="C5">
         <v>9.6</v>
@@ -16656,7 +16575,7 @@
       </c>
       <c r="B6">
         <f>0.1*(CAPEX!T6+CAPEX!U6)+0.01*(CAPEX!R6+CAPEX!S6)</f>
-        <v>13643.007653405404</v>
+        <v>8583.4103545333346</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -16668,7 +16587,7 @@
       </c>
       <c r="B7">
         <f>0.1*(CAPEX!T7+CAPEX!U7)+0.01*(CAPEX!R7+CAPEX!S7)</f>
-        <v>10090.158887980206</v>
+        <v>9545.3938125666664</v>
       </c>
       <c r="C7">
         <v>12</v>
@@ -16680,7 +16599,7 @@
       </c>
       <c r="B8">
         <f>0.1*(CAPEX!T8+CAPEX!U8)+0.01*(CAPEX!R8+CAPEX!S8)</f>
-        <v>3545.1871443632299</v>
+        <v>21614.874068966667</v>
       </c>
       <c r="C8">
         <v>12</v>
@@ -16692,7 +16611,7 @@
       </c>
       <c r="B9">
         <f>0.1*(CAPEX!T9+CAPEX!U9)+0.01*(CAPEX!R9+CAPEX!S9)</f>
-        <v>3319.7968879802052</v>
+        <v>8944.3638125666657</v>
       </c>
       <c r="C9">
         <v>12</v>
@@ -16704,7 +16623,7 @@
       </c>
       <c r="B10">
         <f>0.1*(CAPEX!T10+CAPEX!U10)+0.01*(CAPEX!R10+CAPEX!S10)</f>
-        <v>2591.5069867387383</v>
+        <v>7530.2603545333332</v>
       </c>
       <c r="C10">
         <v>12</v>
@@ -16716,7 +16635,7 @@
       </c>
       <c r="B11">
         <f>0.1*(CAPEX!T11+CAPEX!U11)+0.01*(CAPEX!R11+CAPEX!S11)</f>
-        <v>1689.1675413371181</v>
+        <v>11163.3899423</v>
       </c>
       <c r="C11">
         <v>7.2</v>
@@ -16728,7 +16647,7 @@
       </c>
       <c r="B12">
         <f>0.1*(CAPEX!T12+CAPEX!U12)+0.01*(CAPEX!R12+CAPEX!S12)</f>
-        <v>3097.556807399269</v>
+        <v>7480.0771167000003</v>
       </c>
       <c r="C12">
         <v>9.6</v>
@@ -16740,7 +16659,7 @@
       </c>
       <c r="B13">
         <f>0.1*(CAPEX!T13+CAPEX!U13)+0.01*(CAPEX!R13+CAPEX!S13)</f>
-        <v>13773.64356339927</v>
+        <v>13220.205872700002</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -16752,7 +16671,7 @@
       </c>
       <c r="B14">
         <f>0.1*(CAPEX!T14+CAPEX!U14)+0.01*(CAPEX!R14+CAPEX!S14)</f>
-        <v>2769.1195413371188</v>
+        <v>13164.489942300001</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -16764,7 +16683,7 @@
       </c>
       <c r="B15">
         <f>0.1*(CAPEX!T15+CAPEX!U15)+0.01*(CAPEX!R15+CAPEX!S15)</f>
-        <v>3258.5068073992688</v>
+        <v>8268.0771167000003</v>
       </c>
       <c r="C15">
         <v>12</v>
@@ -16788,17 +16707,17 @@
       <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" customWidth="1"/>
-    <col min="7" max="7" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -16878,7 +16797,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2018</v>
       </c>
@@ -16926,31 +16845,31 @@
       </c>
       <c r="U2">
         <f>OPEX!$B$3</f>
-        <v>2139.68314436323</v>
+        <v>21008.816291188887</v>
       </c>
       <c r="V2">
         <f>O2-U2</f>
-        <v>-1448.4831443632299</v>
+        <v>-20317.616291188886</v>
       </c>
       <c r="W2">
         <f>P2-U2</f>
-        <v>-1448.4831443632299</v>
+        <v>-20317.616291188886</v>
       </c>
       <c r="X2">
         <f t="shared" ref="X2:X22" si="1">Q2-U2</f>
-        <v>-1448.4831443632299</v>
+        <v>-20317.616291188886</v>
       </c>
       <c r="Y2">
         <f>R2-$U2</f>
-        <v>-1520.4831443632299</v>
+        <v>-20389.616291188886</v>
       </c>
       <c r="Z2">
         <f>S2-$U2</f>
-        <v>-1520.4831443632299</v>
+        <v>-20389.616291188886</v>
       </c>
       <c r="AA2">
         <f>T2-$U2</f>
-        <v>-1520.4831443632299</v>
+        <v>-20389.616291188886</v>
       </c>
       <c r="AB2">
         <f>1/POWER(1+$L$25,N2-2018)</f>
@@ -16958,30 +16877,30 @@
       </c>
       <c r="AC2">
         <f>V2*AB2</f>
-        <v>-1448.4831443632299</v>
+        <v>-20317.616291188886</v>
       </c>
       <c r="AD2">
         <f>W2*AB2</f>
-        <v>-1448.4831443632299</v>
+        <v>-20317.616291188886</v>
       </c>
       <c r="AE2">
         <f>X2*AB2</f>
-        <v>-1448.4831443632299</v>
+        <v>-20317.616291188886</v>
       </c>
       <c r="AF2">
         <f>Y2*$AB2</f>
-        <v>-1520.4831443632299</v>
+        <v>-20389.616291188886</v>
       </c>
       <c r="AG2">
         <f>Z2*$AB2</f>
-        <v>-1520.4831443632299</v>
+        <v>-20389.616291188886</v>
       </c>
       <c r="AH2">
         <f>AA2*$AB2</f>
-        <v>-1520.4831443632299</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+        <v>-20389.616291188886</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2019</v>
       </c>
@@ -17028,31 +16947,31 @@
       </c>
       <c r="U3">
         <f>OPEX!$B$3</f>
-        <v>2139.68314436323</v>
+        <v>21008.816291188887</v>
       </c>
       <c r="V3">
         <f t="shared" ref="V3:V22" si="8">O3-U3</f>
-        <v>-1218.0831443632301</v>
+        <v>-20087.216291188888</v>
       </c>
       <c r="W3">
         <f t="shared" ref="W3:W22" si="9">P3-U3</f>
-        <v>-1189.2831443632299</v>
+        <v>-20058.416291188885</v>
       </c>
       <c r="X3">
         <f t="shared" si="1"/>
-        <v>-850.88314436323003</v>
+        <v>-19720.016291188887</v>
       </c>
       <c r="Y3">
         <f t="shared" ref="Y3:Y22" si="10">R3-$U3</f>
-        <v>-1311.68314436323</v>
+        <v>-20180.816291188887</v>
       </c>
       <c r="Z3">
         <f t="shared" ref="Z3:Z22" si="11">S3-$U3</f>
-        <v>-1290.0831443632301</v>
+        <v>-20159.216291188888</v>
       </c>
       <c r="AA3">
         <f t="shared" ref="AA3:AA22" si="12">T3-$U3</f>
-        <v>-980.48314436322994</v>
+        <v>-19849.616291188886</v>
       </c>
       <c r="AB3">
         <f t="shared" ref="AB3:AB22" si="13">1/POWER(1+$L$25,N3-2018)</f>
@@ -17060,30 +16979,30 @@
       </c>
       <c r="AC3">
         <f t="shared" ref="AC3:AC22" si="14">V3*AB3</f>
-        <v>-1107.3483130574818</v>
+        <v>-18261.105719262625</v>
       </c>
       <c r="AD3">
         <f t="shared" ref="AD3:AD22" si="15">W3*AB3</f>
-        <v>-1081.1664948756636</v>
+        <v>-18234.923901080805</v>
       </c>
       <c r="AE3">
         <f t="shared" ref="AE3:AE22" si="16">X3*AB3</f>
-        <v>-773.53013123929998</v>
+        <v>-17927.287537444441</v>
       </c>
       <c r="AF3">
         <f t="shared" ref="AF3:AF22" si="17">Y3*$AB3</f>
-        <v>-1192.4392221483909</v>
+        <v>-18346.196628353533</v>
       </c>
       <c r="AG3">
         <f t="shared" ref="AG3:AG22" si="18">Z3*$AB3</f>
-        <v>-1172.8028585120273</v>
+        <v>-18326.560264717169</v>
       </c>
       <c r="AH3">
         <f t="shared" ref="AH3:AH22" si="19">AA3*$AB3</f>
-        <v>-891.34831305748173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+        <v>-18045.105719262621</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2020</v>
       </c>
@@ -17130,31 +17049,31 @@
       </c>
       <c r="U4">
         <f>OPEX!$B$3</f>
-        <v>2139.68314436323</v>
+        <v>21008.816291188887</v>
       </c>
       <c r="V4">
         <f t="shared" si="8"/>
-        <v>-901.28314436322989</v>
+        <v>-19770.416291188885</v>
       </c>
       <c r="W4">
         <f t="shared" si="9"/>
-        <v>-822.08314436322985</v>
+        <v>-19691.216291188888</v>
       </c>
       <c r="X4">
         <f t="shared" si="1"/>
-        <v>322.71685563677011</v>
+        <v>-18546.416291188885</v>
       </c>
       <c r="Y4">
         <f t="shared" si="10"/>
-        <v>-1030.88314436323</v>
+        <v>-19900.016291188887</v>
       </c>
       <c r="Z4">
         <f t="shared" si="11"/>
-        <v>-958.88314436323003</v>
+        <v>-19828.016291188887</v>
       </c>
       <c r="AA4">
         <f t="shared" si="12"/>
-        <v>70.716855636770106</v>
+        <v>-18798.416291188885</v>
       </c>
       <c r="AB4">
         <f t="shared" si="13"/>
@@ -17162,30 +17081,30 @@
       </c>
       <c r="AC4">
         <f t="shared" si="14"/>
-        <v>-744.86210277952875</v>
+        <v>-16339.187017511475</v>
       </c>
       <c r="AD4">
         <f t="shared" si="15"/>
-        <v>-679.40755732498326</v>
+        <v>-16273.73247205693</v>
       </c>
       <c r="AE4">
         <f t="shared" si="16"/>
-        <v>266.70814515435541</v>
+        <v>-15327.616769577589</v>
       </c>
       <c r="AF4">
         <f t="shared" si="17"/>
-        <v>-851.9695407960578</v>
+        <v>-16446.294455528005</v>
       </c>
       <c r="AG4">
         <f t="shared" si="18"/>
-        <v>-792.46540856465288</v>
+        <v>-16386.790323296598</v>
       </c>
       <c r="AH4">
         <f t="shared" si="19"/>
-        <v>58.443682344438095</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+        <v>-15535.881232387506</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2021</v>
       </c>
@@ -17239,31 +17158,31 @@
       </c>
       <c r="U5">
         <f>OPEX!$B$3</f>
-        <v>2139.68314436323</v>
+        <v>21008.816291188887</v>
       </c>
       <c r="V5">
         <f t="shared" si="8"/>
-        <v>-462.08314436322985</v>
+        <v>-19331.216291188888</v>
       </c>
       <c r="W5">
         <f t="shared" si="9"/>
-        <v>-289.28314436322989</v>
+        <v>-19158.416291188885</v>
       </c>
       <c r="X5">
         <f t="shared" si="1"/>
-        <v>2619.5168556367698</v>
+        <v>-16249.616291188886</v>
       </c>
       <c r="Y5">
         <f t="shared" si="10"/>
-        <v>-634.88314436323003</v>
+        <v>-19504.016291188887</v>
       </c>
       <c r="Z5">
         <f t="shared" si="11"/>
-        <v>-476.48314436322994</v>
+        <v>-19345.616291188886</v>
       </c>
       <c r="AA5">
         <f t="shared" si="12"/>
-        <v>2137.1168556367702</v>
+        <v>-16732.016291188887</v>
       </c>
       <c r="AB5">
         <f t="shared" si="13"/>
@@ -17271,30 +17190,30 @@
       </c>
       <c r="AC5">
         <f t="shared" si="14"/>
-        <v>-347.16990560723497</v>
+        <v>-14523.828918999912</v>
       </c>
       <c r="AD5">
         <f t="shared" si="15"/>
-        <v>-217.34270801144237</v>
+        <v>-14394.001721404116</v>
       </c>
       <c r="AE5">
         <f t="shared" si="16"/>
-        <v>1968.0817848510662</v>
+        <v>-12208.577228541608</v>
       </c>
       <c r="AF5">
         <f t="shared" si="17"/>
-        <v>-476.99710320302768</v>
+        <v>-14653.656116595705</v>
       </c>
       <c r="AG5">
         <f t="shared" si="18"/>
-        <v>-357.98883874021772</v>
+        <v>-14534.647852132894</v>
       </c>
       <c r="AH5">
         <f t="shared" si="19"/>
-        <v>1605.6475248961453</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+        <v>-12571.011488496531</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2022</v>
       </c>
@@ -17348,31 +17267,31 @@
       </c>
       <c r="U6">
         <f>OPEX!$B$3</f>
-        <v>2139.68314436323</v>
+        <v>21008.816291188887</v>
       </c>
       <c r="V6">
         <f t="shared" si="8"/>
-        <v>149.91685563676992</v>
+        <v>-18719.216291188888</v>
       </c>
       <c r="W6">
         <f t="shared" si="9"/>
-        <v>473.91685563676992</v>
+        <v>-18395.216291188888</v>
       </c>
       <c r="X6">
         <f t="shared" si="1"/>
-        <v>7105.1168556367711</v>
+        <v>-11764.016291188886</v>
       </c>
       <c r="Y6">
         <f t="shared" si="10"/>
-        <v>-80.483144363229712</v>
+        <v>-18949.616291188886</v>
       </c>
       <c r="Z6">
         <f t="shared" si="11"/>
-        <v>207.51685563677029</v>
+        <v>-18661.616291188886</v>
       </c>
       <c r="AA6">
         <f t="shared" si="12"/>
-        <v>6176.31685563677</v>
+        <v>-12692.816291188887</v>
       </c>
       <c r="AB6">
         <f t="shared" si="13"/>
@@ -17380,30 +17299,30 @@
       </c>
       <c r="AC6">
         <f t="shared" si="14"/>
-        <v>102.39522958593668</v>
+        <v>-12785.476600771042</v>
       </c>
       <c r="AD6">
         <f t="shared" si="15"/>
-        <v>323.69158912421955</v>
+        <v>-12564.18024123276</v>
       </c>
       <c r="AE6">
         <f t="shared" si="16"/>
-        <v>4852.8904143410764</v>
+        <v>-8034.9814160159021</v>
       </c>
       <c r="AF6">
         <f t="shared" si="17"/>
-        <v>-54.971070530175325</v>
+        <v>-12942.842900887154</v>
       </c>
       <c r="AG6">
         <f t="shared" si="18"/>
-        <v>141.736804614965</v>
+        <v>-12746.135025742013</v>
       </c>
       <c r="AH6">
         <f t="shared" si="19"/>
-        <v>4218.5075169979973</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+        <v>-8669.3643133589812</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2023</v>
       </c>
@@ -17457,31 +17376,31 @@
       </c>
       <c r="U7">
         <f>OPEX!$B$3</f>
-        <v>2139.68314436323</v>
+        <v>21008.816291188887</v>
       </c>
       <c r="V7">
         <f t="shared" si="8"/>
-        <v>992.31685563677001</v>
+        <v>-17876.816291188887</v>
       </c>
       <c r="W7">
         <f t="shared" si="9"/>
-        <v>1561.1168556367702</v>
+        <v>-17308.016291188887</v>
       </c>
       <c r="X7">
         <f t="shared" si="1"/>
-        <v>15665.916855636773</v>
+        <v>-3203.2162911888845</v>
       </c>
       <c r="Y7">
         <f t="shared" si="10"/>
-        <v>675.51685563677029</v>
+        <v>-18193.616291188886</v>
       </c>
       <c r="Z7">
         <f t="shared" si="11"/>
-        <v>1186.7168556367701</v>
+        <v>-17682.416291188885</v>
       </c>
       <c r="AA7">
         <f t="shared" si="12"/>
-        <v>13880.316855636771</v>
+        <v>-4988.8162911888867</v>
       </c>
       <c r="AB7">
         <f t="shared" si="13"/>
@@ -17489,30 +17408,30 @@
       </c>
       <c r="AC7">
         <f t="shared" si="14"/>
-        <v>616.1506948958837</v>
+        <v>-11100.096423610459</v>
       </c>
       <c r="AD7">
         <f t="shared" si="15"/>
-        <v>969.33074345193108</v>
+        <v>-10746.916375054412</v>
       </c>
       <c r="AE7">
         <f t="shared" si="16"/>
-        <v>9727.3018209367019</v>
+        <v>-1988.9452975696415</v>
       </c>
       <c r="AF7">
         <f t="shared" si="17"/>
-        <v>419.44281975074358</v>
+        <v>-11296.804298755598</v>
       </c>
       <c r="AG7">
         <f t="shared" si="18"/>
-        <v>736.85780009858343</v>
+        <v>-10979.389318407759</v>
       </c>
       <c r="AH7">
         <f t="shared" si="19"/>
-        <v>8618.5847064822738</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+        <v>-3097.6624120240699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2024</v>
       </c>
@@ -17566,31 +17485,31 @@
       </c>
       <c r="U8">
         <f>OPEX!$B$3</f>
-        <v>2139.68314436323</v>
+        <v>21008.816291188887</v>
       </c>
       <c r="V8">
         <f t="shared" si="8"/>
-        <v>2137.1168556367702</v>
+        <v>-16732.016291188887</v>
       </c>
       <c r="W8">
         <f t="shared" si="9"/>
-        <v>3094.7168556367706</v>
+        <v>-15774.416291188885</v>
       </c>
       <c r="X8">
         <f t="shared" si="1"/>
-        <v>31412.316855636771</v>
+        <v>12543.183708811113</v>
       </c>
       <c r="Y8">
         <f t="shared" si="10"/>
-        <v>1705.1168556367702</v>
+        <v>-17164.016291188887</v>
       </c>
       <c r="Z8">
         <f t="shared" si="11"/>
-        <v>2569.1168556367702</v>
+        <v>-16300.016291188887</v>
       </c>
       <c r="AA8">
         <f t="shared" si="12"/>
-        <v>28057.11685563677</v>
+        <v>9187.9837088111126</v>
       </c>
       <c r="AB8">
         <f t="shared" si="13"/>
@@ -17598,30 +17517,30 @@
       </c>
       <c r="AC8">
         <f t="shared" si="14"/>
-        <v>1206.3467504854584</v>
+        <v>-9444.7869936112165</v>
       </c>
       <c r="AD8">
         <f t="shared" si="15"/>
-        <v>1746.8869859049557</v>
+        <v>-8904.246758191719</v>
       </c>
       <c r="AE8">
         <f t="shared" si="16"/>
-        <v>17731.433947595797</v>
+        <v>7080.3002034991223</v>
       </c>
       <c r="AF8">
         <f t="shared" si="17"/>
-        <v>962.49401270222677</v>
+        <v>-9688.639731394449</v>
       </c>
       <c r="AG8">
         <f t="shared" si="18"/>
-        <v>1450.1994882686902</v>
+        <v>-9200.9342558279859</v>
       </c>
       <c r="AH8">
         <f t="shared" si="19"/>
-        <v>15837.511017479364</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+        <v>5186.3772733826881</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2025</v>
       </c>
@@ -17674,31 +17593,31 @@
       </c>
       <c r="U9">
         <f>OPEX!$B$3</f>
-        <v>2139.68314436323</v>
+        <v>21008.816291188887</v>
       </c>
       <c r="V9">
         <f t="shared" si="8"/>
-        <v>3713.9168556367704</v>
+        <v>-15155.216291188886</v>
       </c>
       <c r="W9">
         <f t="shared" si="9"/>
-        <v>5254.7168556367706</v>
+        <v>-13614.416291188885</v>
       </c>
       <c r="X9">
         <f t="shared" si="1"/>
-        <v>58145.916855636766</v>
+        <v>39276.783708811112</v>
       </c>
       <c r="Y9">
         <f t="shared" si="10"/>
-        <v>3123.5168556367698</v>
+        <v>-15745.616291188886</v>
       </c>
       <c r="Z9">
         <f t="shared" si="11"/>
-        <v>4513.1168556367702</v>
+        <v>-14356.016291188887</v>
       </c>
       <c r="AA9">
         <f t="shared" si="12"/>
-        <v>52112.316855636767</v>
+        <v>33243.183708811113</v>
       </c>
       <c r="AB9">
         <f t="shared" si="13"/>
@@ -17706,30 +17625,30 @@
       </c>
       <c r="AC9">
         <f t="shared" si="14"/>
-        <v>1905.8265849038673</v>
+        <v>-7777.0222733658347</v>
       </c>
       <c r="AD9">
         <f t="shared" si="15"/>
-        <v>2696.50061347374</v>
+        <v>-6986.3482447959623</v>
       </c>
       <c r="AE9">
         <f t="shared" si="16"/>
-        <v>29838.04927643768</v>
+        <v>20155.200418167977</v>
       </c>
       <c r="AF9">
         <f t="shared" si="17"/>
-        <v>1602.8580319004579</v>
+        <v>-8079.9908263692441</v>
       </c>
       <c r="AG9">
         <f t="shared" si="18"/>
-        <v>2315.942552993848</v>
+        <v>-7366.9063052758547</v>
       </c>
       <c r="AH9">
         <f t="shared" si="19"/>
-        <v>26741.858454280889</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+        <v>17059.009596011187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2026</v>
       </c>
@@ -17782,31 +17701,31 @@
       </c>
       <c r="U10">
         <f>OPEX!$B$3</f>
-        <v>2139.68314436323</v>
+        <v>21008.816291188887</v>
       </c>
       <c r="V10">
         <f t="shared" si="8"/>
-        <v>5845.1168556367702</v>
+        <v>-13024.016291188887</v>
       </c>
       <c r="W10">
         <f t="shared" si="9"/>
-        <v>8271.5168556367717</v>
+        <v>-10597.616291188886</v>
       </c>
       <c r="X10">
         <f t="shared" si="1"/>
-        <v>96932.316855636775</v>
+        <v>78063.183708811121</v>
       </c>
       <c r="Y10">
         <f t="shared" si="10"/>
-        <v>5045.9168556367704</v>
+        <v>-13823.216291188886</v>
       </c>
       <c r="Z10">
         <f t="shared" si="11"/>
-        <v>7227.5168556367707</v>
+        <v>-11641.616291188886</v>
       </c>
       <c r="AA10">
         <f t="shared" si="12"/>
-        <v>87025.116855636777</v>
+        <v>68155.983708811109</v>
       </c>
       <c r="AB10">
         <f t="shared" si="13"/>
@@ -17814,30 +17733,30 @@
       </c>
       <c r="AC10">
         <f t="shared" si="14"/>
-        <v>2726.7901513428628</v>
+        <v>-6075.7997198114126</v>
       </c>
       <c r="AD10">
         <f t="shared" si="15"/>
-        <v>3858.7236586837598</v>
+        <v>-4943.8662124705161</v>
       </c>
       <c r="AE10">
         <f t="shared" si="16"/>
-        <v>45219.641193982869</v>
+        <v>36417.051322828593</v>
       </c>
       <c r="AF10">
         <f t="shared" si="17"/>
-        <v>2353.9574530792438</v>
+        <v>-6448.6324180750307</v>
       </c>
       <c r="AG10">
         <f t="shared" si="18"/>
-        <v>3371.689953744798</v>
+        <v>-5430.899917409477</v>
       </c>
       <c r="AH10">
         <f t="shared" si="19"/>
-        <v>40597.859276769006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+        <v>31795.269405614723</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2027</v>
       </c>
@@ -17890,31 +17809,31 @@
       </c>
       <c r="U11">
         <f>OPEX!$B$3</f>
-        <v>2139.68314436323</v>
+        <v>21008.816291188887</v>
       </c>
       <c r="V11">
         <f t="shared" si="8"/>
-        <v>8725.1168556367702</v>
+        <v>-10144.016291188886</v>
       </c>
       <c r="W11">
         <f t="shared" si="9"/>
-        <v>12461.916855636769</v>
+        <v>-6407.2162911888863</v>
       </c>
       <c r="X11">
         <f t="shared" si="1"/>
-        <v>138382.71685563677</v>
+        <v>119513.58370881111</v>
       </c>
       <c r="Y11">
         <f t="shared" si="10"/>
-        <v>7637.9168556367704</v>
+        <v>-11231.216291188886</v>
       </c>
       <c r="Z11">
         <f t="shared" si="11"/>
-        <v>11000.316855636771</v>
+        <v>-7868.8162911888867</v>
       </c>
       <c r="AA11">
         <f t="shared" si="12"/>
-        <v>124328.31685563677</v>
+        <v>105459.18370881112</v>
       </c>
       <c r="AB11">
         <f t="shared" si="13"/>
@@ -17922,30 +17841,30 @@
       </c>
       <c r="AC11">
         <f t="shared" si="14"/>
-        <v>3700.3012784971766</v>
+        <v>-4302.0531498248911</v>
       </c>
       <c r="AD11">
         <f t="shared" si="15"/>
-        <v>5285.0692588314769</v>
+        <v>-2717.2851694905908</v>
       </c>
       <c r="AE11">
         <f t="shared" si="16"/>
-        <v>58687.780642389444</v>
+        <v>50685.426214067375</v>
       </c>
       <c r="AF11">
         <f t="shared" si="17"/>
-        <v>3239.2223478026112</v>
+        <v>-4763.1320805194573</v>
       </c>
       <c r="AG11">
         <f t="shared" si="18"/>
-        <v>4665.2081798182535</v>
+        <v>-3337.1462485038146</v>
       </c>
       <c r="AH11">
         <f t="shared" si="19"/>
-        <v>52727.343074735196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+        <v>44724.988646413127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2028</v>
       </c>
@@ -17999,31 +17918,31 @@
       </c>
       <c r="U12">
         <f>OPEX!$B$3</f>
-        <v>2139.68314436323</v>
+        <v>21008.816291188887</v>
       </c>
       <c r="V12">
         <f t="shared" si="8"/>
-        <v>12577.11685563677</v>
+        <v>-6292.0162911888856</v>
       </c>
       <c r="W12">
         <f t="shared" si="9"/>
-        <v>18178.716855636772</v>
+        <v>-690.41629118888522</v>
       </c>
       <c r="X12">
         <f t="shared" si="1"/>
-        <v>163265.91685563678</v>
+        <v>144396.78370881113</v>
       </c>
       <c r="Y12">
         <f t="shared" si="10"/>
-        <v>11101.11685563677</v>
+        <v>-7768.0162911888856</v>
       </c>
       <c r="Z12">
         <f t="shared" si="11"/>
-        <v>16141.11685563677</v>
+        <v>-2728.0162911888874</v>
       </c>
       <c r="AA12">
         <f t="shared" si="12"/>
-        <v>146720.31685563677</v>
+        <v>127851.18370881112</v>
       </c>
       <c r="AB12">
         <f t="shared" si="13"/>
@@ -18031,30 +17950,30 @@
       </c>
       <c r="AC12">
         <f t="shared" si="14"/>
-        <v>4849.0230040618062</v>
+        <v>-2425.8446580491636</v>
       </c>
       <c r="AD12">
         <f t="shared" si="15"/>
-        <v>7008.6822941302707</v>
+        <v>-266.18536798070005</v>
       </c>
       <c r="AE12">
         <f t="shared" si="16"/>
-        <v>62946.07863625059</v>
+        <v>55671.210974139627</v>
       </c>
       <c r="AF12">
         <f t="shared" si="17"/>
-        <v>4279.9611088638176</v>
+        <v>-2994.9065532471523</v>
       </c>
       <c r="AG12">
         <f t="shared" si="18"/>
-        <v>6223.0992875886559</v>
+        <v>-1051.7683745223142</v>
       </c>
       <c r="AH12">
         <f t="shared" si="19"/>
-        <v>56567.033586665333</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+        <v>49292.165924554363</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2029</v>
       </c>
@@ -18107,31 +18026,31 @@
       </c>
       <c r="U13">
         <f>OPEX!$B$3</f>
-        <v>2139.68314436323</v>
+        <v>21008.816291188887</v>
       </c>
       <c r="V13">
         <f t="shared" si="8"/>
-        <v>17667.516855636772</v>
+        <v>-1201.616291188886</v>
       </c>
       <c r="W13">
         <f t="shared" si="9"/>
-        <v>25846.716855636772</v>
+        <v>6977.5837088111148</v>
       </c>
       <c r="X13">
         <f t="shared" si="1"/>
-        <v>168593.91685563678</v>
+        <v>149724.78370881113</v>
       </c>
       <c r="Y13">
         <f t="shared" si="10"/>
-        <v>15680.316855636771</v>
+        <v>-3188.8162911888867</v>
       </c>
       <c r="Z13">
         <f t="shared" si="11"/>
-        <v>23045.916855636773</v>
+        <v>4176.7837088111155</v>
       </c>
       <c r="AA13">
         <f t="shared" si="12"/>
-        <v>151515.51685563679</v>
+        <v>132646.38370881113</v>
       </c>
       <c r="AB13">
         <f t="shared" si="13"/>
@@ -18139,30 +18058,30 @@
       </c>
       <c r="AC13">
         <f t="shared" si="14"/>
-        <v>6192.3568768853575</v>
+        <v>-421.15917957916071</v>
       </c>
       <c r="AD13">
         <f t="shared" si="15"/>
-        <v>9059.1165795235611</v>
+        <v>2445.6005230590426</v>
       </c>
       <c r="AE13">
         <f t="shared" si="16"/>
-        <v>59091.13934757375</v>
+        <v>52477.623291109237</v>
       </c>
       <c r="AF13">
         <f t="shared" si="17"/>
-        <v>5495.8553998359339</v>
+        <v>-1117.6606566285836</v>
       </c>
       <c r="AG13">
         <f t="shared" si="18"/>
-        <v>8077.4532658560775</v>
+        <v>1463.9372093915597</v>
       </c>
       <c r="AH13">
         <f t="shared" si="19"/>
-        <v>53105.264334670748</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+        <v>46491.748278206229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2030</v>
       </c>
@@ -18209,31 +18128,31 @@
       </c>
       <c r="U14">
         <f>OPEX!$B$3</f>
-        <v>2139.68314436323</v>
+        <v>21008.816291188887</v>
       </c>
       <c r="V14">
         <f t="shared" si="8"/>
-        <v>24298.716855636772</v>
+        <v>5429.5837088111148</v>
       </c>
       <c r="W14">
         <f t="shared" si="9"/>
-        <v>35883.516855636772</v>
+        <v>17014.383708811118</v>
       </c>
       <c r="X14">
         <f t="shared" si="1"/>
-        <v>168838.71685563677</v>
+        <v>149969.58370881111</v>
       </c>
       <c r="Y14">
         <f t="shared" si="10"/>
-        <v>21649.11685563677</v>
+        <v>2779.9837088111126</v>
       </c>
       <c r="Z14">
         <f t="shared" si="11"/>
-        <v>32074.716855636772</v>
+        <v>13205.583708811115</v>
       </c>
       <c r="AA14">
         <f t="shared" si="12"/>
-        <v>151738.71685563677</v>
+        <v>132869.58370881111</v>
       </c>
       <c r="AB14">
         <f t="shared" si="13"/>
@@ -18241,30 +18160,30 @@
       </c>
       <c r="AC14">
         <f t="shared" si="14"/>
-        <v>7742.3200210239684</v>
+        <v>1730.0326969653161</v>
       </c>
       <c r="AD14">
         <f t="shared" si="15"/>
-        <v>11433.594318034908</v>
+        <v>5421.3069939762554</v>
       </c>
       <c r="AE14">
         <f t="shared" si="16"/>
-        <v>53797.218412878909</v>
+        <v>47784.931088820253</v>
       </c>
       <c r="AF14">
         <f t="shared" si="17"/>
-        <v>6898.0758064186075</v>
+        <v>885.78848235995463</v>
       </c>
       <c r="AG14">
         <f t="shared" si="18"/>
-        <v>10219.993259539702</v>
+        <v>4207.705935481049</v>
       </c>
       <c r="AH14">
         <f t="shared" si="19"/>
-        <v>48348.631430031804</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+        <v>42336.344105973156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2031</v>
       </c>
@@ -18311,31 +18230,31 @@
       </c>
       <c r="U15">
         <f>OPEX!$B$3</f>
-        <v>2139.68314436323</v>
+        <v>21008.816291188887</v>
       </c>
       <c r="V15">
         <f t="shared" si="8"/>
-        <v>32773.11685563677</v>
+        <v>13903.983708811116</v>
       </c>
       <c r="W15">
         <f t="shared" si="9"/>
-        <v>48562.716855636769</v>
+        <v>29693.583708811115</v>
       </c>
       <c r="X15">
         <f t="shared" si="1"/>
-        <v>168881.91685563678</v>
+        <v>150012.78370881113</v>
       </c>
       <c r="Y15">
         <f t="shared" si="10"/>
-        <v>29281.11685563677</v>
+        <v>10411.983708811113</v>
       </c>
       <c r="Z15">
         <f t="shared" si="11"/>
-        <v>43486.716855636769</v>
+        <v>24617.583708811115</v>
       </c>
       <c r="AA15">
         <f t="shared" si="12"/>
-        <v>151774.71685563677</v>
+        <v>132905.58370881111</v>
       </c>
       <c r="AB15">
         <f t="shared" si="13"/>
@@ -18343,30 +18262,30 @@
       </c>
       <c r="AC15">
         <f t="shared" si="14"/>
-        <v>9493.2045660260137</v>
+        <v>4027.4888168817838</v>
       </c>
       <c r="AD15">
         <f t="shared" si="15"/>
-        <v>14066.889256316417</v>
+        <v>8601.1735071721887</v>
       </c>
       <c r="AE15">
         <f t="shared" si="16"/>
-        <v>48919.075694730906</v>
+        <v>43453.359945586679</v>
       </c>
       <c r="AF15">
         <f t="shared" si="17"/>
-        <v>8481.6965519854984</v>
+        <v>3015.980802841269</v>
       </c>
       <c r="AG15">
         <f t="shared" si="18"/>
-        <v>12596.552864772992</v>
+        <v>7130.8371156287621</v>
       </c>
       <c r="AH15">
         <f t="shared" si="19"/>
-        <v>43963.729217699438</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+        <v>38498.013468555211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2032</v>
       </c>
@@ -18413,31 +18332,31 @@
       </c>
       <c r="U16">
         <f>OPEX!$B$3</f>
-        <v>2139.68314436323</v>
+        <v>21008.816291188887</v>
       </c>
       <c r="V16">
         <f t="shared" si="8"/>
-        <v>43299.516855636772</v>
+        <v>24430.383708811118</v>
       </c>
       <c r="W16">
         <f t="shared" si="9"/>
-        <v>63855.516855636764</v>
+        <v>44986.38370881111</v>
       </c>
       <c r="X16">
         <f t="shared" si="1"/>
-        <v>168903.51685563679</v>
+        <v>150034.38370881113</v>
       </c>
       <c r="Y16">
         <f t="shared" si="10"/>
-        <v>38749.11685563677</v>
+        <v>19879.983708811116</v>
       </c>
       <c r="Z16">
         <f t="shared" si="11"/>
-        <v>57253.11685563677</v>
+        <v>38383.983708811116</v>
       </c>
       <c r="AA16">
         <f t="shared" si="12"/>
-        <v>151796.31685563677</v>
+        <v>132927.18370881112</v>
       </c>
       <c r="AB16">
         <f t="shared" si="13"/>
@@ -18445,30 +18364,30 @@
       </c>
       <c r="AC16">
         <f t="shared" si="14"/>
-        <v>11402.116084442072</v>
+        <v>6433.2835852200478</v>
       </c>
       <c r="AD16">
         <f t="shared" si="15"/>
-        <v>16815.153347957847</v>
+        <v>11846.320848735821</v>
       </c>
       <c r="AE16">
         <f t="shared" si="16"/>
-        <v>44477.574950302915</v>
+        <v>39508.742451080892</v>
       </c>
       <c r="AF16">
         <f t="shared" si="17"/>
-        <v>10203.853544847687</v>
+        <v>5235.0210456256618</v>
       </c>
       <c r="AG16">
         <f t="shared" si="18"/>
-        <v>15076.535074527386</v>
+        <v>10107.702575305362</v>
       </c>
       <c r="AH16">
         <f t="shared" si="19"/>
-        <v>39972.714516637941</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+        <v>35003.882017415919</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2033</v>
       </c>
@@ -18515,31 +18434,31 @@
       </c>
       <c r="U17">
         <f>OPEX!$B$3</f>
-        <v>2139.68314436323</v>
+        <v>21008.816291188887</v>
       </c>
       <c r="V17">
         <f t="shared" si="8"/>
-        <v>55949.916855636766</v>
+        <v>37080.783708811112</v>
       </c>
       <c r="W17">
         <f t="shared" si="9"/>
-        <v>81236.316855636775</v>
+        <v>62367.183708811113</v>
       </c>
       <c r="X17">
         <f t="shared" si="1"/>
-        <v>168917.91685563678</v>
+        <v>150048.78370881113</v>
       </c>
       <c r="Y17">
         <f t="shared" si="10"/>
-        <v>50139.516855636772</v>
+        <v>31270.383708811118</v>
       </c>
       <c r="Z17">
         <f t="shared" si="11"/>
-        <v>72898.716855636783</v>
+        <v>54029.583708811122</v>
       </c>
       <c r="AA17">
         <f t="shared" si="12"/>
-        <v>151810.71685563677</v>
+        <v>132941.58370881111</v>
       </c>
       <c r="AB17">
         <f t="shared" si="13"/>
@@ -18547,30 +18466,30 @@
       </c>
       <c r="AC17">
         <f t="shared" si="14"/>
-        <v>13393.965258105183</v>
+        <v>8876.8448042669788</v>
       </c>
       <c r="AD17">
         <f t="shared" si="15"/>
-        <v>19447.328375273599</v>
+        <v>14930.207921435393</v>
       </c>
       <c r="AE17">
         <f t="shared" si="16"/>
-        <v>40437.606291240838</v>
+        <v>35920.48583740263</v>
       </c>
       <c r="AF17">
         <f t="shared" si="17"/>
-        <v>12003.001694450599</v>
+        <v>7485.8812406123934</v>
       </c>
       <c r="AG17">
         <f t="shared" si="18"/>
-        <v>17451.373224453266</v>
+        <v>12934.252770615058</v>
       </c>
       <c r="AH17">
         <f t="shared" si="19"/>
-        <v>36342.27862427268</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+        <v>31825.158170434479</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2034</v>
       </c>
@@ -18617,31 +18536,31 @@
       </c>
       <c r="U18">
         <f>OPEX!$B$3</f>
-        <v>2139.68314436323</v>
+        <v>21008.816291188887</v>
       </c>
       <c r="V18">
         <f t="shared" si="8"/>
-        <v>70486.716855636783</v>
+        <v>51617.583708811122</v>
       </c>
       <c r="W18">
         <f t="shared" si="9"/>
-        <v>99567.516855636772</v>
+        <v>80698.383708811103</v>
       </c>
       <c r="X18">
         <f t="shared" si="1"/>
-        <v>168925.11685563679</v>
+        <v>150055.98370881114</v>
       </c>
       <c r="Y18">
         <f t="shared" si="10"/>
-        <v>63221.916855636766</v>
+        <v>44352.783708811112</v>
       </c>
       <c r="Z18">
         <f t="shared" si="11"/>
-        <v>89393.91685563678</v>
+        <v>70524.783708811126</v>
       </c>
       <c r="AA18">
         <f t="shared" si="12"/>
-        <v>151817.91685563678</v>
+        <v>132948.78370881113</v>
       </c>
       <c r="AB18">
         <f t="shared" si="13"/>
@@ -18649,30 +18568,30 @@
       </c>
       <c r="AC18">
         <f t="shared" si="14"/>
-        <v>15339.96327397713</v>
+        <v>11233.490134124215</v>
       </c>
       <c r="AD18">
         <f t="shared" si="15"/>
-        <v>21668.792646063277</v>
+        <v>17562.319506210362</v>
       </c>
       <c r="AE18">
         <f t="shared" si="16"/>
-        <v>36763.02719454209</v>
+        <v>32656.554054689175</v>
       </c>
       <c r="AF18">
         <f t="shared" si="17"/>
-        <v>13758.931128288854</v>
+        <v>9652.4579884359409</v>
       </c>
       <c r="AG18">
         <f t="shared" si="18"/>
-        <v>19454.720870188623</v>
+        <v>15348.247730335712</v>
       </c>
       <c r="AH18">
         <f t="shared" si="19"/>
-        <v>33040.002042752858</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+        <v>28933.528902899943</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2035</v>
       </c>
@@ -18719,31 +18638,31 @@
       </c>
       <c r="U19">
         <f>OPEX!$B$3</f>
-        <v>2139.68314436323</v>
+        <v>21008.816291188887</v>
       </c>
       <c r="V19">
         <f t="shared" si="8"/>
-        <v>86326.716855636783</v>
+        <v>67457.583708811115</v>
       </c>
       <c r="W19">
         <f t="shared" si="9"/>
-        <v>117250.71685563678</v>
+        <v>98381.583708811115</v>
       </c>
       <c r="X19">
         <f t="shared" si="1"/>
-        <v>168925.11685563679</v>
+        <v>150055.98370881114</v>
       </c>
       <c r="Y19">
         <f t="shared" si="10"/>
-        <v>77477.91685563678</v>
+        <v>58608.783708811119</v>
       </c>
       <c r="Z19">
         <f t="shared" si="11"/>
-        <v>105305.91685563678</v>
+        <v>86436.783708811126</v>
       </c>
       <c r="AA19">
         <f t="shared" si="12"/>
-        <v>151817.91685563678</v>
+        <v>132948.78370881113</v>
       </c>
       <c r="AB19">
         <f t="shared" si="13"/>
@@ -18751,30 +18670,30 @@
       </c>
       <c r="AC19">
         <f t="shared" si="14"/>
-        <v>17079.280713539163</v>
+        <v>13346.123313672877</v>
       </c>
       <c r="AD19">
         <f t="shared" si="15"/>
-        <v>23197.429254606941</v>
+        <v>19464.271854740651</v>
       </c>
       <c r="AE19">
         <f t="shared" si="16"/>
-        <v>33420.933813220079</v>
+        <v>29687.776413353793</v>
       </c>
       <c r="AF19">
         <f t="shared" si="17"/>
-        <v>15328.592807375649</v>
+        <v>11595.435407509363</v>
       </c>
       <c r="AG19">
         <f t="shared" si="18"/>
-        <v>20834.214253528608</v>
+        <v>17101.056853662321</v>
       </c>
       <c r="AH19">
         <f t="shared" si="19"/>
-        <v>30036.365493411686</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+        <v>26303.208093545403</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2036</v>
       </c>
@@ -18821,31 +18740,31 @@
       </c>
       <c r="U20">
         <f>OPEX!$B$3</f>
-        <v>2139.68314436323</v>
+        <v>21008.816291188887</v>
       </c>
       <c r="V20">
         <f t="shared" si="8"/>
-        <v>102512.31685563677</v>
+        <v>83643.183708811121</v>
       </c>
       <c r="W20">
         <f t="shared" si="9"/>
-        <v>132716.31685563677</v>
+        <v>113847.18370881112</v>
       </c>
       <c r="X20">
         <f t="shared" si="1"/>
-        <v>168932.31685563677</v>
+        <v>150063.18370881112</v>
       </c>
       <c r="Y20">
         <f t="shared" si="10"/>
-        <v>92043.516855636772</v>
+        <v>73174.383708811103</v>
       </c>
       <c r="Z20">
         <f t="shared" si="11"/>
-        <v>119230.71685563678</v>
+        <v>100361.58370881111</v>
       </c>
       <c r="AA20">
         <f t="shared" si="12"/>
-        <v>151825.11685563679</v>
+        <v>132955.98370881114</v>
       </c>
       <c r="AB20">
         <f t="shared" si="13"/>
@@ -18853,30 +18772,30 @@
       </c>
       <c r="AC20">
         <f t="shared" si="14"/>
-        <v>18437.741260444716</v>
+        <v>15043.961806020819</v>
       </c>
       <c r="AD20">
         <f t="shared" si="15"/>
-        <v>23870.196150862605</v>
+        <v>20476.416696438708</v>
       </c>
       <c r="AE20">
         <f t="shared" si="16"/>
-        <v>30383.962086214684</v>
+        <v>26990.182631790791</v>
       </c>
       <c r="AF20">
         <f t="shared" si="17"/>
-        <v>16554.83556064314</v>
+        <v>13161.056106219241</v>
       </c>
       <c r="AG20">
         <f t="shared" si="18"/>
-        <v>21444.692453662912</v>
+        <v>18050.912999239015</v>
       </c>
       <c r="AH20">
         <f t="shared" si="19"/>
-        <v>27307.081795479789</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+        <v>23913.302341055893</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2037</v>
       </c>
@@ -18923,31 +18842,31 @@
       </c>
       <c r="U21">
         <f>OPEX!$B$3</f>
-        <v>2139.68314436323</v>
+        <v>21008.816291188887</v>
       </c>
       <c r="V21">
         <f t="shared" si="8"/>
-        <v>117913.11685563678</v>
+        <v>99043.983708811109</v>
       </c>
       <c r="W21">
         <f t="shared" si="9"/>
-        <v>144963.51685563679</v>
+        <v>126094.38370881113</v>
       </c>
       <c r="X21">
         <f t="shared" si="1"/>
-        <v>168932.31685563677</v>
+        <v>150063.18370881112</v>
       </c>
       <c r="Y21">
         <f t="shared" si="10"/>
-        <v>105903.51685563677</v>
+        <v>87034.383708811103</v>
       </c>
       <c r="Z21">
         <f t="shared" si="11"/>
-        <v>130246.71685563677</v>
+        <v>111377.58370881111</v>
       </c>
       <c r="AA21">
         <f t="shared" si="12"/>
-        <v>151825.11685563679</v>
+        <v>132955.98370881114</v>
       </c>
       <c r="AB21">
         <f t="shared" si="13"/>
@@ -18955,30 +18874,30 @@
       </c>
       <c r="AC21">
         <f t="shared" si="14"/>
-        <v>19279.736829162299</v>
+        <v>16194.482779686028</v>
       </c>
       <c r="AD21">
         <f t="shared" si="15"/>
-        <v>23702.693384217018</v>
+        <v>20617.439334740753</v>
       </c>
       <c r="AE21">
         <f t="shared" si="16"/>
-        <v>27621.783714740617</v>
+        <v>24536.529665264348</v>
       </c>
       <c r="AF21">
         <f t="shared" si="17"/>
-        <v>17316.071262531666</v>
+        <v>14230.817213055399</v>
       </c>
       <c r="AG21">
         <f t="shared" si="18"/>
-        <v>21296.378984820731</v>
+        <v>18211.124935344462</v>
       </c>
       <c r="AH21">
         <f t="shared" si="19"/>
-        <v>24824.619814072528</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+        <v>21739.365764596263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2038</v>
       </c>
@@ -19025,31 +18944,31 @@
       </c>
       <c r="U22">
         <f>OPEX!$B$3</f>
-        <v>2139.68314436323</v>
+        <v>21008.816291188887</v>
       </c>
       <c r="V22">
         <f t="shared" si="8"/>
-        <v>131485.11685563679</v>
+        <v>112615.98370881114</v>
       </c>
       <c r="W22">
         <f t="shared" si="9"/>
-        <v>153797.91685563678</v>
+        <v>134928.78370881113</v>
       </c>
       <c r="X22">
         <f t="shared" si="1"/>
-        <v>168932.31685563677</v>
+        <v>150063.18370881112</v>
       </c>
       <c r="Y22">
         <f t="shared" si="10"/>
-        <v>118121.91685563678</v>
+        <v>99252.783708811126</v>
       </c>
       <c r="Z22">
         <f t="shared" si="11"/>
-        <v>138202.71685563677</v>
+        <v>119333.58370881111</v>
       </c>
       <c r="AA22">
         <f t="shared" si="12"/>
-        <v>151825.11685563679</v>
+        <v>132955.98370881114</v>
       </c>
       <c r="AB22">
         <f t="shared" si="13"/>
@@ -19057,30 +18976,30 @@
       </c>
       <c r="AC22">
         <f t="shared" si="14"/>
-        <v>19544.424800600314</v>
+        <v>16739.648391985527</v>
       </c>
       <c r="AD22">
         <f t="shared" si="15"/>
-        <v>22861.080343977421</v>
+        <v>20056.303935362634</v>
       </c>
       <c r="AE22">
         <f t="shared" si="16"/>
-        <v>25110.712467946018</v>
+        <v>22305.93605933123</v>
       </c>
       <c r="AF22">
         <f t="shared" si="17"/>
-        <v>17558.070270588079</v>
+        <v>14753.29386197329</v>
       </c>
       <c r="AG22">
         <f t="shared" si="18"/>
-        <v>20542.953236215297</v>
+        <v>17738.17682760051</v>
       </c>
       <c r="AH22">
         <f t="shared" si="19"/>
-        <v>22567.836194611395</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+        <v>19763.059785996604</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="I25" t="s">
         <v>29</v>
       </c>
@@ -19094,7 +19013,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -19117,7 +19036,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2018</v>
       </c>
@@ -19146,7 +19065,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>2019</v>
       </c>
@@ -19175,7 +19094,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2020</v>
       </c>
@@ -19204,7 +19123,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>2021</v>
       </c>
@@ -19233,7 +19152,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2022</v>
       </c>
@@ -19262,7 +19181,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2023</v>
       </c>
@@ -19291,7 +19210,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2024</v>
       </c>
@@ -19320,7 +19239,7 @@
         <v>4194</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2025</v>
       </c>
@@ -19349,7 +19268,7 @@
         <v>7535</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2026</v>
       </c>
@@ -19378,7 +19297,7 @@
         <v>12384</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2027</v>
       </c>
@@ -19407,7 +19326,7 @@
         <v>17565</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2028</v>
       </c>
@@ -19436,7 +19355,7 @@
         <v>20675</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2029</v>
       </c>
@@ -19465,7 +19384,7 @@
         <v>21341</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2030</v>
       </c>
@@ -19494,7 +19413,7 @@
         <v>21372</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2031</v>
       </c>
@@ -19523,7 +19442,7 @@
         <v>21377</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2032</v>
       </c>
@@ -19552,7 +19471,7 @@
         <v>21380</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2033</v>
       </c>
@@ -19581,7 +19500,7 @@
         <v>21382</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2034</v>
       </c>
@@ -19610,7 +19529,7 @@
         <v>21383</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2035</v>
       </c>
@@ -19639,7 +19558,7 @@
         <v>21383</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2036</v>
       </c>
@@ -19668,7 +19587,7 @@
         <v>21384</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2037</v>
       </c>
@@ -19697,7 +19616,7 @@
         <v>21384</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2038</v>
       </c>
@@ -19743,9 +19662,9 @@
       <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="19" max="19" width="14.88671875" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
@@ -21195,7 +21114,7 @@
       <selection activeCell="B17" sqref="B17:L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -22644,7 +22563,7 @@
       <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -24093,7 +24012,7 @@
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -25542,7 +25461,7 @@
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -26991,7 +26910,7 @@
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">

--- a/tumlknexpectimax/excel_data/input_data_residential.xlsx
+++ b/tumlknexpectimax/excel_data/input_data_residential.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmadzay\LRZ Sync+Share\PycharmProjects\mt_branch_new_code\tumlknexpectimax\tumlknexpectimax\excel_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="885" windowWidth="15105" windowHeight="8565" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="888" windowWidth="15108" windowHeight="8568"/>
   </bookViews>
   <sheets>
     <sheet name="CAPEX" sheetId="1" r:id="rId1"/>
@@ -26,7 +31,7 @@
     <sheet name="FTTB_Hybridpon_100" sheetId="19" r:id="rId17"/>
     <sheet name="MIG_MATRIX" sheetId="11" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -36,7 +41,7 @@
     <author>Patri, Sai Kireet</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0">
+    <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0">
+    <comment ref="G4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0">
+    <comment ref="G5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0">
+    <comment ref="G6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -136,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0">
+    <comment ref="G7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -161,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0">
+    <comment ref="B8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -436,7 +441,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000000%"/>
   </numFmts>
@@ -638,14 +643,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -672,7 +680,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -751,48 +758,48 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>146337.9</c:v>
+                  <c:v>108181.99766751831</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>146337.9</c:v>
+                  <c:v>108181.99766751831</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78872.09</c:v>
+                  <c:v>66893.848581055019</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>78872.09</c:v>
+                  <c:v>66893.848581055019</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>146337.9</c:v>
+                  <c:v>108181.99766751831</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>146337.9</c:v>
+                  <c:v>108181.99766751831</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>146337.9</c:v>
+                  <c:v>108181.99766751831</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>78872.09</c:v>
+                  <c:v>66893.848581055019</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>114876.4</c:v>
+                  <c:v>88649.250981062796</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>115530.5</c:v>
+                  <c:v>89276.478946812786</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>115530.5</c:v>
+                  <c:v>89276.478946812786</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>114876.4</c:v>
+                  <c:v>88649.250981062796</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>115530.5</c:v>
+                  <c:v>89276.478946812786</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-37DD-494B-898C-2092A609AD86}"/>
             </c:ext>
@@ -867,48 +874,48 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>18.840229999999998</c:v>
+                  <c:v>37680.456378238385</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.814590000000001</c:v>
+                  <c:v>25629.179773352305</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.612120000000001</c:v>
+                  <c:v>29224.246344356696</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.612120000000001</c:v>
+                  <c:v>29224.246344356696</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.814590000000001</c:v>
+                  <c:v>25629.179773352305</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.840229999999998</c:v>
+                  <c:v>37680.456378238385</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.814590000000001</c:v>
+                  <c:v>25629.179773352305</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.612120000000001</c:v>
+                  <c:v>29224.246344356696</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.59423</c:v>
+                  <c:v>25188.456740568523</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.21167</c:v>
+                  <c:v>24423.340606407441</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25.08727</c:v>
+                  <c:v>50174.540606407441</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.59423</c:v>
+                  <c:v>25188.456740568523</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.21167</c:v>
+                  <c:v>24423.340606407441</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-37DD-494B-898C-2092A609AD86}"/>
             </c:ext>
@@ -983,48 +990,48 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>3056.8888888888887</c:v>
+                  <c:v>7048</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6405.333333333333</c:v>
+                  <c:v>11184</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5299.166666666667</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5866.833333333333</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12618.666666666666</c:v>
+                  <c:v>19368</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6426.666666666667</c:v>
+                  <c:v>7404</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12818.666666666666</c:v>
+                  <c:v>19368</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5866.833333333333</c:v>
+                  <c:v>29000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4000</c:v>
+                  <c:v>8632</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7280</c:v>
+                  <c:v>19032</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14160</c:v>
+                  <c:v>35064</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14800</c:v>
+                  <c:v>25528</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14160</c:v>
+                  <c:v>35064</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-37DD-494B-898C-2092A609AD86}"/>
             </c:ext>
@@ -1099,48 +1106,48 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>192395.6</c:v>
+                  <c:v>382544</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62262.5</c:v>
+                  <c:v>78284</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59401.22</c:v>
+                  <c:v>75260</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>72078.600000000006</c:v>
+                  <c:v>229768</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>68200.2</c:v>
+                  <c:v>196568</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>195086.4</c:v>
+                  <c:v>399960</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>61989.9</c:v>
+                  <c:v>76562</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61547.1</c:v>
+                  <c:v>75260</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>96145</c:v>
+                  <c:v>381282</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>55966.5</c:v>
+                  <c:v>78082</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>106486.5</c:v>
+                  <c:v>213082</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>105356</c:v>
+                  <c:v>219632</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>56966.5</c:v>
+                  <c:v>78082</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-37DD-494B-898C-2092A609AD86}"/>
             </c:ext>
@@ -1182,7 +1189,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1220,7 +1226,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1234,7 +1239,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1250,9 +1254,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1264,7 +1268,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1313,21 +1316,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>146337.9</c:v>
+                  <c:v>108181.99766751831</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.840229999999998</c:v>
+                  <c:v>37680.456378238385</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3056.8888888888887</c:v>
+                  <c:v>7048</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>192395.6</c:v>
+                  <c:v>382544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CEE8-43A2-851D-BC93CBA0BE7C}"/>
             </c:ext>
@@ -1347,7 +1350,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1356,7 +1358,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1373,9 +1375,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1402,7 +1404,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1484,51 +1485,51 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>11239.427296319658</c:v>
+                  <c:v>22235.860614840989</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21008.816291188887</c:v>
+                  <c:v>40417.824540457572</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8330.290479233332</c:v>
+                  <c:v>10284.911774408707</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7258.905687866667</c:v>
+                  <c:v>10087.180949254118</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8583.4103545333346</c:v>
+                  <c:v>25537.980949254121</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9545.3938125666664</c:v>
+                  <c:v>22931.711774408708</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21614.874068966667</c:v>
+                  <c:v>42195.024540457569</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8944.3638125666657</c:v>
+                  <c:v>10931.111774408706</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7530.2603545333332</c:v>
+                  <c:v>11387.180949254118</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11163.3899423</c:v>
+                  <c:v>40129.777077216313</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7480.0771167000003</c:v>
+                  <c:v>10848.398195532201</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13220.205872700002</c:v>
+                  <c:v>26209.110195532205</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13164.489942300001</c:v>
+                  <c:v>25654.377077216312</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8268.0771167000003</c:v>
+                  <c:v>12451.598195532202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B8F6-416E-AD21-7DE814CEBF97}"/>
             </c:ext>
@@ -1588,7 +1589,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1613,9 +1613,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1627,7 +1627,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1745,7 +1744,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DDCA-4663-830D-82651783C711}"/>
             </c:ext>
@@ -1786,7 +1785,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1824,7 +1822,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1849,9 +1846,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2028,7 +2025,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B323-4672-88DD-A4269C32C76F}"/>
             </c:ext>
@@ -2193,7 +2190,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B323-4672-88DD-A4269C32C76F}"/>
             </c:ext>
@@ -2358,7 +2355,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-B323-4672-88DD-A4269C32C76F}"/>
             </c:ext>
@@ -2447,7 +2444,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2483,7 +2480,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2524,7 +2521,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2560,7 +2557,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2601,7 +2598,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2665,7 +2662,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2698,9 +2695,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2733,6 +2747,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2911,31 +2942,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y65"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="8" max="9" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="8" max="9" width="19.109375" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="22.140625" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" customWidth="1"/>
-    <col min="16" max="17" width="11.7109375" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="22.109375" customWidth="1"/>
+    <col min="15" max="15" width="13.5546875" customWidth="1"/>
+    <col min="16" max="17" width="11.6640625" customWidth="1"/>
+    <col min="23" max="23" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3006,7 +3037,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
@@ -3043,7 +3074,7 @@
       </c>
       <c r="W2" s="10"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>65</v>
       </c>
@@ -3099,27 +3130,27 @@
         <v>685372.28279667499</v>
       </c>
       <c r="R3" s="12">
-        <v>146337.9</v>
+        <v>108181.99766751831</v>
       </c>
       <c r="S3" s="12">
-        <v>18.840229999999998</v>
+        <v>37680.456378238385</v>
       </c>
       <c r="T3" s="12">
-        <v>3056.8888888888887</v>
+        <v>7048</v>
       </c>
       <c r="U3" s="12">
-        <v>192395.6</v>
+        <v>382544</v>
       </c>
       <c r="V3" s="9">
         <f>SUM(T3,U3)</f>
-        <v>195452.48888888888</v>
+        <v>389592</v>
       </c>
       <c r="W3" s="10">
         <f>R3+S3+T3+U3</f>
-        <v>341809.22911888885</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+        <v>535454.45404575672</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>66</v>
       </c>
@@ -3175,27 +3206,27 @@
         <v>384090.36767452297</v>
       </c>
       <c r="R4" s="12">
-        <v>146337.9</v>
+        <v>108181.99766751831</v>
       </c>
       <c r="S4" s="12">
-        <v>12.814590000000001</v>
+        <v>25629.179773352305</v>
       </c>
       <c r="T4" s="12">
-        <v>6405.333333333333</v>
+        <v>11184</v>
       </c>
       <c r="U4" s="12">
-        <v>62262.5</v>
+        <v>78284</v>
       </c>
       <c r="V4" s="9">
         <f t="shared" ref="V4:V15" si="0">SUM(T4,U4)</f>
-        <v>68667.833333333328</v>
+        <v>89468</v>
       </c>
       <c r="W4" s="10">
         <f t="shared" ref="W4:W15" si="1">R4+S4+T4+U4</f>
-        <v>215018.54792333333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+        <v>223279.17744087061</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>67</v>
       </c>
@@ -3247,27 +3278,27 @@
         <v>658286.15266324603</v>
       </c>
       <c r="R5" s="12">
-        <v>78872.09</v>
+        <v>66893.848581055019</v>
       </c>
       <c r="S5" s="12">
-        <v>14.612120000000001</v>
+        <v>29224.246344356696</v>
       </c>
       <c r="T5" s="12">
-        <v>5299.166666666667</v>
+        <v>16000</v>
       </c>
       <c r="U5" s="12">
-        <v>59401.22</v>
+        <v>75260</v>
       </c>
       <c r="V5" s="9">
         <f t="shared" si="0"/>
-        <v>64700.386666666665</v>
+        <v>91260</v>
       </c>
       <c r="W5" s="10">
         <f t="shared" si="1"/>
-        <v>143587.08878666669</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+        <v>187378.09492541171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>68</v>
       </c>
@@ -3323,27 +3354,27 @@
         <v>658286.15266324603</v>
       </c>
       <c r="R6" s="12">
-        <v>78872.09</v>
+        <v>66893.848581055019</v>
       </c>
       <c r="S6" s="12">
-        <v>14.612120000000001</v>
+        <v>29224.246344356696</v>
       </c>
       <c r="T6" s="12">
-        <v>5866.833333333333</v>
+        <v>16000</v>
       </c>
       <c r="U6" s="12">
-        <v>72078.600000000006</v>
+        <v>229768</v>
       </c>
       <c r="V6" s="9">
         <f t="shared" si="0"/>
-        <v>77945.433333333334</v>
+        <v>245768</v>
       </c>
       <c r="W6" s="10">
         <f t="shared" si="1"/>
-        <v>156832.13545333332</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+        <v>341886.09492541174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>69</v>
       </c>
@@ -3399,27 +3430,27 @@
         <v>384090.36767452297</v>
       </c>
       <c r="R7" s="12">
-        <v>146337.9</v>
+        <v>108181.99766751831</v>
       </c>
       <c r="S7" s="12">
-        <v>12.814590000000001</v>
+        <v>25629.179773352305</v>
       </c>
       <c r="T7" s="12">
-        <v>12618.666666666666</v>
+        <v>19368</v>
       </c>
       <c r="U7" s="12">
-        <v>68200.2</v>
+        <v>196568</v>
       </c>
       <c r="V7" s="9">
         <f t="shared" si="0"/>
-        <v>80818.866666666669</v>
+        <v>215936</v>
       </c>
       <c r="W7" s="10">
         <f t="shared" si="1"/>
-        <v>227169.58125666663</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+        <v>349747.17744087061</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>70</v>
       </c>
@@ -3473,27 +3504,27 @@
         <v>685372.28279667499</v>
       </c>
       <c r="R8" s="12">
-        <v>146337.9</v>
+        <v>108181.99766751831</v>
       </c>
       <c r="S8" s="12">
-        <v>18.840229999999998</v>
+        <v>37680.456378238385</v>
       </c>
       <c r="T8" s="12">
-        <v>6426.666666666667</v>
+        <v>7404</v>
       </c>
       <c r="U8" s="12">
-        <v>195086.4</v>
+        <v>399960</v>
       </c>
       <c r="V8" s="9">
         <f t="shared" si="0"/>
-        <v>201513.06666666665</v>
+        <v>407364</v>
       </c>
       <c r="W8" s="10">
         <f t="shared" si="1"/>
-        <v>347869.80689666665</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+        <v>553226.45404575672</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>71</v>
       </c>
@@ -3547,27 +3578,27 @@
         <v>384090.36767452297</v>
       </c>
       <c r="R9" s="12">
-        <v>146337.9</v>
+        <v>108181.99766751831</v>
       </c>
       <c r="S9" s="12">
-        <v>12.814590000000001</v>
+        <v>25629.179773352305</v>
       </c>
       <c r="T9" s="12">
-        <v>12818.666666666666</v>
+        <v>19368</v>
       </c>
       <c r="U9" s="12">
-        <v>61989.9</v>
+        <v>76562</v>
       </c>
       <c r="V9" s="9">
         <f t="shared" si="0"/>
-        <v>74808.566666666666</v>
+        <v>95930</v>
       </c>
       <c r="W9" s="10">
         <f t="shared" si="1"/>
-        <v>221159.28125666664</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+        <v>229741.17744087061</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>72</v>
       </c>
@@ -3620,27 +3651,27 @@
         <v>658286.15266324603</v>
       </c>
       <c r="R10" s="12">
-        <v>78872.09</v>
+        <v>66893.848581055019</v>
       </c>
       <c r="S10" s="12">
-        <v>14.612120000000001</v>
+        <v>29224.246344356696</v>
       </c>
       <c r="T10" s="12">
-        <v>5866.833333333333</v>
+        <v>29000</v>
       </c>
       <c r="U10" s="12">
-        <v>61547.1</v>
+        <v>75260</v>
       </c>
       <c r="V10" s="9">
         <f t="shared" si="0"/>
-        <v>67413.933333333334</v>
+        <v>104260</v>
       </c>
       <c r="W10" s="10">
         <f t="shared" si="1"/>
-        <v>146300.63545333332</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+        <v>200378.09492541171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>73</v>
       </c>
@@ -3694,27 +3725,27 @@
         <v>387592.626526276</v>
       </c>
       <c r="R11" s="12">
-        <v>114876.4</v>
+        <v>88649.250981062796</v>
       </c>
       <c r="S11" s="12">
-        <v>12.59423</v>
+        <v>25188.456740568523</v>
       </c>
       <c r="T11" s="12">
-        <v>4000</v>
+        <v>8632</v>
       </c>
       <c r="U11" s="12">
-        <v>96145</v>
+        <v>381282</v>
       </c>
       <c r="V11" s="9">
         <f t="shared" si="0"/>
-        <v>100145</v>
+        <v>389914</v>
       </c>
       <c r="W11" s="10">
         <f t="shared" si="1"/>
-        <v>215033.99423000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+        <v>503751.70772163133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>74</v>
       </c>
@@ -3768,27 +3799,27 @@
         <v>368464.72317224898</v>
       </c>
       <c r="R12" s="12">
-        <v>115530.5</v>
+        <v>89276.478946812786</v>
       </c>
       <c r="S12" s="12">
-        <v>12.21167</v>
+        <v>24423.340606407441</v>
       </c>
       <c r="T12" s="12">
-        <v>7280</v>
+        <v>19032</v>
       </c>
       <c r="U12" s="12">
-        <v>55966.5</v>
+        <v>78082</v>
       </c>
       <c r="V12" s="9">
         <f t="shared" si="0"/>
-        <v>63246.5</v>
+        <v>97114</v>
       </c>
       <c r="W12" s="10">
         <f t="shared" si="1"/>
-        <v>178789.21166999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+        <v>210813.81955322024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>75</v>
       </c>
@@ -3843,27 +3874,27 @@
         <v>1012244.723172249</v>
       </c>
       <c r="R13" s="12">
-        <v>115530.5</v>
+        <v>89276.478946812786</v>
       </c>
       <c r="S13" s="12">
-        <v>25.08727</v>
+        <v>50174.540606407441</v>
       </c>
       <c r="T13" s="12">
-        <v>14160</v>
+        <v>35064</v>
       </c>
       <c r="U13" s="12">
-        <v>106486.5</v>
+        <v>213082</v>
       </c>
       <c r="V13" s="9">
         <f t="shared" si="0"/>
-        <v>120646.5</v>
+        <v>248146</v>
       </c>
       <c r="W13" s="10">
         <f t="shared" si="1"/>
-        <v>236202.08727000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+        <v>387597.01955322025</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>76</v>
       </c>
@@ -3917,27 +3948,27 @@
         <v>387592.626526276</v>
       </c>
       <c r="R14" s="12">
-        <v>114876.4</v>
+        <v>88649.250981062796</v>
       </c>
       <c r="S14" s="12">
-        <v>12.59423</v>
+        <v>25188.456740568523</v>
       </c>
       <c r="T14" s="12">
-        <v>14800</v>
+        <v>25528</v>
       </c>
       <c r="U14" s="12">
-        <v>105356</v>
+        <v>219632</v>
       </c>
       <c r="V14" s="9">
         <f t="shared" si="0"/>
-        <v>120156</v>
+        <v>245160</v>
       </c>
       <c r="W14" s="10">
         <f t="shared" si="1"/>
-        <v>235044.99423000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+        <v>358997.70772163133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>77</v>
       </c>
@@ -3992,33 +4023,33 @@
         <v>368464.72317224898</v>
       </c>
       <c r="R15" s="12">
-        <v>115530.5</v>
+        <v>89276.478946812786</v>
       </c>
       <c r="S15" s="12">
-        <v>12.21167</v>
+        <v>24423.340606407441</v>
       </c>
       <c r="T15" s="12">
-        <v>14160</v>
+        <v>35064</v>
       </c>
       <c r="U15" s="12">
-        <v>56966.5</v>
+        <v>78082</v>
       </c>
       <c r="V15" s="9">
         <f t="shared" si="0"/>
-        <v>71126.5</v>
+        <v>113146</v>
       </c>
       <c r="W15" s="10">
         <f t="shared" si="1"/>
-        <v>186669.21166999999</v>
-      </c>
-    </row>
-    <row r="27" spans="16:16" x14ac:dyDescent="0.25">
+        <v>226845.81955322024</v>
+      </c>
+    </row>
+    <row r="27" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P27">
         <f>0.02/1000</f>
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="42" spans="17:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="17:24" x14ac:dyDescent="0.3">
       <c r="Q42" s="5" t="s">
         <v>54</v>
       </c>
@@ -4032,12 +4063,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="17:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="17:24" x14ac:dyDescent="0.3">
       <c r="R43" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="17:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="17:24" x14ac:dyDescent="0.3">
       <c r="Q44" t="s">
         <v>57</v>
       </c>
@@ -4057,7 +4088,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="17:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="17:24" x14ac:dyDescent="0.3">
       <c r="R45" t="s">
         <v>59</v>
       </c>
@@ -4068,7 +4099,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="17:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="17:24" x14ac:dyDescent="0.3">
       <c r="Q46" t="s">
         <v>62</v>
       </c>
@@ -4085,7 +4116,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -4131,7 +4162,7 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -5580,7 +5611,7 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -7029,12 +7060,12 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="19" max="19" width="16.85546875" customWidth="1"/>
+    <col min="19" max="19" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -7099,7 +7130,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -7164,7 +7195,7 @@
         <v>-1406.1283124115794</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -7229,7 +7260,7 @@
         <v>-460.11664764689033</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -7294,7 +7325,7 @@
         <v>1029.6460228003475</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -7359,7 +7390,7 @@
         <v>3523.5700132144393</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -7424,7 +7455,7 @@
         <v>7801.2920480762359</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -7489,7 +7520,7 @@
         <v>15064.713468148853</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -7554,7 +7585,7 @@
         <v>27032.584081264151</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -7619,7 +7650,7 @@
         <v>45148.611713618346</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -7684,7 +7715,7 @@
         <v>68189.323906569727</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -7749,7 +7780,7 @@
         <v>88357.291589972039</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -7814,7 +7845,7 @@
         <v>94713.286097848322</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -7879,7 +7910,7 @@
         <v>88904.134606335574</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -7944,7 +7975,7 @@
         <v>80940.471215402416</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -8009,7 +8040,7 @@
         <v>73599.626422240937</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -8074,7 +8105,7 @@
         <v>66918.231218101311</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -8139,7 +8170,7 @@
         <v>60840.50106200423</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -8204,7 +8235,7 @@
         <v>55312.157969633328</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -8269,7 +8300,7 @@
         <v>50283.779972393932</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -8334,7 +8365,7 @@
         <v>45714.685553109754</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -8399,7 +8430,7 @@
         <v>41558.805048281589</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -8464,7 +8495,7 @@
         <v>37780.731862074172</v>
       </c>
     </row>
-    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -8482,7 +8513,7 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -9931,7 +9962,7 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -11380,7 +11411,7 @@
       <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -12829,7 +12860,7 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -14278,7 +14309,7 @@
       <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -15728,23 +15759,23 @@
       <selection pane="topRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="34.5546875" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" customWidth="1"/>
-    <col min="15" max="15" width="25.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" customWidth="1"/>
+    <col min="15" max="15" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -15803,55 +15834,55 @@
       </c>
       <c r="C2">
         <f>CAPEX!$W3</f>
-        <v>341809.22911888885</v>
+        <v>535454.45404575672</v>
       </c>
       <c r="D2">
         <f>CAPEX!$W4</f>
-        <v>215018.54792333333</v>
+        <v>223279.17744087061</v>
       </c>
       <c r="E2">
         <f>CAPEX!$W5</f>
-        <v>143587.08878666669</v>
+        <v>187378.09492541171</v>
       </c>
       <c r="F2">
         <f>CAPEX!$W6</f>
-        <v>156832.13545333332</v>
+        <v>341886.09492541174</v>
       </c>
       <c r="G2">
         <f>CAPEX!$W7</f>
-        <v>227169.58125666663</v>
+        <v>349747.17744087061</v>
       </c>
       <c r="H2">
         <f>CAPEX!$W8</f>
-        <v>347869.80689666665</v>
+        <v>553226.45404575672</v>
       </c>
       <c r="I2">
         <f>CAPEX!$W9</f>
-        <v>221159.28125666664</v>
+        <v>229741.17744087061</v>
       </c>
       <c r="J2">
         <f>CAPEX!$W10</f>
-        <v>146300.63545333332</v>
+        <v>200378.09492541171</v>
       </c>
       <c r="K2">
         <f>CAPEX!$W11</f>
-        <v>215033.99423000001</v>
+        <v>503751.70772163133</v>
       </c>
       <c r="L2">
         <f>CAPEX!$W12</f>
-        <v>178789.21166999999</v>
+        <v>210813.81955322024</v>
       </c>
       <c r="M2">
         <f>CAPEX!$W13</f>
-        <v>236202.08727000002</v>
+        <v>387597.01955322025</v>
       </c>
       <c r="N2">
         <f>CAPEX!$W14</f>
-        <v>235044.99423000001</v>
+        <v>358997.70772163133</v>
       </c>
       <c r="O2">
         <f>CAPEX!$W15</f>
-        <v>186669.21166999999</v>
+        <v>226845.81955322024</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -15866,7 +15897,7 @@
       </c>
       <c r="D3">
         <f>D2-C2</f>
-        <v>-126790.68119555552</v>
+        <v>-312175.27660488611</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -15876,15 +15907,15 @@
       </c>
       <c r="G3">
         <f>G2-C2</f>
-        <v>-114639.64786222222</v>
+        <v>-185707.27660488611</v>
       </c>
       <c r="H3">
         <f>H2-C2</f>
-        <v>6060.5777777777985</v>
+        <v>17772</v>
       </c>
       <c r="I3">
         <f>D3+(I2-D2)</f>
-        <v>-120649.94786222221</v>
+        <v>-305713.27660488611</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -15926,14 +15957,14 @@
       </c>
       <c r="G4">
         <f>G2-D2</f>
-        <v>12151.033333333296</v>
+        <v>126468</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
         <f>I2-D2</f>
-        <v>6140.7333333333081</v>
+        <v>6462</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -15972,7 +16003,7 @@
       </c>
       <c r="F5">
         <f>F2-E2</f>
-        <v>13245.046666666633</v>
+        <v>154508.00000000003</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -15985,7 +16016,7 @@
       </c>
       <c r="J5">
         <f>J2-E2</f>
-        <v>2713.5466666666325</v>
+        <v>13000</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -16118,14 +16149,14 @@
       </c>
       <c r="G8">
         <f>G2-H2</f>
-        <v>-120700.22564000002</v>
+        <v>-203479.27660488611</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
         <f>I2-H2</f>
-        <v>-126710.52564000001</v>
+        <v>-323485.27660488611</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -16167,7 +16198,7 @@
       </c>
       <c r="G9">
         <f>G2-I2</f>
-        <v>6010.2999999999884</v>
+        <v>120006</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -16212,7 +16243,7 @@
       </c>
       <c r="F10">
         <f>F2-J2</f>
-        <v>10531.5</v>
+        <v>141508.00000000003</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -16278,19 +16309,19 @@
       </c>
       <c r="L11">
         <f>L2-K2</f>
-        <v>-36244.782560000021</v>
+        <v>-292937.8881684111</v>
       </c>
       <c r="M11">
         <f>M2-K2</f>
-        <v>21168.093040000007</v>
+        <v>-116154.68816841108</v>
       </c>
       <c r="N11">
         <f>N2-K2</f>
-        <v>20011</v>
+        <v>-144754</v>
       </c>
       <c r="O11">
         <f>L11+(O2-L2)</f>
-        <v>-28364.782560000021</v>
+        <v>-276905.8881684111</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -16332,14 +16363,14 @@
       </c>
       <c r="M12">
         <f>M2-L2</f>
-        <v>57412.875600000028</v>
+        <v>176783.2</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
         <f>O2-L2</f>
-        <v>7880</v>
+        <v>16032</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -16428,14 +16459,14 @@
       </c>
       <c r="M14">
         <f>M2-N2</f>
-        <v>1157.093040000007</v>
+        <v>28599.311831588915</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
         <f>O2-N2</f>
-        <v>-48375.782560000021</v>
+        <v>-132151.8881684111</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -16477,7 +16508,7 @@
       </c>
       <c r="M15">
         <f>M2-O2</f>
-        <v>49532.875600000028</v>
+        <v>160751.20000000001</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -16499,15 +16530,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="39.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -16527,7 +16558,7 @@
       </c>
       <c r="B2">
         <f>AVERAGE(B3:B15)</f>
-        <v>11239.427296319658</v>
+        <v>22235.860614840989</v>
       </c>
       <c r="C2">
         <v>3.6</v>
@@ -16539,7 +16570,7 @@
       </c>
       <c r="B3">
         <f>0.1*(CAPEX!T3+CAPEX!U3)+0.01*(CAPEX!R3+CAPEX!S3)</f>
-        <v>21008.816291188887</v>
+        <v>40417.824540457572</v>
       </c>
       <c r="C3">
         <v>7.2</v>
@@ -16551,7 +16582,7 @@
       </c>
       <c r="B4">
         <f>0.1*(CAPEX!T4+CAPEX!U4)+0.01*(CAPEX!R4+CAPEX!S4)</f>
-        <v>8330.290479233332</v>
+        <v>10284.911774408707</v>
       </c>
       <c r="C4">
         <v>9.6</v>
@@ -16563,7 +16594,7 @@
       </c>
       <c r="B5">
         <f>0.1*(CAPEX!T5+CAPEX!U5)+0.01*(CAPEX!R5+CAPEX!S5)</f>
-        <v>7258.905687866667</v>
+        <v>10087.180949254118</v>
       </c>
       <c r="C5">
         <v>9.6</v>
@@ -16575,7 +16606,7 @@
       </c>
       <c r="B6">
         <f>0.1*(CAPEX!T6+CAPEX!U6)+0.01*(CAPEX!R6+CAPEX!S6)</f>
-        <v>8583.4103545333346</v>
+        <v>25537.980949254121</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -16587,7 +16618,7 @@
       </c>
       <c r="B7">
         <f>0.1*(CAPEX!T7+CAPEX!U7)+0.01*(CAPEX!R7+CAPEX!S7)</f>
-        <v>9545.3938125666664</v>
+        <v>22931.711774408708</v>
       </c>
       <c r="C7">
         <v>12</v>
@@ -16599,7 +16630,7 @@
       </c>
       <c r="B8">
         <f>0.1*(CAPEX!T8+CAPEX!U8)+0.01*(CAPEX!R8+CAPEX!S8)</f>
-        <v>21614.874068966667</v>
+        <v>42195.024540457569</v>
       </c>
       <c r="C8">
         <v>12</v>
@@ -16611,7 +16642,7 @@
       </c>
       <c r="B9">
         <f>0.1*(CAPEX!T9+CAPEX!U9)+0.01*(CAPEX!R9+CAPEX!S9)</f>
-        <v>8944.3638125666657</v>
+        <v>10931.111774408706</v>
       </c>
       <c r="C9">
         <v>12</v>
@@ -16623,7 +16654,7 @@
       </c>
       <c r="B10">
         <f>0.1*(CAPEX!T10+CAPEX!U10)+0.01*(CAPEX!R10+CAPEX!S10)</f>
-        <v>7530.2603545333332</v>
+        <v>11387.180949254118</v>
       </c>
       <c r="C10">
         <v>12</v>
@@ -16635,7 +16666,7 @@
       </c>
       <c r="B11">
         <f>0.1*(CAPEX!T11+CAPEX!U11)+0.01*(CAPEX!R11+CAPEX!S11)</f>
-        <v>11163.3899423</v>
+        <v>40129.777077216313</v>
       </c>
       <c r="C11">
         <v>7.2</v>
@@ -16647,7 +16678,7 @@
       </c>
       <c r="B12">
         <f>0.1*(CAPEX!T12+CAPEX!U12)+0.01*(CAPEX!R12+CAPEX!S12)</f>
-        <v>7480.0771167000003</v>
+        <v>10848.398195532201</v>
       </c>
       <c r="C12">
         <v>9.6</v>
@@ -16659,7 +16690,7 @@
       </c>
       <c r="B13">
         <f>0.1*(CAPEX!T13+CAPEX!U13)+0.01*(CAPEX!R13+CAPEX!S13)</f>
-        <v>13220.205872700002</v>
+        <v>26209.110195532205</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -16671,7 +16702,7 @@
       </c>
       <c r="B14">
         <f>0.1*(CAPEX!T14+CAPEX!U14)+0.01*(CAPEX!R14+CAPEX!S14)</f>
-        <v>13164.489942300001</v>
+        <v>25654.377077216312</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -16683,7 +16714,7 @@
       </c>
       <c r="B15">
         <f>0.1*(CAPEX!T15+CAPEX!U15)+0.01*(CAPEX!R15+CAPEX!S15)</f>
-        <v>8268.0771167000003</v>
+        <v>12451.598195532202</v>
       </c>
       <c r="C15">
         <v>12</v>
@@ -16703,21 +16734,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH49"/>
   <sheetViews>
-    <sheetView topLeftCell="I7" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -16797,7 +16828,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2018</v>
       </c>
@@ -16845,31 +16876,31 @@
       </c>
       <c r="U2">
         <f>OPEX!$B$3</f>
-        <v>21008.816291188887</v>
+        <v>40417.824540457572</v>
       </c>
       <c r="V2">
         <f>O2-U2</f>
-        <v>-20317.616291188886</v>
+        <v>-39726.624540457575</v>
       </c>
       <c r="W2">
         <f>P2-U2</f>
-        <v>-20317.616291188886</v>
+        <v>-39726.624540457575</v>
       </c>
       <c r="X2">
         <f t="shared" ref="X2:X22" si="1">Q2-U2</f>
-        <v>-20317.616291188886</v>
+        <v>-39726.624540457575</v>
       </c>
       <c r="Y2">
         <f>R2-$U2</f>
-        <v>-20389.616291188886</v>
+        <v>-39798.624540457575</v>
       </c>
       <c r="Z2">
         <f>S2-$U2</f>
-        <v>-20389.616291188886</v>
+        <v>-39798.624540457575</v>
       </c>
       <c r="AA2">
         <f>T2-$U2</f>
-        <v>-20389.616291188886</v>
+        <v>-39798.624540457575</v>
       </c>
       <c r="AB2">
         <f>1/POWER(1+$L$25,N2-2018)</f>
@@ -16877,30 +16908,30 @@
       </c>
       <c r="AC2">
         <f>V2*AB2</f>
-        <v>-20317.616291188886</v>
+        <v>-39726.624540457575</v>
       </c>
       <c r="AD2">
         <f>W2*AB2</f>
-        <v>-20317.616291188886</v>
+        <v>-39726.624540457575</v>
       </c>
       <c r="AE2">
         <f>X2*AB2</f>
-        <v>-20317.616291188886</v>
+        <v>-39726.624540457575</v>
       </c>
       <c r="AF2">
         <f>Y2*$AB2</f>
-        <v>-20389.616291188886</v>
+        <v>-39798.624540457575</v>
       </c>
       <c r="AG2">
         <f>Z2*$AB2</f>
-        <v>-20389.616291188886</v>
+        <v>-39798.624540457575</v>
       </c>
       <c r="AH2">
         <f>AA2*$AB2</f>
-        <v>-20389.616291188886</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>-39798.624540457575</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2019</v>
       </c>
@@ -16947,31 +16978,31 @@
       </c>
       <c r="U3">
         <f>OPEX!$B$3</f>
-        <v>21008.816291188887</v>
+        <v>40417.824540457572</v>
       </c>
       <c r="V3">
         <f t="shared" ref="V3:V22" si="8">O3-U3</f>
-        <v>-20087.216291188888</v>
+        <v>-39496.224540457573</v>
       </c>
       <c r="W3">
         <f t="shared" ref="W3:W22" si="9">P3-U3</f>
-        <v>-20058.416291188885</v>
+        <v>-39467.42454045757</v>
       </c>
       <c r="X3">
         <f t="shared" si="1"/>
-        <v>-19720.016291188887</v>
+        <v>-39129.024540457569</v>
       </c>
       <c r="Y3">
         <f t="shared" ref="Y3:Y22" si="10">R3-$U3</f>
-        <v>-20180.816291188887</v>
+        <v>-39589.824540457572</v>
       </c>
       <c r="Z3">
         <f t="shared" ref="Z3:Z22" si="11">S3-$U3</f>
-        <v>-20159.216291188888</v>
+        <v>-39568.224540457573</v>
       </c>
       <c r="AA3">
         <f t="shared" ref="AA3:AA22" si="12">T3-$U3</f>
-        <v>-19849.616291188886</v>
+        <v>-39258.624540457575</v>
       </c>
       <c r="AB3">
         <f t="shared" ref="AB3:AB22" si="13">1/POWER(1+$L$25,N3-2018)</f>
@@ -16979,30 +17010,30 @@
       </c>
       <c r="AC3">
         <f t="shared" ref="AC3:AC22" si="14">V3*AB3</f>
-        <v>-18261.105719262625</v>
+        <v>-35905.658673143247</v>
       </c>
       <c r="AD3">
         <f t="shared" ref="AD3:AD22" si="15">W3*AB3</f>
-        <v>-18234.923901080805</v>
+        <v>-35879.476854961424</v>
       </c>
       <c r="AE3">
         <f t="shared" ref="AE3:AE22" si="16">X3*AB3</f>
-        <v>-17927.287537444441</v>
+        <v>-35571.840491325063</v>
       </c>
       <c r="AF3">
         <f t="shared" ref="AF3:AF22" si="17">Y3*$AB3</f>
-        <v>-18346.196628353533</v>
+        <v>-35990.749582234152</v>
       </c>
       <c r="AG3">
         <f t="shared" ref="AG3:AG22" si="18">Z3*$AB3</f>
-        <v>-18326.560264717169</v>
+        <v>-35971.113218597791</v>
       </c>
       <c r="AH3">
         <f t="shared" ref="AH3:AH22" si="19">AA3*$AB3</f>
-        <v>-18045.105719262621</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>-35689.658673143247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2020</v>
       </c>
@@ -17049,31 +17080,31 @@
       </c>
       <c r="U4">
         <f>OPEX!$B$3</f>
-        <v>21008.816291188887</v>
+        <v>40417.824540457572</v>
       </c>
       <c r="V4">
         <f t="shared" si="8"/>
-        <v>-19770.416291188885</v>
+        <v>-39179.42454045757</v>
       </c>
       <c r="W4">
         <f t="shared" si="9"/>
-        <v>-19691.216291188888</v>
+        <v>-39100.224540457573</v>
       </c>
       <c r="X4">
         <f t="shared" si="1"/>
-        <v>-18546.416291188885</v>
+        <v>-37955.42454045757</v>
       </c>
       <c r="Y4">
         <f t="shared" si="10"/>
-        <v>-19900.016291188887</v>
+        <v>-39309.024540457569</v>
       </c>
       <c r="Z4">
         <f t="shared" si="11"/>
-        <v>-19828.016291188887</v>
+        <v>-39237.024540457569</v>
       </c>
       <c r="AA4">
         <f t="shared" si="12"/>
-        <v>-18798.416291188885</v>
+        <v>-38207.42454045757</v>
       </c>
       <c r="AB4">
         <f t="shared" si="13"/>
@@ -17081,30 +17112,30 @@
       </c>
       <c r="AC4">
         <f t="shared" si="14"/>
-        <v>-16339.187017511475</v>
+        <v>-32379.689702857493</v>
       </c>
       <c r="AD4">
         <f t="shared" si="15"/>
-        <v>-16273.73247205693</v>
+        <v>-32314.235157402949</v>
       </c>
       <c r="AE4">
         <f t="shared" si="16"/>
-        <v>-15327.616769577589</v>
+        <v>-31368.11945492361</v>
       </c>
       <c r="AF4">
         <f t="shared" si="17"/>
-        <v>-16446.294455528005</v>
+        <v>-32486.79714087402</v>
       </c>
       <c r="AG4">
         <f t="shared" si="18"/>
-        <v>-16386.790323296598</v>
+        <v>-32427.293008642617</v>
       </c>
       <c r="AH4">
         <f t="shared" si="19"/>
-        <v>-15535.881232387506</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>-31576.383917733525</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2021</v>
       </c>
@@ -17158,31 +17189,31 @@
       </c>
       <c r="U5">
         <f>OPEX!$B$3</f>
-        <v>21008.816291188887</v>
+        <v>40417.824540457572</v>
       </c>
       <c r="V5">
         <f t="shared" si="8"/>
-        <v>-19331.216291188888</v>
+        <v>-38740.224540457573</v>
       </c>
       <c r="W5">
         <f t="shared" si="9"/>
-        <v>-19158.416291188885</v>
+        <v>-38567.42454045757</v>
       </c>
       <c r="X5">
         <f t="shared" si="1"/>
-        <v>-16249.616291188886</v>
+        <v>-35658.624540457575</v>
       </c>
       <c r="Y5">
         <f t="shared" si="10"/>
-        <v>-19504.016291188887</v>
+        <v>-38913.024540457569</v>
       </c>
       <c r="Z5">
         <f t="shared" si="11"/>
-        <v>-19345.616291188886</v>
+        <v>-38754.624540457575</v>
       </c>
       <c r="AA5">
         <f t="shared" si="12"/>
-        <v>-16732.016291188887</v>
+        <v>-36141.024540457569</v>
       </c>
       <c r="AB5">
         <f t="shared" si="13"/>
@@ -17190,30 +17221,30 @@
       </c>
       <c r="AC5">
         <f t="shared" si="14"/>
-        <v>-14523.828918999912</v>
+        <v>-29106.104087496289</v>
       </c>
       <c r="AD5">
         <f t="shared" si="15"/>
-        <v>-14394.001721404116</v>
+        <v>-28976.276889900495</v>
       </c>
       <c r="AE5">
         <f t="shared" si="16"/>
-        <v>-12208.577228541608</v>
+        <v>-26790.85239703799</v>
       </c>
       <c r="AF5">
         <f t="shared" si="17"/>
-        <v>-14653.656116595705</v>
+        <v>-29235.93128509208</v>
       </c>
       <c r="AG5">
         <f t="shared" si="18"/>
-        <v>-14534.647852132894</v>
+        <v>-29116.923020629274</v>
       </c>
       <c r="AH5">
         <f t="shared" si="19"/>
-        <v>-12571.011488496531</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>-27153.286656992907</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2022</v>
       </c>
@@ -17267,31 +17298,31 @@
       </c>
       <c r="U6">
         <f>OPEX!$B$3</f>
-        <v>21008.816291188887</v>
+        <v>40417.824540457572</v>
       </c>
       <c r="V6">
         <f t="shared" si="8"/>
-        <v>-18719.216291188888</v>
+        <v>-38128.224540457573</v>
       </c>
       <c r="W6">
         <f t="shared" si="9"/>
-        <v>-18395.216291188888</v>
+        <v>-37804.224540457573</v>
       </c>
       <c r="X6">
         <f t="shared" si="1"/>
-        <v>-11764.016291188886</v>
+        <v>-31173.024540457569</v>
       </c>
       <c r="Y6">
         <f t="shared" si="10"/>
-        <v>-18949.616291188886</v>
+        <v>-38358.624540457575</v>
       </c>
       <c r="Z6">
         <f t="shared" si="11"/>
-        <v>-18661.616291188886</v>
+        <v>-38070.624540457575</v>
       </c>
       <c r="AA6">
         <f t="shared" si="12"/>
-        <v>-12692.816291188887</v>
+        <v>-32101.824540457572</v>
       </c>
       <c r="AB6">
         <f t="shared" si="13"/>
@@ -17299,30 +17330,30 @@
       </c>
       <c r="AC6">
         <f t="shared" si="14"/>
-        <v>-12785.476600771042</v>
+        <v>-26042.090390313206</v>
       </c>
       <c r="AD6">
         <f t="shared" si="15"/>
-        <v>-12564.18024123276</v>
+        <v>-25820.794030774923</v>
       </c>
       <c r="AE6">
         <f t="shared" si="16"/>
-        <v>-8034.9814160159021</v>
+        <v>-21291.595205558064</v>
       </c>
       <c r="AF6">
         <f t="shared" si="17"/>
-        <v>-12942.842900887154</v>
+        <v>-26199.456690429317</v>
       </c>
       <c r="AG6">
         <f t="shared" si="18"/>
-        <v>-12746.135025742013</v>
+        <v>-26002.74881528418</v>
       </c>
       <c r="AH6">
         <f t="shared" si="19"/>
-        <v>-8669.3643133589812</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>-21925.978102901143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2023</v>
       </c>
@@ -17376,31 +17407,31 @@
       </c>
       <c r="U7">
         <f>OPEX!$B$3</f>
-        <v>21008.816291188887</v>
+        <v>40417.824540457572</v>
       </c>
       <c r="V7">
         <f t="shared" si="8"/>
-        <v>-17876.816291188887</v>
+        <v>-37285.824540457572</v>
       </c>
       <c r="W7">
         <f t="shared" si="9"/>
-        <v>-17308.016291188887</v>
+        <v>-36717.024540457569</v>
       </c>
       <c r="X7">
         <f t="shared" si="1"/>
-        <v>-3203.2162911888845</v>
+        <v>-22612.22454045757</v>
       </c>
       <c r="Y7">
         <f t="shared" si="10"/>
-        <v>-18193.616291188886</v>
+        <v>-37602.624540457575</v>
       </c>
       <c r="Z7">
         <f t="shared" si="11"/>
-        <v>-17682.416291188885</v>
+        <v>-37091.42454045757</v>
       </c>
       <c r="AA7">
         <f t="shared" si="12"/>
-        <v>-4988.8162911888867</v>
+        <v>-24397.824540457572</v>
       </c>
       <c r="AB7">
         <f t="shared" si="13"/>
@@ -17408,30 +17439,30 @@
       </c>
       <c r="AC7">
         <f t="shared" si="14"/>
-        <v>-11100.096423610459</v>
+        <v>-23151.563505012422</v>
       </c>
       <c r="AD7">
         <f t="shared" si="15"/>
-        <v>-10746.916375054412</v>
+        <v>-22798.383456456373</v>
       </c>
       <c r="AE7">
         <f t="shared" si="16"/>
-        <v>-1988.9452975696415</v>
+        <v>-14040.412378971605</v>
       </c>
       <c r="AF7">
         <f t="shared" si="17"/>
-        <v>-11296.804298755598</v>
+        <v>-23348.271380157566</v>
       </c>
       <c r="AG7">
         <f t="shared" si="18"/>
-        <v>-10979.389318407759</v>
+        <v>-23030.856399809723</v>
       </c>
       <c r="AH7">
         <f t="shared" si="19"/>
-        <v>-3097.6624120240699</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>-15149.129493426035</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2024</v>
       </c>
@@ -17485,31 +17516,31 @@
       </c>
       <c r="U8">
         <f>OPEX!$B$3</f>
-        <v>21008.816291188887</v>
+        <v>40417.824540457572</v>
       </c>
       <c r="V8">
         <f t="shared" si="8"/>
-        <v>-16732.016291188887</v>
+        <v>-36141.024540457569</v>
       </c>
       <c r="W8">
         <f t="shared" si="9"/>
-        <v>-15774.416291188885</v>
+        <v>-35183.42454045757</v>
       </c>
       <c r="X8">
         <f t="shared" si="1"/>
-        <v>12543.183708811113</v>
+        <v>-6865.8245404575719</v>
       </c>
       <c r="Y8">
         <f t="shared" si="10"/>
-        <v>-17164.016291188887</v>
+        <v>-36573.024540457569</v>
       </c>
       <c r="Z8">
         <f t="shared" si="11"/>
-        <v>-16300.016291188887</v>
+        <v>-35709.024540457569</v>
       </c>
       <c r="AA8">
         <f t="shared" si="12"/>
-        <v>9187.9837088111126</v>
+        <v>-10221.024540457573</v>
       </c>
       <c r="AB8">
         <f t="shared" si="13"/>
@@ -17517,30 +17548,30 @@
       </c>
       <c r="AC8">
         <f t="shared" si="14"/>
-        <v>-9444.7869936112165</v>
+        <v>-20400.66615852209</v>
       </c>
       <c r="AD8">
         <f t="shared" si="15"/>
-        <v>-8904.246758191719</v>
+        <v>-19860.125923102594</v>
       </c>
       <c r="AE8">
         <f t="shared" si="16"/>
-        <v>7080.3002034991223</v>
+        <v>-3875.5789614117543</v>
       </c>
       <c r="AF8">
         <f t="shared" si="17"/>
-        <v>-9688.639731394449</v>
+        <v>-20644.518896305322</v>
       </c>
       <c r="AG8">
         <f t="shared" si="18"/>
-        <v>-9200.9342558279859</v>
+        <v>-20156.813420738861</v>
       </c>
       <c r="AH8">
         <f t="shared" si="19"/>
-        <v>5186.3772733826881</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>-5769.501891528188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2025</v>
       </c>
@@ -17593,31 +17624,31 @@
       </c>
       <c r="U9">
         <f>OPEX!$B$3</f>
-        <v>21008.816291188887</v>
+        <v>40417.824540457572</v>
       </c>
       <c r="V9">
         <f t="shared" si="8"/>
-        <v>-15155.216291188886</v>
+        <v>-34564.224540457573</v>
       </c>
       <c r="W9">
         <f t="shared" si="9"/>
-        <v>-13614.416291188885</v>
+        <v>-33023.42454045757</v>
       </c>
       <c r="X9">
         <f t="shared" si="1"/>
-        <v>39276.783708811112</v>
+        <v>19867.775459542427</v>
       </c>
       <c r="Y9">
         <f t="shared" si="10"/>
-        <v>-15745.616291188886</v>
+        <v>-35154.624540457575</v>
       </c>
       <c r="Z9">
         <f t="shared" si="11"/>
-        <v>-14356.016291188887</v>
+        <v>-33765.024540457569</v>
       </c>
       <c r="AA9">
         <f t="shared" si="12"/>
-        <v>33243.183708811113</v>
+        <v>13834.175459542428</v>
       </c>
       <c r="AB9">
         <f t="shared" si="13"/>
@@ -17625,30 +17656,30 @@
       </c>
       <c r="AC9">
         <f t="shared" si="14"/>
-        <v>-7777.0222733658347</v>
+        <v>-17736.912423284812</v>
       </c>
       <c r="AD9">
         <f t="shared" si="15"/>
-        <v>-6986.3482447959623</v>
+        <v>-16946.238394714939</v>
       </c>
       <c r="AE9">
         <f t="shared" si="16"/>
-        <v>20155.200418167977</v>
+        <v>10195.310268249001</v>
       </c>
       <c r="AF9">
         <f t="shared" si="17"/>
-        <v>-8079.9908263692441</v>
+        <v>-18039.880976288223</v>
       </c>
       <c r="AG9">
         <f t="shared" si="18"/>
-        <v>-7366.9063052758547</v>
+        <v>-17326.796455194832</v>
       </c>
       <c r="AH9">
         <f t="shared" si="19"/>
-        <v>17059.009596011187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>7099.1194460922106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2026</v>
       </c>
@@ -17701,31 +17732,31 @@
       </c>
       <c r="U10">
         <f>OPEX!$B$3</f>
-        <v>21008.816291188887</v>
+        <v>40417.824540457572</v>
       </c>
       <c r="V10">
         <f t="shared" si="8"/>
-        <v>-13024.016291188887</v>
+        <v>-32433.024540457573</v>
       </c>
       <c r="W10">
         <f t="shared" si="9"/>
-        <v>-10597.616291188886</v>
+        <v>-30006.624540457571</v>
       </c>
       <c r="X10">
         <f t="shared" si="1"/>
-        <v>78063.183708811121</v>
+        <v>58654.175459542428</v>
       </c>
       <c r="Y10">
         <f t="shared" si="10"/>
-        <v>-13823.216291188886</v>
+        <v>-33232.224540457573</v>
       </c>
       <c r="Z10">
         <f t="shared" si="11"/>
-        <v>-11641.616291188886</v>
+        <v>-31050.624540457571</v>
       </c>
       <c r="AA10">
         <f t="shared" si="12"/>
-        <v>68155.983708811109</v>
+        <v>48746.975459542431</v>
       </c>
       <c r="AB10">
         <f t="shared" si="13"/>
@@ -17733,30 +17764,30 @@
       </c>
       <c r="AC10">
         <f t="shared" si="14"/>
-        <v>-6075.7997198114126</v>
+        <v>-15130.245310646846</v>
       </c>
       <c r="AD10">
         <f t="shared" si="15"/>
-        <v>-4943.8662124705161</v>
+        <v>-13998.311803305949</v>
       </c>
       <c r="AE10">
         <f t="shared" si="16"/>
-        <v>36417.051322828593</v>
+        <v>27362.605731993161</v>
       </c>
       <c r="AF10">
         <f t="shared" si="17"/>
-        <v>-6448.6324180750307</v>
+        <v>-15503.078008910466</v>
       </c>
       <c r="AG10">
         <f t="shared" si="18"/>
-        <v>-5430.899917409477</v>
+        <v>-14485.345508244911</v>
       </c>
       <c r="AH10">
         <f t="shared" si="19"/>
-        <v>31795.269405614723</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>22740.823814779291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2027</v>
       </c>
@@ -17809,31 +17840,31 @@
       </c>
       <c r="U11">
         <f>OPEX!$B$3</f>
-        <v>21008.816291188887</v>
+        <v>40417.824540457572</v>
       </c>
       <c r="V11">
         <f t="shared" si="8"/>
-        <v>-10144.016291188886</v>
+        <v>-29553.024540457569</v>
       </c>
       <c r="W11">
         <f t="shared" si="9"/>
-        <v>-6407.2162911888863</v>
+        <v>-25816.224540457573</v>
       </c>
       <c r="X11">
         <f t="shared" si="1"/>
-        <v>119513.58370881111</v>
+        <v>100104.57545954242</v>
       </c>
       <c r="Y11">
         <f t="shared" si="10"/>
-        <v>-11231.216291188886</v>
+        <v>-30640.224540457573</v>
       </c>
       <c r="Z11">
         <f t="shared" si="11"/>
-        <v>-7868.8162911888867</v>
+        <v>-27277.824540457572</v>
       </c>
       <c r="AA11">
         <f t="shared" si="12"/>
-        <v>105459.18370881112</v>
+        <v>86050.175459542428</v>
       </c>
       <c r="AB11">
         <f t="shared" si="13"/>
@@ -17841,30 +17872,30 @@
       </c>
       <c r="AC11">
         <f t="shared" si="14"/>
-        <v>-4302.0531498248911</v>
+        <v>-12533.367323311648</v>
       </c>
       <c r="AD11">
         <f t="shared" si="15"/>
-        <v>-2717.2851694905908</v>
+        <v>-10948.59934297735</v>
       </c>
       <c r="AE11">
         <f t="shared" si="16"/>
-        <v>50685.426214067375</v>
+        <v>42454.112040580614</v>
       </c>
       <c r="AF11">
         <f t="shared" si="17"/>
-        <v>-4763.1320805194573</v>
+        <v>-12994.446254006216</v>
       </c>
       <c r="AG11">
         <f t="shared" si="18"/>
-        <v>-3337.1462485038146</v>
+        <v>-11568.460421990572</v>
       </c>
       <c r="AH11">
         <f t="shared" si="19"/>
-        <v>44724.988646413127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>36493.674472926366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2028</v>
       </c>
@@ -17918,31 +17949,31 @@
       </c>
       <c r="U12">
         <f>OPEX!$B$3</f>
-        <v>21008.816291188887</v>
+        <v>40417.824540457572</v>
       </c>
       <c r="V12">
         <f t="shared" si="8"/>
-        <v>-6292.0162911888856</v>
+        <v>-25701.024540457569</v>
       </c>
       <c r="W12">
         <f t="shared" si="9"/>
-        <v>-690.41629118888522</v>
+        <v>-20099.42454045757</v>
       </c>
       <c r="X12">
         <f t="shared" si="1"/>
-        <v>144396.78370881113</v>
+        <v>124987.77545954243</v>
       </c>
       <c r="Y12">
         <f t="shared" si="10"/>
-        <v>-7768.0162911888856</v>
+        <v>-27177.024540457569</v>
       </c>
       <c r="Z12">
         <f t="shared" si="11"/>
-        <v>-2728.0162911888874</v>
+        <v>-22137.024540457573</v>
       </c>
       <c r="AA12">
         <f t="shared" si="12"/>
-        <v>127851.18370881112</v>
+        <v>108442.17545954243</v>
       </c>
       <c r="AB12">
         <f t="shared" si="13"/>
@@ -17950,30 +17981,30 @@
       </c>
       <c r="AC12">
         <f t="shared" si="14"/>
-        <v>-2425.8446580491636</v>
+        <v>-9908.8575430371238</v>
       </c>
       <c r="AD12">
         <f t="shared" si="15"/>
-        <v>-266.18536798070005</v>
+        <v>-7749.1982529686611</v>
       </c>
       <c r="AE12">
         <f t="shared" si="16"/>
-        <v>55671.210974139627</v>
+        <v>48188.198089151658</v>
       </c>
       <c r="AF12">
         <f t="shared" si="17"/>
-        <v>-2994.9065532471523</v>
+        <v>-10477.919438235112</v>
       </c>
       <c r="AG12">
         <f t="shared" si="18"/>
-        <v>-1051.7683745223142</v>
+        <v>-8534.781259510275</v>
       </c>
       <c r="AH12">
         <f t="shared" si="19"/>
-        <v>49292.165924554363</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>41809.153039566401</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2029</v>
       </c>
@@ -18026,31 +18057,31 @@
       </c>
       <c r="U13">
         <f>OPEX!$B$3</f>
-        <v>21008.816291188887</v>
+        <v>40417.824540457572</v>
       </c>
       <c r="V13">
         <f t="shared" si="8"/>
-        <v>-1201.616291188886</v>
+        <v>-20610.624540457571</v>
       </c>
       <c r="W13">
         <f t="shared" si="9"/>
-        <v>6977.5837088111148</v>
+        <v>-12431.42454045757</v>
       </c>
       <c r="X13">
         <f t="shared" si="1"/>
-        <v>149724.78370881113</v>
+        <v>130315.77545954243</v>
       </c>
       <c r="Y13">
         <f t="shared" si="10"/>
-        <v>-3188.8162911888867</v>
+        <v>-22597.824540457572</v>
       </c>
       <c r="Z13">
         <f t="shared" si="11"/>
-        <v>4176.7837088111155</v>
+        <v>-15232.22454045757</v>
       </c>
       <c r="AA13">
         <f t="shared" si="12"/>
-        <v>132646.38370881113</v>
+        <v>113237.37545954244</v>
       </c>
       <c r="AB13">
         <f t="shared" si="13"/>
@@ -18058,30 +18089,30 @@
       </c>
       <c r="AC13">
         <f t="shared" si="14"/>
-        <v>-421.15917957916071</v>
+        <v>-7223.8981659318515</v>
       </c>
       <c r="AD13">
         <f t="shared" si="15"/>
-        <v>2445.6005230590426</v>
+        <v>-4357.1384632936479</v>
       </c>
       <c r="AE13">
         <f t="shared" si="16"/>
-        <v>52477.623291109237</v>
+        <v>45674.884304756546</v>
       </c>
       <c r="AF13">
         <f t="shared" si="17"/>
-        <v>-1117.6606566285836</v>
+        <v>-7920.3996429812742</v>
       </c>
       <c r="AG13">
         <f t="shared" si="18"/>
-        <v>1463.9372093915597</v>
+        <v>-5338.8017769611306</v>
       </c>
       <c r="AH13">
         <f t="shared" si="19"/>
-        <v>46491.748278206229</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>39689.009291853537</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2030</v>
       </c>
@@ -18128,31 +18159,31 @@
       </c>
       <c r="U14">
         <f>OPEX!$B$3</f>
-        <v>21008.816291188887</v>
+        <v>40417.824540457572</v>
       </c>
       <c r="V14">
         <f t="shared" si="8"/>
-        <v>5429.5837088111148</v>
+        <v>-13979.42454045757</v>
       </c>
       <c r="W14">
         <f t="shared" si="9"/>
-        <v>17014.383708811118</v>
+        <v>-2394.6245404575675</v>
       </c>
       <c r="X14">
         <f t="shared" si="1"/>
-        <v>149969.58370881111</v>
+        <v>130560.57545954242</v>
       </c>
       <c r="Y14">
         <f t="shared" si="10"/>
-        <v>2779.9837088111126</v>
+        <v>-16629.024540457573</v>
       </c>
       <c r="Z14">
         <f t="shared" si="11"/>
-        <v>13205.583708811115</v>
+        <v>-6203.4245404575704</v>
       </c>
       <c r="AA14">
         <f t="shared" si="12"/>
-        <v>132869.58370881111</v>
+        <v>113460.57545954242</v>
       </c>
       <c r="AB14">
         <f t="shared" si="13"/>
@@ -18160,30 +18191,30 @@
       </c>
       <c r="AC14">
         <f t="shared" si="14"/>
-        <v>1730.0326969653161</v>
+        <v>-4454.2754724462211</v>
       </c>
       <c r="AD14">
         <f t="shared" si="15"/>
-        <v>5421.3069939762554</v>
+        <v>-763.00117543528154</v>
       </c>
       <c r="AE14">
         <f t="shared" si="16"/>
-        <v>47784.931088820253</v>
+        <v>41600.622919408714</v>
       </c>
       <c r="AF14">
         <f t="shared" si="17"/>
-        <v>885.78848235995463</v>
+        <v>-5298.5196870515829</v>
       </c>
       <c r="AG14">
         <f t="shared" si="18"/>
-        <v>4207.705935481049</v>
+        <v>-1976.6022339304886</v>
       </c>
       <c r="AH14">
         <f t="shared" si="19"/>
-        <v>42336.344105973156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>36152.035936561617</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2031</v>
       </c>
@@ -18230,31 +18261,31 @@
       </c>
       <c r="U15">
         <f>OPEX!$B$3</f>
-        <v>21008.816291188887</v>
+        <v>40417.824540457572</v>
       </c>
       <c r="V15">
         <f t="shared" si="8"/>
-        <v>13903.983708811116</v>
+        <v>-5505.0245404575689</v>
       </c>
       <c r="W15">
         <f t="shared" si="9"/>
-        <v>29693.583708811115</v>
+        <v>10284.57545954243</v>
       </c>
       <c r="X15">
         <f t="shared" si="1"/>
-        <v>150012.78370881113</v>
+        <v>130603.77545954243</v>
       </c>
       <c r="Y15">
         <f t="shared" si="10"/>
-        <v>10411.983708811113</v>
+        <v>-8997.0245404575726</v>
       </c>
       <c r="Z15">
         <f t="shared" si="11"/>
-        <v>24617.583708811115</v>
+        <v>5208.5754595424296</v>
       </c>
       <c r="AA15">
         <f t="shared" si="12"/>
-        <v>132905.58370881111</v>
+        <v>113496.57545954242</v>
       </c>
       <c r="AB15">
         <f t="shared" si="13"/>
@@ -18262,30 +18293,30 @@
       </c>
       <c r="AC15">
         <f t="shared" si="14"/>
-        <v>4027.4888168817838</v>
+        <v>-1594.6095189468865</v>
       </c>
       <c r="AD15">
         <f t="shared" si="15"/>
-        <v>8601.1735071721887</v>
+        <v>2979.0751713435188</v>
       </c>
       <c r="AE15">
         <f t="shared" si="16"/>
-        <v>43453.359945586679</v>
+        <v>37831.261609758003</v>
       </c>
       <c r="AF15">
         <f t="shared" si="17"/>
-        <v>3015.980802841269</v>
+        <v>-2606.1175329874013</v>
       </c>
       <c r="AG15">
         <f t="shared" si="18"/>
-        <v>7130.8371156287621</v>
+        <v>1508.7387798000914</v>
       </c>
       <c r="AH15">
         <f t="shared" si="19"/>
-        <v>38498.013468555211</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>32875.915132726535</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2032</v>
       </c>
@@ -18332,31 +18363,31 @@
       </c>
       <c r="U16">
         <f>OPEX!$B$3</f>
-        <v>21008.816291188887</v>
+        <v>40417.824540457572</v>
       </c>
       <c r="V16">
         <f t="shared" si="8"/>
-        <v>24430.383708811118</v>
+        <v>5021.3754595424325</v>
       </c>
       <c r="W16">
         <f t="shared" si="9"/>
-        <v>44986.38370881111</v>
+        <v>25577.375459542425</v>
       </c>
       <c r="X16">
         <f t="shared" si="1"/>
-        <v>150034.38370881113</v>
+        <v>130625.37545954244</v>
       </c>
       <c r="Y16">
         <f t="shared" si="10"/>
-        <v>19879.983708811116</v>
+        <v>470.97545954243105</v>
       </c>
       <c r="Z16">
         <f t="shared" si="11"/>
-        <v>38383.983708811116</v>
+        <v>18974.975459542431</v>
       </c>
       <c r="AA16">
         <f t="shared" si="12"/>
-        <v>132927.18370881112</v>
+        <v>113518.17545954243</v>
       </c>
       <c r="AB16">
         <f t="shared" si="13"/>
@@ -18364,30 +18395,30 @@
       </c>
       <c r="AC16">
         <f t="shared" si="14"/>
-        <v>6433.2835852200478</v>
+        <v>1322.2850981030763</v>
       </c>
       <c r="AD16">
         <f t="shared" si="15"/>
-        <v>11846.320848735821</v>
+        <v>6735.3223616188498</v>
       </c>
       <c r="AE16">
         <f t="shared" si="16"/>
-        <v>39508.742451080892</v>
+        <v>34397.74396396392</v>
       </c>
       <c r="AF16">
         <f t="shared" si="17"/>
-        <v>5235.0210456256618</v>
+        <v>124.02255850869068</v>
       </c>
       <c r="AG16">
         <f t="shared" si="18"/>
-        <v>10107.702575305362</v>
+        <v>4996.7040881883904</v>
       </c>
       <c r="AH16">
         <f t="shared" si="19"/>
-        <v>35003.882017415919</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>29892.883530298946</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2033</v>
       </c>
@@ -18434,31 +18465,31 @@
       </c>
       <c r="U17">
         <f>OPEX!$B$3</f>
-        <v>21008.816291188887</v>
+        <v>40417.824540457572</v>
       </c>
       <c r="V17">
         <f t="shared" si="8"/>
-        <v>37080.783708811112</v>
+        <v>17671.775459542427</v>
       </c>
       <c r="W17">
         <f t="shared" si="9"/>
-        <v>62367.183708811113</v>
+        <v>42958.175459542428</v>
       </c>
       <c r="X17">
         <f t="shared" si="1"/>
-        <v>150048.78370881113</v>
+        <v>130639.77545954243</v>
       </c>
       <c r="Y17">
         <f t="shared" si="10"/>
-        <v>31270.383708811118</v>
+        <v>11861.375459542433</v>
       </c>
       <c r="Z17">
         <f t="shared" si="11"/>
-        <v>54029.583708811122</v>
+        <v>34620.575459542437</v>
       </c>
       <c r="AA17">
         <f t="shared" si="12"/>
-        <v>132941.58370881111</v>
+        <v>113532.57545954242</v>
       </c>
       <c r="AB17">
         <f t="shared" si="13"/>
@@ -18466,30 +18497,30 @@
       </c>
       <c r="AC17">
         <f t="shared" si="14"/>
-        <v>8876.8448042669788</v>
+        <v>4230.4825432515509</v>
       </c>
       <c r="AD17">
         <f t="shared" si="15"/>
-        <v>14930.207921435393</v>
+        <v>10283.845660419964</v>
       </c>
       <c r="AE17">
         <f t="shared" si="16"/>
-        <v>35920.48583740263</v>
+        <v>31274.123576387203</v>
       </c>
       <c r="AF17">
         <f t="shared" si="17"/>
-        <v>7485.8812406123934</v>
+        <v>2839.518979596965</v>
       </c>
       <c r="AG17">
         <f t="shared" si="18"/>
-        <v>12934.252770615058</v>
+        <v>8287.8905095996288</v>
       </c>
       <c r="AH17">
         <f t="shared" si="19"/>
-        <v>31825.158170434479</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>27178.795909419048</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2034</v>
       </c>
@@ -18536,31 +18567,31 @@
       </c>
       <c r="U18">
         <f>OPEX!$B$3</f>
-        <v>21008.816291188887</v>
+        <v>40417.824540457572</v>
       </c>
       <c r="V18">
         <f t="shared" si="8"/>
-        <v>51617.583708811122</v>
+        <v>32208.575459542437</v>
       </c>
       <c r="W18">
         <f t="shared" si="9"/>
-        <v>80698.383708811103</v>
+        <v>61289.375459542425</v>
       </c>
       <c r="X18">
         <f t="shared" si="1"/>
-        <v>150055.98370881114</v>
+        <v>130646.97545954245</v>
       </c>
       <c r="Y18">
         <f t="shared" si="10"/>
-        <v>44352.783708811112</v>
+        <v>24943.775459542427</v>
       </c>
       <c r="Z18">
         <f t="shared" si="11"/>
-        <v>70524.783708811126</v>
+        <v>51115.775459542434</v>
       </c>
       <c r="AA18">
         <f t="shared" si="12"/>
-        <v>132948.78370881113</v>
+        <v>113539.77545954243</v>
       </c>
       <c r="AB18">
         <f t="shared" si="13"/>
@@ -18568,30 +18599,30 @@
       </c>
       <c r="AC18">
         <f t="shared" si="14"/>
-        <v>11233.490134124215</v>
+        <v>7009.5244422920068</v>
       </c>
       <c r="AD18">
         <f t="shared" si="15"/>
-        <v>17562.319506210362</v>
+        <v>13338.353814378155</v>
       </c>
       <c r="AE18">
         <f t="shared" si="16"/>
-        <v>32656.554054689175</v>
+        <v>28432.588362856965</v>
       </c>
       <c r="AF18">
         <f t="shared" si="17"/>
-        <v>9652.4579884359409</v>
+        <v>5428.4922966037329</v>
       </c>
       <c r="AG18">
         <f t="shared" si="18"/>
-        <v>15348.247730335712</v>
+        <v>11124.282038503503</v>
       </c>
       <c r="AH18">
         <f t="shared" si="19"/>
-        <v>28933.528902899943</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>24709.563211067732</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2035</v>
       </c>
@@ -18638,31 +18669,31 @@
       </c>
       <c r="U19">
         <f>OPEX!$B$3</f>
-        <v>21008.816291188887</v>
+        <v>40417.824540457572</v>
       </c>
       <c r="V19">
         <f t="shared" si="8"/>
-        <v>67457.583708811115</v>
+        <v>48048.575459542437</v>
       </c>
       <c r="W19">
         <f t="shared" si="9"/>
-        <v>98381.583708811115</v>
+        <v>78972.575459542437</v>
       </c>
       <c r="X19">
         <f t="shared" si="1"/>
-        <v>150055.98370881114</v>
+        <v>130646.97545954245</v>
       </c>
       <c r="Y19">
         <f t="shared" si="10"/>
-        <v>58608.783708811119</v>
+        <v>39199.775459542434</v>
       </c>
       <c r="Z19">
         <f t="shared" si="11"/>
-        <v>86436.783708811126</v>
+        <v>67027.775459542434</v>
       </c>
       <c r="AA19">
         <f t="shared" si="12"/>
-        <v>132948.78370881113</v>
+        <v>113539.77545954243</v>
       </c>
       <c r="AB19">
         <f t="shared" si="13"/>
@@ -18670,30 +18701,30 @@
       </c>
       <c r="AC19">
         <f t="shared" si="14"/>
-        <v>13346.123313672877</v>
+        <v>9506.1545029163262</v>
       </c>
       <c r="AD19">
         <f t="shared" si="15"/>
-        <v>19464.271854740651</v>
+        <v>15624.303043984102</v>
       </c>
       <c r="AE19">
         <f t="shared" si="16"/>
-        <v>29687.776413353793</v>
+        <v>25847.80760259724</v>
       </c>
       <c r="AF19">
         <f t="shared" si="17"/>
-        <v>11595.435407509363</v>
+        <v>7755.4665967528108</v>
       </c>
       <c r="AG19">
         <f t="shared" si="18"/>
-        <v>17101.056853662321</v>
+        <v>13261.088042905769</v>
       </c>
       <c r="AH19">
         <f t="shared" si="19"/>
-        <v>26303.208093545403</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>22463.239282788847</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2036</v>
       </c>
@@ -18740,31 +18771,31 @@
       </c>
       <c r="U20">
         <f>OPEX!$B$3</f>
-        <v>21008.816291188887</v>
+        <v>40417.824540457572</v>
       </c>
       <c r="V20">
         <f t="shared" si="8"/>
-        <v>83643.183708811121</v>
+        <v>64234.175459542428</v>
       </c>
       <c r="W20">
         <f t="shared" si="9"/>
-        <v>113847.18370881112</v>
+        <v>94438.175459542428</v>
       </c>
       <c r="X20">
         <f t="shared" si="1"/>
-        <v>150063.18370881112</v>
+        <v>130654.17545954243</v>
       </c>
       <c r="Y20">
         <f t="shared" si="10"/>
-        <v>73174.383708811103</v>
+        <v>53765.375459542425</v>
       </c>
       <c r="Z20">
         <f t="shared" si="11"/>
-        <v>100361.58370881111</v>
+        <v>80952.575459542437</v>
       </c>
       <c r="AA20">
         <f t="shared" si="12"/>
-        <v>132955.98370881114</v>
+        <v>113546.97545954245</v>
       </c>
       <c r="AB20">
         <f t="shared" si="13"/>
@@ -18772,30 +18803,30 @@
       </c>
       <c r="AC20">
         <f t="shared" si="14"/>
-        <v>15043.961806020819</v>
+        <v>11553.081068969408</v>
       </c>
       <c r="AD20">
         <f t="shared" si="15"/>
-        <v>20476.416696438708</v>
+        <v>16985.535959387296</v>
       </c>
       <c r="AE20">
         <f t="shared" si="16"/>
-        <v>26990.182631790791</v>
+        <v>23499.301894739379</v>
       </c>
       <c r="AF20">
         <f t="shared" si="17"/>
-        <v>13161.056106219241</v>
+        <v>9670.1753691678314</v>
       </c>
       <c r="AG20">
         <f t="shared" si="18"/>
-        <v>18050.912999239015</v>
+        <v>14560.032262187608</v>
       </c>
       <c r="AH20">
         <f t="shared" si="19"/>
-        <v>23913.302341055893</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>20422.421604004481</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2037</v>
       </c>
@@ -18842,31 +18873,31 @@
       </c>
       <c r="U21">
         <f>OPEX!$B$3</f>
-        <v>21008.816291188887</v>
+        <v>40417.824540457572</v>
       </c>
       <c r="V21">
         <f t="shared" si="8"/>
-        <v>99043.983708811109</v>
+        <v>79634.975459542431</v>
       </c>
       <c r="W21">
         <f t="shared" si="9"/>
-        <v>126094.38370881113</v>
+        <v>106685.37545954244</v>
       </c>
       <c r="X21">
         <f t="shared" si="1"/>
-        <v>150063.18370881112</v>
+        <v>130654.17545954243</v>
       </c>
       <c r="Y21">
         <f t="shared" si="10"/>
-        <v>87034.383708811103</v>
+        <v>67625.375459542425</v>
       </c>
       <c r="Z21">
         <f t="shared" si="11"/>
-        <v>111377.58370881111</v>
+        <v>91968.575459542422</v>
       </c>
       <c r="AA21">
         <f t="shared" si="12"/>
-        <v>132955.98370881114</v>
+        <v>113546.97545954245</v>
       </c>
       <c r="AB21">
         <f t="shared" si="13"/>
@@ -18874,30 +18905,30 @@
       </c>
       <c r="AC21">
         <f t="shared" si="14"/>
-        <v>16194.482779686028</v>
+        <v>13020.95483691202</v>
       </c>
       <c r="AD21">
         <f t="shared" si="15"/>
-        <v>20617.439334740753</v>
+        <v>17443.91139196674</v>
       </c>
       <c r="AE21">
         <f t="shared" si="16"/>
-        <v>24536.529665264348</v>
+        <v>21363.001722490339</v>
       </c>
       <c r="AF21">
         <f t="shared" si="17"/>
-        <v>14230.817213055399</v>
+        <v>11057.289270281392</v>
       </c>
       <c r="AG21">
         <f t="shared" si="18"/>
-        <v>18211.124935344462</v>
+        <v>15037.596992570452</v>
       </c>
       <c r="AH21">
         <f t="shared" si="19"/>
-        <v>21739.365764596263</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>18565.83782182225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2038</v>
       </c>
@@ -18944,31 +18975,31 @@
       </c>
       <c r="U22">
         <f>OPEX!$B$3</f>
-        <v>21008.816291188887</v>
+        <v>40417.824540457572</v>
       </c>
       <c r="V22">
         <f t="shared" si="8"/>
-        <v>112615.98370881114</v>
+        <v>93206.975459542446</v>
       </c>
       <c r="W22">
         <f t="shared" si="9"/>
-        <v>134928.78370881113</v>
+        <v>115519.77545954243</v>
       </c>
       <c r="X22">
         <f t="shared" si="1"/>
-        <v>150063.18370881112</v>
+        <v>130654.17545954243</v>
       </c>
       <c r="Y22">
         <f t="shared" si="10"/>
-        <v>99252.783708811126</v>
+        <v>79843.775459542434</v>
       </c>
       <c r="Z22">
         <f t="shared" si="11"/>
-        <v>119333.58370881111</v>
+        <v>99924.575459542422</v>
       </c>
       <c r="AA22">
         <f t="shared" si="12"/>
-        <v>132955.98370881114</v>
+        <v>113546.97545954245</v>
       </c>
       <c r="AB22">
         <f t="shared" si="13"/>
@@ -18976,30 +19007,30 @@
       </c>
       <c r="AC22">
         <f t="shared" si="14"/>
-        <v>16739.648391985527</v>
+        <v>13854.622989463698</v>
       </c>
       <c r="AD22">
         <f t="shared" si="15"/>
-        <v>20056.303935362634</v>
+        <v>17171.278532840806</v>
       </c>
       <c r="AE22">
         <f t="shared" si="16"/>
-        <v>22305.93605933123</v>
+        <v>19420.910656809403</v>
       </c>
       <c r="AF22">
         <f t="shared" si="17"/>
-        <v>14753.29386197329</v>
+        <v>11868.268459451463</v>
       </c>
       <c r="AG22">
         <f t="shared" si="18"/>
-        <v>17738.17682760051</v>
+        <v>14853.15142507868</v>
       </c>
       <c r="AH22">
         <f t="shared" si="19"/>
-        <v>19763.059785996604</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+        <v>16878.034383474776</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="I25" t="s">
         <v>29</v>
       </c>
@@ -19013,7 +19044,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -19036,7 +19067,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2018</v>
       </c>
@@ -19065,7 +19096,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>2019</v>
       </c>
@@ -19094,7 +19125,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2020</v>
       </c>
@@ -19123,7 +19154,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="32" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>2021</v>
       </c>
@@ -19152,7 +19183,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2022</v>
       </c>
@@ -19181,7 +19212,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>2023</v>
       </c>
@@ -19210,7 +19241,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>2024</v>
       </c>
@@ -19239,7 +19270,7 @@
         <v>4194</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>2025</v>
       </c>
@@ -19268,7 +19299,7 @@
         <v>7535</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>2026</v>
       </c>
@@ -19297,7 +19328,7 @@
         <v>12384</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>2027</v>
       </c>
@@ -19326,7 +19357,7 @@
         <v>17565</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>2028</v>
       </c>
@@ -19355,7 +19386,7 @@
         <v>20675</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>2029</v>
       </c>
@@ -19384,7 +19415,7 @@
         <v>21341</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>2030</v>
       </c>
@@ -19413,7 +19444,7 @@
         <v>21372</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>2031</v>
       </c>
@@ -19442,7 +19473,7 @@
         <v>21377</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>2032</v>
       </c>
@@ -19471,7 +19502,7 @@
         <v>21380</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>2033</v>
       </c>
@@ -19500,7 +19531,7 @@
         <v>21382</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>2034</v>
       </c>
@@ -19529,7 +19560,7 @@
         <v>21383</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>2035</v>
       </c>
@@ -19558,7 +19589,7 @@
         <v>21383</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>2036</v>
       </c>
@@ -19587,7 +19618,7 @@
         <v>21384</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>2037</v>
       </c>
@@ -19616,7 +19647,7 @@
         <v>21384</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>2038</v>
       </c>
@@ -19662,9 +19693,9 @@
       <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="19" max="19" width="14.85546875" customWidth="1"/>
+    <col min="19" max="19" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
@@ -21114,7 +21145,7 @@
       <selection activeCell="B17" sqref="B17:L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -22563,7 +22594,7 @@
       <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -24012,7 +24043,7 @@
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -25461,7 +25492,7 @@
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -26910,7 +26941,7 @@
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">

--- a/tumlknexpectimax/excel_data/input_data_residential.xlsx
+++ b/tumlknexpectimax/excel_data/input_data_residential.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="888" windowWidth="15108" windowHeight="8568"/>
+    <workbookView xWindow="480" yWindow="888" windowWidth="15108" windowHeight="8568" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CAPEX" sheetId="1" r:id="rId1"/>
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="81">
   <si>
     <t>Technology Name</t>
   </si>
@@ -437,6 +437,9 @@
   <si>
     <t>Approx OPEX per year</t>
   </si>
+  <si>
+    <t>384090.367674523+20*5000</t>
+  </si>
 </sst>
 </file>
 
@@ -445,7 +448,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000000%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,8 +512,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -538,8 +549,14 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -601,6 +618,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="double">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -612,7 +666,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -626,6 +680,9 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="5"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Calculation" xfId="6" builtinId="22"/>
@@ -1485,46 +1542,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>22235.860614840989</c:v>
+                  <c:v>51114.587309311035</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40417.824540457572</c:v>
+                  <c:v>30429.282118970365</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10284.911774408707</c:v>
+                  <c:v>66109.823692218881</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10087.180949254118</c:v>
+                  <c:v>66648.422052537615</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25537.980949254121</c:v>
+                  <c:v>8108.705667292159</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22931.711774408708</c:v>
+                  <c:v>8798.3519740095981</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42195.024540457569</c:v>
+                  <c:v>69659.850521829372</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10931.111774408706</c:v>
+                  <c:v>70126.863400003014</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11387.180949254118</c:v>
+                  <c:v>70620.289169209602</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40129.777077216313</c:v>
+                  <c:v>51210.227713520049</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10848.398195532201</c:v>
+                  <c:v>67227.8721002112</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26209.110195532205</c:v>
+                  <c:v>12139.814930199653</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25654.377077216312</c:v>
+                  <c:v>70921.654760442281</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12451.598195532202</c:v>
+                  <c:v>72488.476920599642</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2942,8 +2999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3351,7 +3408,8 @@
         <v>0</v>
       </c>
       <c r="Q6" s="8">
-        <v>658286.15266324603</v>
+        <f>658286.152663246+(20*5000)</f>
+        <v>758286.15266324603</v>
       </c>
       <c r="R6" s="12">
         <v>66893.848581055019</v>
@@ -3426,8 +3484,8 @@
       <c r="P7" s="8">
         <v>85582.633114971599</v>
       </c>
-      <c r="Q7" s="8">
-        <v>384090.36767452297</v>
+      <c r="Q7" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="R7" s="12">
         <v>108181.99766751831</v>
@@ -16530,8 +16588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16552,85 +16610,79 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B2">
         <f>AVERAGE(B3:B15)</f>
-        <v>22235.860614840989</v>
+        <v>51114.587309311035</v>
       </c>
       <c r="C2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B3">
-        <f>0.1*(CAPEX!T3+CAPEX!U3)+0.01*(CAPEX!R3+CAPEX!S3)</f>
-        <v>40417.824540457572</v>
+      <c r="B3" s="13">
+        <v>30429.282118970365</v>
       </c>
       <c r="C3">
         <v>7.2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B4">
-        <f>0.1*(CAPEX!T4+CAPEX!U4)+0.01*(CAPEX!R4+CAPEX!S4)</f>
-        <v>10284.911774408707</v>
+      <c r="B4" s="13">
+        <v>66109.823692218881</v>
       </c>
       <c r="C4">
         <v>9.6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B5">
-        <f>0.1*(CAPEX!T5+CAPEX!U5)+0.01*(CAPEX!R5+CAPEX!S5)</f>
-        <v>10087.180949254118</v>
+      <c r="B5" s="13">
+        <v>66648.422052537615</v>
       </c>
       <c r="C5">
         <v>9.6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B6">
-        <f>0.1*(CAPEX!T6+CAPEX!U6)+0.01*(CAPEX!R6+CAPEX!S6)</f>
-        <v>25537.980949254121</v>
+      <c r="B6" s="13">
+        <v>8108.705667292159</v>
       </c>
       <c r="C6">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B7">
-        <f>0.1*(CAPEX!T7+CAPEX!U7)+0.01*(CAPEX!R7+CAPEX!S7)</f>
-        <v>22931.711774408708</v>
+      <c r="B7" s="13">
+        <v>8798.3519740095981</v>
       </c>
       <c r="C7">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B8">
-        <f>0.1*(CAPEX!T8+CAPEX!U8)+0.01*(CAPEX!R8+CAPEX!S8)</f>
-        <v>42195.024540457569</v>
+      <c r="B8" s="13">
+        <v>69659.850521829372</v>
       </c>
       <c r="C8">
         <v>12</v>
@@ -16640,9 +16692,8 @@
       <c r="A9" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B9">
-        <f>0.1*(CAPEX!T9+CAPEX!U9)+0.01*(CAPEX!R9+CAPEX!S9)</f>
-        <v>10931.111774408706</v>
+      <c r="B9" s="14">
+        <v>70126.863400003014</v>
       </c>
       <c r="C9">
         <v>12</v>
@@ -16652,69 +16703,63 @@
       <c r="A10" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B10">
-        <f>0.1*(CAPEX!T10+CAPEX!U10)+0.01*(CAPEX!R10+CAPEX!S10)</f>
-        <v>11387.180949254118</v>
+      <c r="B10" s="14">
+        <v>70620.289169209602</v>
       </c>
       <c r="C10">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B11">
-        <f>0.1*(CAPEX!T11+CAPEX!U11)+0.01*(CAPEX!R11+CAPEX!S11)</f>
-        <v>40129.777077216313</v>
+      <c r="B11" s="14">
+        <v>51210.227713520049</v>
       </c>
       <c r="C11">
         <v>7.2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B12">
-        <f>0.1*(CAPEX!T12+CAPEX!U12)+0.01*(CAPEX!R12+CAPEX!S12)</f>
-        <v>10848.398195532201</v>
+      <c r="B12" s="13">
+        <v>67227.8721002112</v>
       </c>
       <c r="C12">
         <v>9.6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B13">
-        <f>0.1*(CAPEX!T13+CAPEX!U13)+0.01*(CAPEX!R13+CAPEX!S13)</f>
-        <v>26209.110195532205</v>
+      <c r="B13" s="13">
+        <v>12139.814930199653</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B14">
-        <f>0.1*(CAPEX!T14+CAPEX!U14)+0.01*(CAPEX!R14+CAPEX!S14)</f>
-        <v>25654.377077216312</v>
+      <c r="B14" s="13">
+        <v>70921.654760442281</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B15">
-        <f>0.1*(CAPEX!T15+CAPEX!U15)+0.01*(CAPEX!R15+CAPEX!S15)</f>
-        <v>12451.598195532202</v>
+      <c r="B15" s="15">
+        <v>72488.476920599642</v>
       </c>
       <c r="C15">
         <v>12</v>
@@ -16876,31 +16921,31 @@
       </c>
       <c r="U2">
         <f>OPEX!$B$3</f>
-        <v>40417.824540457572</v>
+        <v>30429.282118970365</v>
       </c>
       <c r="V2">
         <f>O2-U2</f>
-        <v>-39726.624540457575</v>
+        <v>-29738.082118970364</v>
       </c>
       <c r="W2">
         <f>P2-U2</f>
-        <v>-39726.624540457575</v>
+        <v>-29738.082118970364</v>
       </c>
       <c r="X2">
         <f t="shared" ref="X2:X22" si="1">Q2-U2</f>
-        <v>-39726.624540457575</v>
+        <v>-29738.082118970364</v>
       </c>
       <c r="Y2">
         <f>R2-$U2</f>
-        <v>-39798.624540457575</v>
+        <v>-29810.082118970364</v>
       </c>
       <c r="Z2">
         <f>S2-$U2</f>
-        <v>-39798.624540457575</v>
+        <v>-29810.082118970364</v>
       </c>
       <c r="AA2">
         <f>T2-$U2</f>
-        <v>-39798.624540457575</v>
+        <v>-29810.082118970364</v>
       </c>
       <c r="AB2">
         <f>1/POWER(1+$L$25,N2-2018)</f>
@@ -16908,27 +16953,27 @@
       </c>
       <c r="AC2">
         <f>V2*AB2</f>
-        <v>-39726.624540457575</v>
+        <v>-29738.082118970364</v>
       </c>
       <c r="AD2">
         <f>W2*AB2</f>
-        <v>-39726.624540457575</v>
+        <v>-29738.082118970364</v>
       </c>
       <c r="AE2">
         <f>X2*AB2</f>
-        <v>-39726.624540457575</v>
+        <v>-29738.082118970364</v>
       </c>
       <c r="AF2">
         <f>Y2*$AB2</f>
-        <v>-39798.624540457575</v>
+        <v>-29810.082118970364</v>
       </c>
       <c r="AG2">
         <f>Z2*$AB2</f>
-        <v>-39798.624540457575</v>
+        <v>-29810.082118970364</v>
       </c>
       <c r="AH2">
         <f>AA2*$AB2</f>
-        <v>-39798.624540457575</v>
+        <v>-29810.082118970364</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
@@ -16978,31 +17023,31 @@
       </c>
       <c r="U3">
         <f>OPEX!$B$3</f>
-        <v>40417.824540457572</v>
+        <v>30429.282118970365</v>
       </c>
       <c r="V3">
         <f t="shared" ref="V3:V22" si="8">O3-U3</f>
-        <v>-39496.224540457573</v>
+        <v>-29507.682118970366</v>
       </c>
       <c r="W3">
         <f t="shared" ref="W3:W22" si="9">P3-U3</f>
-        <v>-39467.42454045757</v>
+        <v>-29478.882118970363</v>
       </c>
       <c r="X3">
         <f t="shared" si="1"/>
-        <v>-39129.024540457569</v>
+        <v>-29140.482118970365</v>
       </c>
       <c r="Y3">
         <f t="shared" ref="Y3:Y22" si="10">R3-$U3</f>
-        <v>-39589.824540457572</v>
+        <v>-29601.282118970365</v>
       </c>
       <c r="Z3">
         <f t="shared" ref="Z3:Z22" si="11">S3-$U3</f>
-        <v>-39568.224540457573</v>
+        <v>-29579.682118970366</v>
       </c>
       <c r="AA3">
         <f t="shared" ref="AA3:AA22" si="12">T3-$U3</f>
-        <v>-39258.624540457575</v>
+        <v>-29270.082118970364</v>
       </c>
       <c r="AB3">
         <f t="shared" ref="AB3:AB22" si="13">1/POWER(1+$L$25,N3-2018)</f>
@@ -17010,27 +17055,27 @@
       </c>
       <c r="AC3">
         <f t="shared" ref="AC3:AC22" si="14">V3*AB3</f>
-        <v>-35905.658673143247</v>
+        <v>-26825.165562700331</v>
       </c>
       <c r="AD3">
         <f t="shared" ref="AD3:AD22" si="15">W3*AB3</f>
-        <v>-35879.476854961424</v>
+        <v>-26798.983744518511</v>
       </c>
       <c r="AE3">
         <f t="shared" ref="AE3:AE22" si="16">X3*AB3</f>
-        <v>-35571.840491325063</v>
+        <v>-26491.347380882151</v>
       </c>
       <c r="AF3">
         <f t="shared" ref="AF3:AF22" si="17">Y3*$AB3</f>
-        <v>-35990.749582234152</v>
+        <v>-26910.256471791239</v>
       </c>
       <c r="AG3">
         <f t="shared" ref="AG3:AG22" si="18">Z3*$AB3</f>
-        <v>-35971.113218597791</v>
+        <v>-26890.620108154879</v>
       </c>
       <c r="AH3">
         <f t="shared" ref="AH3:AH22" si="19">AA3*$AB3</f>
-        <v>-35689.658673143247</v>
+        <v>-26609.165562700331</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.3">
@@ -17080,31 +17125,31 @@
       </c>
       <c r="U4">
         <f>OPEX!$B$3</f>
-        <v>40417.824540457572</v>
+        <v>30429.282118970365</v>
       </c>
       <c r="V4">
         <f t="shared" si="8"/>
-        <v>-39179.42454045757</v>
+        <v>-29190.882118970363</v>
       </c>
       <c r="W4">
         <f t="shared" si="9"/>
-        <v>-39100.224540457573</v>
+        <v>-29111.682118970366</v>
       </c>
       <c r="X4">
         <f t="shared" si="1"/>
-        <v>-37955.42454045757</v>
+        <v>-27966.882118970363</v>
       </c>
       <c r="Y4">
         <f t="shared" si="10"/>
-        <v>-39309.024540457569</v>
+        <v>-29320.482118970365</v>
       </c>
       <c r="Z4">
         <f t="shared" si="11"/>
-        <v>-39237.024540457569</v>
+        <v>-29248.482118970365</v>
       </c>
       <c r="AA4">
         <f t="shared" si="12"/>
-        <v>-38207.42454045757</v>
+        <v>-28218.882118970363</v>
       </c>
       <c r="AB4">
         <f t="shared" si="13"/>
@@ -17112,27 +17157,27 @@
       </c>
       <c r="AC4">
         <f t="shared" si="14"/>
-        <v>-32379.689702857493</v>
+        <v>-24124.695966091207</v>
       </c>
       <c r="AD4">
         <f t="shared" si="15"/>
-        <v>-32314.235157402949</v>
+        <v>-24059.241420636663</v>
       </c>
       <c r="AE4">
         <f t="shared" si="16"/>
-        <v>-31368.11945492361</v>
+        <v>-23113.125718157324</v>
       </c>
       <c r="AF4">
         <f t="shared" si="17"/>
-        <v>-32486.79714087402</v>
+        <v>-24231.803404107737</v>
       </c>
       <c r="AG4">
         <f t="shared" si="18"/>
-        <v>-32427.293008642617</v>
+        <v>-24172.299271876331</v>
       </c>
       <c r="AH4">
         <f t="shared" si="19"/>
-        <v>-31576.383917733525</v>
+        <v>-23321.390180967239</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
@@ -17189,31 +17234,31 @@
       </c>
       <c r="U5">
         <f>OPEX!$B$3</f>
-        <v>40417.824540457572</v>
+        <v>30429.282118970365</v>
       </c>
       <c r="V5">
         <f t="shared" si="8"/>
-        <v>-38740.224540457573</v>
+        <v>-28751.682118970366</v>
       </c>
       <c r="W5">
         <f t="shared" si="9"/>
-        <v>-38567.42454045757</v>
+        <v>-28578.882118970363</v>
       </c>
       <c r="X5">
         <f t="shared" si="1"/>
-        <v>-35658.624540457575</v>
+        <v>-25670.082118970364</v>
       </c>
       <c r="Y5">
         <f t="shared" si="10"/>
-        <v>-38913.024540457569</v>
+        <v>-28924.482118970365</v>
       </c>
       <c r="Z5">
         <f t="shared" si="11"/>
-        <v>-38754.624540457575</v>
+        <v>-28766.082118970364</v>
       </c>
       <c r="AA5">
         <f t="shared" si="12"/>
-        <v>-36141.024540457569</v>
+        <v>-26152.482118970365</v>
       </c>
       <c r="AB5">
         <f t="shared" si="13"/>
@@ -17221,27 +17266,27 @@
       </c>
       <c r="AC5">
         <f t="shared" si="14"/>
-        <v>-29106.104087496289</v>
+        <v>-21601.564326799667</v>
       </c>
       <c r="AD5">
         <f t="shared" si="15"/>
-        <v>-28976.276889900495</v>
+        <v>-21471.737129203873</v>
       </c>
       <c r="AE5">
         <f t="shared" si="16"/>
-        <v>-26790.85239703799</v>
+        <v>-19286.312636341365</v>
       </c>
       <c r="AF5">
         <f t="shared" si="17"/>
-        <v>-29235.93128509208</v>
+        <v>-21731.391524395458</v>
       </c>
       <c r="AG5">
         <f t="shared" si="18"/>
-        <v>-29116.923020629274</v>
+        <v>-21612.383259932649</v>
       </c>
       <c r="AH5">
         <f t="shared" si="19"/>
-        <v>-27153.286656992907</v>
+        <v>-19648.746896296288</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.3">
@@ -17298,31 +17343,31 @@
       </c>
       <c r="U6">
         <f>OPEX!$B$3</f>
-        <v>40417.824540457572</v>
+        <v>30429.282118970365</v>
       </c>
       <c r="V6">
         <f t="shared" si="8"/>
-        <v>-38128.224540457573</v>
+        <v>-28139.682118970366</v>
       </c>
       <c r="W6">
         <f t="shared" si="9"/>
-        <v>-37804.224540457573</v>
+        <v>-27815.682118970366</v>
       </c>
       <c r="X6">
         <f t="shared" si="1"/>
-        <v>-31173.024540457569</v>
+        <v>-21184.482118970365</v>
       </c>
       <c r="Y6">
         <f t="shared" si="10"/>
-        <v>-38358.624540457575</v>
+        <v>-28370.082118970364</v>
       </c>
       <c r="Z6">
         <f t="shared" si="11"/>
-        <v>-38070.624540457575</v>
+        <v>-28082.082118970364</v>
       </c>
       <c r="AA6">
         <f t="shared" si="12"/>
-        <v>-32101.824540457572</v>
+        <v>-22113.282118970365</v>
       </c>
       <c r="AB6">
         <f t="shared" si="13"/>
@@ -17330,27 +17375,27 @@
       </c>
       <c r="AC6">
         <f t="shared" si="14"/>
-        <v>-26042.090390313206</v>
+        <v>-19219.78151695264</v>
       </c>
       <c r="AD6">
         <f t="shared" si="15"/>
-        <v>-25820.794030774923</v>
+        <v>-18998.485157414358</v>
       </c>
       <c r="AE6">
         <f t="shared" si="16"/>
-        <v>-21291.595205558064</v>
+        <v>-14469.2863321975</v>
       </c>
       <c r="AF6">
         <f t="shared" si="17"/>
-        <v>-26199.456690429317</v>
+        <v>-19377.147817068751</v>
       </c>
       <c r="AG6">
         <f t="shared" si="18"/>
-        <v>-26002.74881528418</v>
+        <v>-19180.439941923611</v>
       </c>
       <c r="AH6">
         <f t="shared" si="19"/>
-        <v>-21925.978102901143</v>
+        <v>-15103.669229540577</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.3">
@@ -17407,31 +17452,31 @@
       </c>
       <c r="U7">
         <f>OPEX!$B$3</f>
-        <v>40417.824540457572</v>
+        <v>30429.282118970365</v>
       </c>
       <c r="V7">
         <f t="shared" si="8"/>
-        <v>-37285.824540457572</v>
+        <v>-27297.282118970365</v>
       </c>
       <c r="W7">
         <f t="shared" si="9"/>
-        <v>-36717.024540457569</v>
+        <v>-26728.482118970365</v>
       </c>
       <c r="X7">
         <f t="shared" si="1"/>
-        <v>-22612.22454045757</v>
+        <v>-12623.682118970362</v>
       </c>
       <c r="Y7">
         <f t="shared" si="10"/>
-        <v>-37602.624540457575</v>
+        <v>-27614.082118970364</v>
       </c>
       <c r="Z7">
         <f t="shared" si="11"/>
-        <v>-37091.42454045757</v>
+        <v>-27102.882118970363</v>
       </c>
       <c r="AA7">
         <f t="shared" si="12"/>
-        <v>-24397.824540457572</v>
+        <v>-14409.282118970365</v>
       </c>
       <c r="AB7">
         <f t="shared" si="13"/>
@@ -17439,27 +17484,27 @@
       </c>
       <c r="AC7">
         <f t="shared" si="14"/>
-        <v>-23151.563505012422</v>
+        <v>-16949.464529230092</v>
       </c>
       <c r="AD7">
         <f t="shared" si="15"/>
-        <v>-22798.383456456373</v>
+        <v>-16596.284480674043</v>
       </c>
       <c r="AE7">
         <f t="shared" si="16"/>
-        <v>-14040.412378971605</v>
+        <v>-7838.3134031892741</v>
       </c>
       <c r="AF7">
         <f t="shared" si="17"/>
-        <v>-23348.271380157566</v>
+        <v>-17146.172404375229</v>
       </c>
       <c r="AG7">
         <f t="shared" si="18"/>
-        <v>-23030.856399809723</v>
+        <v>-16828.75742402739</v>
       </c>
       <c r="AH7">
         <f t="shared" si="19"/>
-        <v>-15149.129493426035</v>
+        <v>-8947.0305176437014</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
@@ -17516,31 +17561,31 @@
       </c>
       <c r="U8">
         <f>OPEX!$B$3</f>
-        <v>40417.824540457572</v>
+        <v>30429.282118970365</v>
       </c>
       <c r="V8">
         <f t="shared" si="8"/>
-        <v>-36141.024540457569</v>
+        <v>-26152.482118970365</v>
       </c>
       <c r="W8">
         <f t="shared" si="9"/>
-        <v>-35183.42454045757</v>
+        <v>-25194.882118970363</v>
       </c>
       <c r="X8">
         <f t="shared" si="1"/>
-        <v>-6865.8245404575719</v>
+        <v>3122.7178810296355</v>
       </c>
       <c r="Y8">
         <f t="shared" si="10"/>
-        <v>-36573.024540457569</v>
+        <v>-26584.482118970365</v>
       </c>
       <c r="Z8">
         <f t="shared" si="11"/>
-        <v>-35709.024540457569</v>
+        <v>-25720.482118970365</v>
       </c>
       <c r="AA8">
         <f t="shared" si="12"/>
-        <v>-10221.024540457573</v>
+        <v>-232.48211897036526</v>
       </c>
       <c r="AB8">
         <f t="shared" si="13"/>
@@ -17548,27 +17593,27 @@
       </c>
       <c r="AC8">
         <f t="shared" si="14"/>
-        <v>-20400.66615852209</v>
+        <v>-14762.394362356337</v>
       </c>
       <c r="AD8">
         <f t="shared" si="15"/>
-        <v>-19860.125923102594</v>
+        <v>-14221.85412693684</v>
       </c>
       <c r="AE8">
         <f t="shared" si="16"/>
-        <v>-3875.5789614117543</v>
+        <v>1762.6928347540018</v>
       </c>
       <c r="AF8">
         <f t="shared" si="17"/>
-        <v>-20644.518896305322</v>
+        <v>-15006.24710013957</v>
       </c>
       <c r="AG8">
         <f t="shared" si="18"/>
-        <v>-20156.813420738861</v>
+        <v>-14518.541624573105</v>
       </c>
       <c r="AH8">
         <f t="shared" si="19"/>
-        <v>-5769.501891528188</v>
+        <v>-131.23009536243188</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
@@ -17624,31 +17669,31 @@
       </c>
       <c r="U9">
         <f>OPEX!$B$3</f>
-        <v>40417.824540457572</v>
+        <v>30429.282118970365</v>
       </c>
       <c r="V9">
         <f t="shared" si="8"/>
-        <v>-34564.224540457573</v>
+        <v>-24575.682118970362</v>
       </c>
       <c r="W9">
         <f t="shared" si="9"/>
-        <v>-33023.42454045757</v>
+        <v>-23034.882118970363</v>
       </c>
       <c r="X9">
         <f t="shared" si="1"/>
-        <v>19867.775459542427</v>
+        <v>29856.317881029634</v>
       </c>
       <c r="Y9">
         <f t="shared" si="10"/>
-        <v>-35154.624540457575</v>
+        <v>-25166.082118970364</v>
       </c>
       <c r="Z9">
         <f t="shared" si="11"/>
-        <v>-33765.024540457569</v>
+        <v>-23776.482118970365</v>
       </c>
       <c r="AA9">
         <f t="shared" si="12"/>
-        <v>13834.175459542428</v>
+        <v>23822.717881029635</v>
       </c>
       <c r="AB9">
         <f t="shared" si="13"/>
@@ -17656,27 +17701,27 @@
       </c>
       <c r="AC9">
         <f t="shared" si="14"/>
-        <v>-17736.912423284812</v>
+        <v>-12611.210790406853</v>
       </c>
       <c r="AD9">
         <f t="shared" si="15"/>
-        <v>-16946.238394714939</v>
+        <v>-11820.53676183698</v>
       </c>
       <c r="AE9">
         <f t="shared" si="16"/>
-        <v>10195.310268249001</v>
+        <v>15321.01190112696</v>
       </c>
       <c r="AF9">
         <f t="shared" si="17"/>
-        <v>-18039.880976288223</v>
+        <v>-12914.179343410262</v>
       </c>
       <c r="AG9">
         <f t="shared" si="18"/>
-        <v>-17326.796455194832</v>
+        <v>-12201.094822316873</v>
       </c>
       <c r="AH9">
         <f t="shared" si="19"/>
-        <v>7099.1194460922106</v>
+        <v>12224.82107897017</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
@@ -17732,31 +17777,31 @@
       </c>
       <c r="U10">
         <f>OPEX!$B$3</f>
-        <v>40417.824540457572</v>
+        <v>30429.282118970365</v>
       </c>
       <c r="V10">
         <f t="shared" si="8"/>
-        <v>-32433.024540457573</v>
+        <v>-22444.482118970365</v>
       </c>
       <c r="W10">
         <f t="shared" si="9"/>
-        <v>-30006.624540457571</v>
+        <v>-20018.082118970364</v>
       </c>
       <c r="X10">
         <f t="shared" si="1"/>
-        <v>58654.175459542428</v>
+        <v>68642.717881029632</v>
       </c>
       <c r="Y10">
         <f t="shared" si="10"/>
-        <v>-33232.224540457573</v>
+        <v>-23243.682118970362</v>
       </c>
       <c r="Z10">
         <f t="shared" si="11"/>
-        <v>-31050.624540457571</v>
+        <v>-21062.082118970364</v>
       </c>
       <c r="AA10">
         <f t="shared" si="12"/>
-        <v>48746.975459542431</v>
+        <v>58735.517881029635</v>
       </c>
       <c r="AB10">
         <f t="shared" si="13"/>
@@ -17764,27 +17809,27 @@
       </c>
       <c r="AC10">
         <f t="shared" si="14"/>
-        <v>-15130.245310646846</v>
+        <v>-10470.516553485066</v>
       </c>
       <c r="AD10">
         <f t="shared" si="15"/>
-        <v>-13998.311803305949</v>
+        <v>-9338.5830461441674</v>
       </c>
       <c r="AE10">
         <f t="shared" si="16"/>
-        <v>27362.605731993161</v>
+        <v>32022.334489154939</v>
       </c>
       <c r="AF10">
         <f t="shared" si="17"/>
-        <v>-15503.078008910466</v>
+        <v>-10843.349251748683</v>
       </c>
       <c r="AG10">
         <f t="shared" si="18"/>
-        <v>-14485.345508244911</v>
+        <v>-9825.6167510831292</v>
       </c>
       <c r="AH10">
         <f t="shared" si="19"/>
-        <v>22740.823814779291</v>
+        <v>27400.552571941073</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
@@ -17840,31 +17885,31 @@
       </c>
       <c r="U11">
         <f>OPEX!$B$3</f>
-        <v>40417.824540457572</v>
+        <v>30429.282118970365</v>
       </c>
       <c r="V11">
         <f t="shared" si="8"/>
-        <v>-29553.024540457569</v>
+        <v>-19564.482118970365</v>
       </c>
       <c r="W11">
         <f t="shared" si="9"/>
-        <v>-25816.224540457573</v>
+        <v>-15827.682118970364</v>
       </c>
       <c r="X11">
         <f t="shared" si="1"/>
-        <v>100104.57545954242</v>
+        <v>110093.11788102963</v>
       </c>
       <c r="Y11">
         <f t="shared" si="10"/>
-        <v>-30640.224540457573</v>
+        <v>-20651.682118970362</v>
       </c>
       <c r="Z11">
         <f t="shared" si="11"/>
-        <v>-27277.824540457572</v>
+        <v>-17289.282118970365</v>
       </c>
       <c r="AA11">
         <f t="shared" si="12"/>
-        <v>86050.175459542428</v>
+        <v>96038.717881029632</v>
       </c>
       <c r="AB11">
         <f t="shared" si="13"/>
@@ -17872,27 +17917,27 @@
       </c>
       <c r="AC11">
         <f t="shared" si="14"/>
-        <v>-12533.367323311648</v>
+        <v>-8297.2502713463946</v>
       </c>
       <c r="AD11">
         <f t="shared" si="15"/>
-        <v>-10948.59934297735</v>
+        <v>-6712.4822910120929</v>
       </c>
       <c r="AE11">
         <f t="shared" si="16"/>
-        <v>42454.112040580614</v>
+        <v>46690.229092545873</v>
       </c>
       <c r="AF11">
         <f t="shared" si="17"/>
-        <v>-12994.446254006216</v>
+        <v>-8758.329202040959</v>
       </c>
       <c r="AG11">
         <f t="shared" si="18"/>
-        <v>-11568.460421990572</v>
+        <v>-7332.3433700253163</v>
       </c>
       <c r="AH11">
         <f t="shared" si="19"/>
-        <v>36493.674472926366</v>
+        <v>40729.791524891625</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.3">
@@ -17949,31 +17994,31 @@
       </c>
       <c r="U12">
         <f>OPEX!$B$3</f>
-        <v>40417.824540457572</v>
+        <v>30429.282118970365</v>
       </c>
       <c r="V12">
         <f t="shared" si="8"/>
-        <v>-25701.024540457569</v>
+        <v>-15712.482118970363</v>
       </c>
       <c r="W12">
         <f t="shared" si="9"/>
-        <v>-20099.42454045757</v>
+        <v>-10110.882118970363</v>
       </c>
       <c r="X12">
         <f t="shared" si="1"/>
-        <v>124987.77545954243</v>
+        <v>134976.31788102965</v>
       </c>
       <c r="Y12">
         <f t="shared" si="10"/>
-        <v>-27177.024540457569</v>
+        <v>-17188.482118970365</v>
       </c>
       <c r="Z12">
         <f t="shared" si="11"/>
-        <v>-22137.024540457573</v>
+        <v>-12148.482118970365</v>
       </c>
       <c r="AA12">
         <f t="shared" si="12"/>
-        <v>108442.17545954243</v>
+        <v>118430.71788102963</v>
       </c>
       <c r="AB12">
         <f t="shared" si="13"/>
@@ -17981,27 +18026,27 @@
       </c>
       <c r="AC12">
         <f t="shared" si="14"/>
-        <v>-9908.8575430371238</v>
+        <v>-6057.8420412505293</v>
       </c>
       <c r="AD12">
         <f t="shared" si="15"/>
-        <v>-7749.1982529686611</v>
+        <v>-3898.1827511820652</v>
       </c>
       <c r="AE12">
         <f t="shared" si="16"/>
-        <v>48188.198089151658</v>
+        <v>52039.213590938263</v>
       </c>
       <c r="AF12">
         <f t="shared" si="17"/>
-        <v>-10477.919438235112</v>
+        <v>-6626.9039364485179</v>
       </c>
       <c r="AG12">
         <f t="shared" si="18"/>
-        <v>-8534.781259510275</v>
+        <v>-4683.7657577236796</v>
       </c>
       <c r="AH12">
         <f t="shared" si="19"/>
-        <v>41809.153039566401</v>
+        <v>45660.168541352999</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
@@ -18057,31 +18102,31 @@
       </c>
       <c r="U13">
         <f>OPEX!$B$3</f>
-        <v>40417.824540457572</v>
+        <v>30429.282118970365</v>
       </c>
       <c r="V13">
         <f t="shared" si="8"/>
-        <v>-20610.624540457571</v>
+        <v>-10622.082118970364</v>
       </c>
       <c r="W13">
         <f t="shared" si="9"/>
-        <v>-12431.42454045757</v>
+        <v>-2442.8821189703631</v>
       </c>
       <c r="X13">
         <f t="shared" si="1"/>
-        <v>130315.77545954243</v>
+        <v>140304.31788102965</v>
       </c>
       <c r="Y13">
         <f t="shared" si="10"/>
-        <v>-22597.824540457572</v>
+        <v>-12609.282118970365</v>
       </c>
       <c r="Z13">
         <f t="shared" si="11"/>
-        <v>-15232.22454045757</v>
+        <v>-5243.6821189703624</v>
       </c>
       <c r="AA13">
         <f t="shared" si="12"/>
-        <v>113237.37545954244</v>
+        <v>123225.91788102964</v>
       </c>
       <c r="AB13">
         <f t="shared" si="13"/>
@@ -18089,27 +18134,27 @@
       </c>
       <c r="AC13">
         <f t="shared" si="14"/>
-        <v>-7223.8981659318515</v>
+        <v>-3722.974982489492</v>
       </c>
       <c r="AD13">
         <f t="shared" si="15"/>
-        <v>-4357.1384632936479</v>
+        <v>-856.21527985128887</v>
       </c>
       <c r="AE13">
         <f t="shared" si="16"/>
-        <v>45674.884304756546</v>
+        <v>49175.807488198909</v>
       </c>
       <c r="AF13">
         <f t="shared" si="17"/>
-        <v>-7920.3996429812742</v>
+        <v>-4419.4764595389152</v>
       </c>
       <c r="AG13">
         <f t="shared" si="18"/>
-        <v>-5338.8017769611306</v>
+        <v>-1837.8785935187718</v>
       </c>
       <c r="AH13">
         <f t="shared" si="19"/>
-        <v>39689.009291853537</v>
+        <v>43189.932475295893</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
@@ -18159,31 +18204,31 @@
       </c>
       <c r="U14">
         <f>OPEX!$B$3</f>
-        <v>40417.824540457572</v>
+        <v>30429.282118970365</v>
       </c>
       <c r="V14">
         <f t="shared" si="8"/>
-        <v>-13979.42454045757</v>
+        <v>-3990.8821189703631</v>
       </c>
       <c r="W14">
         <f t="shared" si="9"/>
-        <v>-2394.6245404575675</v>
+        <v>7593.9178810296398</v>
       </c>
       <c r="X14">
         <f t="shared" si="1"/>
-        <v>130560.57545954242</v>
+        <v>140549.11788102964</v>
       </c>
       <c r="Y14">
         <f t="shared" si="10"/>
-        <v>-16629.024540457573</v>
+        <v>-6640.4821189703653</v>
       </c>
       <c r="Z14">
         <f t="shared" si="11"/>
-        <v>-6203.4245404575704</v>
+        <v>3785.1178810296369</v>
       </c>
       <c r="AA14">
         <f t="shared" si="12"/>
-        <v>113460.57545954242</v>
+        <v>123449.11788102963</v>
       </c>
       <c r="AB14">
         <f t="shared" si="13"/>
@@ -18191,27 +18236,27 @@
       </c>
       <c r="AC14">
         <f t="shared" si="14"/>
-        <v>-4454.2754724462211</v>
+        <v>-1271.6180329531674</v>
       </c>
       <c r="AD14">
         <f t="shared" si="15"/>
-        <v>-763.00117543528154</v>
+        <v>2419.6562640577722</v>
       </c>
       <c r="AE14">
         <f t="shared" si="16"/>
-        <v>41600.622919408714</v>
+        <v>44783.280358901771</v>
       </c>
       <c r="AF14">
         <f t="shared" si="17"/>
-        <v>-5298.5196870515829</v>
+        <v>-2115.8622475585289</v>
       </c>
       <c r="AG14">
         <f t="shared" si="18"/>
-        <v>-1976.6022339304886</v>
+        <v>1206.0552055625653</v>
       </c>
       <c r="AH14">
         <f t="shared" si="19"/>
-        <v>36152.035936561617</v>
+        <v>39334.693376054667</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">
@@ -18261,31 +18306,31 @@
       </c>
       <c r="U15">
         <f>OPEX!$B$3</f>
-        <v>40417.824540457572</v>
+        <v>30429.282118970365</v>
       </c>
       <c r="V15">
         <f t="shared" si="8"/>
-        <v>-5505.0245404575689</v>
+        <v>4483.5178810296384</v>
       </c>
       <c r="W15">
         <f t="shared" si="9"/>
-        <v>10284.57545954243</v>
+        <v>20273.117881029637</v>
       </c>
       <c r="X15">
         <f t="shared" si="1"/>
-        <v>130603.77545954243</v>
+        <v>140592.31788102965</v>
       </c>
       <c r="Y15">
         <f t="shared" si="10"/>
-        <v>-8997.0245404575726</v>
+        <v>991.51788102963474</v>
       </c>
       <c r="Z15">
         <f t="shared" si="11"/>
-        <v>5208.5754595424296</v>
+        <v>15197.117881029637</v>
       </c>
       <c r="AA15">
         <f t="shared" si="12"/>
-        <v>113496.57545954242</v>
+        <v>123485.11788102963</v>
       </c>
       <c r="AB15">
         <f t="shared" si="13"/>
@@ -18293,27 +18338,27 @@
       </c>
       <c r="AC15">
         <f t="shared" si="14"/>
-        <v>-1594.6095189468865</v>
+        <v>1298.7154260467989</v>
       </c>
       <c r="AD15">
         <f t="shared" si="15"/>
-        <v>2979.0751713435188</v>
+        <v>5872.4001163372041</v>
       </c>
       <c r="AE15">
         <f t="shared" si="16"/>
-        <v>37831.261609758003</v>
+        <v>40724.586554751695</v>
       </c>
       <c r="AF15">
         <f t="shared" si="17"/>
-        <v>-2606.1175329874013</v>
+        <v>287.20741200628413</v>
       </c>
       <c r="AG15">
         <f t="shared" si="18"/>
-        <v>1508.7387798000914</v>
+        <v>4402.0637247937766</v>
       </c>
       <c r="AH15">
         <f t="shared" si="19"/>
-        <v>32875.915132726535</v>
+        <v>35769.24007772022</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.3">
@@ -18363,31 +18408,31 @@
       </c>
       <c r="U16">
         <f>OPEX!$B$3</f>
-        <v>40417.824540457572</v>
+        <v>30429.282118970365</v>
       </c>
       <c r="V16">
         <f t="shared" si="8"/>
-        <v>5021.3754595424325</v>
+        <v>15009.91788102964</v>
       </c>
       <c r="W16">
         <f t="shared" si="9"/>
-        <v>25577.375459542425</v>
+        <v>35565.917881029629</v>
       </c>
       <c r="X16">
         <f t="shared" si="1"/>
-        <v>130625.37545954244</v>
+        <v>140613.91788102966</v>
       </c>
       <c r="Y16">
         <f t="shared" si="10"/>
-        <v>470.97545954243105</v>
+        <v>10459.517881029638</v>
       </c>
       <c r="Z16">
         <f t="shared" si="11"/>
-        <v>18974.975459542431</v>
+        <v>28963.517881029638</v>
       </c>
       <c r="AA16">
         <f t="shared" si="12"/>
-        <v>113518.17545954243</v>
+        <v>123506.71788102963</v>
       </c>
       <c r="AB16">
         <f t="shared" si="13"/>
@@ -18395,27 +18440,27 @@
       </c>
       <c r="AC16">
         <f t="shared" si="14"/>
-        <v>1322.2850981030763</v>
+        <v>3952.5805026427897</v>
       </c>
       <c r="AD16">
         <f t="shared" si="15"/>
-        <v>6735.3223616188498</v>
+        <v>9365.6177661585607</v>
       </c>
       <c r="AE16">
         <f t="shared" si="16"/>
-        <v>34397.74396396392</v>
+        <v>37028.039368503632</v>
       </c>
       <c r="AF16">
         <f t="shared" si="17"/>
-        <v>124.02255850869068</v>
+        <v>2754.3179630484037</v>
       </c>
       <c r="AG16">
         <f t="shared" si="18"/>
-        <v>4996.7040881883904</v>
+        <v>7626.9994927281032</v>
       </c>
       <c r="AH16">
         <f t="shared" si="19"/>
-        <v>29892.883530298946</v>
+        <v>32523.178934838659</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.3">
@@ -18465,31 +18510,31 @@
       </c>
       <c r="U17">
         <f>OPEX!$B$3</f>
-        <v>40417.824540457572</v>
+        <v>30429.282118970365</v>
       </c>
       <c r="V17">
         <f t="shared" si="8"/>
-        <v>17671.775459542427</v>
+        <v>27660.317881029634</v>
       </c>
       <c r="W17">
         <f t="shared" si="9"/>
-        <v>42958.175459542428</v>
+        <v>52946.717881029632</v>
       </c>
       <c r="X17">
         <f t="shared" si="1"/>
-        <v>130639.77545954243</v>
+        <v>140628.31788102965</v>
       </c>
       <c r="Y17">
         <f t="shared" si="10"/>
-        <v>11861.375459542433</v>
+        <v>21849.91788102964</v>
       </c>
       <c r="Z17">
         <f t="shared" si="11"/>
-        <v>34620.575459542437</v>
+        <v>44609.117881029641</v>
       </c>
       <c r="AA17">
         <f t="shared" si="12"/>
-        <v>113532.57545954242</v>
+        <v>123521.11788102963</v>
       </c>
       <c r="AB17">
         <f t="shared" si="13"/>
@@ -18497,27 +18542,27 @@
       </c>
       <c r="AC17">
         <f t="shared" si="14"/>
-        <v>4230.4825432515509</v>
+        <v>6621.6601837421995</v>
       </c>
       <c r="AD17">
         <f t="shared" si="15"/>
-        <v>10283.845660419964</v>
+        <v>12675.023300910612</v>
       </c>
       <c r="AE17">
         <f t="shared" si="16"/>
-        <v>31274.123576387203</v>
+        <v>33665.301216877851</v>
       </c>
       <c r="AF17">
         <f t="shared" si="17"/>
-        <v>2839.518979596965</v>
+        <v>5230.6966200876132</v>
       </c>
       <c r="AG17">
         <f t="shared" si="18"/>
-        <v>8287.8905095996288</v>
+        <v>10679.068150090277</v>
       </c>
       <c r="AH17">
         <f t="shared" si="19"/>
-        <v>27178.795909419048</v>
+        <v>29569.973549909693</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.3">
@@ -18567,31 +18612,31 @@
       </c>
       <c r="U18">
         <f>OPEX!$B$3</f>
-        <v>40417.824540457572</v>
+        <v>30429.282118970365</v>
       </c>
       <c r="V18">
         <f t="shared" si="8"/>
-        <v>32208.575459542437</v>
+        <v>42197.117881029641</v>
       </c>
       <c r="W18">
         <f t="shared" si="9"/>
-        <v>61289.375459542425</v>
+        <v>71277.917881029629</v>
       </c>
       <c r="X18">
         <f t="shared" si="1"/>
-        <v>130646.97545954245</v>
+        <v>140635.51788102966</v>
       </c>
       <c r="Y18">
         <f t="shared" si="10"/>
-        <v>24943.775459542427</v>
+        <v>34932.317881029638</v>
       </c>
       <c r="Z18">
         <f t="shared" si="11"/>
-        <v>51115.775459542434</v>
+        <v>61104.317881029638</v>
       </c>
       <c r="AA18">
         <f t="shared" si="12"/>
-        <v>113539.77545954243</v>
+        <v>123528.31788102964</v>
       </c>
       <c r="AB18">
         <f t="shared" si="13"/>
@@ -18599,27 +18644,27 @@
       </c>
       <c r="AC18">
         <f t="shared" si="14"/>
-        <v>7009.5244422920068</v>
+        <v>9183.3222972835047</v>
       </c>
       <c r="AD18">
         <f t="shared" si="15"/>
-        <v>13338.353814378155</v>
+        <v>15512.151669369654</v>
       </c>
       <c r="AE18">
         <f t="shared" si="16"/>
-        <v>28432.588362856965</v>
+        <v>30606.386217848467</v>
       </c>
       <c r="AF18">
         <f t="shared" si="17"/>
-        <v>5428.4922966037329</v>
+        <v>7602.2901515952326</v>
       </c>
       <c r="AG18">
         <f t="shared" si="18"/>
-        <v>11124.282038503503</v>
+        <v>13298.079893495</v>
       </c>
       <c r="AH18">
         <f t="shared" si="19"/>
-        <v>24709.563211067732</v>
+        <v>26883.361066059231</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.3">
@@ -18669,31 +18714,31 @@
       </c>
       <c r="U19">
         <f>OPEX!$B$3</f>
-        <v>40417.824540457572</v>
+        <v>30429.282118970365</v>
       </c>
       <c r="V19">
         <f t="shared" si="8"/>
-        <v>48048.575459542437</v>
+        <v>58037.117881029641</v>
       </c>
       <c r="W19">
         <f t="shared" si="9"/>
-        <v>78972.575459542437</v>
+        <v>88961.117881029641</v>
       </c>
       <c r="X19">
         <f t="shared" si="1"/>
-        <v>130646.97545954245</v>
+        <v>140635.51788102966</v>
       </c>
       <c r="Y19">
         <f t="shared" si="10"/>
-        <v>39199.775459542434</v>
+        <v>49188.317881029638</v>
       </c>
       <c r="Z19">
         <f t="shared" si="11"/>
-        <v>67027.775459542434</v>
+        <v>77016.317881029638</v>
       </c>
       <c r="AA19">
         <f t="shared" si="12"/>
-        <v>113539.77545954243</v>
+        <v>123528.31788102964</v>
       </c>
       <c r="AB19">
         <f t="shared" si="13"/>
@@ -18701,27 +18746,27 @@
       </c>
       <c r="AC19">
         <f t="shared" si="14"/>
-        <v>9506.1545029163262</v>
+        <v>11482.334371090416</v>
       </c>
       <c r="AD19">
         <f t="shared" si="15"/>
-        <v>15624.303043984102</v>
+        <v>17600.48291215819</v>
       </c>
       <c r="AE19">
         <f t="shared" si="16"/>
-        <v>25847.80760259724</v>
+        <v>27823.987470771332</v>
       </c>
       <c r="AF19">
         <f t="shared" si="17"/>
-        <v>7755.4665967528108</v>
+        <v>9731.6464649269001</v>
       </c>
       <c r="AG19">
         <f t="shared" si="18"/>
-        <v>13261.088042905769</v>
+        <v>15237.267911079858</v>
       </c>
       <c r="AH19">
         <f t="shared" si="19"/>
-        <v>22463.239282788847</v>
+        <v>24439.419150962938</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.3">
@@ -18771,31 +18816,31 @@
       </c>
       <c r="U20">
         <f>OPEX!$B$3</f>
-        <v>40417.824540457572</v>
+        <v>30429.282118970365</v>
       </c>
       <c r="V20">
         <f t="shared" si="8"/>
-        <v>64234.175459542428</v>
+        <v>74222.717881029632</v>
       </c>
       <c r="W20">
         <f t="shared" si="9"/>
-        <v>94438.175459542428</v>
+        <v>104426.71788102963</v>
       </c>
       <c r="X20">
         <f t="shared" si="1"/>
-        <v>130654.17545954243</v>
+        <v>140642.71788102965</v>
       </c>
       <c r="Y20">
         <f t="shared" si="10"/>
-        <v>53765.375459542425</v>
+        <v>63753.917881029629</v>
       </c>
       <c r="Z20">
         <f t="shared" si="11"/>
-        <v>80952.575459542437</v>
+        <v>90941.117881029641</v>
       </c>
       <c r="AA20">
         <f t="shared" si="12"/>
-        <v>113546.97545954245</v>
+        <v>123535.51788102965</v>
       </c>
       <c r="AB20">
         <f t="shared" si="13"/>
@@ -18803,27 +18848,27 @@
       </c>
       <c r="AC20">
         <f t="shared" si="14"/>
-        <v>11553.081068969408</v>
+        <v>13349.608221854944</v>
       </c>
       <c r="AD20">
         <f t="shared" si="15"/>
-        <v>16985.535959387296</v>
+        <v>18782.063112272834</v>
       </c>
       <c r="AE20">
         <f t="shared" si="16"/>
-        <v>23499.301894739379</v>
+        <v>25295.829047624917</v>
       </c>
       <c r="AF20">
         <f t="shared" si="17"/>
-        <v>9670.1753691678314</v>
+        <v>11466.702522053367</v>
       </c>
       <c r="AG20">
         <f t="shared" si="18"/>
-        <v>14560.032262187608</v>
+        <v>16356.559415073141</v>
       </c>
       <c r="AH20">
         <f t="shared" si="19"/>
-        <v>20422.421604004481</v>
+        <v>22218.948756890015</v>
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.3">
@@ -18873,31 +18918,31 @@
       </c>
       <c r="U21">
         <f>OPEX!$B$3</f>
-        <v>40417.824540457572</v>
+        <v>30429.282118970365</v>
       </c>
       <c r="V21">
         <f t="shared" si="8"/>
-        <v>79634.975459542431</v>
+        <v>89623.517881029635</v>
       </c>
       <c r="W21">
         <f t="shared" si="9"/>
-        <v>106685.37545954244</v>
+        <v>116673.91788102964</v>
       </c>
       <c r="X21">
         <f t="shared" si="1"/>
-        <v>130654.17545954243</v>
+        <v>140642.71788102965</v>
       </c>
       <c r="Y21">
         <f t="shared" si="10"/>
-        <v>67625.375459542425</v>
+        <v>77613.917881029629</v>
       </c>
       <c r="Z21">
         <f t="shared" si="11"/>
-        <v>91968.575459542422</v>
+        <v>101957.11788102963</v>
       </c>
       <c r="AA21">
         <f t="shared" si="12"/>
-        <v>113546.97545954245</v>
+        <v>123535.51788102965</v>
       </c>
       <c r="AB21">
         <f t="shared" si="13"/>
@@ -18905,27 +18950,27 @@
       </c>
       <c r="AC21">
         <f t="shared" si="14"/>
-        <v>13020.95483691202</v>
+        <v>14654.161339535234</v>
       </c>
       <c r="AD21">
         <f t="shared" si="15"/>
-        <v>17443.91139196674</v>
+        <v>19077.117894589956</v>
       </c>
       <c r="AE21">
         <f t="shared" si="16"/>
-        <v>21363.001722490339</v>
+        <v>22996.208225113554</v>
       </c>
       <c r="AF21">
         <f t="shared" si="17"/>
-        <v>11057.289270281392</v>
+        <v>12690.495772904604</v>
       </c>
       <c r="AG21">
         <f t="shared" si="18"/>
-        <v>15037.596992570452</v>
+        <v>16670.803495193664</v>
       </c>
       <c r="AH21">
         <f t="shared" si="19"/>
-        <v>18565.83782182225</v>
+        <v>20199.044324445465</v>
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.3">
@@ -18975,31 +19020,31 @@
       </c>
       <c r="U22">
         <f>OPEX!$B$3</f>
-        <v>40417.824540457572</v>
+        <v>30429.282118970365</v>
       </c>
       <c r="V22">
         <f t="shared" si="8"/>
-        <v>93206.975459542446</v>
+        <v>103195.51788102965</v>
       </c>
       <c r="W22">
         <f t="shared" si="9"/>
-        <v>115519.77545954243</v>
+        <v>125508.31788102964</v>
       </c>
       <c r="X22">
         <f t="shared" si="1"/>
-        <v>130654.17545954243</v>
+        <v>140642.71788102965</v>
       </c>
       <c r="Y22">
         <f t="shared" si="10"/>
-        <v>79843.775459542434</v>
+        <v>89832.317881029638</v>
       </c>
       <c r="Z22">
         <f t="shared" si="11"/>
-        <v>99924.575459542422</v>
+        <v>109913.11788102963</v>
       </c>
       <c r="AA22">
         <f t="shared" si="12"/>
-        <v>113546.97545954245</v>
+        <v>123535.51788102965</v>
       </c>
       <c r="AB22">
         <f t="shared" si="13"/>
@@ -19007,27 +19052,27 @@
       </c>
       <c r="AC22">
         <f t="shared" si="14"/>
-        <v>13854.622989463698</v>
+        <v>15339.35617366662</v>
       </c>
       <c r="AD22">
         <f t="shared" si="15"/>
-        <v>17171.278532840806</v>
+        <v>18656.011717043726</v>
       </c>
       <c r="AE22">
         <f t="shared" si="16"/>
-        <v>19420.910656809403</v>
+        <v>20905.643841012326</v>
       </c>
       <c r="AF22">
         <f t="shared" si="17"/>
-        <v>11868.268459451463</v>
+        <v>13353.001643654383</v>
       </c>
       <c r="AG22">
         <f t="shared" si="18"/>
-        <v>14853.15142507868</v>
+        <v>16337.884609281602</v>
       </c>
       <c r="AH22">
         <f t="shared" si="19"/>
-        <v>16878.034383474776</v>
+        <v>18362.7675676777</v>
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.3">

--- a/tumlknexpectimax/excel_data/input_data_residential.xlsx
+++ b/tumlknexpectimax/excel_data/input_data_residential.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmadzay\LRZ Sync+Share\PycharmProjects\mt_branch_new_code\tumlknexpectimax\tumlknexpectimax\excel_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="888" windowWidth="15108" windowHeight="8568" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="885" windowWidth="15105" windowHeight="8565" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CAPEX" sheetId="1" r:id="rId1"/>
@@ -31,7 +26,7 @@
     <sheet name="FTTB_Hybridpon_100" sheetId="19" r:id="rId17"/>
     <sheet name="MIG_MATRIX" sheetId="11" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -41,7 +36,7 @@
     <author>Patri, Sai Kireet</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0">
+    <comment ref="G4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -92,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0">
+    <comment ref="G5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0" shapeId="0">
+    <comment ref="G6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -141,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0" shapeId="0">
+    <comment ref="G7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0" shapeId="0">
+    <comment ref="B8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -444,7 +439,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000000%"/>
   </numFmts>
@@ -708,9 +703,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -856,7 +851,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-37DD-494B-898C-2092A609AD86}"/>
             </c:ext>
@@ -972,7 +967,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-37DD-494B-898C-2092A609AD86}"/>
             </c:ext>
@@ -1088,7 +1083,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-37DD-494B-898C-2092A609AD86}"/>
             </c:ext>
@@ -1204,7 +1199,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-37DD-494B-898C-2092A609AD86}"/>
             </c:ext>
@@ -1220,11 +1215,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="157322240"/>
-        <c:axId val="174832960"/>
+        <c:axId val="164097536"/>
+        <c:axId val="100443840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="157322240"/>
+        <c:axId val="164097536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1252,7 +1247,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174832960"/>
+        <c:crossAx val="100443840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1260,7 +1255,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174832960"/>
+        <c:axId val="100443840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1289,7 +1284,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157322240"/>
+        <c:crossAx val="164097536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1311,9 +1306,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1387,7 +1382,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CEE8-43A2-851D-BC93CBA0BE7C}"/>
             </c:ext>
@@ -1415,7 +1410,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1432,9 +1427,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1461,6 +1456,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1542,51 +1538,51 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>51114.587309311035</c:v>
+                  <c:v>36062.342937580564</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30429.282118970365</c:v>
+                  <c:v>19283.042118970367</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66109.823692218881</c:v>
+                  <c:v>43709.823692218881</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66648.422052537615</c:v>
+                  <c:v>44248.4220525376</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8108.705667292159</c:v>
+                  <c:v>10540.776519765759</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8798.3519740095981</c:v>
+                  <c:v>11938.918689039821</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69659.850521829372</c:v>
+                  <c:v>50983.71612182937</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70126.863400003014</c:v>
+                  <c:v>47726.863400003029</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70620.289169209602</c:v>
+                  <c:v>48220.289169209609</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51210.227713520049</c:v>
+                  <c:v>37682.867713520049</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>67227.8721002112</c:v>
+                  <c:v>44827.8721002112</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>12139.814930199653</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>70921.654760442281</c:v>
+                  <c:v>47419.574760442287</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>72488.476920599642</c:v>
+                  <c:v>50088.476920599649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B8F6-416E-AD21-7DE814CEBF97}"/>
             </c:ext>
@@ -1601,11 +1597,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="179649536"/>
-        <c:axId val="179948352"/>
+        <c:axId val="177275904"/>
+        <c:axId val="100447296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="179649536"/>
+        <c:axId val="177275904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1615,7 +1611,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179948352"/>
+        <c:crossAx val="100447296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1623,7 +1619,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="179948352"/>
+        <c:axId val="100447296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1646,13 +1642,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179649536"/>
+        <c:crossAx val="177275904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1670,9 +1667,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1684,6 +1681,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1801,7 +1799,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DDCA-4663-830D-82651783C711}"/>
             </c:ext>
@@ -1816,11 +1814,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="172711936"/>
-        <c:axId val="179950080"/>
+        <c:axId val="158384128"/>
+        <c:axId val="100449024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="172711936"/>
+        <c:axId val="158384128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1842,13 +1840,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179950080"/>
+        <c:crossAx val="100449024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1856,7 +1855,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="179950080"/>
+        <c:axId val="100449024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1879,13 +1878,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172711936"/>
+        <c:crossAx val="158384128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1903,9 +1903,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2082,7 +2082,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B323-4672-88DD-A4269C32C76F}"/>
             </c:ext>
@@ -2247,7 +2247,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B323-4672-88DD-A4269C32C76F}"/>
             </c:ext>
@@ -2412,7 +2412,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-B323-4672-88DD-A4269C32C76F}"/>
             </c:ext>
@@ -2427,11 +2427,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="174748160"/>
-        <c:axId val="179951808"/>
+        <c:axId val="158450176"/>
+        <c:axId val="101433920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="174748160"/>
+        <c:axId val="158450176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2441,7 +2441,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179951808"/>
+        <c:crossAx val="101433920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2449,7 +2449,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="179951808"/>
+        <c:axId val="101433920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2460,7 +2460,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174748160"/>
+        <c:crossAx val="158450176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2501,7 +2501,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2537,7 +2537,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2578,7 +2578,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2614,7 +2614,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2655,7 +2655,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2719,7 +2719,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2752,26 +2752,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2804,23 +2787,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3003,27 +2969,27 @@
       <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
-    <col min="8" max="9" width="19.109375" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="9" width="19.140625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" customWidth="1"/>
-    <col min="13" max="13" width="16.44140625" customWidth="1"/>
-    <col min="14" max="14" width="22.109375" customWidth="1"/>
-    <col min="15" max="15" width="13.5546875" customWidth="1"/>
-    <col min="16" max="17" width="11.6640625" customWidth="1"/>
-    <col min="23" max="23" width="13.44140625" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" customWidth="1"/>
+    <col min="16" max="17" width="11.7109375" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3094,7 +3060,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
@@ -3131,7 +3097,7 @@
       </c>
       <c r="W2" s="10"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>65</v>
       </c>
@@ -3207,7 +3173,7 @@
         <v>535454.45404575672</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>66</v>
       </c>
@@ -3283,7 +3249,7 @@
         <v>223279.17744087061</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>67</v>
       </c>
@@ -3355,7 +3321,7 @@
         <v>187378.09492541171</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>68</v>
       </c>
@@ -3432,7 +3398,7 @@
         <v>341886.09492541174</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>69</v>
       </c>
@@ -3508,7 +3474,7 @@
         <v>349747.17744087061</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>70</v>
       </c>
@@ -3582,7 +3548,7 @@
         <v>553226.45404575672</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>71</v>
       </c>
@@ -3656,7 +3622,7 @@
         <v>229741.17744087061</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>72</v>
       </c>
@@ -3729,7 +3695,7 @@
         <v>200378.09492541171</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>73</v>
       </c>
@@ -3803,7 +3769,7 @@
         <v>503751.70772163133</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>74</v>
       </c>
@@ -3877,7 +3843,7 @@
         <v>210813.81955322024</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>75</v>
       </c>
@@ -3952,7 +3918,7 @@
         <v>387597.01955322025</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>76</v>
       </c>
@@ -4026,7 +3992,7 @@
         <v>358997.70772163133</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>77</v>
       </c>
@@ -4101,13 +4067,13 @@
         <v>226845.81955322024</v>
       </c>
     </row>
-    <row r="27" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P27">
         <f>0.02/1000</f>
         <v>2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="42" spans="17:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="17:24" x14ac:dyDescent="0.25">
       <c r="Q42" s="5" t="s">
         <v>54</v>
       </c>
@@ -4121,12 +4087,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="17:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="17:24" x14ac:dyDescent="0.25">
       <c r="R43" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="17:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="17:24" x14ac:dyDescent="0.25">
       <c r="Q44" t="s">
         <v>57</v>
       </c>
@@ -4146,7 +4112,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="17:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="17:24" x14ac:dyDescent="0.25">
       <c r="R45" t="s">
         <v>59</v>
       </c>
@@ -4157,7 +4123,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="17:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="17:24" x14ac:dyDescent="0.25">
       <c r="Q46" t="s">
         <v>62</v>
       </c>
@@ -4174,7 +4140,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -4220,7 +4186,7 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -5669,7 +5635,7 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -7118,12 +7084,12 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="19" max="19" width="16.88671875" customWidth="1"/>
+    <col min="19" max="19" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -7188,7 +7154,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -7253,7 +7219,7 @@
         <v>-1406.1283124115794</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -7318,7 +7284,7 @@
         <v>-460.11664764689033</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -7383,7 +7349,7 @@
         <v>1029.6460228003475</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -7448,7 +7414,7 @@
         <v>3523.5700132144393</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -7513,7 +7479,7 @@
         <v>7801.2920480762359</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -7578,7 +7544,7 @@
         <v>15064.713468148853</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -7643,7 +7609,7 @@
         <v>27032.584081264151</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -7708,7 +7674,7 @@
         <v>45148.611713618346</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -7773,7 +7739,7 @@
         <v>68189.323906569727</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -7838,7 +7804,7 @@
         <v>88357.291589972039</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -7903,7 +7869,7 @@
         <v>94713.286097848322</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -7968,7 +7934,7 @@
         <v>88904.134606335574</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -8033,7 +7999,7 @@
         <v>80940.471215402416</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -8098,7 +8064,7 @@
         <v>73599.626422240937</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -8163,7 +8129,7 @@
         <v>66918.231218101311</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -8228,7 +8194,7 @@
         <v>60840.50106200423</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -8293,7 +8259,7 @@
         <v>55312.157969633328</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -8358,7 +8324,7 @@
         <v>50283.779972393932</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -8423,7 +8389,7 @@
         <v>45714.685553109754</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -8488,7 +8454,7 @@
         <v>41558.805048281589</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -8553,7 +8519,7 @@
         <v>37780.731862074172</v>
       </c>
     </row>
-    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -8571,7 +8537,7 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -10020,7 +9986,7 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -11469,7 +11435,7 @@
       <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -12918,7 +12884,7 @@
       <selection sqref="A1:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -14367,7 +14333,7 @@
       <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -15817,23 +15783,23 @@
       <selection pane="topRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="34.5546875" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="16.88671875" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" customWidth="1"/>
-    <col min="14" max="14" width="16.44140625" customWidth="1"/>
-    <col min="15" max="15" width="25.6640625" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -16589,17 +16555,17 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="39.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -16610,129 +16576,129 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B2">
         <f>AVERAGE(B3:B15)</f>
-        <v>51114.587309311035</v>
+        <v>36062.342937580564</v>
       </c>
       <c r="C2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B3" s="13">
-        <v>30429.282118970365</v>
+        <v>19283.042118970367</v>
       </c>
       <c r="C3">
         <v>7.2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B4" s="13">
-        <v>66109.823692218881</v>
+        <v>43709.823692218881</v>
       </c>
       <c r="C4">
         <v>9.6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B5" s="13">
-        <v>66648.422052537615</v>
+        <v>44248.4220525376</v>
       </c>
       <c r="C5">
         <v>9.6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B6" s="13">
-        <v>8108.705667292159</v>
+        <v>10540.776519765759</v>
       </c>
       <c r="C6">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B7" s="13">
-        <v>8798.3519740095981</v>
+        <v>11938.918689039821</v>
       </c>
       <c r="C7">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B8" s="13">
-        <v>69659.850521829372</v>
+        <v>50983.71612182937</v>
       </c>
       <c r="C8">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B9" s="14">
-        <v>70126.863400003014</v>
+        <v>47726.863400003029</v>
       </c>
       <c r="C9">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B10" s="14">
-        <v>70620.289169209602</v>
+        <v>48220.289169209609</v>
       </c>
       <c r="C10">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B11" s="14">
-        <v>51210.227713520049</v>
+        <v>37682.867713520049</v>
       </c>
       <c r="C11">
         <v>7.2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B12" s="13">
-        <v>67227.8721002112</v>
+        <v>44827.8721002112</v>
       </c>
       <c r="C12">
         <v>9.6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>75</v>
       </c>
@@ -16743,23 +16709,23 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B14" s="13">
-        <v>70921.654760442281</v>
+        <v>47419.574760442287</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>77</v>
       </c>
       <c r="B15" s="15">
-        <v>72488.476920599642</v>
+        <v>50088.476920599649</v>
       </c>
       <c r="C15">
         <v>12</v>
@@ -16783,17 +16749,17 @@
       <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" customWidth="1"/>
-    <col min="7" max="7" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -16873,7 +16839,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2018</v>
       </c>
@@ -16921,31 +16887,31 @@
       </c>
       <c r="U2">
         <f>OPEX!$B$3</f>
-        <v>30429.282118970365</v>
+        <v>19283.042118970367</v>
       </c>
       <c r="V2">
         <f>O2-U2</f>
-        <v>-29738.082118970364</v>
+        <v>-18591.842118970366</v>
       </c>
       <c r="W2">
         <f>P2-U2</f>
-        <v>-29738.082118970364</v>
+        <v>-18591.842118970366</v>
       </c>
       <c r="X2">
         <f t="shared" ref="X2:X22" si="1">Q2-U2</f>
-        <v>-29738.082118970364</v>
+        <v>-18591.842118970366</v>
       </c>
       <c r="Y2">
         <f>R2-$U2</f>
-        <v>-29810.082118970364</v>
+        <v>-18663.842118970366</v>
       </c>
       <c r="Z2">
         <f>S2-$U2</f>
-        <v>-29810.082118970364</v>
+        <v>-18663.842118970366</v>
       </c>
       <c r="AA2">
         <f>T2-$U2</f>
-        <v>-29810.082118970364</v>
+        <v>-18663.842118970366</v>
       </c>
       <c r="AB2">
         <f>1/POWER(1+$L$25,N2-2018)</f>
@@ -16953,30 +16919,30 @@
       </c>
       <c r="AC2">
         <f>V2*AB2</f>
-        <v>-29738.082118970364</v>
+        <v>-18591.842118970366</v>
       </c>
       <c r="AD2">
         <f>W2*AB2</f>
-        <v>-29738.082118970364</v>
+        <v>-18591.842118970366</v>
       </c>
       <c r="AE2">
         <f>X2*AB2</f>
-        <v>-29738.082118970364</v>
+        <v>-18591.842118970366</v>
       </c>
       <c r="AF2">
         <f>Y2*$AB2</f>
-        <v>-29810.082118970364</v>
+        <v>-18663.842118970366</v>
       </c>
       <c r="AG2">
         <f>Z2*$AB2</f>
-        <v>-29810.082118970364</v>
+        <v>-18663.842118970366</v>
       </c>
       <c r="AH2">
         <f>AA2*$AB2</f>
-        <v>-29810.082118970364</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+        <v>-18663.842118970366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2019</v>
       </c>
@@ -17023,31 +16989,31 @@
       </c>
       <c r="U3">
         <f>OPEX!$B$3</f>
-        <v>30429.282118970365</v>
+        <v>19283.042118970367</v>
       </c>
       <c r="V3">
         <f t="shared" ref="V3:V22" si="8">O3-U3</f>
-        <v>-29507.682118970366</v>
+        <v>-18361.442118970368</v>
       </c>
       <c r="W3">
         <f t="shared" ref="W3:W22" si="9">P3-U3</f>
-        <v>-29478.882118970363</v>
+        <v>-18332.642118970365</v>
       </c>
       <c r="X3">
         <f t="shared" si="1"/>
-        <v>-29140.482118970365</v>
+        <v>-17994.242118970367</v>
       </c>
       <c r="Y3">
         <f t="shared" ref="Y3:Y22" si="10">R3-$U3</f>
-        <v>-29601.282118970365</v>
+        <v>-18455.042118970367</v>
       </c>
       <c r="Z3">
         <f t="shared" ref="Z3:Z22" si="11">S3-$U3</f>
-        <v>-29579.682118970366</v>
+        <v>-18433.442118970368</v>
       </c>
       <c r="AA3">
         <f t="shared" ref="AA3:AA22" si="12">T3-$U3</f>
-        <v>-29270.082118970364</v>
+        <v>-18123.842118970366</v>
       </c>
       <c r="AB3">
         <f t="shared" ref="AB3:AB22" si="13">1/POWER(1+$L$25,N3-2018)</f>
@@ -17055,30 +17021,30 @@
       </c>
       <c r="AC3">
         <f t="shared" ref="AC3:AC22" si="14">V3*AB3</f>
-        <v>-26825.165562700331</v>
+        <v>-16692.220108154881</v>
       </c>
       <c r="AD3">
         <f t="shared" ref="AD3:AD22" si="15">W3*AB3</f>
-        <v>-26798.983744518511</v>
+        <v>-16666.038289973058</v>
       </c>
       <c r="AE3">
         <f t="shared" ref="AE3:AE22" si="16">X3*AB3</f>
-        <v>-26491.347380882151</v>
+        <v>-16358.401926336697</v>
       </c>
       <c r="AF3">
         <f t="shared" ref="AF3:AF22" si="17">Y3*$AB3</f>
-        <v>-26910.256471791239</v>
+        <v>-16777.311017245785</v>
       </c>
       <c r="AG3">
         <f t="shared" ref="AG3:AG22" si="18">Z3*$AB3</f>
-        <v>-26890.620108154879</v>
+        <v>-16757.674653609425</v>
       </c>
       <c r="AH3">
         <f t="shared" ref="AH3:AH22" si="19">AA3*$AB3</f>
-        <v>-26609.165562700331</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+        <v>-16476.220108154877</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2020</v>
       </c>
@@ -17125,31 +17091,31 @@
       </c>
       <c r="U4">
         <f>OPEX!$B$3</f>
-        <v>30429.282118970365</v>
+        <v>19283.042118970367</v>
       </c>
       <c r="V4">
         <f t="shared" si="8"/>
-        <v>-29190.882118970363</v>
+        <v>-18044.642118970365</v>
       </c>
       <c r="W4">
         <f t="shared" si="9"/>
-        <v>-29111.682118970366</v>
+        <v>-17965.442118970368</v>
       </c>
       <c r="X4">
         <f t="shared" si="1"/>
-        <v>-27966.882118970363</v>
+        <v>-16820.642118970365</v>
       </c>
       <c r="Y4">
         <f t="shared" si="10"/>
-        <v>-29320.482118970365</v>
+        <v>-18174.242118970367</v>
       </c>
       <c r="Z4">
         <f t="shared" si="11"/>
-        <v>-29248.482118970365</v>
+        <v>-18102.242118970367</v>
       </c>
       <c r="AA4">
         <f t="shared" si="12"/>
-        <v>-28218.882118970363</v>
+        <v>-17072.642118970365</v>
       </c>
       <c r="AB4">
         <f t="shared" si="13"/>
@@ -17157,30 +17123,30 @@
       </c>
       <c r="AC4">
         <f t="shared" si="14"/>
-        <v>-24124.695966091207</v>
+        <v>-14912.927371049887</v>
       </c>
       <c r="AD4">
         <f t="shared" si="15"/>
-        <v>-24059.241420636663</v>
+        <v>-14847.472825595343</v>
       </c>
       <c r="AE4">
         <f t="shared" si="16"/>
-        <v>-23113.125718157324</v>
+        <v>-13901.357123116002</v>
       </c>
       <c r="AF4">
         <f t="shared" si="17"/>
-        <v>-24231.803404107737</v>
+        <v>-15020.034809066417</v>
       </c>
       <c r="AG4">
         <f t="shared" si="18"/>
-        <v>-24172.299271876331</v>
+        <v>-14960.530676835013</v>
       </c>
       <c r="AH4">
         <f t="shared" si="19"/>
-        <v>-23321.390180967239</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+        <v>-14109.621585925921</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2021</v>
       </c>
@@ -17234,31 +17200,31 @@
       </c>
       <c r="U5">
         <f>OPEX!$B$3</f>
-        <v>30429.282118970365</v>
+        <v>19283.042118970367</v>
       </c>
       <c r="V5">
         <f t="shared" si="8"/>
-        <v>-28751.682118970366</v>
+        <v>-17605.442118970368</v>
       </c>
       <c r="W5">
         <f t="shared" si="9"/>
-        <v>-28578.882118970363</v>
+        <v>-17432.642118970365</v>
       </c>
       <c r="X5">
         <f t="shared" si="1"/>
-        <v>-25670.082118970364</v>
+        <v>-14523.842118970366</v>
       </c>
       <c r="Y5">
         <f t="shared" si="10"/>
-        <v>-28924.482118970365</v>
+        <v>-17778.242118970367</v>
       </c>
       <c r="Z5">
         <f t="shared" si="11"/>
-        <v>-28766.082118970364</v>
+        <v>-17619.842118970366</v>
       </c>
       <c r="AA5">
         <f t="shared" si="12"/>
-        <v>-26152.482118970365</v>
+        <v>-15006.242118970367</v>
       </c>
       <c r="AB5">
         <f t="shared" si="13"/>
@@ -17266,30 +17232,30 @@
       </c>
       <c r="AC5">
         <f t="shared" si="14"/>
-        <v>-21601.564326799667</v>
+        <v>-13227.22924039847</v>
       </c>
       <c r="AD5">
         <f t="shared" si="15"/>
-        <v>-21471.737129203873</v>
+        <v>-13097.402042802674</v>
       </c>
       <c r="AE5">
         <f t="shared" si="16"/>
-        <v>-19286.312636341365</v>
+        <v>-10911.977549940166</v>
       </c>
       <c r="AF5">
         <f t="shared" si="17"/>
-        <v>-21731.391524395458</v>
+        <v>-13357.056437994261</v>
       </c>
       <c r="AG5">
         <f t="shared" si="18"/>
-        <v>-21612.383259932649</v>
+        <v>-13238.04817353145</v>
       </c>
       <c r="AH5">
         <f t="shared" si="19"/>
-        <v>-19648.746896296288</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+        <v>-11274.411809895089</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2022</v>
       </c>
@@ -17343,31 +17309,31 @@
       </c>
       <c r="U6">
         <f>OPEX!$B$3</f>
-        <v>30429.282118970365</v>
+        <v>19283.042118970367</v>
       </c>
       <c r="V6">
         <f t="shared" si="8"/>
-        <v>-28139.682118970366</v>
+        <v>-16993.442118970368</v>
       </c>
       <c r="W6">
         <f t="shared" si="9"/>
-        <v>-27815.682118970366</v>
+        <v>-16669.442118970368</v>
       </c>
       <c r="X6">
         <f t="shared" si="1"/>
-        <v>-21184.482118970365</v>
+        <v>-10038.242118970365</v>
       </c>
       <c r="Y6">
         <f t="shared" si="10"/>
-        <v>-28370.082118970364</v>
+        <v>-17223.842118970366</v>
       </c>
       <c r="Z6">
         <f t="shared" si="11"/>
-        <v>-28082.082118970364</v>
+        <v>-16935.842118970366</v>
       </c>
       <c r="AA6">
         <f t="shared" si="12"/>
-        <v>-22113.282118970365</v>
+        <v>-10967.042118970367</v>
       </c>
       <c r="AB6">
         <f t="shared" si="13"/>
@@ -17375,30 +17341,30 @@
       </c>
       <c r="AC6">
         <f t="shared" si="14"/>
-        <v>-19219.78151695264</v>
+        <v>-11606.749620224276</v>
       </c>
       <c r="AD6">
         <f t="shared" si="15"/>
-        <v>-18998.485157414358</v>
+        <v>-11385.453260685994</v>
       </c>
       <c r="AE6">
         <f t="shared" si="16"/>
-        <v>-14469.2863321975</v>
+        <v>-6856.2544354691363</v>
       </c>
       <c r="AF6">
         <f t="shared" si="17"/>
-        <v>-19377.147817068751</v>
+        <v>-11764.115920340388</v>
       </c>
       <c r="AG6">
         <f t="shared" si="18"/>
-        <v>-19180.439941923611</v>
+        <v>-11567.408045195247</v>
       </c>
       <c r="AH6">
         <f t="shared" si="19"/>
-        <v>-15103.669229540577</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+        <v>-7490.6373328122145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2023</v>
       </c>
@@ -17452,31 +17418,31 @@
       </c>
       <c r="U7">
         <f>OPEX!$B$3</f>
-        <v>30429.282118970365</v>
+        <v>19283.042118970367</v>
       </c>
       <c r="V7">
         <f t="shared" si="8"/>
-        <v>-27297.282118970365</v>
+        <v>-16151.042118970367</v>
       </c>
       <c r="W7">
         <f t="shared" si="9"/>
-        <v>-26728.482118970365</v>
+        <v>-15582.242118970367</v>
       </c>
       <c r="X7">
         <f t="shared" si="1"/>
-        <v>-12623.682118970362</v>
+        <v>-1477.4421189703644</v>
       </c>
       <c r="Y7">
         <f t="shared" si="10"/>
-        <v>-27614.082118970364</v>
+        <v>-16467.842118970366</v>
       </c>
       <c r="Z7">
         <f t="shared" si="11"/>
-        <v>-27102.882118970363</v>
+        <v>-15956.642118970367</v>
       </c>
       <c r="AA7">
         <f t="shared" si="12"/>
-        <v>-14409.282118970365</v>
+        <v>-3263.0421189703666</v>
       </c>
       <c r="AB7">
         <f t="shared" si="13"/>
@@ -17484,30 +17450,30 @@
       </c>
       <c r="AC7">
         <f t="shared" si="14"/>
-        <v>-16949.464529230092</v>
+        <v>-10028.526441295217</v>
       </c>
       <c r="AD7">
         <f t="shared" si="15"/>
-        <v>-16596.284480674043</v>
+        <v>-9675.3463927391695</v>
       </c>
       <c r="AE7">
         <f t="shared" si="16"/>
-        <v>-7838.3134031892741</v>
+        <v>-917.37531525439999</v>
       </c>
       <c r="AF7">
         <f t="shared" si="17"/>
-        <v>-17146.172404375229</v>
+        <v>-10225.234316440357</v>
       </c>
       <c r="AG7">
         <f t="shared" si="18"/>
-        <v>-16828.75742402739</v>
+        <v>-9907.8193360925179</v>
       </c>
       <c r="AH7">
         <f t="shared" si="19"/>
-        <v>-8947.0305176437014</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+        <v>-2026.0924297088284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2024</v>
       </c>
@@ -17561,31 +17527,31 @@
       </c>
       <c r="U8">
         <f>OPEX!$B$3</f>
-        <v>30429.282118970365</v>
+        <v>19283.042118970367</v>
       </c>
       <c r="V8">
         <f t="shared" si="8"/>
-        <v>-26152.482118970365</v>
+        <v>-15006.242118970367</v>
       </c>
       <c r="W8">
         <f t="shared" si="9"/>
-        <v>-25194.882118970363</v>
+        <v>-14048.642118970365</v>
       </c>
       <c r="X8">
         <f t="shared" si="1"/>
-        <v>3122.7178810296355</v>
+        <v>14268.957881029633</v>
       </c>
       <c r="Y8">
         <f t="shared" si="10"/>
-        <v>-26584.482118970365</v>
+        <v>-15438.242118970367</v>
       </c>
       <c r="Z8">
         <f t="shared" si="11"/>
-        <v>-25720.482118970365</v>
+        <v>-14574.242118970367</v>
       </c>
       <c r="AA8">
         <f t="shared" si="12"/>
-        <v>-232.48211897036526</v>
+        <v>10913.757881029633</v>
       </c>
       <c r="AB8">
         <f t="shared" si="13"/>
@@ -17593,30 +17559,30 @@
       </c>
       <c r="AC8">
         <f t="shared" si="14"/>
-        <v>-14762.394362356337</v>
+        <v>-8470.632464233724</v>
       </c>
       <c r="AD8">
         <f t="shared" si="15"/>
-        <v>-14221.85412693684</v>
+        <v>-7930.0922288142265</v>
       </c>
       <c r="AE8">
         <f t="shared" si="16"/>
-        <v>1762.6928347540018</v>
+        <v>8054.4547328766148</v>
       </c>
       <c r="AF8">
         <f t="shared" si="17"/>
-        <v>-15006.24710013957</v>
+        <v>-8714.4852020169565</v>
       </c>
       <c r="AG8">
         <f t="shared" si="18"/>
-        <v>-14518.541624573105</v>
+        <v>-8226.7797264504934</v>
       </c>
       <c r="AH8">
         <f t="shared" si="19"/>
-        <v>-131.23009536243188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+        <v>6160.5318027601807</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2025</v>
       </c>
@@ -17669,31 +17635,31 @@
       </c>
       <c r="U9">
         <f>OPEX!$B$3</f>
-        <v>30429.282118970365</v>
+        <v>19283.042118970367</v>
       </c>
       <c r="V9">
         <f t="shared" si="8"/>
-        <v>-24575.682118970362</v>
+        <v>-13429.442118970366</v>
       </c>
       <c r="W9">
         <f t="shared" si="9"/>
-        <v>-23034.882118970363</v>
+        <v>-11888.642118970365</v>
       </c>
       <c r="X9">
         <f t="shared" si="1"/>
-        <v>29856.317881029634</v>
+        <v>41002.557881029628</v>
       </c>
       <c r="Y9">
         <f t="shared" si="10"/>
-        <v>-25166.082118970364</v>
+        <v>-14019.842118970366</v>
       </c>
       <c r="Z9">
         <f t="shared" si="11"/>
-        <v>-23776.482118970365</v>
+        <v>-12630.242118970367</v>
       </c>
       <c r="AA9">
         <f t="shared" si="12"/>
-        <v>23822.717881029635</v>
+        <v>34968.957881029637</v>
       </c>
       <c r="AB9">
         <f t="shared" si="13"/>
@@ -17701,30 +17667,30 @@
       </c>
       <c r="AC9">
         <f t="shared" si="14"/>
-        <v>-12611.210790406853</v>
+        <v>-6891.4272466590237</v>
       </c>
       <c r="AD9">
         <f t="shared" si="15"/>
-        <v>-11820.53676183698</v>
+        <v>-6100.7532180891512</v>
       </c>
       <c r="AE9">
         <f t="shared" si="16"/>
-        <v>15321.01190112696</v>
+        <v>21040.795444874788</v>
       </c>
       <c r="AF9">
         <f t="shared" si="17"/>
-        <v>-12914.179343410262</v>
+        <v>-7194.3957996624331</v>
       </c>
       <c r="AG9">
         <f t="shared" si="18"/>
-        <v>-12201.094822316873</v>
+        <v>-6481.3112785690437</v>
       </c>
       <c r="AH9">
         <f t="shared" si="19"/>
-        <v>12224.82107897017</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+        <v>17944.604622718001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2026</v>
       </c>
@@ -17777,31 +17743,31 @@
       </c>
       <c r="U10">
         <f>OPEX!$B$3</f>
-        <v>30429.282118970365</v>
+        <v>19283.042118970367</v>
       </c>
       <c r="V10">
         <f t="shared" si="8"/>
-        <v>-22444.482118970365</v>
+        <v>-11298.242118970367</v>
       </c>
       <c r="W10">
         <f t="shared" si="9"/>
-        <v>-20018.082118970364</v>
+        <v>-8871.8421189703658</v>
       </c>
       <c r="X10">
         <f t="shared" si="1"/>
-        <v>68642.717881029632</v>
+        <v>79788.957881029637</v>
       </c>
       <c r="Y10">
         <f t="shared" si="10"/>
-        <v>-23243.682118970362</v>
+        <v>-12097.442118970366</v>
       </c>
       <c r="Z10">
         <f t="shared" si="11"/>
-        <v>-21062.082118970364</v>
+        <v>-9915.8421189703658</v>
       </c>
       <c r="AA10">
         <f t="shared" si="12"/>
-        <v>58735.517881029635</v>
+        <v>69881.75788102964</v>
       </c>
       <c r="AB10">
         <f t="shared" si="13"/>
@@ -17809,30 +17775,30 @@
       </c>
       <c r="AC10">
         <f t="shared" si="14"/>
-        <v>-10470.516553485066</v>
+        <v>-5270.7133318961305</v>
       </c>
       <c r="AD10">
         <f t="shared" si="15"/>
-        <v>-9338.5830461441674</v>
+        <v>-4138.7798245552331</v>
       </c>
       <c r="AE10">
         <f t="shared" si="16"/>
-        <v>32022.334489154939</v>
+        <v>37222.137710743875</v>
       </c>
       <c r="AF10">
         <f t="shared" si="17"/>
-        <v>-10843.349251748683</v>
+        <v>-5643.5460301597486</v>
       </c>
       <c r="AG10">
         <f t="shared" si="18"/>
-        <v>-9825.6167510831292</v>
+        <v>-4625.8135294941949</v>
       </c>
       <c r="AH10">
         <f t="shared" si="19"/>
-        <v>27400.552571941073</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+        <v>32600.355793530009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2027</v>
       </c>
@@ -17885,31 +17851,31 @@
       </c>
       <c r="U11">
         <f>OPEX!$B$3</f>
-        <v>30429.282118970365</v>
+        <v>19283.042118970367</v>
       </c>
       <c r="V11">
         <f t="shared" si="8"/>
-        <v>-19564.482118970365</v>
+        <v>-8418.2421189703655</v>
       </c>
       <c r="W11">
         <f t="shared" si="9"/>
-        <v>-15827.682118970364</v>
+        <v>-4681.4421189703662</v>
       </c>
       <c r="X11">
         <f t="shared" si="1"/>
-        <v>110093.11788102963</v>
+        <v>121239.35788102963</v>
       </c>
       <c r="Y11">
         <f t="shared" si="10"/>
-        <v>-20651.682118970362</v>
+        <v>-9505.4421189703662</v>
       </c>
       <c r="Z11">
         <f t="shared" si="11"/>
-        <v>-17289.282118970365</v>
+        <v>-6143.0421189703666</v>
       </c>
       <c r="AA11">
         <f t="shared" si="12"/>
-        <v>96038.717881029632</v>
+        <v>107184.95788102964</v>
       </c>
       <c r="AB11">
         <f t="shared" si="13"/>
@@ -17917,30 +17883,30 @@
       </c>
       <c r="AC11">
         <f t="shared" si="14"/>
-        <v>-8297.2502713463946</v>
+        <v>-3570.1564335382709</v>
       </c>
       <c r="AD11">
         <f t="shared" si="15"/>
-        <v>-6712.4822910120929</v>
+        <v>-1985.3884532039704</v>
       </c>
       <c r="AE11">
         <f t="shared" si="16"/>
-        <v>46690.229092545873</v>
+        <v>51417.322930353992</v>
       </c>
       <c r="AF11">
         <f t="shared" si="17"/>
-        <v>-8758.329202040959</v>
+        <v>-4031.2353642328362</v>
       </c>
       <c r="AG11">
         <f t="shared" si="18"/>
-        <v>-7332.3433700253163</v>
+        <v>-2605.249532217194</v>
       </c>
       <c r="AH11">
         <f t="shared" si="19"/>
-        <v>40729.791524891625</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+        <v>45456.885362699752</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2028</v>
       </c>
@@ -17994,31 +17960,31 @@
       </c>
       <c r="U12">
         <f>OPEX!$B$3</f>
-        <v>30429.282118970365</v>
+        <v>19283.042118970367</v>
       </c>
       <c r="V12">
         <f t="shared" si="8"/>
-        <v>-15712.482118970363</v>
+        <v>-4566.2421189703655</v>
       </c>
       <c r="W12">
         <f t="shared" si="9"/>
-        <v>-10110.882118970363</v>
+        <v>1035.3578810296349</v>
       </c>
       <c r="X12">
         <f t="shared" si="1"/>
-        <v>134976.31788102965</v>
+        <v>146122.55788102964</v>
       </c>
       <c r="Y12">
         <f t="shared" si="10"/>
-        <v>-17188.482118970365</v>
+        <v>-6042.2421189703655</v>
       </c>
       <c r="Z12">
         <f t="shared" si="11"/>
-        <v>-12148.482118970365</v>
+        <v>-1002.2421189703673</v>
       </c>
       <c r="AA12">
         <f t="shared" si="12"/>
-        <v>118430.71788102963</v>
+        <v>129576.95788102964</v>
       </c>
       <c r="AB12">
         <f t="shared" si="13"/>
@@ -18026,30 +17992,30 @@
       </c>
       <c r="AC12">
         <f t="shared" si="14"/>
-        <v>-6057.8420412505293</v>
+        <v>-1760.4840068795088</v>
       </c>
       <c r="AD12">
         <f t="shared" si="15"/>
-        <v>-3898.1827511820652</v>
+        <v>399.17528318895495</v>
       </c>
       <c r="AE12">
         <f t="shared" si="16"/>
-        <v>52039.213590938263</v>
+        <v>56336.571625309276</v>
       </c>
       <c r="AF12">
         <f t="shared" si="17"/>
-        <v>-6626.9039364485179</v>
+        <v>-2329.545902077497</v>
       </c>
       <c r="AG12">
         <f t="shared" si="18"/>
-        <v>-4683.7657577236796</v>
+        <v>-386.40772335265922</v>
       </c>
       <c r="AH12">
         <f t="shared" si="19"/>
-        <v>45660.168541352999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+        <v>49957.526575724019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2029</v>
       </c>
@@ -18102,31 +18068,31 @@
       </c>
       <c r="U13">
         <f>OPEX!$B$3</f>
-        <v>30429.282118970365</v>
+        <v>19283.042118970367</v>
       </c>
       <c r="V13">
         <f t="shared" si="8"/>
-        <v>-10622.082118970364</v>
+        <v>524.15788102963415</v>
       </c>
       <c r="W13">
         <f t="shared" si="9"/>
-        <v>-2442.8821189703631</v>
+        <v>8703.3578810296349</v>
       </c>
       <c r="X13">
         <f t="shared" si="1"/>
-        <v>140304.31788102965</v>
+        <v>151450.55788102964</v>
       </c>
       <c r="Y13">
         <f t="shared" si="10"/>
-        <v>-12609.282118970365</v>
+        <v>-1463.0421189703666</v>
       </c>
       <c r="Z13">
         <f t="shared" si="11"/>
-        <v>-5243.6821189703624</v>
+        <v>5902.5578810296356</v>
       </c>
       <c r="AA13">
         <f t="shared" si="12"/>
-        <v>123225.91788102964</v>
+        <v>134372.15788102965</v>
       </c>
       <c r="AB13">
         <f t="shared" si="13"/>
@@ -18134,30 +18100,30 @@
       </c>
       <c r="AC13">
         <f t="shared" si="14"/>
-        <v>-3722.974982489492</v>
+        <v>183.71413966598013</v>
       </c>
       <c r="AD13">
         <f t="shared" si="15"/>
-        <v>-856.21527985128887</v>
+        <v>3050.4738423041836</v>
       </c>
       <c r="AE13">
         <f t="shared" si="16"/>
-        <v>49175.807488198909</v>
+        <v>53082.496610354377</v>
       </c>
       <c r="AF13">
         <f t="shared" si="17"/>
-        <v>-4419.4764595389152</v>
+        <v>-512.78733738344272</v>
       </c>
       <c r="AG13">
         <f t="shared" si="18"/>
-        <v>-1837.8785935187718</v>
+        <v>2068.8105286367004</v>
       </c>
       <c r="AH13">
         <f t="shared" si="19"/>
-        <v>43189.932475295893</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+        <v>47096.621597451369</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2030</v>
       </c>
@@ -18204,31 +18170,31 @@
       </c>
       <c r="U14">
         <f>OPEX!$B$3</f>
-        <v>30429.282118970365</v>
+        <v>19283.042118970367</v>
       </c>
       <c r="V14">
         <f t="shared" si="8"/>
-        <v>-3990.8821189703631</v>
+        <v>7155.3578810296349</v>
       </c>
       <c r="W14">
         <f t="shared" si="9"/>
-        <v>7593.9178810296398</v>
+        <v>18740.157881029638</v>
       </c>
       <c r="X14">
         <f t="shared" si="1"/>
-        <v>140549.11788102964</v>
+        <v>151695.35788102963</v>
       </c>
       <c r="Y14">
         <f t="shared" si="10"/>
-        <v>-6640.4821189703653</v>
+        <v>4505.7578810296327</v>
       </c>
       <c r="Z14">
         <f t="shared" si="11"/>
-        <v>3785.1178810296369</v>
+        <v>14931.357881029635</v>
       </c>
       <c r="AA14">
         <f t="shared" si="12"/>
-        <v>123449.11788102963</v>
+        <v>134595.35788102963</v>
       </c>
       <c r="AB14">
         <f t="shared" si="13"/>
@@ -18236,30 +18202,30 @@
       </c>
       <c r="AC14">
         <f t="shared" si="14"/>
-        <v>-1271.6180329531674</v>
+        <v>2279.9175326427167</v>
       </c>
       <c r="AD14">
         <f t="shared" si="15"/>
-        <v>2419.6562640577722</v>
+        <v>5971.191829653656</v>
       </c>
       <c r="AE14">
         <f t="shared" si="16"/>
-        <v>44783.280358901771</v>
+        <v>48334.815924497656</v>
       </c>
       <c r="AF14">
         <f t="shared" si="17"/>
-        <v>-2115.8622475585289</v>
+        <v>1435.6733180373553</v>
       </c>
       <c r="AG14">
         <f t="shared" si="18"/>
-        <v>1206.0552055625653</v>
+        <v>4757.5907711584496</v>
       </c>
       <c r="AH14">
         <f t="shared" si="19"/>
-        <v>39334.693376054667</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+        <v>42886.228941650559</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2031</v>
       </c>
@@ -18306,31 +18272,31 @@
       </c>
       <c r="U15">
         <f>OPEX!$B$3</f>
-        <v>30429.282118970365</v>
+        <v>19283.042118970367</v>
       </c>
       <c r="V15">
         <f t="shared" si="8"/>
-        <v>4483.5178810296384</v>
+        <v>15629.757881029636</v>
       </c>
       <c r="W15">
         <f t="shared" si="9"/>
-        <v>20273.117881029637</v>
+        <v>31419.357881029635</v>
       </c>
       <c r="X15">
         <f t="shared" si="1"/>
-        <v>140592.31788102965</v>
+        <v>151738.55788102964</v>
       </c>
       <c r="Y15">
         <f t="shared" si="10"/>
-        <v>991.51788102963474</v>
+        <v>12137.757881029633</v>
       </c>
       <c r="Z15">
         <f t="shared" si="11"/>
-        <v>15197.117881029637</v>
+        <v>26343.357881029635</v>
       </c>
       <c r="AA15">
         <f t="shared" si="12"/>
-        <v>123485.11788102963</v>
+        <v>134631.35788102963</v>
       </c>
       <c r="AB15">
         <f t="shared" si="13"/>
@@ -18338,30 +18304,30 @@
       </c>
       <c r="AC15">
         <f t="shared" si="14"/>
-        <v>1298.7154260467989</v>
+        <v>4527.3841220430577</v>
       </c>
       <c r="AD15">
         <f t="shared" si="15"/>
-        <v>5872.4001163372041</v>
+        <v>9101.0688123334621</v>
       </c>
       <c r="AE15">
         <f t="shared" si="16"/>
-        <v>40724.586554751695</v>
+        <v>43953.255250747949</v>
       </c>
       <c r="AF15">
         <f t="shared" si="17"/>
-        <v>287.20741200628413</v>
+        <v>3515.8761080025424</v>
       </c>
       <c r="AG15">
         <f t="shared" si="18"/>
-        <v>4402.0637247937766</v>
+        <v>7630.7324207900356</v>
       </c>
       <c r="AH15">
         <f t="shared" si="19"/>
-        <v>35769.24007772022</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+        <v>38997.908773716481</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2032</v>
       </c>
@@ -18408,31 +18374,31 @@
       </c>
       <c r="U16">
         <f>OPEX!$B$3</f>
-        <v>30429.282118970365</v>
+        <v>19283.042118970367</v>
       </c>
       <c r="V16">
         <f t="shared" si="8"/>
-        <v>15009.91788102964</v>
+        <v>26156.157881029638</v>
       </c>
       <c r="W16">
         <f t="shared" si="9"/>
-        <v>35565.917881029629</v>
+        <v>46712.157881029634</v>
       </c>
       <c r="X16">
         <f t="shared" si="1"/>
-        <v>140613.91788102966</v>
+        <v>151760.15788102965</v>
       </c>
       <c r="Y16">
         <f t="shared" si="10"/>
-        <v>10459.517881029638</v>
+        <v>21605.757881029636</v>
       </c>
       <c r="Z16">
         <f t="shared" si="11"/>
-        <v>28963.517881029638</v>
+        <v>40109.75788102964</v>
       </c>
       <c r="AA16">
         <f t="shared" si="12"/>
-        <v>123506.71788102963</v>
+        <v>134652.95788102964</v>
       </c>
       <c r="AB16">
         <f t="shared" si="13"/>
@@ -18440,30 +18406,30 @@
       </c>
       <c r="AC16">
         <f t="shared" si="14"/>
-        <v>3952.5805026427897</v>
+        <v>6887.7338626393876</v>
       </c>
       <c r="AD16">
         <f t="shared" si="15"/>
-        <v>9365.6177661585607</v>
+        <v>12300.771126155161</v>
       </c>
       <c r="AE16">
         <f t="shared" si="16"/>
-        <v>37028.039368503632</v>
+        <v>39963.192728500231</v>
       </c>
       <c r="AF16">
         <f t="shared" si="17"/>
-        <v>2754.3179630484037</v>
+        <v>5689.4713230450016</v>
       </c>
       <c r="AG16">
         <f t="shared" si="18"/>
-        <v>7626.9994927281032</v>
+        <v>10562.152852724701</v>
       </c>
       <c r="AH16">
         <f t="shared" si="19"/>
-        <v>32523.178934838659</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+        <v>35458.332294835258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2033</v>
       </c>
@@ -18510,31 +18476,31 @@
       </c>
       <c r="U17">
         <f>OPEX!$B$3</f>
-        <v>30429.282118970365</v>
+        <v>19283.042118970367</v>
       </c>
       <c r="V17">
         <f t="shared" si="8"/>
-        <v>27660.317881029634</v>
+        <v>38806.557881029628</v>
       </c>
       <c r="W17">
         <f t="shared" si="9"/>
-        <v>52946.717881029632</v>
+        <v>64092.957881029637</v>
       </c>
       <c r="X17">
         <f t="shared" si="1"/>
-        <v>140628.31788102965</v>
+        <v>151774.55788102964</v>
       </c>
       <c r="Y17">
         <f t="shared" si="10"/>
-        <v>21849.91788102964</v>
+        <v>32996.157881029634</v>
       </c>
       <c r="Z17">
         <f t="shared" si="11"/>
-        <v>44609.117881029641</v>
+        <v>55755.357881029646</v>
       </c>
       <c r="AA17">
         <f t="shared" si="12"/>
-        <v>123521.11788102963</v>
+        <v>134667.35788102963</v>
       </c>
       <c r="AB17">
         <f t="shared" si="13"/>
@@ -18542,30 +18508,30 @@
       </c>
       <c r="AC17">
         <f t="shared" si="14"/>
-        <v>6621.6601837421995</v>
+        <v>9289.981420102742</v>
       </c>
       <c r="AD17">
         <f t="shared" si="15"/>
-        <v>12675.023300910612</v>
+        <v>15343.344537271156</v>
       </c>
       <c r="AE17">
         <f t="shared" si="16"/>
-        <v>33665.301216877851</v>
+        <v>36333.622453238393</v>
       </c>
       <c r="AF17">
         <f t="shared" si="17"/>
-        <v>5230.6966200876132</v>
+        <v>7899.0178564481557</v>
       </c>
       <c r="AG17">
         <f t="shared" si="18"/>
-        <v>10679.068150090277</v>
+        <v>13347.389386450823</v>
       </c>
       <c r="AH17">
         <f t="shared" si="19"/>
-        <v>29569.973549909693</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+        <v>32238.294786270239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2034</v>
       </c>
@@ -18612,31 +18578,31 @@
       </c>
       <c r="U18">
         <f>OPEX!$B$3</f>
-        <v>30429.282118970365</v>
+        <v>19283.042118970367</v>
       </c>
       <c r="V18">
         <f t="shared" si="8"/>
-        <v>42197.117881029641</v>
+        <v>53343.357881029646</v>
       </c>
       <c r="W18">
         <f t="shared" si="9"/>
-        <v>71277.917881029629</v>
+        <v>82424.157881029634</v>
       </c>
       <c r="X18">
         <f t="shared" si="1"/>
-        <v>140635.51788102966</v>
+        <v>151781.75788102965</v>
       </c>
       <c r="Y18">
         <f t="shared" si="10"/>
-        <v>34932.317881029638</v>
+        <v>46078.557881029628</v>
       </c>
       <c r="Z18">
         <f t="shared" si="11"/>
-        <v>61104.317881029638</v>
+        <v>72250.557881029643</v>
       </c>
       <c r="AA18">
         <f t="shared" si="12"/>
-        <v>123528.31788102964</v>
+        <v>134674.55788102964</v>
       </c>
       <c r="AB18">
         <f t="shared" si="13"/>
@@ -18644,30 +18610,30 @@
       </c>
       <c r="AC18">
         <f t="shared" si="14"/>
-        <v>9183.3222972835047</v>
+        <v>11609.068875793091</v>
       </c>
       <c r="AD18">
         <f t="shared" si="15"/>
-        <v>15512.151669369654</v>
+        <v>17937.898247879239</v>
       </c>
       <c r="AE18">
         <f t="shared" si="16"/>
-        <v>30606.386217848467</v>
+        <v>33032.132796358048</v>
       </c>
       <c r="AF18">
         <f t="shared" si="17"/>
-        <v>7602.2901515952326</v>
+        <v>10028.036730104815</v>
       </c>
       <c r="AG18">
         <f t="shared" si="18"/>
-        <v>13298.079893495</v>
+        <v>15723.826472004586</v>
       </c>
       <c r="AH18">
         <f t="shared" si="19"/>
-        <v>26883.361066059231</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+        <v>29309.10764456882</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2035</v>
       </c>
@@ -18714,31 +18680,31 @@
       </c>
       <c r="U19">
         <f>OPEX!$B$3</f>
-        <v>30429.282118970365</v>
+        <v>19283.042118970367</v>
       </c>
       <c r="V19">
         <f t="shared" si="8"/>
-        <v>58037.117881029641</v>
+        <v>69183.357881029646</v>
       </c>
       <c r="W19">
         <f t="shared" si="9"/>
-        <v>88961.117881029641</v>
+        <v>100107.35788102965</v>
       </c>
       <c r="X19">
         <f t="shared" si="1"/>
-        <v>140635.51788102966</v>
+        <v>151781.75788102965</v>
       </c>
       <c r="Y19">
         <f t="shared" si="10"/>
-        <v>49188.317881029638</v>
+        <v>60334.557881029643</v>
       </c>
       <c r="Z19">
         <f t="shared" si="11"/>
-        <v>77016.317881029638</v>
+        <v>88162.557881029643</v>
       </c>
       <c r="AA19">
         <f t="shared" si="12"/>
-        <v>123528.31788102964</v>
+        <v>134674.55788102964</v>
       </c>
       <c r="AB19">
         <f t="shared" si="13"/>
@@ -18746,30 +18712,30 @@
       </c>
       <c r="AC19">
         <f t="shared" si="14"/>
-        <v>11482.334371090416</v>
+        <v>13687.558533371857</v>
       </c>
       <c r="AD19">
         <f t="shared" si="15"/>
-        <v>17600.48291215819</v>
+        <v>19805.707074439633</v>
       </c>
       <c r="AE19">
         <f t="shared" si="16"/>
-        <v>27823.987470771332</v>
+        <v>30029.211633052772</v>
       </c>
       <c r="AF19">
         <f t="shared" si="17"/>
-        <v>9731.6464649269001</v>
+        <v>11936.870627208342</v>
       </c>
       <c r="AG19">
         <f t="shared" si="18"/>
-        <v>15237.267911079858</v>
+        <v>17442.4920733613</v>
       </c>
       <c r="AH19">
         <f t="shared" si="19"/>
-        <v>24439.419150962938</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+        <v>26644.643313244378</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2036</v>
       </c>
@@ -18816,31 +18782,31 @@
       </c>
       <c r="U20">
         <f>OPEX!$B$3</f>
-        <v>30429.282118970365</v>
+        <v>19283.042118970367</v>
       </c>
       <c r="V20">
         <f t="shared" si="8"/>
-        <v>74222.717881029632</v>
+        <v>85368.957881029637</v>
       </c>
       <c r="W20">
         <f t="shared" si="9"/>
-        <v>104426.71788102963</v>
+        <v>115572.95788102964</v>
       </c>
       <c r="X20">
         <f t="shared" si="1"/>
-        <v>140642.71788102965</v>
+        <v>151788.95788102964</v>
       </c>
       <c r="Y20">
         <f t="shared" si="10"/>
-        <v>63753.917881029629</v>
+        <v>74900.157881029634</v>
       </c>
       <c r="Z20">
         <f t="shared" si="11"/>
-        <v>90941.117881029641</v>
+        <v>102087.35788102965</v>
       </c>
       <c r="AA20">
         <f t="shared" si="12"/>
-        <v>123535.51788102965</v>
+        <v>134681.75788102965</v>
       </c>
       <c r="AB20">
         <f t="shared" si="13"/>
@@ -18848,30 +18814,30 @@
       </c>
       <c r="AC20">
         <f t="shared" si="14"/>
-        <v>13349.608221854944</v>
+        <v>15354.357460292618</v>
       </c>
       <c r="AD20">
         <f t="shared" si="15"/>
-        <v>18782.063112272834</v>
+        <v>20786.812350710505</v>
       </c>
       <c r="AE20">
         <f t="shared" si="16"/>
-        <v>25295.829047624917</v>
+        <v>27300.578286062588</v>
       </c>
       <c r="AF20">
         <f t="shared" si="17"/>
-        <v>11466.702522053367</v>
+        <v>13471.451760491042</v>
       </c>
       <c r="AG20">
         <f t="shared" si="18"/>
-        <v>16356.559415073141</v>
+        <v>18361.308653510816</v>
       </c>
       <c r="AH20">
         <f t="shared" si="19"/>
-        <v>22218.948756890015</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+        <v>24223.69799532769</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2037</v>
       </c>
@@ -18918,31 +18884,31 @@
       </c>
       <c r="U21">
         <f>OPEX!$B$3</f>
-        <v>30429.282118970365</v>
+        <v>19283.042118970367</v>
       </c>
       <c r="V21">
         <f t="shared" si="8"/>
-        <v>89623.517881029635</v>
+        <v>100769.75788102964</v>
       </c>
       <c r="W21">
         <f t="shared" si="9"/>
-        <v>116673.91788102964</v>
+        <v>127820.15788102965</v>
       </c>
       <c r="X21">
         <f t="shared" si="1"/>
-        <v>140642.71788102965</v>
+        <v>151788.95788102964</v>
       </c>
       <c r="Y21">
         <f t="shared" si="10"/>
-        <v>77613.917881029629</v>
+        <v>88760.157881029634</v>
       </c>
       <c r="Z21">
         <f t="shared" si="11"/>
-        <v>101957.11788102963</v>
+        <v>113103.35788102963</v>
       </c>
       <c r="AA21">
         <f t="shared" si="12"/>
-        <v>123535.51788102965</v>
+        <v>134681.75788102965</v>
       </c>
       <c r="AB21">
         <f t="shared" si="13"/>
@@ -18950,30 +18916,30 @@
       </c>
       <c r="AC21">
         <f t="shared" si="14"/>
-        <v>14654.161339535234</v>
+        <v>16476.660647205845</v>
       </c>
       <c r="AD21">
         <f t="shared" si="15"/>
-        <v>19077.117894589956</v>
+        <v>20899.617202260568</v>
       </c>
       <c r="AE21">
         <f t="shared" si="16"/>
-        <v>22996.208225113554</v>
+        <v>24818.707532784163</v>
       </c>
       <c r="AF21">
         <f t="shared" si="17"/>
-        <v>12690.495772904604</v>
+        <v>14512.995080575216</v>
       </c>
       <c r="AG21">
         <f t="shared" si="18"/>
-        <v>16670.803495193664</v>
+        <v>18493.302802864277</v>
       </c>
       <c r="AH21">
         <f t="shared" si="19"/>
-        <v>20199.044324445465</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+        <v>22021.543632116078</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2038</v>
       </c>
@@ -19020,31 +18986,31 @@
       </c>
       <c r="U22">
         <f>OPEX!$B$3</f>
-        <v>30429.282118970365</v>
+        <v>19283.042118970367</v>
       </c>
       <c r="V22">
         <f t="shared" si="8"/>
-        <v>103195.51788102965</v>
+        <v>114341.75788102965</v>
       </c>
       <c r="W22">
         <f t="shared" si="9"/>
-        <v>125508.31788102964</v>
+        <v>136654.55788102964</v>
       </c>
       <c r="X22">
         <f t="shared" si="1"/>
-        <v>140642.71788102965</v>
+        <v>151788.95788102964</v>
       </c>
       <c r="Y22">
         <f t="shared" si="10"/>
-        <v>89832.317881029638</v>
+        <v>100978.55788102964</v>
       </c>
       <c r="Z22">
         <f t="shared" si="11"/>
-        <v>109913.11788102963</v>
+        <v>121059.35788102963</v>
       </c>
       <c r="AA22">
         <f t="shared" si="12"/>
-        <v>123535.51788102965</v>
+        <v>134681.75788102965</v>
       </c>
       <c r="AB22">
         <f t="shared" si="13"/>
@@ -19052,30 +19018,30 @@
       </c>
       <c r="AC22">
         <f t="shared" si="14"/>
-        <v>15339.35617366662</v>
+        <v>16996.17372609445</v>
       </c>
       <c r="AD22">
         <f t="shared" si="15"/>
-        <v>18656.011717043726</v>
+        <v>20312.829269471556</v>
       </c>
       <c r="AE22">
         <f t="shared" si="16"/>
-        <v>20905.643841012326</v>
+        <v>22562.461393440153</v>
       </c>
       <c r="AF22">
         <f t="shared" si="17"/>
-        <v>13353.001643654383</v>
+        <v>15009.819196082213</v>
       </c>
       <c r="AG22">
         <f t="shared" si="18"/>
-        <v>16337.884609281602</v>
+        <v>17994.702161709432</v>
       </c>
       <c r="AH22">
         <f t="shared" si="19"/>
-        <v>18362.7675676777</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+        <v>20019.585120105527</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
       <c r="I25" t="s">
         <v>29</v>
       </c>
@@ -19089,7 +19055,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -19112,7 +19078,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2018</v>
       </c>
@@ -19141,7 +19107,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2019</v>
       </c>
@@ -19170,7 +19136,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2020</v>
       </c>
@@ -19199,7 +19165,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2021</v>
       </c>
@@ -19228,7 +19194,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2022</v>
       </c>
@@ -19257,7 +19223,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2023</v>
       </c>
@@ -19286,7 +19252,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2024</v>
       </c>
@@ -19315,7 +19281,7 @@
         <v>4194</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2025</v>
       </c>
@@ -19344,7 +19310,7 @@
         <v>7535</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2026</v>
       </c>
@@ -19373,7 +19339,7 @@
         <v>12384</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2027</v>
       </c>
@@ -19402,7 +19368,7 @@
         <v>17565</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2028</v>
       </c>
@@ -19431,7 +19397,7 @@
         <v>20675</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2029</v>
       </c>
@@ -19460,7 +19426,7 @@
         <v>21341</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2030</v>
       </c>
@@ -19489,7 +19455,7 @@
         <v>21372</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2031</v>
       </c>
@@ -19518,7 +19484,7 @@
         <v>21377</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2032</v>
       </c>
@@ -19547,7 +19513,7 @@
         <v>21380</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2033</v>
       </c>
@@ -19576,7 +19542,7 @@
         <v>21382</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2034</v>
       </c>
@@ -19605,7 +19571,7 @@
         <v>21383</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2035</v>
       </c>
@@ -19634,7 +19600,7 @@
         <v>21383</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2036</v>
       </c>
@@ -19663,7 +19629,7 @@
         <v>21384</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2037</v>
       </c>
@@ -19692,7 +19658,7 @@
         <v>21384</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2038</v>
       </c>
@@ -19738,9 +19704,9 @@
       <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="19" max="19" width="14.88671875" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
@@ -21190,7 +21156,7 @@
       <selection activeCell="B17" sqref="B17:L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -22639,7 +22605,7 @@
       <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -24088,7 +24054,7 @@
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -25537,7 +25503,7 @@
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -26986,7 +26952,7 @@
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">

--- a/tumlknexpectimax/excel_data/input_data_residential.xlsx
+++ b/tumlknexpectimax/excel_data/input_data_residential.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="885" windowWidth="15105" windowHeight="8565" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="885" windowWidth="15105" windowHeight="8565" firstSheet="11" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="CAPEX" sheetId="1" r:id="rId1"/>
@@ -732,6 +732,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1215,11 +1216,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="164097536"/>
-        <c:axId val="100443840"/>
+        <c:axId val="82596352"/>
+        <c:axId val="82344128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="164097536"/>
+        <c:axId val="82596352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1241,13 +1242,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100443840"/>
+        <c:crossAx val="82344128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1255,7 +1257,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100443840"/>
+        <c:axId val="82344128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1278,19 +1280,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164097536"/>
+        <c:crossAx val="82596352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1320,6 +1324,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1402,6 +1407,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -1538,7 +1544,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>36062.342937580564</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>19283.042118970367</c:v>
@@ -1597,11 +1603,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="177275904"/>
-        <c:axId val="100447296"/>
+        <c:axId val="82599424"/>
+        <c:axId val="82495168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="177275904"/>
+        <c:axId val="82599424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1611,7 +1617,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100447296"/>
+        <c:crossAx val="82495168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1619,7 +1625,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100447296"/>
+        <c:axId val="82495168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1649,7 +1655,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177275904"/>
+        <c:crossAx val="82599424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1814,11 +1820,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="158384128"/>
-        <c:axId val="100449024"/>
+        <c:axId val="83006976"/>
+        <c:axId val="82496896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="158384128"/>
+        <c:axId val="83006976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1847,7 +1853,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100449024"/>
+        <c:crossAx val="82496896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1855,7 +1861,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100449024"/>
+        <c:axId val="82496896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1885,7 +1891,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158384128"/>
+        <c:crossAx val="83006976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2427,11 +2433,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="158450176"/>
-        <c:axId val="101433920"/>
+        <c:axId val="82795008"/>
+        <c:axId val="82498624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="158450176"/>
+        <c:axId val="82795008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2441,7 +2447,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101433920"/>
+        <c:crossAx val="82498624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2449,7 +2455,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101433920"/>
+        <c:axId val="82498624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2460,7 +2466,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158450176"/>
+        <c:crossAx val="82795008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2965,8 +2971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y65"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15778,9 +15784,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15802,7 +15808,7 @@
     <col min="15" max="15" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -15849,7 +15855,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
@@ -15909,7 +15915,7 @@
         <v>226845.81955322024</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>65</v>
       </c>
@@ -15920,18 +15926,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <f>D2-C2</f>
-        <v>-312175.27660488611</v>
-      </c>
-      <c r="E3">
+        <f>IF(D2-C2&gt;0,D2-C2,0)</f>
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="E3" s="12">
+        <f t="shared" ref="E3:G3" si="0">IF(E2-D2&gt;0,E2-D2,0)</f>
         <v>0</v>
       </c>
-      <c r="G3">
-        <f>G2-C2</f>
-        <v>-185707.27660488611</v>
+      <c r="F3" s="12">
+        <v>0</v>
+      </c>
+      <c r="G3" s="12">
+        <f>IF(D2-F2&gt;0,D2-F2,0)</f>
+        <v>0</v>
       </c>
       <c r="H3">
         <f>H2-C2</f>
@@ -15939,7 +15946,7 @@
       </c>
       <c r="I3">
         <f>D3+(I2-D2)</f>
-        <v>-305713.27660488611</v>
+        <v>6462</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -15960,7 +15967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>66</v>
       </c>
@@ -16009,7 +16016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>67</v>
       </c>
@@ -16058,7 +16065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>68</v>
       </c>
@@ -16105,7 +16112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>69</v>
       </c>
@@ -16152,7 +16159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>70</v>
       </c>
@@ -16172,15 +16179,13 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <f>G2-H2</f>
-        <v>-203479.27660488611</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <f>I2-H2</f>
-        <v>-323485.27660488611</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -16201,7 +16206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>71</v>
       </c>
@@ -16249,7 +16254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>72</v>
       </c>
@@ -16297,7 +16302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>73</v>
       </c>
@@ -16332,23 +16337,21 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <f>L2-K2</f>
-        <v>-292937.8881684111</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <f>M2-K2</f>
-        <v>-116154.68816841108</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <f>N2-K2</f>
-        <v>-144754</v>
+        <f>IF(N2-K2&gt;0,N2-K2,0)</f>
+        <v>0</v>
       </c>
       <c r="O11">
-        <f>L11+(O2-L2)</f>
-        <v>-276905.8881684111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+        <f>IF(L11+(O2-L2)&gt;0,L11+(O2-L2),0)</f>
+        <v>16032</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>74</v>
       </c>
@@ -16397,7 +16400,7 @@
         <v>16032</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>75</v>
       </c>
@@ -16444,7 +16447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>76</v>
       </c>
@@ -16489,11 +16492,10 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <f>O2-N2</f>
-        <v>-132151.8881684111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>77</v>
       </c>
@@ -16554,8 +16556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16581,8 +16583,7 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <f>AVERAGE(B3:B15)</f>
-        <v>36062.342937580564</v>
+        <v>20000</v>
       </c>
       <c r="C2">
         <v>3.6</v>

--- a/tumlknexpectimax/excel_data/input_data_residential.xlsx
+++ b/tumlknexpectimax/excel_data/input_data_residential.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="885" windowWidth="15105" windowHeight="8565" firstSheet="11" activeTab="17"/>
+    <workbookView xWindow="480" yWindow="1005" windowWidth="15105" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="CAPEX" sheetId="1" r:id="rId1"/>
     <sheet name="OPEX" sheetId="2" r:id="rId2"/>
     <sheet name="Revenue" sheetId="3" r:id="rId3"/>
-    <sheet name="ADSL" sheetId="5" r:id="rId4"/>
+    <sheet name="MIG_MATRIX" sheetId="11" r:id="rId4"/>
     <sheet name="FTTC_GPON_25" sheetId="6" r:id="rId5"/>
     <sheet name="FTTB_XGPON_50" sheetId="7" r:id="rId6"/>
     <sheet name="FTTB_UDWDM_50" sheetId="8" r:id="rId7"/>
@@ -24,7 +24,6 @@
     <sheet name="FTTH_Hybridpon_100" sheetId="17" r:id="rId15"/>
     <sheet name="FTTC_Hybridpon_100" sheetId="18" r:id="rId16"/>
     <sheet name="FTTB_Hybridpon_100" sheetId="19" r:id="rId17"/>
-    <sheet name="MIG_MATRIX" sheetId="11" r:id="rId18"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -191,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="81">
   <si>
     <t>Technology Name</t>
   </si>
@@ -501,16 +500,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -541,13 +540,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -659,9 +658,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -673,18 +672,22 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="4"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="6"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="5"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Calculation" xfId="6" builtinId="22"/>
-    <cellStyle name="Good" xfId="7" builtinId="26"/>
     <cellStyle name="Heading 3" xfId="2" builtinId="18"/>
     <cellStyle name="Heading 4" xfId="3" builtinId="19"/>
     <cellStyle name="Input" xfId="4" builtinId="20"/>
+    <cellStyle name="Neutral" xfId="7" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="5" builtinId="21"/>
     <cellStyle name="Standard 2" xfId="1"/>
@@ -811,43 +814,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>108181.99766751831</c:v>
+                  <c:v>96261.143172944852</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>108181.99766751831</c:v>
+                  <c:v>146337.87420813384</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66893.848581055019</c:v>
+                  <c:v>78872.086550701642</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66893.848581055019</c:v>
+                  <c:v>78872.086550701642</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>108181.99766751831</c:v>
+                  <c:v>146337.87420813384</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>108181.99766751831</c:v>
+                  <c:v>96261.143172944852</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>108181.99766751831</c:v>
+                  <c:v>146337.87420813384</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>66893.848581055019</c:v>
+                  <c:v>78872.086550701642</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>88649.250981062796</c:v>
+                  <c:v>114876.35990534152</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>89276.478946812786</c:v>
+                  <c:v>115530.46906962365</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>89276.478946812786</c:v>
+                  <c:v>115530.46906962365</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>88649.250981062796</c:v>
+                  <c:v>114876.35990534152</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>89276.478946812786</c:v>
+                  <c:v>115530.46906962365</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -927,43 +930,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>37680.456378238385</c:v>
+                  <c:v>5.1327825331856927</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25629.179773352305</c:v>
+                  <c:v>12.814589886676153</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29224.246344356696</c:v>
+                  <c:v>14.612123172178348</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29224.246344356696</c:v>
+                  <c:v>14.612123172178348</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25629.179773352305</c:v>
+                  <c:v>12.814589886676153</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37680.456378238385</c:v>
+                  <c:v>5.1327825331856927</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25629.179773352305</c:v>
+                  <c:v>12.814589886676153</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29224.246344356696</c:v>
+                  <c:v>14.612123172178348</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25188.456740568523</c:v>
+                  <c:v>12.594228370284263</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24423.340606407441</c:v>
+                  <c:v>12.211670303203721</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50174.540606407441</c:v>
+                  <c:v>10.331648594515361</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25188.456740568523</c:v>
+                  <c:v>12.594228370284263</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24423.340606407441</c:v>
+                  <c:v>9.5120485945153614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1043,43 +1046,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>7048</c:v>
+                  <c:v>3056.8888888888887</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11184</c:v>
+                  <c:v>6405.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16000</c:v>
+                  <c:v>5299.166666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16000</c:v>
+                  <c:v>41616.833333333336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19368</c:v>
+                  <c:v>12618.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7404</c:v>
+                  <c:v>6426.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19368</c:v>
+                  <c:v>12818.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29000</c:v>
+                  <c:v>11216.333333333334</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8632</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19032</c:v>
+                  <c:v>7280</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>35064</c:v>
+                  <c:v>14160</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25528</c:v>
+                  <c:v>27600</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>35064</c:v>
+                  <c:v>14160</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1159,43 +1162,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>382544</c:v>
+                  <c:v>158553.60000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78284</c:v>
+                  <c:v>63750.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75260</c:v>
+                  <c:v>60860</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>229768</c:v>
+                  <c:v>160920</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>196568</c:v>
+                  <c:v>129280.20000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>399960</c:v>
+                  <c:v>195086.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>76562</c:v>
+                  <c:v>61989.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>75260</c:v>
+                  <c:v>63060</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>381282</c:v>
+                  <c:v>96145</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>78082</c:v>
+                  <c:v>55966.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>213082</c:v>
+                  <c:v>168466.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>219632</c:v>
+                  <c:v>105356</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>78082</c:v>
+                  <c:v>66966.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1216,11 +1219,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="82596352"/>
-        <c:axId val="82344128"/>
+        <c:axId val="52784640"/>
+        <c:axId val="41669120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82596352"/>
+        <c:axId val="52784640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1249,7 +1252,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82344128"/>
+        <c:crossAx val="41669120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1257,7 +1260,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82344128"/>
+        <c:axId val="41669120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1287,7 +1290,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82596352"/>
+        <c:crossAx val="52784640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1373,16 +1376,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>108181.99766751831</c:v>
+                  <c:v>96261.143172944852</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37680.456378238385</c:v>
+                  <c:v>5.1327825331856927</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7048</c:v>
+                  <c:v>3056.8888888888887</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>382544</c:v>
+                  <c:v>158553.60000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1544,7 +1547,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>20000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>19283.042118970367</c:v>
@@ -1556,7 +1559,7 @@
                   <c:v>44248.4220525376</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10540.776519765759</c:v>
+                  <c:v>19212.762708578561</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>11938.918689039821</c:v>
@@ -1603,11 +1606,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="82599424"/>
-        <c:axId val="82495168"/>
+        <c:axId val="53501952"/>
+        <c:axId val="53264384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82599424"/>
+        <c:axId val="53501952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1617,7 +1620,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82495168"/>
+        <c:crossAx val="53264384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1625,7 +1628,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82495168"/>
+        <c:axId val="53264384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1655,7 +1658,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82599424"/>
+        <c:crossAx val="53501952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1820,11 +1823,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="83006976"/>
-        <c:axId val="82496896"/>
+        <c:axId val="53503488"/>
+        <c:axId val="53266112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="83006976"/>
+        <c:axId val="53503488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1853,7 +1856,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82496896"/>
+        <c:crossAx val="53266112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1861,7 +1864,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82496896"/>
+        <c:axId val="53266112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1891,7 +1894,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83006976"/>
+        <c:crossAx val="53503488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2433,11 +2436,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="82795008"/>
-        <c:axId val="82498624"/>
+        <c:axId val="52976128"/>
+        <c:axId val="53267840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82795008"/>
+        <c:axId val="52976128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2447,7 +2450,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82498624"/>
+        <c:crossAx val="53267840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2455,7 +2458,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82498624"/>
+        <c:axId val="53267840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2466,7 +2469,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82795008"/>
+        <c:crossAx val="52976128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2507,7 +2510,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2543,7 +2546,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2568,23 +2571,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2604,23 +2607,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2645,23 +2648,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2971,8 +2974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3098,12 +3101,10 @@
       <c r="S2" s="9"/>
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
-      <c r="V2" s="9">
-        <v>100000</v>
-      </c>
+      <c r="V2" s="9"/>
       <c r="W2" s="10"/>
     </row>
-    <row r="3" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>65</v>
       </c>
@@ -3158,28 +3159,28 @@
       <c r="Q3" s="8">
         <v>685372.28279667499</v>
       </c>
-      <c r="R3" s="12">
-        <v>108181.99766751831</v>
-      </c>
-      <c r="S3" s="12">
-        <v>37680.456378238385</v>
-      </c>
-      <c r="T3" s="12">
-        <v>7048</v>
-      </c>
-      <c r="U3" s="12">
-        <v>382544</v>
+      <c r="R3" s="11">
+        <v>96261.143172944852</v>
+      </c>
+      <c r="S3" s="11">
+        <v>5.1327825331856927</v>
+      </c>
+      <c r="T3" s="11">
+        <v>3056.8888888888887</v>
+      </c>
+      <c r="U3" s="11">
+        <v>158553.60000000001</v>
       </c>
       <c r="V3" s="9">
         <f>SUM(T3,U3)</f>
-        <v>389592</v>
+        <v>161610.48888888888</v>
       </c>
       <c r="W3" s="10">
         <f>R3+S3+T3+U3</f>
-        <v>535454.45404575672</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+        <v>257876.76484436693</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>66</v>
       </c>
@@ -3234,28 +3235,28 @@
       <c r="Q4" s="8">
         <v>384090.36767452297</v>
       </c>
-      <c r="R4" s="12">
-        <v>108181.99766751831</v>
-      </c>
-      <c r="S4" s="12">
-        <v>25629.179773352305</v>
-      </c>
-      <c r="T4" s="12">
-        <v>11184</v>
-      </c>
-      <c r="U4" s="12">
-        <v>78284</v>
+      <c r="R4" s="11">
+        <v>146337.87420813384</v>
+      </c>
+      <c r="S4" s="11">
+        <v>12.814589886676153</v>
+      </c>
+      <c r="T4" s="11">
+        <v>6405.333333333333</v>
+      </c>
+      <c r="U4" s="11">
+        <v>63750.8</v>
       </c>
       <c r="V4" s="9">
         <f t="shared" ref="V4:V15" si="0">SUM(T4,U4)</f>
-        <v>89468</v>
+        <v>70156.133333333331</v>
       </c>
       <c r="W4" s="10">
         <f t="shared" ref="W4:W15" si="1">R4+S4+T4+U4</f>
-        <v>223279.17744087061</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+        <v>216506.82213135384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>67</v>
       </c>
@@ -3306,28 +3307,28 @@
       <c r="Q5" s="8">
         <v>658286.15266324603</v>
       </c>
-      <c r="R5" s="12">
-        <v>66893.848581055019</v>
-      </c>
-      <c r="S5" s="12">
-        <v>29224.246344356696</v>
-      </c>
-      <c r="T5" s="12">
-        <v>16000</v>
-      </c>
-      <c r="U5" s="12">
-        <v>75260</v>
+      <c r="R5" s="11">
+        <v>78872.086550701642</v>
+      </c>
+      <c r="S5" s="11">
+        <v>14.612123172178348</v>
+      </c>
+      <c r="T5" s="11">
+        <v>5299.166666666667</v>
+      </c>
+      <c r="U5" s="11">
+        <v>60860</v>
       </c>
       <c r="V5" s="9">
         <f t="shared" si="0"/>
-        <v>91260</v>
+        <v>66159.166666666672</v>
       </c>
       <c r="W5" s="10">
         <f t="shared" si="1"/>
-        <v>187378.09492541171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+        <v>145045.86534054048</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>68</v>
       </c>
@@ -3383,28 +3384,28 @@
         <f>658286.152663246+(20*5000)</f>
         <v>758286.15266324603</v>
       </c>
-      <c r="R6" s="12">
-        <v>66893.848581055019</v>
-      </c>
-      <c r="S6" s="12">
-        <v>29224.246344356696</v>
-      </c>
-      <c r="T6" s="12">
-        <v>16000</v>
-      </c>
-      <c r="U6" s="12">
-        <v>229768</v>
+      <c r="R6" s="11">
+        <v>78872.086550701642</v>
+      </c>
+      <c r="S6" s="11">
+        <v>14.612123172178348</v>
+      </c>
+      <c r="T6" s="11">
+        <v>41616.833333333336</v>
+      </c>
+      <c r="U6" s="11">
+        <v>160920</v>
       </c>
       <c r="V6" s="9">
         <f t="shared" si="0"/>
-        <v>245768</v>
+        <v>202536.83333333334</v>
       </c>
       <c r="W6" s="10">
         <f t="shared" si="1"/>
-        <v>341886.09492541174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+        <v>281423.53200720716</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>69</v>
       </c>
@@ -3459,28 +3460,28 @@
       <c r="Q7" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="R7" s="12">
-        <v>108181.99766751831</v>
-      </c>
-      <c r="S7" s="12">
-        <v>25629.179773352305</v>
-      </c>
-      <c r="T7" s="12">
-        <v>19368</v>
-      </c>
-      <c r="U7" s="12">
-        <v>196568</v>
+      <c r="R7" s="11">
+        <v>146337.87420813384</v>
+      </c>
+      <c r="S7" s="11">
+        <v>12.814589886676153</v>
+      </c>
+      <c r="T7" s="11">
+        <v>12618.666666666666</v>
+      </c>
+      <c r="U7" s="11">
+        <v>129280.20000000001</v>
       </c>
       <c r="V7" s="9">
         <f t="shared" si="0"/>
-        <v>215936</v>
+        <v>141898.86666666667</v>
       </c>
       <c r="W7" s="10">
         <f t="shared" si="1"/>
-        <v>349747.17744087061</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+        <v>288249.55546468718</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>70</v>
       </c>
@@ -3533,28 +3534,28 @@
       <c r="Q8" s="8">
         <v>685372.28279667499</v>
       </c>
-      <c r="R8" s="12">
-        <v>108181.99766751831</v>
-      </c>
-      <c r="S8" s="12">
-        <v>37680.456378238385</v>
-      </c>
-      <c r="T8" s="12">
-        <v>7404</v>
-      </c>
-      <c r="U8" s="12">
-        <v>399960</v>
+      <c r="R8" s="11">
+        <v>96261.143172944852</v>
+      </c>
+      <c r="S8" s="11">
+        <v>5.1327825331856927</v>
+      </c>
+      <c r="T8" s="11">
+        <v>6426.666666666667</v>
+      </c>
+      <c r="U8" s="11">
+        <v>195086.4</v>
       </c>
       <c r="V8" s="9">
         <f t="shared" si="0"/>
-        <v>407364</v>
+        <v>201513.06666666665</v>
       </c>
       <c r="W8" s="10">
         <f t="shared" si="1"/>
-        <v>553226.45404575672</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+        <v>297779.34262214473</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>71</v>
       </c>
@@ -3607,28 +3608,28 @@
       <c r="Q9" s="8">
         <v>384090.36767452297</v>
       </c>
-      <c r="R9" s="12">
-        <v>108181.99766751831</v>
-      </c>
-      <c r="S9" s="12">
-        <v>25629.179773352305</v>
-      </c>
-      <c r="T9" s="12">
-        <v>19368</v>
-      </c>
-      <c r="U9" s="12">
-        <v>76562</v>
+      <c r="R9" s="11">
+        <v>146337.87420813384</v>
+      </c>
+      <c r="S9" s="11">
+        <v>12.814589886676153</v>
+      </c>
+      <c r="T9" s="11">
+        <v>12818.666666666666</v>
+      </c>
+      <c r="U9" s="11">
+        <v>61989.9</v>
       </c>
       <c r="V9" s="9">
         <f t="shared" si="0"/>
-        <v>95930</v>
+        <v>74808.566666666666</v>
       </c>
       <c r="W9" s="10">
         <f t="shared" si="1"/>
-        <v>229741.17744087061</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+        <v>221159.25546468716</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>72</v>
       </c>
@@ -3680,28 +3681,28 @@
       <c r="Q10" s="8">
         <v>658286.15266324603</v>
       </c>
-      <c r="R10" s="12">
-        <v>66893.848581055019</v>
-      </c>
-      <c r="S10" s="12">
-        <v>29224.246344356696</v>
-      </c>
-      <c r="T10" s="12">
-        <v>29000</v>
-      </c>
-      <c r="U10" s="12">
-        <v>75260</v>
+      <c r="R10" s="11">
+        <v>78872.086550701642</v>
+      </c>
+      <c r="S10" s="11">
+        <v>14.612123172178348</v>
+      </c>
+      <c r="T10" s="11">
+        <v>11216.333333333334</v>
+      </c>
+      <c r="U10" s="11">
+        <v>63060</v>
       </c>
       <c r="V10" s="9">
         <f t="shared" si="0"/>
-        <v>104260</v>
+        <v>74276.333333333328</v>
       </c>
       <c r="W10" s="10">
         <f t="shared" si="1"/>
-        <v>200378.09492541171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+        <v>153163.03200720716</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>73</v>
       </c>
@@ -3754,28 +3755,28 @@
       <c r="Q11" s="8">
         <v>387592.626526276</v>
       </c>
-      <c r="R11" s="12">
-        <v>88649.250981062796</v>
-      </c>
-      <c r="S11" s="12">
-        <v>25188.456740568523</v>
-      </c>
-      <c r="T11" s="12">
-        <v>8632</v>
-      </c>
-      <c r="U11" s="12">
-        <v>381282</v>
+      <c r="R11" s="11">
+        <v>114876.35990534152</v>
+      </c>
+      <c r="S11" s="11">
+        <v>12.594228370284263</v>
+      </c>
+      <c r="T11" s="11">
+        <v>4000</v>
+      </c>
+      <c r="U11" s="11">
+        <v>96145</v>
       </c>
       <c r="V11" s="9">
         <f t="shared" si="0"/>
-        <v>389914</v>
+        <v>100145</v>
       </c>
       <c r="W11" s="10">
         <f t="shared" si="1"/>
-        <v>503751.70772163133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+        <v>215033.95413371181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>74</v>
       </c>
@@ -3828,177 +3829,177 @@
       <c r="Q12" s="8">
         <v>368464.72317224898</v>
       </c>
-      <c r="R12" s="12">
-        <v>89276.478946812786</v>
-      </c>
-      <c r="S12" s="12">
-        <v>24423.340606407441</v>
-      </c>
-      <c r="T12" s="12">
-        <v>19032</v>
-      </c>
-      <c r="U12" s="12">
-        <v>78082</v>
+      <c r="R12" s="11">
+        <v>115530.46906962365</v>
+      </c>
+      <c r="S12" s="11">
+        <v>12.211670303203721</v>
+      </c>
+      <c r="T12" s="11">
+        <v>7280</v>
+      </c>
+      <c r="U12" s="11">
+        <v>55966.5</v>
       </c>
       <c r="V12" s="9">
         <f t="shared" si="0"/>
-        <v>97114</v>
+        <v>63246.5</v>
       </c>
       <c r="W12" s="10">
         <f t="shared" si="1"/>
-        <v>210813.81955322024</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+        <v>178789.18073992687</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="16">
         <f>CEILING(29262+0.1*29262,1)</f>
         <v>32189</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="16">
         <v>80</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="16">
         <v>16</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="16">
         <v>0.54</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="16">
         <v>0.28000000000000003</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="16">
         <v>3.1</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="16">
         <v>8</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="16">
         <v>305</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="16">
         <v>7039.7238495865004</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="16">
         <v>50467.597460168901</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="16">
         <v>70030.505757120001</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O13" s="16">
         <v>8635.1542501059794</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="16">
         <v>233483.63773783101</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="Q13" s="16">
         <f>$Q$12+20*$B$13</f>
         <v>1012244.723172249</v>
       </c>
-      <c r="R13" s="12">
-        <v>89276.478946812786</v>
-      </c>
-      <c r="S13" s="12">
-        <v>50174.540606407441</v>
-      </c>
-      <c r="T13" s="12">
-        <v>35064</v>
-      </c>
-      <c r="U13" s="12">
-        <v>213082</v>
-      </c>
-      <c r="V13" s="9">
+      <c r="R13" s="17">
+        <v>115530.46906962365</v>
+      </c>
+      <c r="S13" s="17">
+        <v>10.331648594515361</v>
+      </c>
+      <c r="T13" s="17">
+        <v>14160</v>
+      </c>
+      <c r="U13" s="17">
+        <v>168466.5</v>
+      </c>
+      <c r="V13" s="16">
         <f t="shared" si="0"/>
-        <v>248146</v>
-      </c>
-      <c r="W13" s="10">
+        <v>182626.5</v>
+      </c>
+      <c r="W13" s="18">
         <f t="shared" si="1"/>
-        <v>387597.01955322025</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+        <v>298167.30071821815</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="16">
         <f t="shared" si="2"/>
         <v>5365</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="16">
         <v>80</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="16">
         <v>8</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="16">
         <v>0.54</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="16">
         <v>0.28000000000000003</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="16">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="16">
         <v>8</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="16">
         <v>610</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="16">
         <v>7039.7238495865004</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="16">
         <v>50467.597460168901</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="16">
         <v>69134.465806048596</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O14" s="16">
         <v>8635.1542501059794</v>
       </c>
-      <c r="P14" s="8">
+      <c r="P14" s="16">
         <v>233483.63773783101</v>
       </c>
-      <c r="Q14" s="8">
+      <c r="Q14" s="16">
         <v>387592.626526276</v>
       </c>
-      <c r="R14" s="12">
-        <v>88649.250981062796</v>
-      </c>
-      <c r="S14" s="12">
-        <v>25188.456740568523</v>
-      </c>
-      <c r="T14" s="12">
-        <v>25528</v>
-      </c>
-      <c r="U14" s="12">
-        <v>219632</v>
-      </c>
-      <c r="V14" s="9">
+      <c r="R14" s="17">
+        <v>114876.35990534152</v>
+      </c>
+      <c r="S14" s="17">
+        <v>12.594228370284263</v>
+      </c>
+      <c r="T14" s="17">
+        <v>27600</v>
+      </c>
+      <c r="U14" s="17">
+        <v>105356</v>
+      </c>
+      <c r="V14" s="16">
         <f t="shared" si="0"/>
-        <v>245160</v>
-      </c>
-      <c r="W14" s="10">
+        <v>132956</v>
+      </c>
+      <c r="W14" s="18">
         <f t="shared" si="1"/>
-        <v>358997.70772163133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+        <v>247844.95413371181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>77</v>
       </c>
@@ -4052,25 +4053,25 @@
         <f>$Q$12</f>
         <v>368464.72317224898</v>
       </c>
-      <c r="R15" s="12">
-        <v>89276.478946812786</v>
-      </c>
-      <c r="S15" s="12">
-        <v>24423.340606407441</v>
-      </c>
-      <c r="T15" s="12">
-        <v>35064</v>
-      </c>
-      <c r="U15" s="12">
-        <v>78082</v>
+      <c r="R15" s="11">
+        <v>115530.46906962365</v>
+      </c>
+      <c r="S15" s="11">
+        <v>9.5120485945153614</v>
+      </c>
+      <c r="T15" s="11">
+        <v>14160</v>
+      </c>
+      <c r="U15" s="11">
+        <v>66966.5</v>
       </c>
       <c r="V15" s="9">
         <f t="shared" si="0"/>
-        <v>113146</v>
+        <v>81126.5</v>
       </c>
       <c r="W15" s="10">
         <f t="shared" si="1"/>
-        <v>226845.81955322024</v>
+        <v>196666.48111821816</v>
       </c>
     </row>
     <row r="27" spans="16:16" x14ac:dyDescent="0.25">
@@ -15780,784 +15781,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
-    <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" customWidth="1"/>
-    <col min="15" max="15" width="25.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <f>CAPEX!$W3</f>
-        <v>535454.45404575672</v>
-      </c>
-      <c r="D2">
-        <f>CAPEX!$W4</f>
-        <v>223279.17744087061</v>
-      </c>
-      <c r="E2">
-        <f>CAPEX!$W5</f>
-        <v>187378.09492541171</v>
-      </c>
-      <c r="F2">
-        <f>CAPEX!$W6</f>
-        <v>341886.09492541174</v>
-      </c>
-      <c r="G2">
-        <f>CAPEX!$W7</f>
-        <v>349747.17744087061</v>
-      </c>
-      <c r="H2">
-        <f>CAPEX!$W8</f>
-        <v>553226.45404575672</v>
-      </c>
-      <c r="I2">
-        <f>CAPEX!$W9</f>
-        <v>229741.17744087061</v>
-      </c>
-      <c r="J2">
-        <f>CAPEX!$W10</f>
-        <v>200378.09492541171</v>
-      </c>
-      <c r="K2">
-        <f>CAPEX!$W11</f>
-        <v>503751.70772163133</v>
-      </c>
-      <c r="L2">
-        <f>CAPEX!$W12</f>
-        <v>210813.81955322024</v>
-      </c>
-      <c r="M2">
-        <f>CAPEX!$W13</f>
-        <v>387597.01955322025</v>
-      </c>
-      <c r="N2">
-        <f>CAPEX!$W14</f>
-        <v>358997.70772163133</v>
-      </c>
-      <c r="O2">
-        <f>CAPEX!$W15</f>
-        <v>226845.81955322024</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <f>IF(D2-C2&gt;0,D2-C2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="12">
-        <f t="shared" ref="E3:G3" si="0">IF(E2-D2&gt;0,E2-D2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="12">
-        <v>0</v>
-      </c>
-      <c r="G3" s="12">
-        <f>IF(D2-F2&gt;0,D2-F2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <f>H2-C2</f>
-        <v>17772</v>
-      </c>
-      <c r="I3">
-        <f>D3+(I2-D2)</f>
-        <v>6462</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <f>G2-D2</f>
-        <v>126468</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <f>I2-D2</f>
-        <v>6462</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <f>F2-E2</f>
-        <v>154508.00000000003</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f>J2-E2</f>
-        <v>13000</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <f>G2-I2</f>
-        <v>120006</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <f>F2-J2</f>
-        <v>141508.00000000003</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <f>IF(N2-K2&gt;0,N2-K2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <f>IF(L11+(O2-L2)&gt;0,L11+(O2-L2),0)</f>
-        <v>16032</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <f>M2-L2</f>
-        <v>176783.2</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <f>O2-L2</f>
-        <v>16032</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <f>M2-N2</f>
-        <v>28599.311831588915</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <f>M2-O2</f>
-        <v>160751.20000000001</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;LUnrestricted</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16583,51 +15812,52 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>20000</v>
+        <f>10000</f>
+        <v>10000</v>
       </c>
       <c r="C2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>19283.042118970367</v>
       </c>
       <c r="C3">
         <v>7.2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <v>43709.823692218881</v>
       </c>
       <c r="C4">
         <v>9.6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>44248.4220525376</v>
       </c>
       <c r="C5">
         <v>9.6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="13">
-        <v>10540.776519765759</v>
+      <c r="B6" s="19">
+        <v>19212.762708578561</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -16637,95 +15867,95 @@
       <c r="A7" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <v>11938.918689039821</v>
       </c>
       <c r="C7">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="12">
         <v>50983.71612182937</v>
       </c>
       <c r="C8">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>47726.863400003029</v>
       </c>
       <c r="C9">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>48220.289169209609</v>
       </c>
       <c r="C10">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>37682.867713520049</v>
       </c>
       <c r="C11">
         <v>7.2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <v>44827.8721002112</v>
       </c>
       <c r="C12">
         <v>9.6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <v>12139.814930199653</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="12">
         <v>47419.574760442287</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="14">
         <v>50088.476920599649</v>
       </c>
       <c r="C15">
@@ -16734,7 +15964,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;LUnrestricted</oddFooter>
   </headerFooter>
@@ -19042,7 +18272,7 @@
         <v>20019.585120105527</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I25" t="s">
         <v>29</v>
       </c>
@@ -19699,1450 +18929,770 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="19" max="19" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T1" t="s">
-        <v>52</v>
-      </c>
-      <c r="U1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2018</v>
+        <v>23</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="B2">
-        <v>345.6</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>345.6</v>
+        <f>CAPEX!$W3</f>
+        <v>257876.76484436693</v>
       </c>
       <c r="D2">
-        <v>345.6</v>
+        <f>CAPEX!$W4</f>
+        <v>216506.82213135384</v>
       </c>
       <c r="E2">
-        <v>309.60000000000002</v>
+        <f>CAPEX!$W5</f>
+        <v>145045.86534054048</v>
       </c>
       <c r="F2">
-        <v>309.60000000000002</v>
+        <f>CAPEX!$W6</f>
+        <v>281423.53200720716</v>
       </c>
       <c r="G2">
-        <v>309.60000000000002</v>
+        <f>CAPEX!$W7</f>
+        <v>288249.55546468718</v>
       </c>
       <c r="H2">
-        <v>2500</v>
+        <f>CAPEX!$W8</f>
+        <v>297779.34262214473</v>
       </c>
       <c r="I2">
-        <v>-2154.4</v>
+        <f>CAPEX!$W9</f>
+        <v>221159.25546468716</v>
       </c>
       <c r="J2">
-        <v>-2154.4</v>
+        <f>CAPEX!$W10</f>
+        <v>153163.03200720716</v>
       </c>
       <c r="K2">
-        <v>-2154.4</v>
+        <f>CAPEX!$W11</f>
+        <v>215033.95413371181</v>
       </c>
       <c r="L2">
-        <v>-2190.4</v>
+        <f>CAPEX!$W12</f>
+        <v>178789.18073992687</v>
       </c>
       <c r="M2">
-        <v>-2190.4</v>
+        <f>CAPEX!$W13</f>
+        <v>298167.30071821815</v>
       </c>
       <c r="N2">
-        <v>-2190.4</v>
+        <f>CAPEX!$W14</f>
+        <v>247844.95413371181</v>
       </c>
       <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>-2154.4</v>
-      </c>
-      <c r="Q2">
-        <v>-2154.4</v>
-      </c>
-      <c r="R2">
-        <v>-2154.4</v>
-      </c>
-      <c r="S2">
-        <v>-2190.4</v>
-      </c>
-      <c r="T2">
-        <v>-2190.4</v>
-      </c>
-      <c r="U2">
-        <v>-2190.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2019</v>
+        <f>CAPEX!$W15</f>
+        <v>196666.48111821816</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="B3">
-        <v>460.8</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>475.2</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>644.4</v>
-      </c>
-      <c r="E3">
-        <v>414</v>
-      </c>
-      <c r="F3">
-        <v>424.8</v>
-      </c>
-      <c r="G3">
-        <v>579.6</v>
+        <f>IF(D2-C2&gt;0,D2-C2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="11">
+        <f t="shared" ref="E3" si="0">IF(E2-D2&gt;0,E2-D2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11">
+        <f>IF(D2-F2&gt;0,D2-F2,0)</f>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>2500</v>
+        <f>H2-C2</f>
+        <v>39902.577777777798</v>
       </c>
       <c r="I3">
-        <v>-2039.2</v>
+        <f>D3+(I2-D2)</f>
+        <v>4652.4333333333198</v>
       </c>
       <c r="J3">
-        <v>-2024.8</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>-1855.6</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>-2086</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-2075.1999999999998</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>-1920.4</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="P3">
-        <v>-1853.8181818181818</v>
-      </c>
-      <c r="Q3">
-        <v>-1840.7272727272725</v>
-      </c>
-      <c r="R3">
-        <v>-1686.9090909090908</v>
-      </c>
-      <c r="S3">
-        <v>-1896.3636363636363</v>
-      </c>
-      <c r="T3">
-        <v>-1886.5454545454543</v>
-      </c>
-      <c r="U3">
-        <v>-1745.8181818181818</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2020</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="B4">
-        <v>619.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>658.80000000000007</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1231.2</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>554.4</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>590.4</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1105.2</v>
+        <f>G2-D2</f>
+        <v>71742.733333333337</v>
       </c>
       <c r="H4">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>-1880.8</v>
+        <f>I2-D2</f>
+        <v>4652.4333333333198</v>
       </c>
       <c r="J4">
-        <v>-1841.1999999999998</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>-1268.8</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>-1945.6</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>-1909.6</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>-1394.8</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.82644628099173545</v>
-      </c>
-      <c r="P4">
-        <v>-1554.380165289256</v>
-      </c>
-      <c r="Q4">
-        <v>-1521.6528925619832</v>
-      </c>
-      <c r="R4">
-        <v>-1048.5950413223138</v>
-      </c>
-      <c r="S4">
-        <v>-1607.9338842975203</v>
-      </c>
-      <c r="T4">
-        <v>-1578.181818181818</v>
-      </c>
-      <c r="U4">
-        <v>-1152.7272727272725</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2021</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="B5">
-        <v>838.80000000000007</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>925.2</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>2379.6</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>752.4</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>831.6</v>
+        <f>F2-E2</f>
+        <v>136377.66666666669</v>
       </c>
       <c r="G5">
-        <v>2138.4</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>-1661.1999999999998</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>-1574.8</v>
+        <f>J2-E2</f>
+        <v>8117.1666666666861</v>
       </c>
       <c r="K5">
-        <v>-120.40000000000009</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>-1747.6</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>-1668.4</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>-361.59999999999991</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.75131480090157754</v>
-      </c>
-      <c r="P5">
-        <v>-1248.0841472577006</v>
-      </c>
-      <c r="Q5">
-        <v>-1183.1705484598042</v>
-      </c>
-      <c r="R5">
-        <v>-90.458302028550008</v>
-      </c>
-      <c r="S5">
-        <v>-1312.9977460555967</v>
-      </c>
-      <c r="T5">
-        <v>-1253.4936138241919</v>
-      </c>
-      <c r="U5">
-        <v>-271.6754320060104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2022</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="B6">
-        <v>1144.8</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1306.8</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>4622.4000000000005</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1029.6000000000001</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1173.6000000000001</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>4158</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>-1355.2</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>-1193.2</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>2122.4000000000005</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>-1470.3999999999999</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>-1326.3999999999999</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1658</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.68301345536507052</v>
-      </c>
-      <c r="P6">
-        <v>-925.61983471074359</v>
-      </c>
-      <c r="Q6">
-        <v>-814.9716549416022</v>
-      </c>
-      <c r="R6">
-        <v>1449.627757666826</v>
-      </c>
-      <c r="S6">
-        <v>-1004.3029847687995</v>
-      </c>
-      <c r="T6">
-        <v>-905.94904719622946</v>
-      </c>
-      <c r="U6">
-        <v>1132.4363089952869</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2023</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="B7">
-        <v>1566</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1850.4</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>8902.8000000000011</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1407.6000000000001</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1663.2</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>8010</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>-934</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>-649.59999999999991</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>6402.8000000000011</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>-1092.3999999999999</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>-836.8</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>5510</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.62092132305915493</v>
-      </c>
-      <c r="P7">
-        <v>-579.94051573725073</v>
-      </c>
-      <c r="Q7">
-        <v>-403.35049145922699</v>
-      </c>
-      <c r="R7">
-        <v>3975.6350472831577</v>
-      </c>
-      <c r="S7">
-        <v>-678.29445330982071</v>
-      </c>
-      <c r="T7">
-        <v>-519.58696313590076</v>
-      </c>
-      <c r="U7">
-        <v>3421.2764900559437</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2024</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="B8">
-        <v>2138.4</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>2617.2000000000003</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>16776</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1922.4</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>2354.4</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>15098.4</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>-361.59999999999991</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>117.20000000000027</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>14276</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>-577.59999999999991</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>-145.59999999999991</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>12598.4</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.56447393005377722</v>
-      </c>
-      <c r="P8">
-        <v>-204.11377310744578</v>
-      </c>
-      <c r="Q8">
-        <v>66.156344602302838</v>
-      </c>
-      <c r="R8">
-        <v>8058.4298254477235</v>
-      </c>
-      <c r="S8">
-        <v>-326.04014199906169</v>
-      </c>
-      <c r="T8">
-        <v>-82.187404215829915</v>
-      </c>
-      <c r="U8">
-        <v>7111.4683603895064</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>2025</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="B9">
-        <v>2926.8</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>3697.2000000000003</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>30142.799999999999</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>2631.6</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>3326.4</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>27126</v>
+        <f>G2-I2</f>
+        <v>67090.300000000017</v>
       </c>
       <c r="H9">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>426.80000000000018</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>1197.2000000000003</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>27642.799999999999</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>131.59999999999991</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>826.40000000000009</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>24626</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.51315811823070645</v>
-      </c>
-      <c r="P9">
-        <v>219.01588486086561</v>
-      </c>
-      <c r="Q9">
-        <v>614.35289914580187</v>
-      </c>
-      <c r="R9">
-        <v>14185.127230627771</v>
-      </c>
-      <c r="S9">
-        <v>67.531608359160927</v>
-      </c>
-      <c r="T9">
-        <v>424.07386890585587</v>
-      </c>
-      <c r="U9">
-        <v>12637.031819549376</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>2026</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="B10">
-        <v>3992.4</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>5205.6000000000004</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>49536</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>3592.8</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>4683.6000000000004</v>
+        <f>F2-J2</f>
+        <v>128260.5</v>
       </c>
       <c r="G10">
-        <v>44582.400000000001</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1492.4</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>2705.6000000000004</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>47036</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1092.8000000000002</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>2183.6000000000004</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>42082.400000000001</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.46650738020973315</v>
-      </c>
-      <c r="P10">
-        <v>696.21561422500577</v>
-      </c>
-      <c r="Q10">
-        <v>1262.1823678954543</v>
-      </c>
-      <c r="R10">
-        <v>21942.641135545007</v>
-      </c>
-      <c r="S10">
-        <v>509.79926509319648</v>
-      </c>
-      <c r="T10">
-        <v>1018.6655154259735</v>
-      </c>
-      <c r="U10">
-        <v>19631.750176938076</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>2027</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="B11">
-        <v>5432.4000000000005</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>7300.8</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>70261.2</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>4888.8</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>6570</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>63234</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>2932.4000000000005</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>4800.8</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>67761.2</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>2388.8000000000002</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>4070</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>60734</v>
+        <f>IF(N2-K2&gt;0,N2-K2,0)</f>
+        <v>32811</v>
       </c>
       <c r="O11">
-        <v>0.42409761837248466</v>
-      </c>
-      <c r="P11">
-        <v>1243.6238561154742</v>
-      </c>
-      <c r="Q11">
-        <v>2036.0078462826245</v>
-      </c>
-      <c r="R11">
-        <v>28737.363538061607</v>
-      </c>
-      <c r="S11">
-        <v>1013.0843907681915</v>
-      </c>
-      <c r="T11">
-        <v>1726.0773067760126</v>
-      </c>
-      <c r="U11">
-        <v>25757.144754234483</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
-        <v>2028</v>
-      </c>
-      <c r="B12" s="11">
-        <v>7358.4000000000005</v>
-      </c>
-      <c r="C12" s="11">
-        <v>10159.200000000001</v>
-      </c>
-      <c r="D12" s="11">
-        <v>82702.8</v>
-      </c>
-      <c r="E12" s="11">
-        <v>6620.4000000000005</v>
-      </c>
-      <c r="F12" s="11">
-        <v>9140.4</v>
-      </c>
-      <c r="G12" s="11">
-        <v>74430</v>
-      </c>
-      <c r="H12" s="11">
-        <v>2500</v>
-      </c>
-      <c r="I12" s="11">
-        <v>4858.4000000000005</v>
-      </c>
-      <c r="J12" s="11">
-        <v>7659.2000000000007</v>
-      </c>
-      <c r="K12" s="11">
-        <v>80202.8</v>
-      </c>
-      <c r="L12" s="11">
-        <v>4120.4000000000005</v>
-      </c>
-      <c r="M12" s="11">
-        <v>6640.4</v>
-      </c>
-      <c r="N12" s="11">
-        <v>71930</v>
-      </c>
-      <c r="O12" s="11">
-        <v>0.38554328942953148</v>
-      </c>
-      <c r="P12" s="11">
-        <v>1873.1235173644359</v>
-      </c>
-      <c r="Q12" s="11">
-        <v>2952.9531623986677</v>
-      </c>
-      <c r="R12" s="11">
-        <v>30921.651333458827</v>
-      </c>
-      <c r="S12" s="11">
-        <v>1588.5925697654418</v>
-      </c>
-      <c r="T12" s="11">
-        <v>2560.1616591278607</v>
-      </c>
-      <c r="U12" s="11">
-        <v>27732.128808666199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
-        <v>2029</v>
-      </c>
-      <c r="B13" s="11">
-        <v>9903.6</v>
-      </c>
-      <c r="C13" s="11">
-        <v>13993.2</v>
-      </c>
-      <c r="D13" s="11">
-        <v>85366.8</v>
-      </c>
-      <c r="E13" s="11">
-        <v>8910</v>
-      </c>
-      <c r="F13" s="11">
-        <v>12592.800000000001</v>
-      </c>
-      <c r="G13" s="11">
-        <v>76827.600000000006</v>
-      </c>
-      <c r="H13" s="11">
-        <v>2500</v>
-      </c>
-      <c r="I13" s="11">
-        <v>7403.6</v>
-      </c>
-      <c r="J13" s="11">
-        <v>11493.2</v>
-      </c>
-      <c r="K13" s="11">
-        <v>82866.8</v>
-      </c>
-      <c r="L13" s="11">
-        <v>6410</v>
-      </c>
-      <c r="M13" s="11">
-        <v>10092.800000000001</v>
-      </c>
-      <c r="N13" s="11">
-        <v>74327.600000000006</v>
-      </c>
-      <c r="O13" s="11">
-        <v>0.3504938994813922</v>
-      </c>
-      <c r="P13" s="11">
-        <v>2594.9166342004355</v>
-      </c>
-      <c r="Q13" s="11">
-        <v>4028.2964855195373</v>
-      </c>
-      <c r="R13" s="11">
-        <v>29044.307869544631</v>
-      </c>
-      <c r="S13" s="11">
-        <v>2246.6658956757242</v>
-      </c>
-      <c r="T13" s="11">
-        <v>3537.4648286857955</v>
-      </c>
-      <c r="U13" s="11">
-        <v>26051.37036309313</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
-        <v>2030</v>
-      </c>
-      <c r="B14" s="11">
-        <v>13219.2</v>
-      </c>
-      <c r="C14" s="11">
-        <v>19011.600000000002</v>
-      </c>
-      <c r="D14" s="11">
-        <v>85489.2</v>
-      </c>
-      <c r="E14" s="11">
-        <v>11894.4</v>
-      </c>
-      <c r="F14" s="11">
-        <v>17107.2</v>
-      </c>
-      <c r="G14" s="11">
-        <v>76939.199999999997</v>
-      </c>
-      <c r="H14" s="11">
-        <v>2500</v>
-      </c>
-      <c r="I14" s="11">
-        <v>10719.2</v>
-      </c>
-      <c r="J14" s="11">
-        <v>16511.600000000002</v>
-      </c>
-      <c r="K14" s="11">
-        <v>82989.2</v>
-      </c>
-      <c r="L14" s="11">
-        <v>9394.4</v>
-      </c>
-      <c r="M14" s="11">
-        <v>14607.2</v>
-      </c>
-      <c r="N14" s="11">
-        <v>74439.199999999997</v>
-      </c>
-      <c r="O14" s="11">
-        <v>0.31863081771035656</v>
-      </c>
-      <c r="P14" s="11">
-        <v>3415.4674612008544</v>
-      </c>
-      <c r="Q14" s="11">
-        <v>5261.1046097063245</v>
-      </c>
-      <c r="R14" s="11">
-        <v>26442.91665712832</v>
-      </c>
-      <c r="S14" s="11">
-        <v>2993.3453538981735</v>
-      </c>
-      <c r="T14" s="11">
-        <v>4654.3040804587208</v>
-      </c>
-      <c r="U14" s="11">
-        <v>23718.623165704772</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
-        <v>2031</v>
-      </c>
-      <c r="B15" s="11">
-        <v>17456.400000000001</v>
-      </c>
-      <c r="C15" s="11">
-        <v>25351.200000000001</v>
-      </c>
-      <c r="D15" s="11">
-        <v>85510.8</v>
-      </c>
-      <c r="E15" s="11">
-        <v>15710.4</v>
-      </c>
-      <c r="F15" s="11">
-        <v>22813.200000000001</v>
-      </c>
-      <c r="G15" s="11">
-        <v>76957.2</v>
-      </c>
-      <c r="H15" s="11">
-        <v>2500</v>
-      </c>
-      <c r="I15" s="11">
-        <v>14956.400000000001</v>
-      </c>
-      <c r="J15" s="11">
-        <v>22851.200000000001</v>
-      </c>
-      <c r="K15" s="11">
-        <v>83010.8</v>
-      </c>
-      <c r="L15" s="11">
-        <v>13210.4</v>
-      </c>
-      <c r="M15" s="11">
-        <v>20313.2</v>
-      </c>
-      <c r="N15" s="11">
-        <v>74457.2</v>
-      </c>
-      <c r="O15" s="11">
-        <v>0.28966437973668779</v>
-      </c>
-      <c r="P15" s="11">
-        <v>4332.3363290937978</v>
-      </c>
-      <c r="Q15" s="11">
-        <v>6619.1786742390004</v>
-      </c>
-      <c r="R15" s="11">
-        <v>24045.271893446243</v>
-      </c>
-      <c r="S15" s="11">
-        <v>3826.5823220735401</v>
-      </c>
-      <c r="T15" s="11">
-        <v>5884.0104784672867</v>
-      </c>
-      <c r="U15" s="11">
-        <v>21567.598654930509</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
-        <v>2032</v>
-      </c>
-      <c r="B16" s="11">
-        <v>22719.600000000002</v>
-      </c>
-      <c r="C16" s="11">
-        <v>32997.599999999999</v>
-      </c>
-      <c r="D16" s="11">
-        <v>85521.600000000006</v>
-      </c>
-      <c r="E16" s="11">
-        <v>20444.400000000001</v>
-      </c>
-      <c r="F16" s="11">
-        <v>29696.400000000001</v>
-      </c>
-      <c r="G16" s="11">
-        <v>76968</v>
-      </c>
-      <c r="H16" s="11">
-        <v>2500</v>
-      </c>
-      <c r="I16" s="11">
-        <v>20219.600000000002</v>
-      </c>
-      <c r="J16" s="11">
-        <v>30497.599999999999</v>
-      </c>
-      <c r="K16" s="11">
-        <v>83021.600000000006</v>
-      </c>
-      <c r="L16" s="11">
-        <v>17944.400000000001</v>
-      </c>
-      <c r="M16" s="11">
-        <v>27196.400000000001</v>
-      </c>
-      <c r="N16" s="11">
-        <v>74468</v>
-      </c>
-      <c r="O16" s="11">
-        <v>0.26333125430607973</v>
-      </c>
-      <c r="P16" s="11">
-        <v>5324.4526295672104</v>
-      </c>
-      <c r="Q16" s="11">
-        <v>8030.9712613250967</v>
-      </c>
-      <c r="R16" s="11">
-        <v>21862.182062497632</v>
-      </c>
-      <c r="S16" s="11">
-        <v>4725.3213597700178</v>
-      </c>
-      <c r="T16" s="11">
-        <v>7161.6621246098675</v>
-      </c>
-      <c r="U16" s="11">
-        <v>19609.751845665145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
-        <v>2033</v>
-      </c>
-      <c r="B17" s="11">
-        <v>29044.799999999999</v>
-      </c>
-      <c r="C17" s="11">
-        <v>41688</v>
-      </c>
-      <c r="D17" s="11">
-        <v>85528.8</v>
-      </c>
-      <c r="E17" s="11">
-        <v>26139.600000000002</v>
-      </c>
-      <c r="F17" s="11">
-        <v>37519.200000000004</v>
-      </c>
-      <c r="G17" s="11">
-        <v>76975.199999999997</v>
-      </c>
-      <c r="H17" s="11">
-        <v>2500</v>
-      </c>
-      <c r="I17" s="11">
-        <v>26544.799999999999</v>
-      </c>
-      <c r="J17" s="11">
-        <v>39188</v>
-      </c>
-      <c r="K17" s="11">
-        <v>83028.800000000003</v>
-      </c>
-      <c r="L17" s="11">
-        <v>23639.600000000002</v>
-      </c>
-      <c r="M17" s="11">
-        <v>35019.200000000004</v>
-      </c>
-      <c r="N17" s="11">
-        <v>74475.199999999997</v>
-      </c>
-      <c r="O17" s="11">
-        <v>0.23939204936916339</v>
-      </c>
-      <c r="P17" s="11">
-        <v>6354.6140720945677</v>
-      </c>
-      <c r="Q17" s="11">
-        <v>9381.2956306787746</v>
-      </c>
-      <c r="R17" s="11">
-        <v>19876.434588662392</v>
-      </c>
-      <c r="S17" s="11">
-        <v>5659.1322902672755</v>
-      </c>
-      <c r="T17" s="11">
-        <v>8383.3180552686081</v>
-      </c>
-      <c r="U17" s="11">
-        <v>17828.770755178317</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
-        <v>2034</v>
-      </c>
-      <c r="B18" s="11">
-        <v>36313.200000000004</v>
-      </c>
-      <c r="C18" s="11">
-        <v>50853.599999999999</v>
-      </c>
-      <c r="D18" s="11">
-        <v>85532.400000000009</v>
-      </c>
-      <c r="E18" s="11">
-        <v>32680.799999999999</v>
-      </c>
-      <c r="F18" s="11">
-        <v>45766.8</v>
-      </c>
-      <c r="G18" s="11">
-        <v>76978.8</v>
-      </c>
-      <c r="H18" s="11">
-        <v>2500</v>
-      </c>
-      <c r="I18" s="11">
-        <v>33813.200000000004</v>
-      </c>
-      <c r="J18" s="11">
-        <v>48353.599999999999</v>
-      </c>
-      <c r="K18" s="11">
-        <v>83032.400000000009</v>
-      </c>
-      <c r="L18" s="11">
-        <v>30180.799999999999</v>
-      </c>
-      <c r="M18" s="11">
-        <v>43266.8</v>
-      </c>
-      <c r="N18" s="11">
-        <v>74478.8</v>
-      </c>
-      <c r="O18" s="11">
-        <v>0.21762913579014853</v>
-      </c>
-      <c r="P18" s="11">
-        <v>7358.7374942994511</v>
-      </c>
-      <c r="Q18" s="11">
-        <v>10523.152180342526</v>
-      </c>
-      <c r="R18" s="11">
-        <v>18070.269454581932</v>
-      </c>
-      <c r="S18" s="11">
-        <v>6568.2214214553151</v>
-      </c>
-      <c r="T18" s="11">
-        <v>9416.1162924051987</v>
-      </c>
-      <c r="U18" s="11">
-        <v>16208.756878687314</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
-        <v>2035</v>
-      </c>
-      <c r="B19" s="11">
-        <v>44233.200000000004</v>
-      </c>
-      <c r="C19" s="11">
-        <v>59695.200000000004</v>
-      </c>
-      <c r="D19" s="11">
-        <v>85532.400000000009</v>
-      </c>
-      <c r="E19" s="11">
-        <v>39808.800000000003</v>
-      </c>
-      <c r="F19" s="11">
-        <v>53722.8</v>
-      </c>
-      <c r="G19" s="11">
-        <v>76978.8</v>
-      </c>
-      <c r="H19" s="11">
-        <v>2500</v>
-      </c>
-      <c r="I19" s="11">
-        <v>41733.200000000004</v>
-      </c>
-      <c r="J19" s="11">
-        <v>57195.200000000004</v>
-      </c>
-      <c r="K19" s="11">
-        <v>83032.400000000009</v>
-      </c>
-      <c r="L19" s="11">
-        <v>37308.800000000003</v>
-      </c>
-      <c r="M19" s="11">
-        <v>51222.8</v>
-      </c>
-      <c r="N19" s="11">
-        <v>74478.8</v>
-      </c>
-      <c r="O19" s="11">
-        <v>0.19784466890013502</v>
-      </c>
-      <c r="P19" s="11">
-        <v>8256.6911361431157</v>
-      </c>
-      <c r="Q19" s="11">
-        <v>11315.765406677003</v>
-      </c>
-      <c r="R19" s="11">
-        <v>16427.517685983574</v>
-      </c>
-      <c r="S19" s="11">
-        <v>7381.347183061358</v>
-      </c>
-      <c r="T19" s="11">
-        <v>10134.157906137836</v>
-      </c>
-      <c r="U19" s="11">
-        <v>14735.233526079377</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11">
-        <v>2036</v>
-      </c>
-      <c r="B20" s="11">
-        <v>52326</v>
-      </c>
-      <c r="C20" s="11">
-        <v>67428</v>
-      </c>
-      <c r="D20" s="11">
-        <v>85536</v>
-      </c>
-      <c r="E20" s="11">
-        <v>47091.6</v>
-      </c>
-      <c r="F20" s="11">
-        <v>60685.200000000004</v>
-      </c>
-      <c r="G20" s="11">
-        <v>76982.400000000009</v>
-      </c>
-      <c r="H20" s="11">
-        <v>2500</v>
-      </c>
-      <c r="I20" s="11">
-        <v>49826</v>
-      </c>
-      <c r="J20" s="11">
-        <v>64928</v>
-      </c>
-      <c r="K20" s="11">
-        <v>83036</v>
-      </c>
-      <c r="L20" s="11">
-        <v>44591.6</v>
-      </c>
-      <c r="M20" s="11">
-        <v>58185.200000000004</v>
-      </c>
-      <c r="N20" s="11">
-        <v>74482.400000000009</v>
-      </c>
-      <c r="O20" s="11">
-        <v>0.17985878990921364</v>
-      </c>
-      <c r="P20" s="11">
-        <v>8961.644066016479</v>
-      </c>
-      <c r="Q20" s="11">
-        <v>11677.871511225423</v>
-      </c>
-      <c r="R20" s="11">
-        <v>14934.754478901465</v>
-      </c>
-      <c r="S20" s="11">
-        <v>8020.1912161156906</v>
-      </c>
-      <c r="T20" s="11">
-        <v>10465.119662625579</v>
-      </c>
-      <c r="U20" s="11">
-        <v>13396.314333534016</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
-        <v>2037</v>
-      </c>
-      <c r="B21" s="11">
-        <v>60026.400000000001</v>
-      </c>
-      <c r="C21" s="11">
-        <v>73551.600000000006</v>
-      </c>
-      <c r="D21" s="11">
-        <v>85536</v>
-      </c>
-      <c r="E21" s="11">
-        <v>54021.599999999999</v>
-      </c>
-      <c r="F21" s="11">
-        <v>66193.2</v>
-      </c>
-      <c r="G21" s="11">
-        <v>76982.400000000009</v>
-      </c>
-      <c r="H21" s="11">
-        <v>2500</v>
-      </c>
-      <c r="I21" s="11">
-        <v>57526.400000000001</v>
-      </c>
-      <c r="J21" s="11">
-        <v>71051.600000000006</v>
-      </c>
-      <c r="K21" s="11">
-        <v>83036</v>
-      </c>
-      <c r="L21" s="11">
-        <v>51521.599999999999</v>
-      </c>
-      <c r="M21" s="11">
-        <v>63693.2</v>
-      </c>
-      <c r="N21" s="11">
-        <v>74482.400000000009</v>
-      </c>
-      <c r="O21" s="11">
-        <v>0.16350799082655781</v>
-      </c>
-      <c r="P21" s="11">
-        <v>9406.0260834848959</v>
-      </c>
-      <c r="Q21" s="11">
-        <v>11617.504361012256</v>
-      </c>
-      <c r="R21" s="11">
-        <v>13577.049526274055</v>
-      </c>
-      <c r="S21" s="11">
-        <v>8424.1933001695816</v>
-      </c>
-      <c r="T21" s="11">
-        <v>10414.347161314112</v>
-      </c>
-      <c r="U21" s="11">
-        <v>12178.467575940011</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>2038</v>
-      </c>
-      <c r="B22">
-        <v>66812.400000000009</v>
-      </c>
-      <c r="C22">
-        <v>77968.800000000003</v>
-      </c>
-      <c r="D22">
-        <v>85536</v>
-      </c>
-      <c r="E22">
-        <v>60130.8</v>
-      </c>
-      <c r="F22">
-        <v>70171.199999999997</v>
-      </c>
-      <c r="G22">
-        <v>76982.400000000009</v>
-      </c>
-      <c r="H22">
-        <v>2500</v>
-      </c>
-      <c r="I22">
-        <v>64312.400000000009</v>
-      </c>
-      <c r="J22">
-        <v>75468.800000000003</v>
-      </c>
-      <c r="K22">
-        <v>83036</v>
-      </c>
-      <c r="L22">
-        <v>57630.8</v>
-      </c>
-      <c r="M22">
-        <v>67671.199999999997</v>
-      </c>
-      <c r="N22">
-        <v>74482.400000000009</v>
-      </c>
-      <c r="O22">
-        <v>0.14864362802414349</v>
-      </c>
-      <c r="P22">
-        <v>9559.628462939927</v>
-      </c>
-      <c r="Q22">
-        <v>11217.95623462848</v>
-      </c>
-      <c r="R22">
-        <v>12342.772296612779</v>
-      </c>
-      <c r="S22">
-        <v>8566.4511979338095</v>
-      </c>
-      <c r="T22">
-        <v>10058.892680747418</v>
-      </c>
-      <c r="U22">
-        <v>11071.334159945467</v>
+        <f>IF(L11+(O2-L2)&gt;0,L11+(O2-L2),0)</f>
+        <v>17877.300378291286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f>M2-L2</f>
+        <v>119378.11997829127</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f>O2-L2</f>
+        <v>17877.300378291286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f>M2-N2</f>
+        <v>50322.346584506333</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f>M2-O2</f>
+        <v>101500.81959999999</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;LUnrestricted</oddFooter>
   </headerFooter>
@@ -26950,7 +25500,7 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tumlknexpectimax/excel_data/input_data_residential.xlsx
+++ b/tumlknexpectimax/excel_data/input_data_residential.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1005" windowWidth="15105" windowHeight="8445"/>
+    <workbookView xWindow="480" yWindow="1185" windowWidth="15105" windowHeight="8265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CAPEX" sheetId="1" r:id="rId1"/>
@@ -660,7 +660,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -679,7 +679,6 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
@@ -1162,43 +1161,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>158553.60000000001</c:v>
+                  <c:v>4297.6000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63750.8</c:v>
+                  <c:v>13750.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60860</c:v>
+                  <c:v>10860</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>160920</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>129280.20000000001</c:v>
+                  <c:v>69280.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>195086.4</c:v>
+                  <c:v>10974.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>61989.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>63060</c:v>
+                  <c:v>13060</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>96145</c:v>
+                  <c:v>74185</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>55966.5</c:v>
+                  <c:v>15966.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>168466.5</c:v>
+                  <c:v>108466.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>105356</c:v>
+                  <c:v>76076</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>66966.5</c:v>
+                  <c:v>16966.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1219,11 +1218,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="52784640"/>
-        <c:axId val="41669120"/>
+        <c:axId val="178919936"/>
+        <c:axId val="181168384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52784640"/>
+        <c:axId val="178919936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1252,7 +1251,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41669120"/>
+        <c:crossAx val="181168384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1260,7 +1259,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41669120"/>
+        <c:axId val="181168384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1290,7 +1289,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52784640"/>
+        <c:crossAx val="178919936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1385,7 +1384,7 @@
                   <c:v>3056.8888888888887</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>158553.60000000001</c:v>
+                  <c:v>4297.6000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1547,46 +1546,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>10000</c:v>
+                  <c:v>17883.222238166774</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19283.042118970367</c:v>
+                  <c:v>12039.363752186875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43709.823692218881</c:v>
+                  <c:v>14946.234456468943</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44248.4220525376</c:v>
+                  <c:v>15521.8689276736</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19212.762708578561</c:v>
+                  <c:v>12924.735587426556</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11938.918689039821</c:v>
+                  <c:v>10522.692533315019</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50983.71612182937</c:v>
+                  <c:v>24414.807903046651</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47726.863400003029</c:v>
+                  <c:v>18388.821583887824</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48220.289169209609</c:v>
+                  <c:v>19436.478273593595</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37682.867713520049</c:v>
+                  <c:v>26111.97524384196</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44827.8721002112</c:v>
+                  <c:v>15670.9950339712</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12139.814930199653</c:v>
+                  <c:v>11922.241758999651</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>47419.574760442287</c:v>
+                  <c:v>29749.536208516522</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50088.476920599649</c:v>
+                  <c:v>20832.137833239656</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1606,11 +1605,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="53501952"/>
-        <c:axId val="53264384"/>
+        <c:axId val="181588480"/>
+        <c:axId val="199837376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="53501952"/>
+        <c:axId val="181588480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1620,7 +1619,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53264384"/>
+        <c:crossAx val="199837376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1628,7 +1627,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53264384"/>
+        <c:axId val="199837376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1658,7 +1657,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53501952"/>
+        <c:crossAx val="181588480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1823,11 +1822,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="53503488"/>
-        <c:axId val="53266112"/>
+        <c:axId val="186681344"/>
+        <c:axId val="199839680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="53503488"/>
+        <c:axId val="186681344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1856,7 +1855,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53266112"/>
+        <c:crossAx val="199839680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1864,7 +1863,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53266112"/>
+        <c:axId val="199839680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1894,7 +1893,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53503488"/>
+        <c:crossAx val="186681344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2436,11 +2435,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="52976128"/>
-        <c:axId val="53267840"/>
+        <c:axId val="195439616"/>
+        <c:axId val="199841408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52976128"/>
+        <c:axId val="195439616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2450,7 +2449,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53267840"/>
+        <c:crossAx val="199841408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2458,7 +2457,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53267840"/>
+        <c:axId val="199841408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2469,7 +2468,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52976128"/>
+        <c:crossAx val="195439616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2510,7 +2509,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2546,7 +2545,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2587,7 +2586,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2607,23 +2606,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>552449</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2664,7 +2663,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2974,8 +2973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3069,7 +3068,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
@@ -3101,8 +3100,12 @@
       <c r="S2" s="9"/>
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="10"/>
+      <c r="V2" s="9">
+        <v>100000</v>
+      </c>
+      <c r="W2" s="10">
+        <v>100000</v>
+      </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -3169,15 +3172,14 @@
         <v>3056.8888888888887</v>
       </c>
       <c r="U3" s="11">
-        <v>158553.60000000001</v>
+        <v>4297.6000000000004</v>
       </c>
       <c r="V3" s="9">
-        <f>SUM(T3,U3)</f>
         <v>161610.48888888888</v>
       </c>
       <c r="W3" s="10">
         <f>R3+S3+T3+U3</f>
-        <v>257876.76484436693</v>
+        <v>103620.76484436693</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -3245,15 +3247,14 @@
         <v>6405.333333333333</v>
       </c>
       <c r="U4" s="11">
-        <v>63750.8</v>
+        <v>13750.8</v>
       </c>
       <c r="V4" s="9">
-        <f t="shared" ref="V4:V15" si="0">SUM(T4,U4)</f>
         <v>70156.133333333331</v>
       </c>
       <c r="W4" s="10">
-        <f t="shared" ref="W4:W15" si="1">R4+S4+T4+U4</f>
-        <v>216506.82213135384</v>
+        <f t="shared" ref="W4:W15" si="0">R4+S4+T4+U4</f>
+        <v>166506.82213135384</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -3317,15 +3318,14 @@
         <v>5299.166666666667</v>
       </c>
       <c r="U5" s="11">
-        <v>60860</v>
+        <v>10860</v>
       </c>
       <c r="V5" s="9">
+        <v>66159.166666666672</v>
+      </c>
+      <c r="W5" s="10">
         <f t="shared" si="0"/>
-        <v>66159.166666666672</v>
-      </c>
-      <c r="W5" s="10">
-        <f t="shared" si="1"/>
-        <v>145045.86534054048</v>
+        <v>95045.865340540491</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -3397,11 +3397,10 @@
         <v>160920</v>
       </c>
       <c r="V6" s="9">
+        <v>202536.83333333334</v>
+      </c>
+      <c r="W6" s="10">
         <f t="shared" si="0"/>
-        <v>202536.83333333334</v>
-      </c>
-      <c r="W6" s="10">
-        <f t="shared" si="1"/>
         <v>281423.53200720716</v>
       </c>
     </row>
@@ -3470,15 +3469,14 @@
         <v>12618.666666666666</v>
       </c>
       <c r="U7" s="11">
-        <v>129280.20000000001</v>
+        <v>69280.2</v>
       </c>
       <c r="V7" s="9">
+        <v>81898.866666666669</v>
+      </c>
+      <c r="W7" s="10">
         <f t="shared" si="0"/>
-        <v>141898.86666666667</v>
-      </c>
-      <c r="W7" s="10">
-        <f t="shared" si="1"/>
-        <v>288249.55546468718</v>
+        <v>228249.55546468718</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -3544,15 +3542,14 @@
         <v>6426.666666666667</v>
       </c>
       <c r="U8" s="11">
-        <v>195086.4</v>
+        <v>10974.4</v>
       </c>
       <c r="V8" s="9">
+        <v>201513.06666666665</v>
+      </c>
+      <c r="W8" s="10">
         <f t="shared" si="0"/>
-        <v>201513.06666666665</v>
-      </c>
-      <c r="W8" s="10">
-        <f t="shared" si="1"/>
-        <v>297779.34262214473</v>
+        <v>113667.3426221447</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -3560,7 +3557,7 @@
         <v>71</v>
       </c>
       <c r="B9" s="8">
-        <f t="shared" ref="B9:B15" si="2">CEILING(4877+0.1*(4877),1)</f>
+        <f t="shared" ref="B9:B15" si="1">CEILING(4877+0.1*(4877),1)</f>
         <v>5365</v>
       </c>
       <c r="C9" s="8">
@@ -3621,11 +3618,10 @@
         <v>61989.9</v>
       </c>
       <c r="V9" s="9">
+        <v>74808.566666666666</v>
+      </c>
+      <c r="W9" s="10">
         <f t="shared" si="0"/>
-        <v>74808.566666666666</v>
-      </c>
-      <c r="W9" s="10">
-        <f t="shared" si="1"/>
         <v>221159.25546468716</v>
       </c>
     </row>
@@ -3634,7 +3630,7 @@
         <v>72</v>
       </c>
       <c r="B10" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5365</v>
       </c>
       <c r="C10" s="8">
@@ -3691,15 +3687,14 @@
         <v>11216.333333333334</v>
       </c>
       <c r="U10" s="11">
-        <v>63060</v>
+        <v>13060</v>
       </c>
       <c r="V10" s="9">
+        <v>74276.333333333328</v>
+      </c>
+      <c r="W10" s="10">
         <f t="shared" si="0"/>
-        <v>74276.333333333328</v>
-      </c>
-      <c r="W10" s="10">
-        <f t="shared" si="1"/>
-        <v>153163.03200720716</v>
+        <v>103163.03200720715</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -3765,15 +3760,14 @@
         <v>4000</v>
       </c>
       <c r="U11" s="11">
-        <v>96145</v>
+        <v>74185</v>
       </c>
       <c r="V11" s="9">
+        <v>100145</v>
+      </c>
+      <c r="W11" s="10">
         <f t="shared" si="0"/>
-        <v>100145</v>
-      </c>
-      <c r="W11" s="10">
-        <f t="shared" si="1"/>
-        <v>215033.95413371181</v>
+        <v>193073.95413371181</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -3781,7 +3775,7 @@
         <v>74</v>
       </c>
       <c r="B12" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5365</v>
       </c>
       <c r="C12" s="8">
@@ -3839,15 +3833,14 @@
         <v>7280</v>
       </c>
       <c r="U12" s="11">
-        <v>55966.5</v>
+        <v>15966.5</v>
       </c>
       <c r="V12" s="9">
+        <v>63246.5</v>
+      </c>
+      <c r="W12" s="10">
         <f t="shared" si="0"/>
-        <v>63246.5</v>
-      </c>
-      <c r="W12" s="10">
-        <f t="shared" si="1"/>
-        <v>178789.18073992687</v>
+        <v>138789.18073992687</v>
       </c>
     </row>
     <row r="13" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -3914,15 +3907,14 @@
         <v>14160</v>
       </c>
       <c r="U13" s="17">
-        <v>168466.5</v>
+        <v>108466.5</v>
       </c>
       <c r="V13" s="16">
+        <v>122626.5</v>
+      </c>
+      <c r="W13" s="10">
         <f t="shared" si="0"/>
-        <v>182626.5</v>
-      </c>
-      <c r="W13" s="18">
-        <f t="shared" si="1"/>
-        <v>298167.30071821815</v>
+        <v>238167.30071821815</v>
       </c>
     </row>
     <row r="14" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -3930,7 +3922,7 @@
         <v>76</v>
       </c>
       <c r="B14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5365</v>
       </c>
       <c r="C14" s="16">
@@ -3988,15 +3980,14 @@
         <v>27600</v>
       </c>
       <c r="U14" s="17">
-        <v>105356</v>
+        <v>76076</v>
       </c>
       <c r="V14" s="16">
+        <v>132956</v>
+      </c>
+      <c r="W14" s="10">
         <f t="shared" si="0"/>
-        <v>132956</v>
-      </c>
-      <c r="W14" s="18">
-        <f t="shared" si="1"/>
-        <v>247844.95413371181</v>
+        <v>218564.95413371181</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -4004,7 +3995,7 @@
         <v>77</v>
       </c>
       <c r="B15" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5365</v>
       </c>
       <c r="C15" s="8">
@@ -4063,15 +4054,14 @@
         <v>14160</v>
       </c>
       <c r="U15" s="11">
-        <v>66966.5</v>
+        <v>16966.5</v>
       </c>
       <c r="V15" s="9">
+        <v>81126.5</v>
+      </c>
+      <c r="W15" s="10">
         <f t="shared" si="0"/>
-        <v>81126.5</v>
-      </c>
-      <c r="W15" s="10">
-        <f t="shared" si="1"/>
-        <v>196666.48111821816</v>
+        <v>146666.48111821816</v>
       </c>
     </row>
     <row r="27" spans="16:16" x14ac:dyDescent="0.25">
@@ -15785,8 +15775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15812,30 +15802,30 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <f>10000</f>
-        <v>10000</v>
+        <f>AVERAGE(B3:B15)</f>
+        <v>17883.222238166774</v>
       </c>
       <c r="C2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B3" s="12">
-        <v>19283.042118970367</v>
+        <v>12039.363752186875</v>
       </c>
       <c r="C3">
         <v>7.2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B4" s="12">
-        <v>43709.823692218881</v>
+        <v>14946.234456468943</v>
       </c>
       <c r="C4">
         <v>9.6</v>
@@ -15846,7 +15836,7 @@
         <v>67</v>
       </c>
       <c r="B5" s="12">
-        <v>44248.4220525376</v>
+        <v>15521.8689276736</v>
       </c>
       <c r="C5">
         <v>9.6</v>
@@ -15856,8 +15846,8 @@
       <c r="A6" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="19">
-        <v>19212.762708578561</v>
+      <c r="B6" s="18">
+        <v>12924.735587426556</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -15868,95 +15858,95 @@
         <v>69</v>
       </c>
       <c r="B7" s="12">
-        <v>11938.918689039821</v>
+        <v>10522.692533315019</v>
       </c>
       <c r="C7">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B8" s="12">
-        <v>50983.71612182937</v>
+        <v>24414.807903046651</v>
       </c>
       <c r="C8">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B9" s="13">
-        <v>47726.863400003029</v>
+        <v>18388.821583887824</v>
       </c>
       <c r="C9">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B10" s="13">
-        <v>48220.289169209609</v>
+        <v>19436.478273593595</v>
       </c>
       <c r="C10">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B11" s="13">
-        <v>37682.867713520049</v>
+        <v>26111.97524384196</v>
       </c>
       <c r="C11">
         <v>7.2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B12" s="12">
-        <v>44827.8721002112</v>
+        <v>15670.9950339712</v>
       </c>
       <c r="C12">
         <v>9.6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B13" s="12">
-        <v>12139.814930199653</v>
+        <v>11922.241758999651</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B14" s="12">
-        <v>47419.574760442287</v>
+        <v>29749.536208516522</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>77</v>
       </c>
       <c r="B15" s="14">
-        <v>50088.476920599649</v>
+        <v>20832.137833239656</v>
       </c>
       <c r="C15">
         <v>12</v>
@@ -15976,8 +15966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH49"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:AH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16118,31 +16108,31 @@
       </c>
       <c r="U2">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>12039.363752186875</v>
       </c>
       <c r="V2">
         <f>O2-U2</f>
-        <v>-18591.842118970366</v>
+        <v>-11348.163752186874</v>
       </c>
       <c r="W2">
         <f>P2-U2</f>
-        <v>-18591.842118970366</v>
+        <v>-11348.163752186874</v>
       </c>
       <c r="X2">
         <f t="shared" ref="X2:X22" si="1">Q2-U2</f>
-        <v>-18591.842118970366</v>
+        <v>-11348.163752186874</v>
       </c>
       <c r="Y2">
         <f>R2-$U2</f>
-        <v>-18663.842118970366</v>
+        <v>-11420.163752186874</v>
       </c>
       <c r="Z2">
         <f>S2-$U2</f>
-        <v>-18663.842118970366</v>
+        <v>-11420.163752186874</v>
       </c>
       <c r="AA2">
         <f>T2-$U2</f>
-        <v>-18663.842118970366</v>
+        <v>-11420.163752186874</v>
       </c>
       <c r="AB2">
         <f>1/POWER(1+$L$25,N2-2018)</f>
@@ -16150,27 +16140,27 @@
       </c>
       <c r="AC2">
         <f>V2*AB2</f>
-        <v>-18591.842118970366</v>
+        <v>-11348.163752186874</v>
       </c>
       <c r="AD2">
         <f>W2*AB2</f>
-        <v>-18591.842118970366</v>
+        <v>-11348.163752186874</v>
       </c>
       <c r="AE2">
         <f>X2*AB2</f>
-        <v>-18591.842118970366</v>
+        <v>-11348.163752186874</v>
       </c>
       <c r="AF2">
         <f>Y2*$AB2</f>
-        <v>-18663.842118970366</v>
+        <v>-11420.163752186874</v>
       </c>
       <c r="AG2">
         <f>Z2*$AB2</f>
-        <v>-18663.842118970366</v>
+        <v>-11420.163752186874</v>
       </c>
       <c r="AH2">
         <f>AA2*$AB2</f>
-        <v>-18663.842118970366</v>
+        <v>-11420.163752186874</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -16220,31 +16210,31 @@
       </c>
       <c r="U3">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>12039.363752186875</v>
       </c>
       <c r="V3">
         <f t="shared" ref="V3:V22" si="8">O3-U3</f>
-        <v>-18361.442118970368</v>
+        <v>-11117.763752186875</v>
       </c>
       <c r="W3">
         <f t="shared" ref="W3:W22" si="9">P3-U3</f>
-        <v>-18332.642118970365</v>
+        <v>-11088.963752186875</v>
       </c>
       <c r="X3">
         <f t="shared" si="1"/>
-        <v>-17994.242118970367</v>
+        <v>-10750.563752186876</v>
       </c>
       <c r="Y3">
         <f t="shared" ref="Y3:Y22" si="10">R3-$U3</f>
-        <v>-18455.042118970367</v>
+        <v>-11211.363752186875</v>
       </c>
       <c r="Z3">
         <f t="shared" ref="Z3:Z22" si="11">S3-$U3</f>
-        <v>-18433.442118970368</v>
+        <v>-11189.763752186875</v>
       </c>
       <c r="AA3">
         <f t="shared" ref="AA3:AA22" si="12">T3-$U3</f>
-        <v>-18123.842118970366</v>
+        <v>-10880.163752186874</v>
       </c>
       <c r="AB3">
         <f t="shared" ref="AB3:AB22" si="13">1/POWER(1+$L$25,N3-2018)</f>
@@ -16252,27 +16242,27 @@
       </c>
       <c r="AC3">
         <f t="shared" ref="AC3:AC22" si="14">V3*AB3</f>
-        <v>-16692.220108154881</v>
+        <v>-10107.057956533523</v>
       </c>
       <c r="AD3">
         <f t="shared" ref="AD3:AD22" si="15">W3*AB3</f>
-        <v>-16666.038289973058</v>
+        <v>-10080.876138351705</v>
       </c>
       <c r="AE3">
         <f t="shared" ref="AE3:AE22" si="16">X3*AB3</f>
-        <v>-16358.401926336697</v>
+        <v>-9773.2397747153409</v>
       </c>
       <c r="AF3">
         <f t="shared" ref="AF3:AF22" si="17">Y3*$AB3</f>
-        <v>-16777.311017245785</v>
+        <v>-10192.148865624431</v>
       </c>
       <c r="AG3">
         <f t="shared" ref="AG3:AG22" si="18">Z3*$AB3</f>
-        <v>-16757.674653609425</v>
+        <v>-10172.512501988067</v>
       </c>
       <c r="AH3">
         <f t="shared" ref="AH3:AH22" si="19">AA3*$AB3</f>
-        <v>-16476.220108154877</v>
+        <v>-9891.0579565335211</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -16322,31 +16312,31 @@
       </c>
       <c r="U4">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>12039.363752186875</v>
       </c>
       <c r="V4">
         <f t="shared" si="8"/>
-        <v>-18044.642118970365</v>
+        <v>-10800.963752186875</v>
       </c>
       <c r="W4">
         <f t="shared" si="9"/>
-        <v>-17965.442118970368</v>
+        <v>-10721.763752186875</v>
       </c>
       <c r="X4">
         <f t="shared" si="1"/>
-        <v>-16820.642118970365</v>
+        <v>-9576.9637521868754</v>
       </c>
       <c r="Y4">
         <f t="shared" si="10"/>
-        <v>-18174.242118970367</v>
+        <v>-10930.563752186876</v>
       </c>
       <c r="Z4">
         <f t="shared" si="11"/>
-        <v>-18102.242118970367</v>
+        <v>-10858.563752186876</v>
       </c>
       <c r="AA4">
         <f t="shared" si="12"/>
-        <v>-17072.642118970365</v>
+        <v>-9828.9637521868754</v>
       </c>
       <c r="AB4">
         <f t="shared" si="13"/>
@@ -16354,27 +16344,27 @@
       </c>
       <c r="AC4">
         <f t="shared" si="14"/>
-        <v>-14912.927371049887</v>
+        <v>-8926.4163241213828</v>
       </c>
       <c r="AD4">
         <f t="shared" si="15"/>
-        <v>-14847.472825595343</v>
+        <v>-8860.9617786668368</v>
       </c>
       <c r="AE4">
         <f t="shared" si="16"/>
-        <v>-13901.357123116002</v>
+        <v>-7914.8460761874994</v>
       </c>
       <c r="AF4">
         <f t="shared" si="17"/>
-        <v>-15020.034809066417</v>
+        <v>-9033.5237621379129</v>
       </c>
       <c r="AG4">
         <f t="shared" si="18"/>
-        <v>-14960.530676835013</v>
+        <v>-8974.0196299065083</v>
       </c>
       <c r="AH4">
         <f t="shared" si="19"/>
-        <v>-14109.621585925921</v>
+        <v>-8123.1105389974164</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -16431,31 +16421,31 @@
       </c>
       <c r="U5">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>12039.363752186875</v>
       </c>
       <c r="V5">
         <f t="shared" si="8"/>
-        <v>-17605.442118970368</v>
+        <v>-10361.763752186875</v>
       </c>
       <c r="W5">
         <f t="shared" si="9"/>
-        <v>-17432.642118970365</v>
+        <v>-10188.963752186875</v>
       </c>
       <c r="X5">
         <f t="shared" si="1"/>
-        <v>-14523.842118970366</v>
+        <v>-7280.1637521868752</v>
       </c>
       <c r="Y5">
         <f t="shared" si="10"/>
-        <v>-17778.242118970367</v>
+        <v>-10534.563752186876</v>
       </c>
       <c r="Z5">
         <f t="shared" si="11"/>
-        <v>-17619.842118970366</v>
+        <v>-10376.163752186874</v>
       </c>
       <c r="AA5">
         <f t="shared" si="12"/>
-        <v>-15006.242118970367</v>
+        <v>-7762.5637521868748</v>
       </c>
       <c r="AB5">
         <f t="shared" si="13"/>
@@ -16463,27 +16453,27 @@
       </c>
       <c r="AC5">
         <f t="shared" si="14"/>
-        <v>-13227.22924039847</v>
+        <v>-7784.9464704634647</v>
       </c>
       <c r="AD5">
         <f t="shared" si="15"/>
-        <v>-13097.402042802674</v>
+        <v>-7655.1192728676724</v>
       </c>
       <c r="AE5">
         <f t="shared" si="16"/>
-        <v>-10911.977549940166</v>
+        <v>-5469.6947800051639</v>
       </c>
       <c r="AF5">
         <f t="shared" si="17"/>
-        <v>-13357.056437994261</v>
+        <v>-7914.7736680592579</v>
       </c>
       <c r="AG5">
         <f t="shared" si="18"/>
-        <v>-13238.04817353145</v>
+        <v>-7795.765403596447</v>
       </c>
       <c r="AH5">
         <f t="shared" si="19"/>
-        <v>-11274.411809895089</v>
+        <v>-5832.1290399600848</v>
       </c>
     </row>
     <row r="6" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -16540,31 +16530,31 @@
       </c>
       <c r="U6">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>12039.363752186875</v>
       </c>
       <c r="V6">
         <f t="shared" si="8"/>
-        <v>-16993.442118970368</v>
+        <v>-9749.7637521868746</v>
       </c>
       <c r="W6">
         <f t="shared" si="9"/>
-        <v>-16669.442118970368</v>
+        <v>-9425.7637521868746</v>
       </c>
       <c r="X6">
         <f t="shared" si="1"/>
-        <v>-10038.242118970365</v>
+        <v>-2794.5637521868739</v>
       </c>
       <c r="Y6">
         <f t="shared" si="10"/>
-        <v>-17223.842118970366</v>
+        <v>-9980.1637521868743</v>
       </c>
       <c r="Z6">
         <f t="shared" si="11"/>
-        <v>-16935.842118970366</v>
+        <v>-9692.1637521868743</v>
       </c>
       <c r="AA6">
         <f t="shared" si="12"/>
-        <v>-10967.042118970367</v>
+        <v>-3723.363752186875</v>
       </c>
       <c r="AB6">
         <f t="shared" si="13"/>
@@ -16572,27 +16562,27 @@
       </c>
       <c r="AC6">
         <f t="shared" si="14"/>
-        <v>-11606.749620224276</v>
+        <v>-6659.2198293742722</v>
       </c>
       <c r="AD6">
         <f t="shared" si="15"/>
-        <v>-11385.453260685994</v>
+        <v>-6437.9234698359896</v>
       </c>
       <c r="AE6">
         <f t="shared" si="16"/>
-        <v>-6856.2544354691363</v>
+        <v>-1908.7246446191334</v>
       </c>
       <c r="AF6">
         <f t="shared" si="17"/>
-        <v>-11764.115920340388</v>
+        <v>-6816.5861294903843</v>
       </c>
       <c r="AG6">
         <f t="shared" si="18"/>
-        <v>-11567.408045195247</v>
+        <v>-6619.8782543452444</v>
       </c>
       <c r="AH6">
         <f t="shared" si="19"/>
-        <v>-7490.6373328122145</v>
+        <v>-2543.1075419622116</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -16649,31 +16639,31 @@
       </c>
       <c r="U7">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>12039.363752186875</v>
       </c>
       <c r="V7">
         <f t="shared" si="8"/>
-        <v>-16151.042118970367</v>
+        <v>-8907.363752186875</v>
       </c>
       <c r="W7">
         <f t="shared" si="9"/>
-        <v>-15582.242118970367</v>
+        <v>-8338.5637521868739</v>
       </c>
       <c r="X7">
         <f t="shared" si="1"/>
-        <v>-1477.4421189703644</v>
+        <v>5766.2362478131272</v>
       </c>
       <c r="Y7">
         <f t="shared" si="10"/>
-        <v>-16467.842118970366</v>
+        <v>-9224.1637521868743</v>
       </c>
       <c r="Z7">
         <f t="shared" si="11"/>
-        <v>-15956.642118970367</v>
+        <v>-8712.9637521868754</v>
       </c>
       <c r="AA7">
         <f t="shared" si="12"/>
-        <v>-3263.0421189703666</v>
+        <v>3980.636247813125</v>
       </c>
       <c r="AB7">
         <f t="shared" si="13"/>
@@ -16681,27 +16671,27 @@
       </c>
       <c r="AC7">
         <f t="shared" si="14"/>
-        <v>-10028.526441295217</v>
+        <v>-5530.7720859770334</v>
       </c>
       <c r="AD7">
         <f t="shared" si="15"/>
-        <v>-9675.3463927391695</v>
+        <v>-5177.5920374209854</v>
       </c>
       <c r="AE7">
         <f t="shared" si="16"/>
-        <v>-917.37531525439999</v>
+        <v>3580.379040063784</v>
       </c>
       <c r="AF7">
         <f t="shared" si="17"/>
-        <v>-10225.234316440357</v>
+        <v>-5727.4799611221724</v>
       </c>
       <c r="AG7">
         <f t="shared" si="18"/>
-        <v>-9907.8193360925179</v>
+        <v>-5410.0649807743339</v>
       </c>
       <c r="AH7">
         <f t="shared" si="19"/>
-        <v>-2026.0924297088284</v>
+        <v>2471.6619256093559</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -16758,31 +16748,31 @@
       </c>
       <c r="U8">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>12039.363752186875</v>
       </c>
       <c r="V8">
         <f t="shared" si="8"/>
-        <v>-15006.242118970367</v>
+        <v>-7762.5637521868748</v>
       </c>
       <c r="W8">
         <f t="shared" si="9"/>
-        <v>-14048.642118970365</v>
+        <v>-6804.9637521868744</v>
       </c>
       <c r="X8">
         <f t="shared" si="1"/>
-        <v>14268.957881029633</v>
+        <v>21512.636247813127</v>
       </c>
       <c r="Y8">
         <f t="shared" si="10"/>
-        <v>-15438.242118970367</v>
+        <v>-8194.5637521868739</v>
       </c>
       <c r="Z8">
         <f t="shared" si="11"/>
-        <v>-14574.242118970367</v>
+        <v>-7330.5637521868748</v>
       </c>
       <c r="AA8">
         <f t="shared" si="12"/>
-        <v>10913.757881029633</v>
+        <v>18157.436247813122</v>
       </c>
       <c r="AB8">
         <f t="shared" si="13"/>
@@ -16790,27 +16780,27 @@
       </c>
       <c r="AC8">
         <f t="shared" si="14"/>
-        <v>-8470.632464233724</v>
+        <v>-4381.7648684899204</v>
       </c>
       <c r="AD8">
         <f t="shared" si="15"/>
-        <v>-7930.0922288142265</v>
+        <v>-3841.2246330704234</v>
       </c>
       <c r="AE8">
         <f t="shared" si="16"/>
-        <v>8054.4547328766148</v>
+        <v>12143.322328620419</v>
       </c>
       <c r="AF8">
         <f t="shared" si="17"/>
-        <v>-8714.4852020169565</v>
+        <v>-4625.617606273152</v>
       </c>
       <c r="AG8">
         <f t="shared" si="18"/>
-        <v>-8226.7797264504934</v>
+        <v>-4137.9121307066889</v>
       </c>
       <c r="AH8">
         <f t="shared" si="19"/>
-        <v>6160.5318027601807</v>
+        <v>10249.399398503983</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -16866,31 +16856,31 @@
       </c>
       <c r="U9">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>12039.363752186875</v>
       </c>
       <c r="V9">
         <f t="shared" si="8"/>
-        <v>-13429.442118970366</v>
+        <v>-6185.7637521868746</v>
       </c>
       <c r="W9">
         <f t="shared" si="9"/>
-        <v>-11888.642118970365</v>
+        <v>-4644.9637521868744</v>
       </c>
       <c r="X9">
         <f t="shared" si="1"/>
-        <v>41002.557881029628</v>
+        <v>48246.236247813125</v>
       </c>
       <c r="Y9">
         <f t="shared" si="10"/>
-        <v>-14019.842118970366</v>
+        <v>-6776.1637521868752</v>
       </c>
       <c r="Z9">
         <f t="shared" si="11"/>
-        <v>-12630.242118970367</v>
+        <v>-5386.5637521868748</v>
       </c>
       <c r="AA9">
         <f t="shared" si="12"/>
-        <v>34968.957881029637</v>
+        <v>42212.636247813127</v>
       </c>
       <c r="AB9">
         <f t="shared" si="13"/>
@@ -16898,27 +16888,27 @@
       </c>
       <c r="AC9">
         <f t="shared" si="14"/>
-        <v>-6891.4272466590237</v>
+        <v>-3174.2748868919307</v>
       </c>
       <c r="AD9">
         <f t="shared" si="15"/>
-        <v>-6100.7532180891512</v>
+        <v>-2383.6008583220578</v>
       </c>
       <c r="AE9">
         <f t="shared" si="16"/>
-        <v>21040.795444874788</v>
+        <v>24757.947804641884</v>
       </c>
       <c r="AF9">
         <f t="shared" si="17"/>
-        <v>-7194.3957996624331</v>
+        <v>-3477.2434398953401</v>
       </c>
       <c r="AG9">
         <f t="shared" si="18"/>
-        <v>-6481.3112785690437</v>
+        <v>-2764.1589188019502</v>
       </c>
       <c r="AH9">
         <f t="shared" si="19"/>
-        <v>17944.604622718001</v>
+        <v>21661.756982485094</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -16974,31 +16964,31 @@
       </c>
       <c r="U10">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>12039.363752186875</v>
       </c>
       <c r="V10">
         <f t="shared" si="8"/>
-        <v>-11298.242118970367</v>
+        <v>-4054.5637521868748</v>
       </c>
       <c r="W10">
         <f t="shared" si="9"/>
-        <v>-8871.8421189703658</v>
+        <v>-1628.1637521868743</v>
       </c>
       <c r="X10">
         <f t="shared" si="1"/>
-        <v>79788.957881029637</v>
+        <v>87032.63624781312</v>
       </c>
       <c r="Y10">
         <f t="shared" si="10"/>
-        <v>-12097.442118970366</v>
+        <v>-4853.7637521868746</v>
       </c>
       <c r="Z10">
         <f t="shared" si="11"/>
-        <v>-9915.8421189703658</v>
+        <v>-2672.1637521868743</v>
       </c>
       <c r="AA10">
         <f t="shared" si="12"/>
-        <v>69881.75788102964</v>
+        <v>77125.436247813122</v>
       </c>
       <c r="AB10">
         <f t="shared" si="13"/>
@@ -17006,27 +16996,27 @@
       </c>
       <c r="AC10">
         <f t="shared" si="14"/>
-        <v>-5270.7133318961305</v>
+        <v>-1891.4839139260446</v>
       </c>
       <c r="AD10">
         <f t="shared" si="15"/>
-        <v>-4138.7798245552331</v>
+        <v>-759.55040658514793</v>
       </c>
       <c r="AE10">
         <f t="shared" si="16"/>
-        <v>37222.137710743875</v>
+        <v>40601.367128713959</v>
       </c>
       <c r="AF10">
         <f t="shared" si="17"/>
-        <v>-5643.5460301597486</v>
+        <v>-2264.3166121896634</v>
       </c>
       <c r="AG10">
         <f t="shared" si="18"/>
-        <v>-4625.8135294941949</v>
+        <v>-1246.5841115241094</v>
       </c>
       <c r="AH10">
         <f t="shared" si="19"/>
-        <v>32600.355793530009</v>
+        <v>35979.585211500089</v>
       </c>
     </row>
     <row r="11" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -17082,31 +17072,31 @@
       </c>
       <c r="U11">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>12039.363752186875</v>
       </c>
       <c r="V11">
         <f t="shared" si="8"/>
-        <v>-8418.2421189703655</v>
+        <v>-1174.5637521868739</v>
       </c>
       <c r="W11">
         <f t="shared" si="9"/>
-        <v>-4681.4421189703662</v>
+        <v>2562.2362478131254</v>
       </c>
       <c r="X11">
         <f t="shared" si="1"/>
-        <v>121239.35788102963</v>
+        <v>128483.03624781311</v>
       </c>
       <c r="Y11">
         <f t="shared" si="10"/>
-        <v>-9505.4421189703662</v>
+        <v>-2261.7637521868746</v>
       </c>
       <c r="Z11">
         <f t="shared" si="11"/>
-        <v>-6143.0421189703666</v>
+        <v>1100.636247813125</v>
       </c>
       <c r="AA11">
         <f t="shared" si="12"/>
-        <v>107184.95788102964</v>
+        <v>114428.63624781312</v>
       </c>
       <c r="AB11">
         <f t="shared" si="13"/>
@@ -17114,27 +17104,27 @@
       </c>
       <c r="AC11">
         <f t="shared" si="14"/>
-        <v>-3570.1564335382709</v>
+        <v>-498.12968992910248</v>
       </c>
       <c r="AD11">
         <f t="shared" si="15"/>
-        <v>-1985.3884532039704</v>
+        <v>1086.6382904051979</v>
       </c>
       <c r="AE11">
         <f t="shared" si="16"/>
-        <v>51417.322930353992</v>
+        <v>54489.349673963159</v>
       </c>
       <c r="AF11">
         <f t="shared" si="17"/>
-        <v>-4031.2353642328362</v>
+        <v>-959.20862062366814</v>
       </c>
       <c r="AG11">
         <f t="shared" si="18"/>
-        <v>-2605.249532217194</v>
+        <v>466.77721139197416</v>
       </c>
       <c r="AH11">
         <f t="shared" si="19"/>
-        <v>45456.885362699752</v>
+        <v>48528.912106308911</v>
       </c>
     </row>
     <row r="12" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -17191,31 +17181,31 @@
       </c>
       <c r="U12">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>12039.363752186875</v>
       </c>
       <c r="V12">
         <f t="shared" si="8"/>
-        <v>-4566.2421189703655</v>
+        <v>2677.4362478131261</v>
       </c>
       <c r="W12">
         <f t="shared" si="9"/>
-        <v>1035.3578810296349</v>
+        <v>8279.0362478131265</v>
       </c>
       <c r="X12">
         <f t="shared" si="1"/>
-        <v>146122.55788102964</v>
+        <v>153366.23624781313</v>
       </c>
       <c r="Y12">
         <f t="shared" si="10"/>
-        <v>-6042.2421189703655</v>
+        <v>1201.4362478131261</v>
       </c>
       <c r="Z12">
         <f t="shared" si="11"/>
-        <v>-1002.2421189703673</v>
+        <v>6241.4362478131243</v>
       </c>
       <c r="AA12">
         <f t="shared" si="12"/>
-        <v>129576.95788102964</v>
+        <v>136820.63624781312</v>
       </c>
       <c r="AB12">
         <f t="shared" si="13"/>
@@ -17223,27 +17213,27 @@
       </c>
       <c r="AC12">
         <f t="shared" si="14"/>
-        <v>-1760.4840068795088</v>
+        <v>1032.2675782197348</v>
       </c>
       <c r="AD12">
         <f t="shared" si="15"/>
-        <v>399.17528318895495</v>
+        <v>3191.9268682881984</v>
       </c>
       <c r="AE12">
         <f t="shared" si="16"/>
-        <v>56336.571625309276</v>
+        <v>59129.323210408518</v>
       </c>
       <c r="AF12">
         <f t="shared" si="17"/>
-        <v>-2329.545902077497</v>
+        <v>463.20568302174638</v>
       </c>
       <c r="AG12">
         <f t="shared" si="18"/>
-        <v>-386.40772335265922</v>
+        <v>2406.3438617465845</v>
       </c>
       <c r="AH12">
         <f t="shared" si="19"/>
-        <v>49957.526575724019</v>
+        <v>52750.278160823262</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -17299,31 +17289,31 @@
       </c>
       <c r="U13">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>12039.363752186875</v>
       </c>
       <c r="V13">
         <f t="shared" si="8"/>
-        <v>524.15788102963415</v>
+        <v>7767.8362478131257</v>
       </c>
       <c r="W13">
         <f t="shared" si="9"/>
-        <v>8703.3578810296349</v>
+        <v>15947.036247813126</v>
       </c>
       <c r="X13">
         <f t="shared" si="1"/>
-        <v>151450.55788102964</v>
+        <v>158694.23624781313</v>
       </c>
       <c r="Y13">
         <f t="shared" si="10"/>
-        <v>-1463.0421189703666</v>
+        <v>5780.636247813125</v>
       </c>
       <c r="Z13">
         <f t="shared" si="11"/>
-        <v>5902.5578810296356</v>
+        <v>13146.236247813127</v>
       </c>
       <c r="AA13">
         <f t="shared" si="12"/>
-        <v>134372.15788102965</v>
+        <v>141615.83624781313</v>
       </c>
       <c r="AB13">
         <f t="shared" si="13"/>
@@ -17331,27 +17321,27 @@
       </c>
       <c r="AC13">
         <f t="shared" si="14"/>
-        <v>183.71413966598013</v>
+        <v>2722.5792170289283</v>
       </c>
       <c r="AD13">
         <f t="shared" si="15"/>
-        <v>3050.4738423041836</v>
+        <v>5589.3389196671314</v>
       </c>
       <c r="AE13">
         <f t="shared" si="16"/>
-        <v>53082.496610354377</v>
+        <v>55621.361687717319</v>
       </c>
       <c r="AF13">
         <f t="shared" si="17"/>
-        <v>-512.78733738344272</v>
+        <v>2026.0777399795056</v>
       </c>
       <c r="AG13">
         <f t="shared" si="18"/>
-        <v>2068.8105286367004</v>
+        <v>4607.6756059996487</v>
       </c>
       <c r="AH13">
         <f t="shared" si="19"/>
-        <v>47096.621597451369</v>
+        <v>49635.48667481431</v>
       </c>
     </row>
     <row r="14" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -17401,31 +17391,31 @@
       </c>
       <c r="U14">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>12039.363752186875</v>
       </c>
       <c r="V14">
         <f t="shared" si="8"/>
-        <v>7155.3578810296349</v>
+        <v>14399.036247813126</v>
       </c>
       <c r="W14">
         <f t="shared" si="9"/>
-        <v>18740.157881029638</v>
+        <v>25983.836247813131</v>
       </c>
       <c r="X14">
         <f t="shared" si="1"/>
-        <v>151695.35788102963</v>
+        <v>158939.03624781311</v>
       </c>
       <c r="Y14">
         <f t="shared" si="10"/>
-        <v>4505.7578810296327</v>
+        <v>11749.436247813124</v>
       </c>
       <c r="Z14">
         <f t="shared" si="11"/>
-        <v>14931.357881029635</v>
+        <v>22175.036247813128</v>
       </c>
       <c r="AA14">
         <f t="shared" si="12"/>
-        <v>134595.35788102963</v>
+        <v>141839.03624781311</v>
       </c>
       <c r="AB14">
         <f t="shared" si="13"/>
@@ -17433,27 +17423,27 @@
       </c>
       <c r="AC14">
         <f t="shared" si="14"/>
-        <v>2279.9175326427167</v>
+        <v>4587.9766938817611</v>
       </c>
       <c r="AD14">
         <f t="shared" si="15"/>
-        <v>5971.191829653656</v>
+        <v>8279.2509908927004</v>
       </c>
       <c r="AE14">
         <f t="shared" si="16"/>
-        <v>48334.815924497656</v>
+        <v>50642.875085736698</v>
       </c>
       <c r="AF14">
         <f t="shared" si="17"/>
-        <v>1435.6733180373553</v>
+        <v>3743.7324792763993</v>
       </c>
       <c r="AG14">
         <f t="shared" si="18"/>
-        <v>4757.5907711584496</v>
+        <v>7065.649932397494</v>
       </c>
       <c r="AH14">
         <f t="shared" si="19"/>
-        <v>42886.228941650559</v>
+        <v>45194.288102889594</v>
       </c>
     </row>
     <row r="15" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -17503,31 +17493,31 @@
       </c>
       <c r="U15">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>12039.363752186875</v>
       </c>
       <c r="V15">
         <f t="shared" si="8"/>
-        <v>15629.757881029636</v>
+        <v>22873.43624781313</v>
       </c>
       <c r="W15">
         <f t="shared" si="9"/>
-        <v>31419.357881029635</v>
+        <v>38663.036247813128</v>
       </c>
       <c r="X15">
         <f t="shared" si="1"/>
-        <v>151738.55788102964</v>
+        <v>158982.23624781313</v>
       </c>
       <c r="Y15">
         <f t="shared" si="10"/>
-        <v>12137.757881029633</v>
+        <v>19381.436247813122</v>
       </c>
       <c r="Z15">
         <f t="shared" si="11"/>
-        <v>26343.357881029635</v>
+        <v>33587.036247813128</v>
       </c>
       <c r="AA15">
         <f t="shared" si="12"/>
-        <v>134631.35788102963</v>
+        <v>141875.03624781311</v>
       </c>
       <c r="AB15">
         <f t="shared" si="13"/>
@@ -17535,27 +17525,27 @@
       </c>
       <c r="AC15">
         <f t="shared" si="14"/>
-        <v>4527.3841220430577</v>
+        <v>6625.6197231694614</v>
       </c>
       <c r="AD15">
         <f t="shared" si="15"/>
-        <v>9101.0688123334621</v>
+        <v>11199.304413459868</v>
       </c>
       <c r="AE15">
         <f t="shared" si="16"/>
-        <v>43953.255250747949</v>
+        <v>46051.490851874354</v>
       </c>
       <c r="AF15">
         <f t="shared" si="17"/>
-        <v>3515.8761080025424</v>
+        <v>5614.1117091289461</v>
       </c>
       <c r="AG15">
         <f t="shared" si="18"/>
-        <v>7630.7324207900356</v>
+        <v>9728.9680219164402</v>
       </c>
       <c r="AH15">
         <f t="shared" si="19"/>
-        <v>38997.908773716481</v>
+        <v>41096.144374842886</v>
       </c>
     </row>
     <row r="16" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -17605,31 +17595,31 @@
       </c>
       <c r="U16">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>12039.363752186875</v>
       </c>
       <c r="V16">
         <f t="shared" si="8"/>
-        <v>26156.157881029638</v>
+        <v>33399.836247813131</v>
       </c>
       <c r="W16">
         <f t="shared" si="9"/>
-        <v>46712.157881029634</v>
+        <v>53955.836247813124</v>
       </c>
       <c r="X16">
         <f t="shared" si="1"/>
-        <v>151760.15788102965</v>
+        <v>159003.83624781313</v>
       </c>
       <c r="Y16">
         <f t="shared" si="10"/>
-        <v>21605.757881029636</v>
+        <v>28849.43624781313</v>
       </c>
       <c r="Z16">
         <f t="shared" si="11"/>
-        <v>40109.75788102964</v>
+        <v>47353.43624781313</v>
       </c>
       <c r="AA16">
         <f t="shared" si="12"/>
-        <v>134652.95788102964</v>
+        <v>141896.63624781312</v>
       </c>
       <c r="AB16">
         <f t="shared" si="13"/>
@@ -17637,27 +17627,27 @@
       </c>
       <c r="AC16">
         <f t="shared" si="14"/>
-        <v>6887.7338626393876</v>
+        <v>8795.2207727542991</v>
       </c>
       <c r="AD16">
         <f t="shared" si="15"/>
-        <v>12300.771126155161</v>
+        <v>14208.258036270072</v>
       </c>
       <c r="AE16">
         <f t="shared" si="16"/>
-        <v>39963.192728500231</v>
+        <v>41870.67963861514</v>
       </c>
       <c r="AF16">
         <f t="shared" si="17"/>
-        <v>5689.4713230450016</v>
+        <v>7596.958233159914</v>
       </c>
       <c r="AG16">
         <f t="shared" si="18"/>
-        <v>10562.152852724701</v>
+        <v>12469.639762839613</v>
       </c>
       <c r="AH16">
         <f t="shared" si="19"/>
-        <v>35458.332294835258</v>
+        <v>37365.819204950167</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -17707,31 +17697,31 @@
       </c>
       <c r="U17">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>12039.363752186875</v>
       </c>
       <c r="V17">
         <f t="shared" si="8"/>
-        <v>38806.557881029628</v>
+        <v>46050.236247813125</v>
       </c>
       <c r="W17">
         <f t="shared" si="9"/>
-        <v>64092.957881029637</v>
+        <v>71336.63624781312</v>
       </c>
       <c r="X17">
         <f t="shared" si="1"/>
-        <v>151774.55788102964</v>
+        <v>159018.23624781313</v>
       </c>
       <c r="Y17">
         <f t="shared" si="10"/>
-        <v>32996.157881029634</v>
+        <v>40239.836247813131</v>
       </c>
       <c r="Z17">
         <f t="shared" si="11"/>
-        <v>55755.357881029646</v>
+        <v>62999.036247813136</v>
       </c>
       <c r="AA17">
         <f t="shared" si="12"/>
-        <v>134667.35788102963</v>
+        <v>141911.03624781311</v>
       </c>
       <c r="AB17">
         <f t="shared" si="13"/>
@@ -17739,27 +17729,27 @@
       </c>
       <c r="AC17">
         <f t="shared" si="14"/>
-        <v>9289.981420102742</v>
+        <v>11024.060429298117</v>
       </c>
       <c r="AD17">
         <f t="shared" si="15"/>
-        <v>15343.344537271156</v>
+        <v>17077.423546466529</v>
       </c>
       <c r="AE17">
         <f t="shared" si="16"/>
-        <v>36333.622453238393</v>
+        <v>38067.701462433768</v>
       </c>
       <c r="AF17">
         <f t="shared" si="17"/>
-        <v>7899.0178564481557</v>
+        <v>9633.0968656435325</v>
       </c>
       <c r="AG17">
         <f t="shared" si="18"/>
-        <v>13347.389386450823</v>
+        <v>15081.468395646196</v>
       </c>
       <c r="AH17">
         <f t="shared" si="19"/>
-        <v>32238.294786270239</v>
+        <v>33972.37379546561</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -17809,31 +17799,31 @@
       </c>
       <c r="U18">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>12039.363752186875</v>
       </c>
       <c r="V18">
         <f t="shared" si="8"/>
-        <v>53343.357881029646</v>
+        <v>60587.036247813136</v>
       </c>
       <c r="W18">
         <f t="shared" si="9"/>
-        <v>82424.157881029634</v>
+        <v>89667.836247813117</v>
       </c>
       <c r="X18">
         <f t="shared" si="1"/>
-        <v>151781.75788102965</v>
+        <v>159025.43624781314</v>
       </c>
       <c r="Y18">
         <f t="shared" si="10"/>
-        <v>46078.557881029628</v>
+        <v>53322.236247813125</v>
       </c>
       <c r="Z18">
         <f t="shared" si="11"/>
-        <v>72250.557881029643</v>
+        <v>79494.236247813125</v>
       </c>
       <c r="AA18">
         <f t="shared" si="12"/>
-        <v>134674.55788102964</v>
+        <v>141918.23624781313</v>
       </c>
       <c r="AB18">
         <f t="shared" si="13"/>
@@ -17841,27 +17831,27 @@
       </c>
       <c r="AC18">
         <f t="shared" si="14"/>
-        <v>11609.068875793091</v>
+        <v>13185.504338697976</v>
       </c>
       <c r="AD18">
         <f t="shared" si="15"/>
-        <v>17937.898247879239</v>
+        <v>19514.333710784122</v>
       </c>
       <c r="AE18">
         <f t="shared" si="16"/>
-        <v>33032.132796358048</v>
+        <v>34608.568259262931</v>
       </c>
       <c r="AF18">
         <f t="shared" si="17"/>
-        <v>10028.036730104815</v>
+        <v>11604.472193009702</v>
       </c>
       <c r="AG18">
         <f t="shared" si="18"/>
-        <v>15723.826472004586</v>
+        <v>17300.261934909471</v>
       </c>
       <c r="AH18">
         <f t="shared" si="19"/>
-        <v>29309.10764456882</v>
+        <v>30885.543107473703</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -17911,31 +17901,31 @@
       </c>
       <c r="U19">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>12039.363752186875</v>
       </c>
       <c r="V19">
         <f t="shared" si="8"/>
-        <v>69183.357881029646</v>
+        <v>76427.036247813128</v>
       </c>
       <c r="W19">
         <f t="shared" si="9"/>
-        <v>100107.35788102965</v>
+        <v>107351.03624781313</v>
       </c>
       <c r="X19">
         <f t="shared" si="1"/>
-        <v>151781.75788102965</v>
+        <v>159025.43624781314</v>
       </c>
       <c r="Y19">
         <f t="shared" si="10"/>
-        <v>60334.557881029643</v>
+        <v>67578.236247813125</v>
       </c>
       <c r="Z19">
         <f t="shared" si="11"/>
-        <v>88162.557881029643</v>
+        <v>95406.236247813125</v>
       </c>
       <c r="AA19">
         <f t="shared" si="12"/>
-        <v>134674.55788102964</v>
+        <v>141918.23624781313</v>
       </c>
       <c r="AB19">
         <f t="shared" si="13"/>
@@ -17943,27 +17933,27 @@
       </c>
       <c r="AC19">
         <f t="shared" si="14"/>
-        <v>13687.558533371857</v>
+        <v>15120.681681467206</v>
       </c>
       <c r="AD19">
         <f t="shared" si="15"/>
-        <v>19805.707074439633</v>
+        <v>21238.83022253498</v>
       </c>
       <c r="AE19">
         <f t="shared" si="16"/>
-        <v>30029.211633052772</v>
+        <v>31462.334781148122</v>
       </c>
       <c r="AF19">
         <f t="shared" si="17"/>
-        <v>11936.870627208342</v>
+        <v>13369.99377530369</v>
       </c>
       <c r="AG19">
         <f t="shared" si="18"/>
-        <v>17442.4920733613</v>
+        <v>18875.615221456646</v>
       </c>
       <c r="AH19">
         <f t="shared" si="19"/>
-        <v>26644.643313244378</v>
+        <v>28077.766461339728</v>
       </c>
     </row>
     <row r="20" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -18013,31 +18003,31 @@
       </c>
       <c r="U20">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>12039.363752186875</v>
       </c>
       <c r="V20">
         <f t="shared" si="8"/>
-        <v>85368.957881029637</v>
+        <v>92612.63624781312</v>
       </c>
       <c r="W20">
         <f t="shared" si="9"/>
-        <v>115572.95788102964</v>
+        <v>122816.63624781312</v>
       </c>
       <c r="X20">
         <f t="shared" si="1"/>
-        <v>151788.95788102964</v>
+        <v>159032.63624781312</v>
       </c>
       <c r="Y20">
         <f t="shared" si="10"/>
-        <v>74900.157881029634</v>
+        <v>82143.836247813117</v>
       </c>
       <c r="Z20">
         <f t="shared" si="11"/>
-        <v>102087.35788102965</v>
+        <v>109331.03624781313</v>
       </c>
       <c r="AA20">
         <f t="shared" si="12"/>
-        <v>134681.75788102965</v>
+        <v>141925.43624781314</v>
       </c>
       <c r="AB20">
         <f t="shared" si="13"/>
@@ -18045,27 +18035,27 @@
       </c>
       <c r="AC20">
         <f t="shared" si="14"/>
-        <v>15354.357460292618</v>
+        <v>16657.196685833842</v>
       </c>
       <c r="AD20">
         <f t="shared" si="15"/>
-        <v>20786.812350710505</v>
+        <v>22089.651576251734</v>
       </c>
       <c r="AE20">
         <f t="shared" si="16"/>
-        <v>27300.578286062588</v>
+        <v>28603.417511603813</v>
       </c>
       <c r="AF20">
         <f t="shared" si="17"/>
-        <v>13471.451760491042</v>
+        <v>14774.290986032267</v>
       </c>
       <c r="AG20">
         <f t="shared" si="18"/>
-        <v>18361.308653510816</v>
+        <v>19664.147879052041</v>
       </c>
       <c r="AH20">
         <f t="shared" si="19"/>
-        <v>24223.69799532769</v>
+        <v>25526.537220868919</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -18115,31 +18105,31 @@
       </c>
       <c r="U21">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>12039.363752186875</v>
       </c>
       <c r="V21">
         <f t="shared" si="8"/>
-        <v>100769.75788102964</v>
+        <v>108013.43624781312</v>
       </c>
       <c r="W21">
         <f t="shared" si="9"/>
-        <v>127820.15788102965</v>
+        <v>135063.83624781313</v>
       </c>
       <c r="X21">
         <f t="shared" si="1"/>
-        <v>151788.95788102964</v>
+        <v>159032.63624781312</v>
       </c>
       <c r="Y21">
         <f t="shared" si="10"/>
-        <v>88760.157881029634</v>
+        <v>96003.836247813117</v>
       </c>
       <c r="Z21">
         <f t="shared" si="11"/>
-        <v>113103.35788102963</v>
+        <v>120347.03624781311</v>
       </c>
       <c r="AA21">
         <f t="shared" si="12"/>
-        <v>134681.75788102965</v>
+        <v>141925.43624781314</v>
       </c>
       <c r="AB21">
         <f t="shared" si="13"/>
@@ -18147,27 +18137,27 @@
       </c>
       <c r="AC21">
         <f t="shared" si="14"/>
-        <v>16476.660647205845</v>
+        <v>17661.059943152417</v>
       </c>
       <c r="AD21">
         <f t="shared" si="15"/>
-        <v>20899.617202260568</v>
+        <v>22084.016498207136</v>
       </c>
       <c r="AE21">
         <f t="shared" si="16"/>
-        <v>24818.707532784163</v>
+        <v>26003.106828730732</v>
       </c>
       <c r="AF21">
         <f t="shared" si="17"/>
-        <v>14512.995080575216</v>
+        <v>15697.394376521786</v>
       </c>
       <c r="AG21">
         <f t="shared" si="18"/>
-        <v>18493.302802864277</v>
+        <v>19677.702098810849</v>
       </c>
       <c r="AH21">
         <f t="shared" si="19"/>
-        <v>22021.543632116078</v>
+        <v>23205.942928062646</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -18217,31 +18207,31 @@
       </c>
       <c r="U22">
         <f>OPEX!$B$3</f>
-        <v>19283.042118970367</v>
+        <v>12039.363752186875</v>
       </c>
       <c r="V22">
         <f t="shared" si="8"/>
-        <v>114341.75788102965</v>
+        <v>121585.43624781314</v>
       </c>
       <c r="W22">
         <f t="shared" si="9"/>
-        <v>136654.55788102964</v>
+        <v>143898.23624781313</v>
       </c>
       <c r="X22">
         <f t="shared" si="1"/>
-        <v>151788.95788102964</v>
+        <v>159032.63624781312</v>
       </c>
       <c r="Y22">
         <f t="shared" si="10"/>
-        <v>100978.55788102964</v>
+        <v>108222.23624781313</v>
       </c>
       <c r="Z22">
         <f t="shared" si="11"/>
-        <v>121059.35788102963</v>
+        <v>128303.03624781311</v>
       </c>
       <c r="AA22">
         <f t="shared" si="12"/>
-        <v>134681.75788102965</v>
+        <v>141925.43624781314</v>
       </c>
       <c r="AB22">
         <f t="shared" si="13"/>
@@ -18249,27 +18239,27 @@
       </c>
       <c r="AC22">
         <f t="shared" si="14"/>
-        <v>16996.17372609445</v>
+        <v>18072.900358773149</v>
       </c>
       <c r="AD22">
         <f t="shared" si="15"/>
-        <v>20312.829269471556</v>
+        <v>21389.555902150256</v>
       </c>
       <c r="AE22">
         <f t="shared" si="16"/>
-        <v>22562.461393440153</v>
+        <v>23639.188026118853</v>
       </c>
       <c r="AF22">
         <f t="shared" si="17"/>
-        <v>15009.819196082213</v>
+        <v>16086.545828760913</v>
       </c>
       <c r="AG22">
         <f t="shared" si="18"/>
-        <v>17994.702161709432</v>
+        <v>19071.428794388132</v>
       </c>
       <c r="AH22">
         <f t="shared" si="19"/>
-        <v>20019.585120105527</v>
+        <v>21096.311752784226</v>
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
@@ -19011,15 +19001,15 @@
       </c>
       <c r="C2">
         <f>CAPEX!$W3</f>
-        <v>257876.76484436693</v>
+        <v>103620.76484436693</v>
       </c>
       <c r="D2">
         <f>CAPEX!$W4</f>
-        <v>216506.82213135384</v>
+        <v>166506.82213135384</v>
       </c>
       <c r="E2">
         <f>CAPEX!$W5</f>
-        <v>145045.86534054048</v>
+        <v>95045.865340540491</v>
       </c>
       <c r="F2">
         <f>CAPEX!$W6</f>
@@ -19027,11 +19017,11 @@
       </c>
       <c r="G2">
         <f>CAPEX!$W7</f>
-        <v>288249.55546468718</v>
+        <v>228249.55546468718</v>
       </c>
       <c r="H2">
         <f>CAPEX!$W8</f>
-        <v>297779.34262214473</v>
+        <v>113667.3426221447</v>
       </c>
       <c r="I2">
         <f>CAPEX!$W9</f>
@@ -19039,27 +19029,27 @@
       </c>
       <c r="J2">
         <f>CAPEX!$W10</f>
-        <v>153163.03200720716</v>
+        <v>103163.03200720715</v>
       </c>
       <c r="K2">
         <f>CAPEX!$W11</f>
-        <v>215033.95413371181</v>
+        <v>193073.95413371181</v>
       </c>
       <c r="L2">
         <f>CAPEX!$W12</f>
-        <v>178789.18073992687</v>
+        <v>138789.18073992687</v>
       </c>
       <c r="M2">
         <f>CAPEX!$W13</f>
-        <v>298167.30071821815</v>
+        <v>238167.30071821815</v>
       </c>
       <c r="N2">
         <f>CAPEX!$W14</f>
-        <v>247844.95413371181</v>
+        <v>218564.95413371181</v>
       </c>
       <c r="O2">
         <f>CAPEX!$W15</f>
-        <v>196666.48111821816</v>
+        <v>146666.48111821816</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -19074,7 +19064,7 @@
       </c>
       <c r="D3">
         <f>IF(D2-C2&gt;0,D2-C2,0)</f>
-        <v>0</v>
+        <v>62886.057286986907</v>
       </c>
       <c r="E3" s="11">
         <f t="shared" ref="E3" si="0">IF(E2-D2&gt;0,E2-D2,0)</f>
@@ -19089,11 +19079,11 @@
       </c>
       <c r="H3">
         <f>H2-C2</f>
-        <v>39902.577777777798</v>
+        <v>10046.577777777769</v>
       </c>
       <c r="I3">
         <f>D3+(I2-D2)</f>
-        <v>4652.4333333333198</v>
+        <v>117538.49062032023</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -19135,14 +19125,14 @@
       </c>
       <c r="G4">
         <f>G2-D2</f>
-        <v>71742.733333333337</v>
+        <v>61742.733333333337</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
         <f>I2-D2</f>
-        <v>4652.4333333333198</v>
+        <v>54652.43333333332</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -19181,7 +19171,7 @@
       </c>
       <c r="F5">
         <f>F2-E2</f>
-        <v>136377.66666666669</v>
+        <v>186377.66666666669</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -19194,7 +19184,7 @@
       </c>
       <c r="J5">
         <f>J2-E2</f>
-        <v>8117.1666666666861</v>
+        <v>8117.166666666657</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -19374,7 +19364,7 @@
       </c>
       <c r="G9">
         <f>G2-I2</f>
-        <v>67090.300000000017</v>
+        <v>7090.3000000000175</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -19419,7 +19409,7 @@
       </c>
       <c r="F10">
         <f>F2-J2</f>
-        <v>128260.5</v>
+        <v>178260.5</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -19491,11 +19481,11 @@
       </c>
       <c r="N11">
         <f>IF(N2-K2&gt;0,N2-K2,0)</f>
-        <v>32811</v>
+        <v>25491</v>
       </c>
       <c r="O11">
         <f>IF(L11+(O2-L2)&gt;0,L11+(O2-L2),0)</f>
-        <v>17877.300378291286</v>
+        <v>7877.3003782912856</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -19537,14 +19527,14 @@
       </c>
       <c r="M12">
         <f>M2-L2</f>
-        <v>119378.11997829127</v>
+        <v>99378.119978291274</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
         <f>O2-L2</f>
-        <v>17877.300378291286</v>
+        <v>7877.3003782912856</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -19633,7 +19623,7 @@
       </c>
       <c r="M14">
         <f>M2-N2</f>
-        <v>50322.346584506333</v>
+        <v>19602.346584506333</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -19681,7 +19671,7 @@
       </c>
       <c r="M15">
         <f>M2-O2</f>
-        <v>101500.81959999999</v>
+        <v>91500.819599999988</v>
       </c>
       <c r="N15">
         <v>0</v>

--- a/tumlknexpectimax/excel_data/input_data_residential.xlsx
+++ b/tumlknexpectimax/excel_data/input_data_residential.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1185" windowWidth="15105" windowHeight="8265" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="1485" windowWidth="15105" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="CAPEX" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000000%"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,8 +514,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -547,6 +581,23 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -650,7 +701,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -659,8 +710,9 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -680,9 +732,33 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Calculation" xfId="6" builtinId="22"/>
+    <cellStyle name="Good" xfId="8" builtinId="26"/>
     <cellStyle name="Heading 3" xfId="2" builtinId="18"/>
     <cellStyle name="Heading 4" xfId="3" builtinId="19"/>
     <cellStyle name="Input" xfId="4" builtinId="20"/>
@@ -691,7 +767,336 @@
     <cellStyle name="Output" xfId="5" builtinId="21"/>
     <cellStyle name="Standard 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="3"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="3"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1057,16 +1462,16 @@
                   <c:v>41616.833333333336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12618.666666666666</c:v>
+                  <c:v>20010.666666666668</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6426.666666666667</c:v>
+                  <c:v>5802.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12818.666666666666</c:v>
+                  <c:v>10322.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11216.333333333334</c:v>
+                  <c:v>11664.333333333334</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>4000</c:v>
@@ -1161,43 +1566,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>4297.6000000000004</c:v>
+                  <c:v>158553.60000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13750.8</c:v>
+                  <c:v>63750.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10860</c:v>
+                  <c:v>62060</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>160920</c:v>
+                  <c:v>169920</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>69280.2</c:v>
+                  <c:v>160789.80000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10974.4</c:v>
+                  <c:v>163051.20000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>61989.9</c:v>
+                  <c:v>59551.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13060</c:v>
+                  <c:v>126120</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>74185</c:v>
+                  <c:v>96145</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15966.5</c:v>
+                  <c:v>55966.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>108466.5</c:v>
+                  <c:v>108385</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>76076</c:v>
+                  <c:v>105356</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16966.5</c:v>
+                  <c:v>66966.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1218,11 +1623,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="178919936"/>
-        <c:axId val="181168384"/>
+        <c:axId val="209695744"/>
+        <c:axId val="211736768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="178919936"/>
+        <c:axId val="209695744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1251,7 +1656,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181168384"/>
+        <c:crossAx val="211736768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1259,7 +1664,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181168384"/>
+        <c:axId val="211736768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1289,7 +1694,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178919936"/>
+        <c:crossAx val="209695744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1384,7 +1789,7 @@
                   <c:v>3056.8888888888887</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4297.6000000000004</c:v>
+                  <c:v>158553.60000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1459,7 +1864,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Approx. OPEX per year </a:t>
+              <a:t>Approx. OPEX per subscriber per year </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1546,46 +1951,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>17883.222238166774</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12039.363752186875</c:v>
+                  <c:v>0.49224161041270542</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14946.234456468943</c:v>
+                  <c:v>0.5789063798208488</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15521.8689276736</c:v>
+                  <c:v>0.58215129407531951</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12924.735587426556</c:v>
+                  <c:v>0.46209105787546995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10522.692533315019</c:v>
+                  <c:v>0.45021997996363888</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24414.807903046651</c:v>
+                  <c:v>0.67492291894643885</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18388.821583887824</c:v>
+                  <c:v>0.69545623826450687</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19436.478273593595</c:v>
+                  <c:v>0.81938295513690118</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26111.97524384196</c:v>
+                  <c:v>0.83142291519321987</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15670.9950339712</c:v>
+                  <c:v>0.61862811609322665</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11922.241758999651</c:v>
+                  <c:v>0.71225808775340016</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29749.536208516522</c:v>
+                  <c:v>0.97920924340919968</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20832.137833239656</c:v>
+                  <c:v>0.7657950621556967</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1605,11 +2010,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="181588480"/>
-        <c:axId val="199837376"/>
+        <c:axId val="215074304"/>
+        <c:axId val="215164608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="181588480"/>
+        <c:axId val="215074304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1619,7 +2024,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199837376"/>
+        <c:crossAx val="215164608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1627,7 +2032,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199837376"/>
+        <c:axId val="215164608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1657,7 +2062,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181588480"/>
+        <c:crossAx val="215074304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1822,11 +2227,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="186681344"/>
-        <c:axId val="199839680"/>
+        <c:axId val="215075840"/>
+        <c:axId val="215166336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="186681344"/>
+        <c:axId val="215075840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1855,7 +2260,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199839680"/>
+        <c:crossAx val="215166336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1863,7 +2268,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199839680"/>
+        <c:axId val="215166336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1893,7 +2298,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186681344"/>
+        <c:crossAx val="215075840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2435,11 +2840,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="195439616"/>
-        <c:axId val="199841408"/>
+        <c:axId val="215589888"/>
+        <c:axId val="215168640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="195439616"/>
+        <c:axId val="215589888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2449,7 +2854,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199841408"/>
+        <c:crossAx val="215168640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2457,7 +2862,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199841408"/>
+        <c:axId val="215168640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2468,7 +2873,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195439616"/>
+        <c:crossAx val="215589888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2682,6 +3087,30 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O15" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" headerRowCellStyle="Heading 4">
+  <autoFilter ref="A1:O15"/>
+  <tableColumns count="15">
+    <tableColumn id="1" name="Technology" dataDxfId="14" dataCellStyle="Heading 4"/>
+    <tableColumn id="2" name="ADSL" dataDxfId="13"/>
+    <tableColumn id="3" name="FTTC_GPON_25" dataDxfId="12"/>
+    <tableColumn id="4" name="FTTB_XGPON_50" dataDxfId="11"/>
+    <tableColumn id="5" name="FTTB_UDWDM_50" dataDxfId="10"/>
+    <tableColumn id="6" name="FTTH_UDWDM_100" dataDxfId="9"/>
+    <tableColumn id="7" name="FTTH_XGPON_100" dataDxfId="8"/>
+    <tableColumn id="8" name="FTTC_GPON_100" dataDxfId="7"/>
+    <tableColumn id="9" name="FTTB_XGPON_100" dataDxfId="6"/>
+    <tableColumn id="10" name="FTTB_UDWDM_100" dataDxfId="5"/>
+    <tableColumn id="11" name="FTTC_Hybridpon_25" dataDxfId="4"/>
+    <tableColumn id="12" name="FTTB_Hybridpon_50" dataDxfId="3"/>
+    <tableColumn id="13" name="FTTH_Hybridpon_100" dataDxfId="2"/>
+    <tableColumn id="14" name="FTTC_Hybridpon_100" dataDxfId="1"/>
+    <tableColumn id="15" name="FTTB_Hybridpon_100" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2973,8 +3402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y65"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3101,85 +3530,86 @@
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
       <c r="V2" s="9">
-        <v>100000</v>
-      </c>
-      <c r="W2" s="10">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+        <f>AVERAGE(V3:V15)</f>
+        <v>110235.38119658121</v>
+      </c>
+      <c r="W2" s="9">
+        <v>110235.38119658121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="16">
         <f>CEILING((4877+0.1*4877)/2,1)</f>
         <v>2683</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="16">
         <v>8</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="16">
         <v>4</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="16">
         <f>0.64</f>
         <v>0.64</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="16">
         <f>0.88</f>
         <v>0.88</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="16">
         <v>1</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="16">
         <v>156</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="16">
         <v>1244</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="16">
         <v>31505.122417993502</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="16">
         <v>54442.326843564399</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="16">
         <v>68598.261692039698</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="16">
         <v>171056.49354431301</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="16">
         <v>85582.633114971599</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="Q3" s="16">
         <v>685372.28279667499</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="17">
         <v>96261.143172944852</v>
       </c>
-      <c r="S3" s="11">
+      <c r="S3" s="17">
         <v>5.1327825331856927</v>
       </c>
-      <c r="T3" s="11">
+      <c r="T3" s="17">
         <v>3056.8888888888887</v>
       </c>
-      <c r="U3" s="11">
-        <v>4297.6000000000004</v>
-      </c>
-      <c r="V3" s="9">
+      <c r="U3" s="17">
+        <v>158553.60000000001</v>
+      </c>
+      <c r="V3" s="16">
         <v>161610.48888888888</v>
       </c>
-      <c r="W3" s="10">
+      <c r="W3" s="23">
         <f>R3+S3+T3+U3</f>
-        <v>103620.76484436693</v>
+        <v>257876.76484436693</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -3247,14 +3677,14 @@
         <v>6405.333333333333</v>
       </c>
       <c r="U4" s="11">
-        <v>13750.8</v>
+        <v>63750.8</v>
       </c>
       <c r="V4" s="9">
         <v>70156.133333333331</v>
       </c>
       <c r="W4" s="10">
         <f t="shared" ref="W4:W15" si="0">R4+S4+T4+U4</f>
-        <v>166506.82213135384</v>
+        <v>216506.82213135384</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -3318,14 +3748,14 @@
         <v>5299.166666666667</v>
       </c>
       <c r="U5" s="11">
-        <v>10860</v>
+        <v>62060</v>
       </c>
       <c r="V5" s="9">
         <v>66159.166666666672</v>
       </c>
       <c r="W5" s="10">
         <f t="shared" si="0"/>
-        <v>95045.865340540491</v>
+        <v>146245.86534054048</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -3394,235 +3824,235 @@
         <v>41616.833333333336</v>
       </c>
       <c r="U6" s="11">
-        <v>160920</v>
+        <v>169920</v>
       </c>
       <c r="V6" s="9">
         <v>202536.83333333334</v>
       </c>
       <c r="W6" s="10">
         <f t="shared" si="0"/>
-        <v>281423.53200720716</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+        <v>290423.53200720716</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="16">
         <f>CEILING(29262+0.1*29262,1)</f>
         <v>32189</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="16">
         <v>8</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="16">
         <v>8</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="16">
         <f>0.3</f>
         <v>0.3</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="16">
         <f>0.58</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="16">
         <v>1.8</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="16">
         <v>8</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="16">
         <v>151</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="16">
         <v>31505.122417993502</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="16">
         <v>54442.326843564399</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="16">
         <v>68598.261692039698</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="16">
         <v>171056.49354431301</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="16">
         <v>85582.633114971599</v>
       </c>
-      <c r="Q7" s="8" t="s">
+      <c r="Q7" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R7" s="17">
         <v>146337.87420813384</v>
       </c>
-      <c r="S7" s="11">
+      <c r="S7" s="17">
         <v>12.814589886676153</v>
       </c>
-      <c r="T7" s="11">
-        <v>12618.666666666666</v>
-      </c>
-      <c r="U7" s="11">
-        <v>69280.2</v>
-      </c>
-      <c r="V7" s="9">
+      <c r="T7" s="17">
+        <v>20010.666666666668</v>
+      </c>
+      <c r="U7" s="17">
+        <v>160789.80000000002</v>
+      </c>
+      <c r="V7" s="16">
         <v>81898.866666666669</v>
       </c>
-      <c r="W7" s="10">
+      <c r="W7" s="23">
         <f t="shared" si="0"/>
-        <v>228249.55546468718</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+        <v>327151.15546468715</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="16">
         <f>CEILING(4877+0.1*(4877),1)</f>
         <v>5365</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="16">
         <v>8</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="16">
         <v>4</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="16">
         <v>1.3</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="16">
         <v>1.58</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="16">
         <v>1</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="16">
         <v>156</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="16">
         <v>1244</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="16">
         <v>31505.122417993502</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="16">
         <v>54442.326843564399</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="16">
         <v>68598.261692039698</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="16">
         <v>171056.49354431301</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="16">
         <v>85582.633114971599</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="16">
         <v>685372.28279667499</v>
       </c>
-      <c r="R8" s="11">
+      <c r="R8" s="17">
         <v>96261.143172944852</v>
       </c>
-      <c r="S8" s="11">
+      <c r="S8" s="17">
         <v>5.1327825331856927</v>
       </c>
-      <c r="T8" s="11">
-        <v>6426.666666666667</v>
-      </c>
-      <c r="U8" s="11">
-        <v>10974.4</v>
-      </c>
-      <c r="V8" s="9">
+      <c r="T8" s="17">
+        <v>5802.666666666667</v>
+      </c>
+      <c r="U8" s="17">
+        <v>163051.20000000001</v>
+      </c>
+      <c r="V8" s="16">
         <v>201513.06666666665</v>
       </c>
-      <c r="W8" s="10">
+      <c r="W8" s="23">
         <f t="shared" si="0"/>
-        <v>113667.3426221447</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+        <v>265120.14262214472</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="16">
         <f t="shared" ref="B9:B15" si="1">CEILING(4877+0.1*(4877),1)</f>
         <v>5365</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="16">
         <v>8</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="16">
         <v>8</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="16">
         <v>0.72</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="16">
         <v>0.94</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="16">
         <v>1.8</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="16">
         <v>19</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="16">
         <v>151</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="16">
         <v>31505.122417993502</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="16">
         <v>54442.326843564399</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="16">
         <v>68598.261692039698</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="16">
         <v>171056.49354431301</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="16">
         <v>85582.633114971599</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="16">
         <v>384090.36767452297</v>
       </c>
-      <c r="R9" s="11">
+      <c r="R9" s="17">
         <v>146337.87420813384</v>
       </c>
-      <c r="S9" s="11">
+      <c r="S9" s="17">
         <v>12.814589886676153</v>
       </c>
-      <c r="T9" s="11">
-        <v>12818.666666666666</v>
-      </c>
-      <c r="U9" s="11">
-        <v>61989.9</v>
-      </c>
-      <c r="V9" s="9">
+      <c r="T9" s="17">
+        <v>10322.666666666666</v>
+      </c>
+      <c r="U9" s="17">
+        <v>59551.4</v>
+      </c>
+      <c r="V9" s="16">
         <v>74808.566666666666</v>
       </c>
-      <c r="W9" s="10">
+      <c r="W9" s="23">
         <f t="shared" si="0"/>
-        <v>221159.25546468716</v>
+        <v>216224.75546468716</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -3684,384 +4114,384 @@
         <v>14.612123172178348</v>
       </c>
       <c r="T10" s="11">
-        <v>11216.333333333334</v>
+        <v>11664.333333333334</v>
       </c>
       <c r="U10" s="11">
-        <v>13060</v>
+        <v>126120</v>
       </c>
       <c r="V10" s="9">
         <v>74276.333333333328</v>
       </c>
       <c r="W10" s="10">
         <f t="shared" si="0"/>
-        <v>103163.03200720715</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+        <v>216671.03200720716</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="20">
         <f>CEILING((4877+0.1*4877)/3,1)</f>
         <v>1789</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="20">
         <v>80</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="20">
         <v>8</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="20">
         <v>0.54</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="20">
         <v>0.28000000000000003</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="20">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="20">
         <v>8</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="20">
         <v>610</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="20">
         <v>7039.7238495865004</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="20">
         <v>50467.597460168901</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="20">
         <v>69134.465806048596</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="20">
         <v>8635.1542501059794</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="20">
         <v>233483.63773783101</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="20">
         <v>387592.626526276</v>
       </c>
-      <c r="R11" s="11">
+      <c r="R11" s="21">
         <v>114876.35990534152</v>
       </c>
-      <c r="S11" s="11">
+      <c r="S11" s="21">
         <v>12.594228370284263</v>
       </c>
-      <c r="T11" s="11">
+      <c r="T11" s="21">
         <v>4000</v>
       </c>
-      <c r="U11" s="11">
-        <v>74185</v>
-      </c>
-      <c r="V11" s="9">
+      <c r="U11" s="21">
+        <v>96145</v>
+      </c>
+      <c r="V11" s="20">
         <v>100145</v>
       </c>
-      <c r="W11" s="10">
+      <c r="W11" s="22">
         <f t="shared" si="0"/>
-        <v>193073.95413371181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+        <v>215033.95413371181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="20">
         <f t="shared" si="1"/>
         <v>5365</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="20">
         <v>80</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="20">
         <v>16</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="20">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="20">
         <v>0.24</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="20">
         <v>3.1</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="20">
         <v>8</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="20">
         <v>305</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="20">
         <v>7039.7238495865004</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="20">
         <v>50467.597460168901</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="20">
         <v>70030.505757120001</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="20">
         <v>8635.1542501059794</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="20">
         <v>233483.63773783101</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q12" s="20">
         <v>368464.72317224898</v>
       </c>
-      <c r="R12" s="11">
+      <c r="R12" s="21">
         <v>115530.46906962365</v>
       </c>
-      <c r="S12" s="11">
+      <c r="S12" s="21">
         <v>12.211670303203721</v>
       </c>
-      <c r="T12" s="11">
+      <c r="T12" s="21">
         <v>7280</v>
       </c>
-      <c r="U12" s="11">
-        <v>15966.5</v>
-      </c>
-      <c r="V12" s="9">
+      <c r="U12" s="21">
+        <v>55966.5</v>
+      </c>
+      <c r="V12" s="20">
         <v>63246.5</v>
       </c>
-      <c r="W12" s="10">
+      <c r="W12" s="22">
         <f t="shared" si="0"/>
-        <v>138789.18073992687</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+        <v>178789.18073992687</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="20">
         <f>CEILING(29262+0.1*29262,1)</f>
         <v>32189</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="20">
         <v>80</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="20">
         <v>16</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="20">
         <v>0.54</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="20">
         <v>0.28000000000000003</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="20">
         <v>3.1</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="20">
         <v>8</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="20">
         <v>305</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="20">
         <v>7039.7238495865004</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13" s="20">
         <v>50467.597460168901</v>
       </c>
-      <c r="N13" s="16">
+      <c r="N13" s="20">
         <v>70030.505757120001</v>
       </c>
-      <c r="O13" s="16">
+      <c r="O13" s="20">
         <v>8635.1542501059794</v>
       </c>
-      <c r="P13" s="16">
+      <c r="P13" s="20">
         <v>233483.63773783101</v>
       </c>
-      <c r="Q13" s="16">
+      <c r="Q13" s="20">
         <f>$Q$12+20*$B$13</f>
         <v>1012244.723172249</v>
       </c>
-      <c r="R13" s="17">
+      <c r="R13" s="21">
         <v>115530.46906962365</v>
       </c>
-      <c r="S13" s="17">
+      <c r="S13" s="21">
         <v>10.331648594515361</v>
       </c>
-      <c r="T13" s="17">
+      <c r="T13" s="21">
         <v>14160</v>
       </c>
-      <c r="U13" s="17">
-        <v>108466.5</v>
-      </c>
-      <c r="V13" s="16">
+      <c r="U13" s="21">
+        <v>108385</v>
+      </c>
+      <c r="V13" s="20">
         <v>122626.5</v>
       </c>
-      <c r="W13" s="10">
+      <c r="W13" s="22">
         <f t="shared" si="0"/>
-        <v>238167.30071821815</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+        <v>238085.80071821815</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="20">
         <f t="shared" si="1"/>
         <v>5365</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="20">
         <v>80</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="20">
         <v>8</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="20">
         <v>0.54</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="20">
         <v>0.28000000000000003</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="20">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="20">
         <v>8</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="20">
         <v>610</v>
       </c>
-      <c r="L14" s="16">
+      <c r="L14" s="20">
         <v>7039.7238495865004</v>
       </c>
-      <c r="M14" s="16">
+      <c r="M14" s="20">
         <v>50467.597460168901</v>
       </c>
-      <c r="N14" s="16">
+      <c r="N14" s="20">
         <v>69134.465806048596</v>
       </c>
-      <c r="O14" s="16">
+      <c r="O14" s="20">
         <v>8635.1542501059794</v>
       </c>
-      <c r="P14" s="16">
+      <c r="P14" s="20">
         <v>233483.63773783101</v>
       </c>
-      <c r="Q14" s="16">
+      <c r="Q14" s="20">
         <v>387592.626526276</v>
       </c>
-      <c r="R14" s="17">
+      <c r="R14" s="21">
         <v>114876.35990534152</v>
       </c>
-      <c r="S14" s="17">
+      <c r="S14" s="21">
         <v>12.594228370284263</v>
       </c>
-      <c r="T14" s="17">
+      <c r="T14" s="21">
         <v>27600</v>
       </c>
-      <c r="U14" s="17">
-        <v>76076</v>
-      </c>
-      <c r="V14" s="16">
+      <c r="U14" s="21">
+        <v>105356</v>
+      </c>
+      <c r="V14" s="20">
         <v>132956</v>
       </c>
-      <c r="W14" s="10">
+      <c r="W14" s="22">
         <f t="shared" si="0"/>
-        <v>218564.95413371181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+        <v>247844.95413371181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="20">
         <f t="shared" si="1"/>
         <v>5365</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="20">
         <v>80</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="20">
         <v>16</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="20">
         <v>0.54</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="20">
         <v>0.28000000000000003</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="20">
         <v>3.1</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="20">
         <v>8</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="20">
         <v>305</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="20">
         <v>7039.7238495865004</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="20">
         <v>50467.597460168901</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="20">
         <v>70030.505757120001</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15" s="20">
         <v>8635.1542501059794</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15" s="20">
         <v>233483.63773783101</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="Q15" s="20">
         <f>$Q$12</f>
         <v>368464.72317224898</v>
       </c>
-      <c r="R15" s="11">
+      <c r="R15" s="21">
         <v>115530.46906962365</v>
       </c>
-      <c r="S15" s="11">
+      <c r="S15" s="21">
         <v>9.5120485945153614</v>
       </c>
-      <c r="T15" s="11">
+      <c r="T15" s="21">
         <v>14160</v>
       </c>
-      <c r="U15" s="11">
-        <v>16966.5</v>
-      </c>
-      <c r="V15" s="9">
+      <c r="U15" s="21">
+        <v>66966.5</v>
+      </c>
+      <c r="V15" s="20">
         <v>81126.5</v>
       </c>
-      <c r="W15" s="10">
+      <c r="W15" s="22">
         <f t="shared" si="0"/>
-        <v>146666.48111821816</v>
+        <v>196666.48111821816</v>
       </c>
     </row>
     <row r="27" spans="16:16" x14ac:dyDescent="0.25">
@@ -15773,10 +16203,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15786,7 +16216,7 @@
     <col min="3" max="3" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -15797,159 +16227,245 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B2">
-        <f>AVERAGE(B3:B15)</f>
-        <v>17883.222238166774</v>
+        <v>0.25</v>
       </c>
       <c r="C2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B3" s="12">
-        <v>12039.363752186875</v>
+        <v>0.49224161041270542</v>
       </c>
       <c r="C3">
         <v>7.2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B4" s="12">
-        <v>14946.234456468943</v>
+        <v>0.5789063798208488</v>
       </c>
       <c r="C4">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B5" s="12">
-        <v>15521.8689276736</v>
+        <v>0.58215129407531951</v>
       </c>
       <c r="C5">
         <v>9.6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B6" s="18">
-        <v>12924.735587426556</v>
+        <v>0.46209105787546995</v>
       </c>
       <c r="C6">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B7" s="12">
-        <v>10522.692533315019</v>
+        <v>0.45021997996363888</v>
       </c>
       <c r="C7">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B8" s="12">
-        <v>24414.807903046651</v>
+        <v>0.67492291894643885</v>
       </c>
       <c r="C8">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B9" s="13">
-        <v>18388.821583887824</v>
+        <v>0.69545623826450687</v>
       </c>
       <c r="C9">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B10" s="13">
-        <v>19436.478273593595</v>
+        <v>0.81938295513690118</v>
       </c>
       <c r="C10">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B11" s="13">
-        <v>26111.97524384196</v>
+        <v>0.83142291519321987</v>
       </c>
       <c r="C11">
         <v>7.2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B12" s="12">
-        <v>15670.9950339712</v>
+        <v>0.61862811609322665</v>
       </c>
       <c r="C12">
         <v>9.6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B13" s="12">
-        <v>11922.241758999651</v>
+        <v>0.71225808775340016</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B14" s="12">
-        <v>29749.536208516522</v>
+        <v>0.97920924340919968</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>77</v>
       </c>
       <c r="B15" s="14">
-        <v>20832.137833239656</v>
+        <v>0.7657950621556967</v>
       </c>
       <c r="C15">
         <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="19:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S35" s="11">
+        <f>5000/$H$4</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="36" spans="19:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S36" s="12">
+        <f>11087.736787518/$H$4</f>
+        <v>0.73918245250120007</v>
+      </c>
+    </row>
+    <row r="37" spans="19:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S37" s="12">
+        <f>12782.4624863177/$H$4</f>
+        <v>0.85216416575451326</v>
+      </c>
+    </row>
+    <row r="38" spans="19:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="S38" s="12">
+        <f>14006.00005152/$H$4</f>
+        <v>0.93373333676800008</v>
+      </c>
+    </row>
+    <row r="39" spans="19:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S39" s="18">
+        <f>18741.20044366/$H$4</f>
+        <v>1.2494133629106667</v>
+      </c>
+    </row>
+    <row r="40" spans="19:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S40" s="12">
+        <f>13816.2330786949/$H$4</f>
+        <v>0.92108220524632667</v>
+      </c>
+    </row>
+    <row r="41" spans="19:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="S41" s="12">
+        <f>20390.3878460214/$H$4</f>
+        <v>1.3593591897347601</v>
+      </c>
+    </row>
+    <row r="42" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S42" s="13">
+        <f>17063.4194922825/$H$4</f>
+        <v>1.1375612994855</v>
+      </c>
+    </row>
+    <row r="43" spans="19:19" x14ac:dyDescent="0.25">
+      <c r="S43" s="13">
+        <f>20330.2700332454/$H$4</f>
+        <v>1.3553513355496933</v>
+      </c>
+    </row>
+    <row r="44" spans="19:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S44" s="13">
+        <f>25179.9434884633/$H$4</f>
+        <v>1.6786628992308867</v>
+      </c>
+    </row>
+    <row r="45" spans="19:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S45" s="12">
+        <f>17697.58393312/$H$4</f>
+        <v>1.1798389288746667</v>
+      </c>
+    </row>
+    <row r="46" spans="19:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S46" s="12">
+        <f>19419.1685400754/$H$4</f>
+        <v>1.2946112360050266</v>
+      </c>
+    </row>
+    <row r="47" spans="19:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S47" s="12">
+        <f>28483.9362085165/$H$4</f>
+        <v>1.8989290805677668</v>
+      </c>
+    </row>
+    <row r="48" spans="19:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="S48" s="14">
+        <f>17784.6514332397/$H$4</f>
+        <v>1.1856434288826465</v>
       </c>
     </row>
   </sheetData>
@@ -15966,7 +16482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH49"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1:AH1"/>
     </sheetView>
   </sheetViews>
@@ -16108,31 +16624,31 @@
       </c>
       <c r="U2">
         <f>OPEX!$B$3</f>
-        <v>12039.363752186875</v>
+        <v>0.49224161041270542</v>
       </c>
       <c r="V2">
         <f>O2-U2</f>
-        <v>-11348.163752186874</v>
+        <v>690.7077583895873</v>
       </c>
       <c r="W2">
         <f>P2-U2</f>
-        <v>-11348.163752186874</v>
+        <v>690.7077583895873</v>
       </c>
       <c r="X2">
         <f t="shared" ref="X2:X22" si="1">Q2-U2</f>
-        <v>-11348.163752186874</v>
+        <v>690.7077583895873</v>
       </c>
       <c r="Y2">
         <f>R2-$U2</f>
-        <v>-11420.163752186874</v>
+        <v>618.7077583895873</v>
       </c>
       <c r="Z2">
         <f>S2-$U2</f>
-        <v>-11420.163752186874</v>
+        <v>618.7077583895873</v>
       </c>
       <c r="AA2">
         <f>T2-$U2</f>
-        <v>-11420.163752186874</v>
+        <v>618.7077583895873</v>
       </c>
       <c r="AB2">
         <f>1/POWER(1+$L$25,N2-2018)</f>
@@ -16140,27 +16656,27 @@
       </c>
       <c r="AC2">
         <f>V2*AB2</f>
-        <v>-11348.163752186874</v>
+        <v>690.7077583895873</v>
       </c>
       <c r="AD2">
         <f>W2*AB2</f>
-        <v>-11348.163752186874</v>
+        <v>690.7077583895873</v>
       </c>
       <c r="AE2">
         <f>X2*AB2</f>
-        <v>-11348.163752186874</v>
+        <v>690.7077583895873</v>
       </c>
       <c r="AF2">
         <f>Y2*$AB2</f>
-        <v>-11420.163752186874</v>
+        <v>618.7077583895873</v>
       </c>
       <c r="AG2">
         <f>Z2*$AB2</f>
-        <v>-11420.163752186874</v>
+        <v>618.7077583895873</v>
       </c>
       <c r="AH2">
         <f>AA2*$AB2</f>
-        <v>-11420.163752186874</v>
+        <v>618.7077583895873</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -16210,31 +16726,31 @@
       </c>
       <c r="U3">
         <f>OPEX!$B$3</f>
-        <v>12039.363752186875</v>
+        <v>0.49224161041270542</v>
       </c>
       <c r="V3">
         <f t="shared" ref="V3:V22" si="8">O3-U3</f>
-        <v>-11117.763752186875</v>
+        <v>921.10775838958727</v>
       </c>
       <c r="W3">
         <f t="shared" ref="W3:W22" si="9">P3-U3</f>
-        <v>-11088.963752186875</v>
+        <v>949.90775838958723</v>
       </c>
       <c r="X3">
         <f t="shared" si="1"/>
-        <v>-10750.563752186876</v>
+        <v>1288.3077583895872</v>
       </c>
       <c r="Y3">
         <f t="shared" ref="Y3:Y22" si="10">R3-$U3</f>
-        <v>-11211.363752186875</v>
+        <v>827.50775838958725</v>
       </c>
       <c r="Z3">
         <f t="shared" ref="Z3:Z22" si="11">S3-$U3</f>
-        <v>-11189.763752186875</v>
+        <v>849.10775838958727</v>
       </c>
       <c r="AA3">
         <f t="shared" ref="AA3:AA22" si="12">T3-$U3</f>
-        <v>-10880.163752186874</v>
+        <v>1158.7077583895873</v>
       </c>
       <c r="AB3">
         <f t="shared" ref="AB3:AB22" si="13">1/POWER(1+$L$25,N3-2018)</f>
@@ -16242,27 +16758,27 @@
       </c>
       <c r="AC3">
         <f t="shared" ref="AC3:AC22" si="14">V3*AB3</f>
-        <v>-10107.057956533523</v>
+        <v>837.37068944507928</v>
       </c>
       <c r="AD3">
         <f t="shared" ref="AD3:AD22" si="15">W3*AB3</f>
-        <v>-10080.876138351705</v>
+        <v>863.55250762689741</v>
       </c>
       <c r="AE3">
         <f t="shared" ref="AE3:AE22" si="16">X3*AB3</f>
-        <v>-9773.2397747153409</v>
+        <v>1171.188871263261</v>
       </c>
       <c r="AF3">
         <f t="shared" ref="AF3:AF22" si="17">Y3*$AB3</f>
-        <v>-10192.148865624431</v>
+        <v>752.27978035417016</v>
       </c>
       <c r="AG3">
         <f t="shared" ref="AG3:AG22" si="18">Z3*$AB3</f>
-        <v>-10172.512501988067</v>
+        <v>771.9161439905339</v>
       </c>
       <c r="AH3">
         <f t="shared" ref="AH3:AH22" si="19">AA3*$AB3</f>
-        <v>-9891.0579565335211</v>
+        <v>1053.3706894450793</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -16312,31 +16828,31 @@
       </c>
       <c r="U4">
         <f>OPEX!$B$3</f>
-        <v>12039.363752186875</v>
+        <v>0.49224161041270542</v>
       </c>
       <c r="V4">
         <f t="shared" si="8"/>
-        <v>-10800.963752186875</v>
+        <v>1237.9077583895873</v>
       </c>
       <c r="W4">
         <f t="shared" si="9"/>
-        <v>-10721.763752186875</v>
+        <v>1317.1077583895874</v>
       </c>
       <c r="X4">
         <f t="shared" si="1"/>
-        <v>-9576.9637521868754</v>
+        <v>2461.9077583895873</v>
       </c>
       <c r="Y4">
         <f t="shared" si="10"/>
-        <v>-10930.563752186876</v>
+        <v>1108.3077583895872</v>
       </c>
       <c r="Z4">
         <f t="shared" si="11"/>
-        <v>-10858.563752186876</v>
+        <v>1180.3077583895872</v>
       </c>
       <c r="AA4">
         <f t="shared" si="12"/>
-        <v>-9828.9637521868754</v>
+        <v>2209.9077583895873</v>
       </c>
       <c r="AB4">
         <f t="shared" si="13"/>
@@ -16344,27 +16860,27 @@
       </c>
       <c r="AC4">
         <f t="shared" si="14"/>
-        <v>-8926.4163241213828</v>
+        <v>1023.0642631318902</v>
       </c>
       <c r="AD4">
         <f t="shared" si="15"/>
-        <v>-8860.9617786668368</v>
+        <v>1088.5188085864359</v>
       </c>
       <c r="AE4">
         <f t="shared" si="16"/>
-        <v>-7914.8460761874994</v>
+        <v>2034.6345110657744</v>
       </c>
       <c r="AF4">
         <f t="shared" si="17"/>
-        <v>-9033.5237621379129</v>
+        <v>915.9568251153612</v>
       </c>
       <c r="AG4">
         <f t="shared" si="18"/>
-        <v>-8974.0196299065083</v>
+        <v>975.46095734676624</v>
       </c>
       <c r="AH4">
         <f t="shared" si="19"/>
-        <v>-8123.1105389974164</v>
+        <v>1826.370048255857</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -16421,31 +16937,31 @@
       </c>
       <c r="U5">
         <f>OPEX!$B$3</f>
-        <v>12039.363752186875</v>
+        <v>0.49224161041270542</v>
       </c>
       <c r="V5">
         <f t="shared" si="8"/>
-        <v>-10361.763752186875</v>
+        <v>1677.1077583895874</v>
       </c>
       <c r="W5">
         <f t="shared" si="9"/>
-        <v>-10188.963752186875</v>
+        <v>1849.9077583895873</v>
       </c>
       <c r="X5">
         <f t="shared" si="1"/>
-        <v>-7280.1637521868752</v>
+        <v>4758.7077583895871</v>
       </c>
       <c r="Y5">
         <f t="shared" si="10"/>
-        <v>-10534.563752186876</v>
+        <v>1504.3077583895872</v>
       </c>
       <c r="Z5">
         <f t="shared" si="11"/>
-        <v>-10376.163752186874</v>
+        <v>1662.7077583895873</v>
       </c>
       <c r="AA5">
         <f t="shared" si="12"/>
-        <v>-7762.5637521868748</v>
+        <v>4276.3077583895874</v>
       </c>
       <c r="AB5">
         <f t="shared" si="13"/>
@@ -16453,27 +16969,27 @@
       </c>
       <c r="AC5">
         <f t="shared" si="14"/>
-        <v>-7784.9464704634647</v>
+        <v>1260.0358815849638</v>
       </c>
       <c r="AD5">
         <f t="shared" si="15"/>
-        <v>-7655.1192728676724</v>
+        <v>1389.8630791807564</v>
       </c>
       <c r="AE5">
         <f t="shared" si="16"/>
-        <v>-5469.6947800051639</v>
+        <v>3575.2875720432648</v>
       </c>
       <c r="AF5">
         <f t="shared" si="17"/>
-        <v>-7914.7736680592579</v>
+        <v>1130.208683989171</v>
       </c>
       <c r="AG5">
         <f t="shared" si="18"/>
-        <v>-7795.765403596447</v>
+        <v>1249.2169484519811</v>
       </c>
       <c r="AH5">
         <f t="shared" si="19"/>
-        <v>-5832.1290399600848</v>
+        <v>3212.8533120883444</v>
       </c>
     </row>
     <row r="6" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -16530,31 +17046,31 @@
       </c>
       <c r="U6">
         <f>OPEX!$B$3</f>
-        <v>12039.363752186875</v>
+        <v>0.49224161041270542</v>
       </c>
       <c r="V6">
         <f t="shared" si="8"/>
-        <v>-9749.7637521868746</v>
+        <v>2289.1077583895872</v>
       </c>
       <c r="W6">
         <f t="shared" si="9"/>
-        <v>-9425.7637521868746</v>
+        <v>2613.1077583895872</v>
       </c>
       <c r="X6">
         <f t="shared" si="1"/>
-        <v>-2794.5637521868739</v>
+        <v>9244.3077583895883</v>
       </c>
       <c r="Y6">
         <f t="shared" si="10"/>
-        <v>-9980.1637521868743</v>
+        <v>2058.7077583895875</v>
       </c>
       <c r="Z6">
         <f t="shared" si="11"/>
-        <v>-9692.1637521868743</v>
+        <v>2346.7077583895875</v>
       </c>
       <c r="AA6">
         <f t="shared" si="12"/>
-        <v>-3723.363752186875</v>
+        <v>8315.5077583895873</v>
       </c>
       <c r="AB6">
         <f t="shared" si="13"/>
@@ -16562,27 +17078,27 @@
       </c>
       <c r="AC6">
         <f t="shared" si="14"/>
-        <v>-6659.2198293742722</v>
+        <v>1563.4913997606629</v>
       </c>
       <c r="AD6">
         <f t="shared" si="15"/>
-        <v>-6437.9234698359896</v>
+        <v>1784.7877592989457</v>
       </c>
       <c r="AE6">
         <f t="shared" si="16"/>
-        <v>-1908.7246446191334</v>
+        <v>6313.986584515802</v>
       </c>
       <c r="AF6">
         <f t="shared" si="17"/>
-        <v>-6816.5861294903843</v>
+        <v>1406.125099644551</v>
       </c>
       <c r="AG6">
         <f t="shared" si="18"/>
-        <v>-6619.8782543452444</v>
+        <v>1602.8329747896912</v>
       </c>
       <c r="AH6">
         <f t="shared" si="19"/>
-        <v>-2543.1075419622116</v>
+        <v>5679.6036871727238</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -16639,31 +17155,31 @@
       </c>
       <c r="U7">
         <f>OPEX!$B$3</f>
-        <v>12039.363752186875</v>
+        <v>0.49224161041270542</v>
       </c>
       <c r="V7">
         <f t="shared" si="8"/>
-        <v>-8907.363752186875</v>
+        <v>3131.5077583895873</v>
       </c>
       <c r="W7">
         <f t="shared" si="9"/>
-        <v>-8338.5637521868739</v>
+        <v>3700.3077583895874</v>
       </c>
       <c r="X7">
         <f t="shared" si="1"/>
-        <v>5766.2362478131272</v>
+        <v>17805.107758389589</v>
       </c>
       <c r="Y7">
         <f t="shared" si="10"/>
-        <v>-9224.1637521868743</v>
+        <v>2814.7077583895875</v>
       </c>
       <c r="Z7">
         <f t="shared" si="11"/>
-        <v>-8712.9637521868754</v>
+        <v>3325.9077583895873</v>
       </c>
       <c r="AA7">
         <f t="shared" si="12"/>
-        <v>3980.636247813125</v>
+        <v>16019.507758389587</v>
       </c>
       <c r="AB7">
         <f t="shared" si="13"/>
@@ -16671,27 +17187,27 @@
       </c>
       <c r="AC7">
         <f t="shared" si="14"/>
-        <v>-5530.7720859770334</v>
+        <v>1944.4199405092709</v>
       </c>
       <c r="AD7">
         <f t="shared" si="15"/>
-        <v>-5177.5920374209854</v>
+        <v>2297.5999890653184</v>
       </c>
       <c r="AE7">
         <f t="shared" si="16"/>
-        <v>3580.379040063784</v>
+        <v>11055.571066550088</v>
       </c>
       <c r="AF7">
         <f t="shared" si="17"/>
-        <v>-5727.4799611221724</v>
+        <v>1747.7120653641309</v>
       </c>
       <c r="AG7">
         <f t="shared" si="18"/>
-        <v>-5410.0649807743339</v>
+        <v>2065.1270457119708</v>
       </c>
       <c r="AH7">
         <f t="shared" si="19"/>
-        <v>2471.6619256093559</v>
+        <v>9946.8539520956601</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -16748,31 +17264,31 @@
       </c>
       <c r="U8">
         <f>OPEX!$B$3</f>
-        <v>12039.363752186875</v>
+        <v>0.49224161041270542</v>
       </c>
       <c r="V8">
         <f t="shared" si="8"/>
-        <v>-7762.5637521868748</v>
+        <v>4276.3077583895874</v>
       </c>
       <c r="W8">
         <f t="shared" si="9"/>
-        <v>-6804.9637521868744</v>
+        <v>5233.9077583895878</v>
       </c>
       <c r="X8">
         <f t="shared" si="1"/>
-        <v>21512.636247813127</v>
+        <v>33551.507758389591</v>
       </c>
       <c r="Y8">
         <f t="shared" si="10"/>
-        <v>-8194.5637521868739</v>
+        <v>3844.3077583895874</v>
       </c>
       <c r="Z8">
         <f t="shared" si="11"/>
-        <v>-7330.5637521868748</v>
+        <v>4708.3077583895874</v>
       </c>
       <c r="AA8">
         <f t="shared" si="12"/>
-        <v>18157.436247813122</v>
+        <v>30196.307758389587</v>
       </c>
       <c r="AB8">
         <f t="shared" si="13"/>
@@ -16780,27 +17296,27 @@
       </c>
       <c r="AC8">
         <f t="shared" si="14"/>
-        <v>-4381.7648684899204</v>
+        <v>2413.8642464976288</v>
       </c>
       <c r="AD8">
         <f t="shared" si="15"/>
-        <v>-3841.2246330704234</v>
+        <v>2954.4044819171263</v>
       </c>
       <c r="AE8">
         <f t="shared" si="16"/>
-        <v>12143.322328620419</v>
+        <v>18938.95144360797</v>
       </c>
       <c r="AF8">
         <f t="shared" si="17"/>
-        <v>-4625.617606273152</v>
+        <v>2170.0115087143972</v>
       </c>
       <c r="AG8">
         <f t="shared" si="18"/>
-        <v>-4137.9121307066889</v>
+        <v>2657.7169842808607</v>
       </c>
       <c r="AH8">
         <f t="shared" si="19"/>
-        <v>10249.399398503983</v>
+        <v>17045.028513491532</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -16856,31 +17372,31 @@
       </c>
       <c r="U9">
         <f>OPEX!$B$3</f>
-        <v>12039.363752186875</v>
+        <v>0.49224161041270542</v>
       </c>
       <c r="V9">
         <f t="shared" si="8"/>
-        <v>-6185.7637521868746</v>
+        <v>5853.1077583895876</v>
       </c>
       <c r="W9">
         <f t="shared" si="9"/>
-        <v>-4644.9637521868744</v>
+        <v>7393.9077583895878</v>
       </c>
       <c r="X9">
         <f t="shared" si="1"/>
-        <v>48246.236247813125</v>
+        <v>60285.107758389589</v>
       </c>
       <c r="Y9">
         <f t="shared" si="10"/>
-        <v>-6776.1637521868752</v>
+        <v>5262.7077583895871</v>
       </c>
       <c r="Z9">
         <f t="shared" si="11"/>
-        <v>-5386.5637521868748</v>
+        <v>6652.3077583895874</v>
       </c>
       <c r="AA9">
         <f t="shared" si="12"/>
-        <v>42212.636247813127</v>
+        <v>54251.507758389591</v>
       </c>
       <c r="AB9">
         <f t="shared" si="13"/>
@@ -16888,27 +17404,27 @@
       </c>
       <c r="AC9">
         <f t="shared" si="14"/>
-        <v>-3174.2748868919307</v>
+        <v>3003.5697630967493</v>
       </c>
       <c r="AD9">
         <f t="shared" si="15"/>
-        <v>-2383.6008583220578</v>
+        <v>3794.2437916666217</v>
       </c>
       <c r="AE9">
         <f t="shared" si="16"/>
-        <v>24757.947804641884</v>
+        <v>30935.792454630562</v>
       </c>
       <c r="AF9">
         <f t="shared" si="17"/>
-        <v>-3477.2434398953401</v>
+        <v>2700.6012100933399</v>
       </c>
       <c r="AG9">
         <f t="shared" si="18"/>
-        <v>-2764.1589188019502</v>
+        <v>3413.6857311867298</v>
       </c>
       <c r="AH9">
         <f t="shared" si="19"/>
-        <v>21661.756982485094</v>
+        <v>27839.601632473776</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -16964,31 +17480,31 @@
       </c>
       <c r="U10">
         <f>OPEX!$B$3</f>
-        <v>12039.363752186875</v>
+        <v>0.49224161041270542</v>
       </c>
       <c r="V10">
         <f t="shared" si="8"/>
-        <v>-4054.5637521868748</v>
+        <v>7984.3077583895874</v>
       </c>
       <c r="W10">
         <f t="shared" si="9"/>
-        <v>-1628.1637521868743</v>
+        <v>10410.707758389588</v>
       </c>
       <c r="X10">
         <f t="shared" si="1"/>
-        <v>87032.63624781312</v>
+        <v>99071.507758389591</v>
       </c>
       <c r="Y10">
         <f t="shared" si="10"/>
-        <v>-4853.7637521868746</v>
+        <v>7185.1077583895876</v>
       </c>
       <c r="Z10">
         <f t="shared" si="11"/>
-        <v>-2672.1637521868743</v>
+        <v>9366.707758389588</v>
       </c>
       <c r="AA10">
         <f t="shared" si="12"/>
-        <v>77125.436247813122</v>
+        <v>89164.307758389594</v>
       </c>
       <c r="AB10">
         <f t="shared" si="13"/>
@@ -16996,27 +17512,27 @@
       </c>
       <c r="AC10">
         <f t="shared" si="14"/>
-        <v>-1891.4839139260446</v>
+        <v>3724.7384951545732</v>
       </c>
       <c r="AD10">
         <f t="shared" si="15"/>
-        <v>-759.55040658514793</v>
+        <v>4856.6720024954702</v>
       </c>
       <c r="AE10">
         <f t="shared" si="16"/>
-        <v>40601.367128713959</v>
+        <v>46217.589537794578</v>
       </c>
       <c r="AF10">
         <f t="shared" si="17"/>
-        <v>-2264.3166121896634</v>
+        <v>3351.9057968909547</v>
       </c>
       <c r="AG10">
         <f t="shared" si="18"/>
-        <v>-1246.5841115241094</v>
+        <v>4369.6382975565084</v>
       </c>
       <c r="AH10">
         <f t="shared" si="19"/>
-        <v>35979.585211500089</v>
+        <v>41595.807620580716</v>
       </c>
     </row>
     <row r="11" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -17072,31 +17588,31 @@
       </c>
       <c r="U11">
         <f>OPEX!$B$3</f>
-        <v>12039.363752186875</v>
+        <v>0.49224161041270542</v>
       </c>
       <c r="V11">
         <f t="shared" si="8"/>
-        <v>-1174.5637521868739</v>
+        <v>10864.307758389588</v>
       </c>
       <c r="W11">
         <f t="shared" si="9"/>
-        <v>2562.2362478131254</v>
+        <v>14601.107758389588</v>
       </c>
       <c r="X11">
         <f t="shared" si="1"/>
-        <v>128483.03624781311</v>
+        <v>140521.90775838957</v>
       </c>
       <c r="Y11">
         <f t="shared" si="10"/>
-        <v>-2261.7637521868746</v>
+        <v>9777.1077583895876</v>
       </c>
       <c r="Z11">
         <f t="shared" si="11"/>
-        <v>1100.636247813125</v>
+        <v>13139.507758389587</v>
       </c>
       <c r="AA11">
         <f t="shared" si="12"/>
-        <v>114428.63624781312</v>
+        <v>126467.50775838959</v>
       </c>
       <c r="AB11">
         <f t="shared" si="13"/>
@@ -17104,27 +17620,27 @@
       </c>
       <c r="AC11">
         <f t="shared" si="14"/>
-        <v>-498.12968992910248</v>
+        <v>4607.527045598732</v>
       </c>
       <c r="AD11">
         <f t="shared" si="15"/>
-        <v>1086.6382904051979</v>
+        <v>6192.2950259330328</v>
       </c>
       <c r="AE11">
         <f t="shared" si="16"/>
-        <v>54489.349673963159</v>
+        <v>59595.00640949099</v>
       </c>
       <c r="AF11">
         <f t="shared" si="17"/>
-        <v>-959.20862062366814</v>
+        <v>4146.4481149041667</v>
       </c>
       <c r="AG11">
         <f t="shared" si="18"/>
-        <v>466.77721139197416</v>
+        <v>5572.4339469198085</v>
       </c>
       <c r="AH11">
         <f t="shared" si="19"/>
-        <v>48528.912106308911</v>
+        <v>53634.56884183675</v>
       </c>
     </row>
     <row r="12" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -17181,31 +17697,31 @@
       </c>
       <c r="U12">
         <f>OPEX!$B$3</f>
-        <v>12039.363752186875</v>
+        <v>0.49224161041270542</v>
       </c>
       <c r="V12">
         <f t="shared" si="8"/>
-        <v>2677.4362478131261</v>
+        <v>14716.307758389588</v>
       </c>
       <c r="W12">
         <f t="shared" si="9"/>
-        <v>8279.0362478131265</v>
+        <v>20317.907758389589</v>
       </c>
       <c r="X12">
         <f t="shared" si="1"/>
-        <v>153366.23624781313</v>
+        <v>165405.10775838958</v>
       </c>
       <c r="Y12">
         <f t="shared" si="10"/>
-        <v>1201.4362478131261</v>
+        <v>13240.307758389588</v>
       </c>
       <c r="Z12">
         <f t="shared" si="11"/>
-        <v>6241.4362478131243</v>
+        <v>18280.307758389587</v>
       </c>
       <c r="AA12">
         <f t="shared" si="12"/>
-        <v>136820.63624781312</v>
+        <v>148859.50775838958</v>
       </c>
       <c r="AB12">
         <f t="shared" si="13"/>
@@ -17213,27 +17729,27 @@
       </c>
       <c r="AC12">
         <f t="shared" si="14"/>
-        <v>1032.2675782197348</v>
+        <v>5673.7737014268569</v>
       </c>
       <c r="AD12">
         <f t="shared" si="15"/>
-        <v>3191.9268682881984</v>
+        <v>7833.4329914953205</v>
       </c>
       <c r="AE12">
         <f t="shared" si="16"/>
-        <v>59129.323210408518</v>
+        <v>63770.829333615635</v>
       </c>
       <c r="AF12">
         <f t="shared" si="17"/>
-        <v>463.20568302174638</v>
+        <v>5104.7118062288682</v>
       </c>
       <c r="AG12">
         <f t="shared" si="18"/>
-        <v>2406.3438617465845</v>
+        <v>7047.8499849537066</v>
       </c>
       <c r="AH12">
         <f t="shared" si="19"/>
-        <v>52750.278160823262</v>
+        <v>57391.784284030378</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -17289,31 +17805,31 @@
       </c>
       <c r="U13">
         <f>OPEX!$B$3</f>
-        <v>12039.363752186875</v>
+        <v>0.49224161041270542</v>
       </c>
       <c r="V13">
         <f t="shared" si="8"/>
-        <v>7767.8362478131257</v>
+        <v>19806.707758389588</v>
       </c>
       <c r="W13">
         <f t="shared" si="9"/>
-        <v>15947.036247813126</v>
+        <v>27985.907758389589</v>
       </c>
       <c r="X13">
         <f t="shared" si="1"/>
-        <v>158694.23624781313</v>
+        <v>170733.10775838958</v>
       </c>
       <c r="Y13">
         <f t="shared" si="10"/>
-        <v>5780.636247813125</v>
+        <v>17819.507758389587</v>
       </c>
       <c r="Z13">
         <f t="shared" si="11"/>
-        <v>13146.236247813127</v>
+        <v>25185.107758389589</v>
       </c>
       <c r="AA13">
         <f t="shared" si="12"/>
-        <v>141615.83624781313</v>
+        <v>153654.70775838959</v>
       </c>
       <c r="AB13">
         <f t="shared" si="13"/>
@@ -17321,27 +17837,27 @@
       </c>
       <c r="AC13">
         <f t="shared" si="14"/>
-        <v>2722.5792170289283</v>
+        <v>6942.1302381263113</v>
       </c>
       <c r="AD13">
         <f t="shared" si="15"/>
-        <v>5589.3389196671314</v>
+        <v>9808.8899407645149</v>
       </c>
       <c r="AE13">
         <f t="shared" si="16"/>
-        <v>55621.361687717319</v>
+        <v>59840.9127088147</v>
       </c>
       <c r="AF13">
         <f t="shared" si="17"/>
-        <v>2026.0777399795056</v>
+        <v>6245.6287610768886</v>
       </c>
       <c r="AG13">
         <f t="shared" si="18"/>
-        <v>4607.6756059996487</v>
+        <v>8827.2266270970322</v>
       </c>
       <c r="AH13">
         <f t="shared" si="19"/>
-        <v>49635.48667481431</v>
+        <v>53855.037695911691</v>
       </c>
     </row>
     <row r="14" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -17391,31 +17907,31 @@
       </c>
       <c r="U14">
         <f>OPEX!$B$3</f>
-        <v>12039.363752186875</v>
+        <v>0.49224161041270542</v>
       </c>
       <c r="V14">
         <f t="shared" si="8"/>
-        <v>14399.036247813126</v>
+        <v>26437.907758389589</v>
       </c>
       <c r="W14">
         <f t="shared" si="9"/>
-        <v>25983.836247813131</v>
+        <v>38022.707758389595</v>
       </c>
       <c r="X14">
         <f t="shared" si="1"/>
-        <v>158939.03624781311</v>
+        <v>170977.90775838957</v>
       </c>
       <c r="Y14">
         <f t="shared" si="10"/>
-        <v>11749.436247813124</v>
+        <v>23788.307758389587</v>
       </c>
       <c r="Z14">
         <f t="shared" si="11"/>
-        <v>22175.036247813128</v>
+        <v>34213.907758389592</v>
       </c>
       <c r="AA14">
         <f t="shared" si="12"/>
-        <v>141839.03624781311</v>
+        <v>153877.90775838957</v>
       </c>
       <c r="AB14">
         <f t="shared" si="13"/>
@@ -17423,27 +17939,27 @@
       </c>
       <c r="AC14">
         <f t="shared" si="14"/>
-        <v>4587.9766938817611</v>
+        <v>8423.9321676066538</v>
       </c>
       <c r="AD14">
         <f t="shared" si="15"/>
-        <v>8279.2509908927004</v>
+        <v>12115.206464617595</v>
       </c>
       <c r="AE14">
         <f t="shared" si="16"/>
-        <v>50642.875085736698</v>
+        <v>54478.830559461589</v>
       </c>
       <c r="AF14">
         <f t="shared" si="17"/>
-        <v>3743.7324792763993</v>
+        <v>7579.687953001293</v>
       </c>
       <c r="AG14">
         <f t="shared" si="18"/>
-        <v>7065.649932397494</v>
+        <v>10901.605406122388</v>
       </c>
       <c r="AH14">
         <f t="shared" si="19"/>
-        <v>45194.288102889594</v>
+        <v>49030.243576614492</v>
       </c>
     </row>
     <row r="15" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -17493,31 +18009,31 @@
       </c>
       <c r="U15">
         <f>OPEX!$B$3</f>
-        <v>12039.363752186875</v>
+        <v>0.49224161041270542</v>
       </c>
       <c r="V15">
         <f t="shared" si="8"/>
-        <v>22873.43624781313</v>
+        <v>34912.307758389594</v>
       </c>
       <c r="W15">
         <f t="shared" si="9"/>
-        <v>38663.036247813128</v>
+        <v>50701.907758389592</v>
       </c>
       <c r="X15">
         <f t="shared" si="1"/>
-        <v>158982.23624781313</v>
+        <v>171021.10775838958</v>
       </c>
       <c r="Y15">
         <f t="shared" si="10"/>
-        <v>19381.436247813122</v>
+        <v>31420.307758389587</v>
       </c>
       <c r="Z15">
         <f t="shared" si="11"/>
-        <v>33587.036247813128</v>
+        <v>45625.907758389592</v>
       </c>
       <c r="AA15">
         <f t="shared" si="12"/>
-        <v>141875.03624781311</v>
+        <v>153913.90775838957</v>
       </c>
       <c r="AB15">
         <f t="shared" si="13"/>
@@ -17525,27 +18041,27 @@
       </c>
       <c r="AC15">
         <f t="shared" si="14"/>
-        <v>6625.6197231694614</v>
+        <v>10112.851972010274</v>
       </c>
       <c r="AD15">
         <f t="shared" si="15"/>
-        <v>11199.304413459868</v>
+        <v>14686.536662300679</v>
       </c>
       <c r="AE15">
         <f t="shared" si="16"/>
-        <v>46051.490851874354</v>
+        <v>49538.723100715164</v>
       </c>
       <c r="AF15">
         <f t="shared" si="17"/>
-        <v>5614.1117091289461</v>
+        <v>9101.3439579697588</v>
       </c>
       <c r="AG15">
         <f t="shared" si="18"/>
-        <v>9728.9680219164402</v>
+        <v>13216.200270757252</v>
       </c>
       <c r="AH15">
         <f t="shared" si="19"/>
-        <v>41096.144374842886</v>
+        <v>44583.376623683696</v>
       </c>
     </row>
     <row r="16" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -17595,31 +18111,31 @@
       </c>
       <c r="U16">
         <f>OPEX!$B$3</f>
-        <v>12039.363752186875</v>
+        <v>0.49224161041270542</v>
       </c>
       <c r="V16">
         <f t="shared" si="8"/>
-        <v>33399.836247813131</v>
+        <v>45438.707758389595</v>
       </c>
       <c r="W16">
         <f t="shared" si="9"/>
-        <v>53955.836247813124</v>
+        <v>65994.707758389588</v>
       </c>
       <c r="X16">
         <f t="shared" si="1"/>
-        <v>159003.83624781313</v>
+        <v>171042.70775838959</v>
       </c>
       <c r="Y16">
         <f t="shared" si="10"/>
-        <v>28849.43624781313</v>
+        <v>40888.307758389594</v>
       </c>
       <c r="Z16">
         <f t="shared" si="11"/>
-        <v>47353.43624781313</v>
+        <v>59392.307758389594</v>
       </c>
       <c r="AA16">
         <f t="shared" si="12"/>
-        <v>141896.63624781312</v>
+        <v>153935.50775838958</v>
       </c>
       <c r="AB16">
         <f t="shared" si="13"/>
@@ -17627,27 +18143,27 @@
       </c>
       <c r="AC16">
         <f t="shared" si="14"/>
-        <v>8795.2207727542991</v>
+        <v>11965.431908064129</v>
       </c>
       <c r="AD16">
         <f t="shared" si="15"/>
-        <v>14208.258036270072</v>
+        <v>17378.469171579902</v>
       </c>
       <c r="AE16">
         <f t="shared" si="16"/>
-        <v>41870.67963861514</v>
+        <v>45040.890773924963</v>
       </c>
       <c r="AF16">
         <f t="shared" si="17"/>
-        <v>7596.958233159914</v>
+        <v>10767.169368469744</v>
       </c>
       <c r="AG16">
         <f t="shared" si="18"/>
-        <v>12469.639762839613</v>
+        <v>15639.850898149441</v>
       </c>
       <c r="AH16">
         <f t="shared" si="19"/>
-        <v>37365.819204950167</v>
+        <v>40536.030340259997</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -17697,31 +18213,31 @@
       </c>
       <c r="U17">
         <f>OPEX!$B$3</f>
-        <v>12039.363752186875</v>
+        <v>0.49224161041270542</v>
       </c>
       <c r="V17">
         <f t="shared" si="8"/>
-        <v>46050.236247813125</v>
+        <v>58089.107758389589</v>
       </c>
       <c r="W17">
         <f t="shared" si="9"/>
-        <v>71336.63624781312</v>
+        <v>83375.507758389591</v>
       </c>
       <c r="X17">
         <f t="shared" si="1"/>
-        <v>159018.23624781313</v>
+        <v>171057.10775838958</v>
       </c>
       <c r="Y17">
         <f t="shared" si="10"/>
-        <v>40239.836247813131</v>
+        <v>52278.707758389595</v>
       </c>
       <c r="Z17">
         <f t="shared" si="11"/>
-        <v>62999.036247813136</v>
+        <v>75037.9077583896</v>
       </c>
       <c r="AA17">
         <f t="shared" si="12"/>
-        <v>141911.03624781311</v>
+        <v>153949.90775838957</v>
       </c>
       <c r="AB17">
         <f t="shared" si="13"/>
@@ -17729,27 +18245,27 @@
       </c>
       <c r="AC17">
         <f t="shared" si="14"/>
-        <v>11024.060429298117</v>
+        <v>13906.070552307052</v>
       </c>
       <c r="AD17">
         <f t="shared" si="15"/>
-        <v>17077.423546466529</v>
+        <v>19959.433669475467</v>
       </c>
       <c r="AE17">
         <f t="shared" si="16"/>
-        <v>38067.701462433768</v>
+        <v>40949.711585442703</v>
       </c>
       <c r="AF17">
         <f t="shared" si="17"/>
-        <v>9633.0968656435325</v>
+        <v>12515.106988652467</v>
       </c>
       <c r="AG17">
         <f t="shared" si="18"/>
-        <v>15081.468395646196</v>
+        <v>17963.478518655131</v>
       </c>
       <c r="AH17">
         <f t="shared" si="19"/>
-        <v>33972.37379546561</v>
+        <v>36854.383918474545</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -17799,31 +18315,31 @@
       </c>
       <c r="U18">
         <f>OPEX!$B$3</f>
-        <v>12039.363752186875</v>
+        <v>0.49224161041270542</v>
       </c>
       <c r="V18">
         <f t="shared" si="8"/>
-        <v>60587.036247813136</v>
+        <v>72625.9077583896</v>
       </c>
       <c r="W18">
         <f t="shared" si="9"/>
-        <v>89667.836247813117</v>
+        <v>101706.70775838959</v>
       </c>
       <c r="X18">
         <f t="shared" si="1"/>
-        <v>159025.43624781314</v>
+        <v>171064.30775838959</v>
       </c>
       <c r="Y18">
         <f t="shared" si="10"/>
-        <v>53322.236247813125</v>
+        <v>65361.107758389589</v>
       </c>
       <c r="Z18">
         <f t="shared" si="11"/>
-        <v>79494.236247813125</v>
+        <v>91533.107758389597</v>
       </c>
       <c r="AA18">
         <f t="shared" si="12"/>
-        <v>141918.23624781313</v>
+        <v>153957.10775838958</v>
       </c>
       <c r="AB18">
         <f t="shared" si="13"/>
@@ -17831,27 +18347,27 @@
       </c>
       <c r="AC18">
         <f t="shared" si="14"/>
-        <v>13185.504338697976</v>
+        <v>15805.513541433373</v>
       </c>
       <c r="AD18">
         <f t="shared" si="15"/>
-        <v>19514.333710784122</v>
+        <v>22134.342913519522</v>
       </c>
       <c r="AE18">
         <f t="shared" si="16"/>
-        <v>34608.568259262931</v>
+        <v>37228.577461998328</v>
       </c>
       <c r="AF18">
         <f t="shared" si="17"/>
-        <v>11604.472193009702</v>
+        <v>14224.481395745099</v>
       </c>
       <c r="AG18">
         <f t="shared" si="18"/>
-        <v>17300.261934909471</v>
+        <v>19920.271137644868</v>
       </c>
       <c r="AH18">
         <f t="shared" si="19"/>
-        <v>30885.543107473703</v>
+        <v>33505.552310209096</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -17901,31 +18417,31 @@
       </c>
       <c r="U19">
         <f>OPEX!$B$3</f>
-        <v>12039.363752186875</v>
+        <v>0.49224161041270542</v>
       </c>
       <c r="V19">
         <f t="shared" si="8"/>
-        <v>76427.036247813128</v>
+        <v>88465.9077583896</v>
       </c>
       <c r="W19">
         <f t="shared" si="9"/>
-        <v>107351.03624781313</v>
+        <v>119389.9077583896</v>
       </c>
       <c r="X19">
         <f t="shared" si="1"/>
-        <v>159025.43624781314</v>
+        <v>171064.30775838959</v>
       </c>
       <c r="Y19">
         <f t="shared" si="10"/>
-        <v>67578.236247813125</v>
+        <v>79617.107758389597</v>
       </c>
       <c r="Z19">
         <f t="shared" si="11"/>
-        <v>95406.236247813125</v>
+        <v>107445.1077583896</v>
       </c>
       <c r="AA19">
         <f t="shared" si="12"/>
-        <v>141918.23624781313</v>
+        <v>153957.10775838958</v>
       </c>
       <c r="AB19">
         <f t="shared" si="13"/>
@@ -17933,27 +18449,27 @@
       </c>
       <c r="AC19">
         <f t="shared" si="14"/>
-        <v>15120.681681467206</v>
+        <v>17502.508229408475</v>
       </c>
       <c r="AD19">
         <f t="shared" si="15"/>
-        <v>21238.83022253498</v>
+        <v>23620.656770476253</v>
       </c>
       <c r="AE19">
         <f t="shared" si="16"/>
-        <v>31462.334781148122</v>
+        <v>33844.161329089387</v>
       </c>
       <c r="AF19">
         <f t="shared" si="17"/>
-        <v>13369.99377530369</v>
+        <v>15751.820323244961</v>
       </c>
       <c r="AG19">
         <f t="shared" si="18"/>
-        <v>18875.615221456646</v>
+        <v>21257.441769397919</v>
       </c>
       <c r="AH19">
         <f t="shared" si="19"/>
-        <v>28077.766461339728</v>
+        <v>30459.593009280998</v>
       </c>
     </row>
     <row r="20" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -18003,31 +18519,31 @@
       </c>
       <c r="U20">
         <f>OPEX!$B$3</f>
-        <v>12039.363752186875</v>
+        <v>0.49224161041270542</v>
       </c>
       <c r="V20">
         <f t="shared" si="8"/>
-        <v>92612.63624781312</v>
+        <v>104651.50775838959</v>
       </c>
       <c r="W20">
         <f t="shared" si="9"/>
-        <v>122816.63624781312</v>
+        <v>134855.50775838958</v>
       </c>
       <c r="X20">
         <f t="shared" si="1"/>
-        <v>159032.63624781312</v>
+        <v>171071.50775838958</v>
       </c>
       <c r="Y20">
         <f t="shared" si="10"/>
-        <v>82143.836247813117</v>
+        <v>94182.707758389588</v>
       </c>
       <c r="Z20">
         <f t="shared" si="11"/>
-        <v>109331.03624781313</v>
+        <v>121369.9077583896</v>
       </c>
       <c r="AA20">
         <f t="shared" si="12"/>
-        <v>141925.43624781314</v>
+        <v>153964.30775838959</v>
       </c>
       <c r="AB20">
         <f t="shared" si="13"/>
@@ -18035,27 +18551,27 @@
       </c>
       <c r="AC20">
         <f t="shared" si="14"/>
-        <v>16657.196685833842</v>
+        <v>18822.493547598635</v>
       </c>
       <c r="AD20">
         <f t="shared" si="15"/>
-        <v>22089.651576251734</v>
+        <v>24254.94843801652</v>
       </c>
       <c r="AE20">
         <f t="shared" si="16"/>
-        <v>28603.417511603813</v>
+        <v>30768.714373368603</v>
       </c>
       <c r="AF20">
         <f t="shared" si="17"/>
-        <v>14774.290986032267</v>
+        <v>16939.587847797058</v>
       </c>
       <c r="AG20">
         <f t="shared" si="18"/>
-        <v>19664.147879052041</v>
+        <v>21829.444740816834</v>
       </c>
       <c r="AH20">
         <f t="shared" si="19"/>
-        <v>25526.537220868919</v>
+        <v>27691.834082633704</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -18105,31 +18621,31 @@
       </c>
       <c r="U21">
         <f>OPEX!$B$3</f>
-        <v>12039.363752186875</v>
+        <v>0.49224161041270542</v>
       </c>
       <c r="V21">
         <f t="shared" si="8"/>
-        <v>108013.43624781312</v>
+        <v>120052.30775838959</v>
       </c>
       <c r="W21">
         <f t="shared" si="9"/>
-        <v>135063.83624781313</v>
+        <v>147102.70775838959</v>
       </c>
       <c r="X21">
         <f t="shared" si="1"/>
-        <v>159032.63624781312</v>
+        <v>171071.50775838958</v>
       </c>
       <c r="Y21">
         <f t="shared" si="10"/>
-        <v>96003.836247813117</v>
+        <v>108042.70775838959</v>
       </c>
       <c r="Z21">
         <f t="shared" si="11"/>
-        <v>120347.03624781311</v>
+        <v>132385.90775838957</v>
       </c>
       <c r="AA21">
         <f t="shared" si="12"/>
-        <v>141925.43624781314</v>
+        <v>153964.30775838959</v>
       </c>
       <c r="AB21">
         <f t="shared" si="13"/>
@@ -18137,27 +18653,27 @@
       </c>
       <c r="AC21">
         <f t="shared" si="14"/>
-        <v>17661.059943152417</v>
+        <v>19629.511635665862</v>
       </c>
       <c r="AD21">
         <f t="shared" si="15"/>
-        <v>22084.016498207136</v>
+        <v>24052.468190720581</v>
       </c>
       <c r="AE21">
         <f t="shared" si="16"/>
-        <v>26003.106828730732</v>
+        <v>27971.558521244177</v>
       </c>
       <c r="AF21">
         <f t="shared" si="17"/>
-        <v>15697.394376521786</v>
+        <v>17665.846069035233</v>
       </c>
       <c r="AG21">
         <f t="shared" si="18"/>
-        <v>19677.702098810849</v>
+        <v>21646.15379132429</v>
       </c>
       <c r="AH21">
         <f t="shared" si="19"/>
-        <v>23205.942928062646</v>
+        <v>25174.394620576091</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="14.45" x14ac:dyDescent="0.3">
@@ -18207,31 +18723,31 @@
       </c>
       <c r="U22">
         <f>OPEX!$B$3</f>
-        <v>12039.363752186875</v>
+        <v>0.49224161041270542</v>
       </c>
       <c r="V22">
         <f t="shared" si="8"/>
-        <v>121585.43624781314</v>
+        <v>133624.30775838959</v>
       </c>
       <c r="W22">
         <f t="shared" si="9"/>
-        <v>143898.23624781313</v>
+        <v>155937.10775838958</v>
       </c>
       <c r="X22">
         <f t="shared" si="1"/>
-        <v>159032.63624781312</v>
+        <v>171071.50775838958</v>
       </c>
       <c r="Y22">
         <f t="shared" si="10"/>
-        <v>108222.23624781313</v>
+        <v>120261.1077583896</v>
       </c>
       <c r="Z22">
         <f t="shared" si="11"/>
-        <v>128303.03624781311</v>
+        <v>140341.90775838957</v>
       </c>
       <c r="AA22">
         <f t="shared" si="12"/>
-        <v>141925.43624781314</v>
+        <v>153964.30775838959</v>
       </c>
       <c r="AB22">
         <f t="shared" si="13"/>
@@ -18239,27 +18755,27 @@
       </c>
       <c r="AC22">
         <f t="shared" si="14"/>
-        <v>18072.900358773149</v>
+        <v>19862.401897421732</v>
       </c>
       <c r="AD22">
         <f t="shared" si="15"/>
-        <v>21389.555902150256</v>
+        <v>23179.057440798842</v>
       </c>
       <c r="AE22">
         <f t="shared" si="16"/>
-        <v>23639.188026118853</v>
+        <v>25428.689564767439</v>
       </c>
       <c r="AF22">
         <f t="shared" si="17"/>
-        <v>16086.545828760913</v>
+        <v>17876.047367409501</v>
       </c>
       <c r="AG22">
         <f t="shared" si="18"/>
-        <v>19071.428794388132</v>
+        <v>20860.930333036718</v>
       </c>
       <c r="AH22">
         <f t="shared" si="19"/>
-        <v>21096.311752784226</v>
+        <v>22885.813291432813</v>
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
@@ -18919,773 +19435,784 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O15"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+      <selection pane="topRight" activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
-    <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" customWidth="1"/>
-    <col min="15" max="15" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="51" style="24" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="35" style="24" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" style="24" customWidth="1"/>
+    <col min="5" max="5" width="37.85546875" style="24" customWidth="1"/>
+    <col min="6" max="6" width="39.85546875" style="24" customWidth="1"/>
+    <col min="7" max="7" width="38.28515625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="36.85546875" style="24" customWidth="1"/>
+    <col min="9" max="9" width="41.140625" style="24" customWidth="1"/>
+    <col min="10" max="10" width="43.28515625" style="24" customWidth="1"/>
+    <col min="11" max="11" width="42.42578125" style="24" customWidth="1"/>
+    <col min="12" max="12" width="56.140625" style="24" customWidth="1"/>
+    <col min="13" max="13" width="51.85546875" style="24" customWidth="1"/>
+    <col min="14" max="14" width="55.28515625" style="24" customWidth="1"/>
+    <col min="15" max="15" width="55.5703125" style="24" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" ht="54.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="26" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:15" ht="54.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="27">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="28">
         <f>CAPEX!$W3</f>
-        <v>103620.76484436693</v>
-      </c>
-      <c r="D2">
+        <v>257876.76484436693</v>
+      </c>
+      <c r="D2" s="28">
         <f>CAPEX!$W4</f>
-        <v>166506.82213135384</v>
-      </c>
-      <c r="E2">
+        <v>216506.82213135384</v>
+      </c>
+      <c r="E2" s="28">
         <f>CAPEX!$W5</f>
-        <v>95045.865340540491</v>
-      </c>
-      <c r="F2">
+        <v>146245.86534054048</v>
+      </c>
+      <c r="F2" s="28">
         <f>CAPEX!$W6</f>
-        <v>281423.53200720716</v>
-      </c>
-      <c r="G2">
+        <v>290423.53200720716</v>
+      </c>
+      <c r="G2" s="28">
         <f>CAPEX!$W7</f>
-        <v>228249.55546468718</v>
-      </c>
-      <c r="H2">
+        <v>327151.15546468715</v>
+      </c>
+      <c r="H2" s="28">
         <f>CAPEX!$W8</f>
-        <v>113667.3426221447</v>
-      </c>
-      <c r="I2">
+        <v>265120.14262214472</v>
+      </c>
+      <c r="I2" s="28">
         <f>CAPEX!$W9</f>
-        <v>221159.25546468716</v>
-      </c>
-      <c r="J2">
+        <v>216224.75546468716</v>
+      </c>
+      <c r="J2" s="28">
         <f>CAPEX!$W10</f>
-        <v>103163.03200720715</v>
-      </c>
-      <c r="K2">
+        <v>216671.03200720716</v>
+      </c>
+      <c r="K2" s="28">
         <f>CAPEX!$W11</f>
-        <v>193073.95413371181</v>
-      </c>
-      <c r="L2">
+        <v>215033.95413371181</v>
+      </c>
+      <c r="L2" s="28">
         <f>CAPEX!$W12</f>
-        <v>138789.18073992687</v>
-      </c>
-      <c r="M2">
+        <v>178789.18073992687</v>
+      </c>
+      <c r="M2" s="28">
         <f>CAPEX!$W13</f>
-        <v>238167.30071821815</v>
-      </c>
-      <c r="N2">
+        <v>238085.80071821815</v>
+      </c>
+      <c r="N2" s="28">
         <f>CAPEX!$W14</f>
-        <v>218564.95413371181</v>
-      </c>
-      <c r="O2">
+        <v>247844.95413371181</v>
+      </c>
+      <c r="O2" s="28">
         <f>CAPEX!$W15</f>
-        <v>146666.48111821816</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+        <v>196666.48111821816</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="54.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="C3" s="27">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="D3" s="28">
+        <f>CAPEX!R4-CAPEX!R3+CAPEX!S4-CAPEX!S3+CAPEX!T4-CAPEX!T3+CAPEX!U4</f>
+        <v>117183.65728698694</v>
+      </c>
+      <c r="E3" s="29">
+        <v>1E+100</v>
+      </c>
+      <c r="F3" s="29">
+        <v>1E+100</v>
+      </c>
+      <c r="G3" s="28">
+        <f>CAPEX!R7-CAPEX!R3+CAPEX!S7-CAPEX!S3+CAPEX!T7-CAPEX!T3+CAPEX!U7</f>
+        <v>227827.99062032028</v>
+      </c>
+      <c r="H3" s="28">
+        <f>H2-C2</f>
+        <v>7243.3777777777868</v>
+      </c>
+      <c r="I3" s="28">
+        <f>D3+(I2-D2)</f>
+        <v>116901.59062032026</v>
+      </c>
+      <c r="J3" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="K3" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="L3" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="M3" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="N3" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="O3" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="54.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="C4" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="D4" s="27">
         <v>0</v>
       </c>
-      <c r="D3">
-        <f>IF(D2-C2&gt;0,D2-C2,0)</f>
-        <v>62886.057286986907</v>
-      </c>
-      <c r="E3" s="11">
-        <f t="shared" ref="E3" si="0">IF(E2-D2&gt;0,E2-D2,0)</f>
+      <c r="E4" s="29">
+        <v>1E+100</v>
+      </c>
+      <c r="F4" s="29">
+        <v>1E+100</v>
+      </c>
+      <c r="G4" s="28">
+        <f>G2-D2</f>
+        <v>110644.33333333331</v>
+      </c>
+      <c r="H4" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="I4" s="28">
+        <f>I2-D2</f>
+        <v>-282.06666666668025</v>
+      </c>
+      <c r="J4" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="K4" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="L4" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="M4" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="N4" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="O4" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="54.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="C5" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="D5" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="E5" s="27">
         <v>0</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F5" s="28">
+        <f>F2-E2</f>
+        <v>144177.66666666669</v>
+      </c>
+      <c r="G5" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="H5" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="I5" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="J5" s="28">
+        <f>J2-E2</f>
+        <v>70425.166666666686</v>
+      </c>
+      <c r="K5" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="L5" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="M5" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="N5" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="O5" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="54.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="C6" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="D6" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="E6" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="F6" s="27">
         <v>0</v>
       </c>
-      <c r="G3" s="11">
-        <f>IF(D2-F2&gt;0,D2-F2,0)</f>
+      <c r="G6" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="H6" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="I6" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="J6" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="K6" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="L6" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="M6" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="N6" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="O6" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="54.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="C7" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="D7" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="E7" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="F7" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="G7" s="27">
         <v>0</v>
       </c>
-      <c r="H3">
-        <f>H2-C2</f>
-        <v>10046.577777777769</v>
-      </c>
-      <c r="I3">
-        <f>D3+(I2-D2)</f>
-        <v>117538.49062032023</v>
-      </c>
-      <c r="J3">
+      <c r="H7" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="I7" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="J7" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="K7" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="L7" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="M7" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="N7" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="O7" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="54.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="C8" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="D8" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="E8" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="F8" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="G8" s="28">
+        <f>CAPEX!R7-CAPEX!R8+CAPEX!S7-CAPEX!S8+CAPEX!T7-CAPEX!T8+CAPEX!U7</f>
+        <v>225082.2128425425</v>
+      </c>
+      <c r="H8" s="27">
         <v>0</v>
       </c>
-      <c r="K3">
+      <c r="I8" s="28">
+        <f>CAPEX!R9-CAPEX!R8+CAPEX!S9-CAPEX!S8+CAPEX!T9-CAPEX!T8+CAPEX!U9</f>
+        <v>114155.81284254248</v>
+      </c>
+      <c r="J8" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="K8" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="L8" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="M8" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="N8" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="O8" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="54.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="C9" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="D9" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="E9" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="F9" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="G9" s="28">
+        <f>G2-I2</f>
+        <v>110926.39999999999</v>
+      </c>
+      <c r="H9" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="I9" s="27">
         <v>0</v>
       </c>
-      <c r="L3">
+      <c r="J9" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="K9" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="L9" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="M9" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="N9" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="O9" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="54.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="C10" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="D10" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="E10" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="F10" s="28">
+        <f>F2-J2</f>
+        <v>73752.5</v>
+      </c>
+      <c r="G10" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="H10" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="I10" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="J10" s="27">
         <v>0</v>
       </c>
-      <c r="M3">
+      <c r="K10" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="L10" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="M10" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="N10" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="O10" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="54.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="C11" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="D11" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="E11" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="F11" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="G11" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="H11" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="I11" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="J11" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="K11" s="27">
         <v>0</v>
       </c>
-      <c r="N3">
+      <c r="L11" s="28">
+        <f>CAPEX!R12-CAPEX!R11+CAPEX!S12-CAPEX!S11+CAPEX!T12-CAPEX!T11+CAPEX!U12</f>
+        <v>59900.226606215045</v>
+      </c>
+      <c r="M11" s="28">
+        <f>CAPEX!R13-CAPEX!R11+CAPEX!S13+CAPEX!T13-CAPEX!T11+CAPEX!U13</f>
+        <v>119209.44081287664</v>
+      </c>
+      <c r="N11" s="28">
+        <f>CAPEX!T14-CAPEX!T11+CAPEX!U14-CAPEX!U11</f>
+        <v>32811</v>
+      </c>
+      <c r="O11" s="28">
+        <f>IF(L11+(O2-L2)&gt;0,L11+(O2-L2),0)</f>
+        <v>77777.52698450633</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="54.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="C12" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="D12" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="E12" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="F12" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="G12" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="H12" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="I12" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="J12" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="K12" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="L12" s="27">
         <v>0</v>
       </c>
-      <c r="O3">
+      <c r="M12" s="28">
+        <f>M2-L2</f>
+        <v>59296.619978291274</v>
+      </c>
+      <c r="N12" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="O12" s="28">
+        <f>O2-L2</f>
+        <v>17877.300378291286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="54.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="C13" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="D13" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="E13" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="F13" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="G13" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="H13" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="I13" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="J13" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="K13" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="L13" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="M13" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4">
+      <c r="N13" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="O13" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="54.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="C14" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="D14" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="E14" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="F14" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="G14" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="H14" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="I14" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="J14" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="K14" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="L14" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="M14" s="28">
+        <f>CAPEX!R13-CAPEX!R14+CAPEX!S13+CAPEX!T13+CAPEX!U13-CAPEX!U13</f>
+        <v>14824.440812876637</v>
+      </c>
+      <c r="N14" s="27">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="O14" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="54.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="C15" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="D15" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="E15" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="F15" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="G15" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="H15" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="I15" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="J15" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="K15" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="L15" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="M15" s="28">
+        <f>M2-O2</f>
+        <v>41419.319599999988</v>
+      </c>
+      <c r="N15" s="29">
+        <v>9.9999999999999997E+98</v>
+      </c>
+      <c r="O15" s="27">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <f>G2-D2</f>
-        <v>61742.733333333337</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <f>I2-D2</f>
-        <v>54652.43333333332</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <f>F2-E2</f>
-        <v>186377.66666666669</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f>J2-E2</f>
-        <v>8117.166666666657</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <f>G2-I2</f>
-        <v>7090.3000000000175</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <f>F2-J2</f>
-        <v>178260.5</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <f>IF(N2-K2&gt;0,N2-K2,0)</f>
-        <v>25491</v>
-      </c>
-      <c r="O11">
-        <f>IF(L11+(O2-L2)&gt;0,L11+(O2-L2),0)</f>
-        <v>7877.3003782912856</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <f>M2-L2</f>
-        <v>99378.119978291274</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <f>O2-L2</f>
-        <v>7877.3003782912856</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <f>M2-N2</f>
-        <v>19602.346584506333</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <f>M2-O2</f>
-        <v>91500.819599999988</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
+    </row>
+    <row r="35" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.98425196850393704" right="0.98425196850393704" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="19" fitToHeight="4" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;LUnrestricted</oddFooter>
   </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
